--- a/PosMob.xlsx
+++ b/PosMob.xlsx
@@ -1,31 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vervisch\Documents\Cours et documents\Cours M2 SyR\2022-2023\TD #3\DD Point fixe\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="1860"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Latitude</t>
   </si>
@@ -33,13 +25,13 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>LineStringColor</t>
   </si>
   <si>
     <t>Icon</t>
   </si>
   <si>
-    <t>LineStringColor</t>
+    <t>Name</t>
   </si>
   <si>
     <t>cyan</t>
@@ -51,21 +43,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -79,20 +69,23 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+  <cellXfs count="3">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -111,8 +104,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -154,74 +430,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -229,7 +445,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -255,7 +471,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -332,7 +548,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -363,31 +579,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="H199" sqref="H199"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="H199" activeCellId="0" sqref="H199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col customWidth="1" min="1" max="2" width="11.7109375"/>
+    <col customWidth="1" min="3" max="3" width="14.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,55 +603,79 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>48.711724088192412</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.2030150418192833</v>
+      </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3">
+      <c r="A3" s="1">
+        <v>48.711806310696964</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.2028392562735992</v>
+      </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3">
-        <f>E2+1</f>
+        <f t="shared" ref="E3:E66" si="0">E2+1</f>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4">
+      <c r="A4" s="1">
+        <v>48.711879918916182</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.2026951062097688</v>
+      </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E67" si="0">E3+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5">
+      <c r="A5" s="1">
+        <v>48.711925992549091</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.2025875087840983</v>
+      </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E5">
@@ -451,11 +683,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6">
+      <c r="A6" s="1">
+        <v>48.711943576307199</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.2025425243255672</v>
+      </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E6">
@@ -463,11 +701,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7">
+      <c r="A7" s="1">
+        <v>48.711939331215063</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.2025564721726689</v>
+      </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E7">
@@ -475,11 +719,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8">
+      <c r="A8" s="1">
+        <v>48.711900738188838</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.2026311180287421</v>
+      </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E8">
@@ -487,11 +737,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9">
+      <c r="A9" s="1">
+        <v>48.711971499375544</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.2024852861621822</v>
+      </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E9">
@@ -499,11 +755,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10">
+      <c r="A10" s="1">
+        <v>48.711897474834899</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.2026480021939276</v>
+      </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E10">
@@ -511,11 +773,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11">
+      <c r="A11" s="1">
+        <v>48.711846456567166</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.20274685458641</v>
+      </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E11">
@@ -523,11 +791,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12">
+      <c r="A12" s="1">
+        <v>48.711868696315186</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.2027082418092072</v>
+      </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E12">
@@ -535,11 +809,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13">
+      <c r="A13" s="1">
+        <v>48.711860852804158</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.2027499512027582</v>
+      </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E13">
@@ -547,11 +827,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14">
+      <c r="A14" s="1">
+        <v>48.711875363974784</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.2027264285522445</v>
+      </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E14">
@@ -559,11 +845,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15">
+      <c r="A15" s="1">
+        <v>48.711891140587724</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.2027055762141852</v>
+      </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E15">
@@ -571,11 +863,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16">
+      <c r="A16" s="1">
+        <v>48.711861154893377</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.2027527546905898</v>
+      </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E16">
@@ -583,11 +881,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17">
+      <c r="A17" s="1">
+        <v>48.711639325595272</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.2032280575998393</v>
+      </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17">
@@ -595,11 +899,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18">
+      <c r="A18" s="1">
+        <v>48.711604416516579</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.2032802895174264</v>
+      </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E18">
@@ -607,11 +917,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19">
+      <c r="A19" s="1">
+        <v>48.71175369247149</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.2029933861605273</v>
+      </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E19">
@@ -619,11 +935,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20">
+      <c r="A20" s="1">
+        <v>48.711764403232884</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.2029826086666948</v>
+      </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E20">
@@ -631,11 +953,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21">
+      <c r="A21" s="1">
+        <v>48.711663005654103</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.2031982143734252</v>
+      </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E21">
@@ -643,11 +971,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22">
+      <c r="A22" s="1">
+        <v>48.711596539714613</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.2033299339267027</v>
+      </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E22">
@@ -655,11 +989,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23">
+      <c r="A23" s="1">
+        <v>48.711648799161736</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2.2032483101398799</v>
+      </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E23">
@@ -667,11 +1007,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24">
+      <c r="A24" s="1">
+        <v>48.711539449155332</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2.2034787543329979</v>
+      </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E24">
@@ -679,11 +1025,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25">
+      <c r="A25" s="1">
+        <v>48.711393767975771</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.2037665606614647</v>
+      </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E25">
@@ -691,11 +1043,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26">
+      <c r="A26" s="1">
+        <v>48.711346962489912</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.2038558035616651</v>
+      </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E26">
@@ -703,11 +1061,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27">
+      <c r="A27" s="1">
+        <v>48.711422853806475</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2.2037184873160784</v>
+      </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E27">
@@ -715,11 +1079,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28">
+      <c r="A28" s="1">
+        <v>48.711432540012332</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2.2036773238442668</v>
+      </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E28">
@@ -727,11 +1097,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29">
+      <c r="A29" s="1">
+        <v>48.711299319823979</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2.2039463471920726</v>
+      </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E29">
@@ -739,11 +1115,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30">
+      <c r="A30" s="1">
+        <v>48.711151002358676</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2.2042336474333015</v>
+      </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E30">
@@ -751,11 +1133,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31">
+      <c r="A31" s="1">
+        <v>48.711728592234714</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2.2030703596306762</v>
+      </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E31">
@@ -763,11 +1151,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="32">
+      <c r="A32" s="1">
+        <v>48.711703285067699</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2.2031359650548223</v>
+      </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E32">
@@ -775,11 +1169,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33">
+      <c r="A33" s="1">
+        <v>48.711935917281586</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2.2026502946972477</v>
+      </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E33">
@@ -787,11 +1187,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34">
+      <c r="A34" s="1">
+        <v>48.711707397688784</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2.2031128468417025</v>
+      </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E34">
@@ -799,11 +1205,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35">
+      <c r="A35" s="1">
+        <v>48.711744869470287</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2.2030463201457096</v>
+      </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E35">
@@ -811,11 +1223,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36">
+      <c r="A36" s="1">
+        <v>48.711898628451898</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2.2027295312784316</v>
+      </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E36">
@@ -823,11 +1241,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37">
+      <c r="A37" s="1">
+        <v>48.711861230916362</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2.2027798106693313</v>
+      </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E37">
@@ -835,11 +1259,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38">
+      <c r="A38" s="1">
+        <v>48.71197395151038</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2.2025598019918733</v>
+      </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E38">
@@ -847,11 +1277,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39">
+      <c r="A39" s="1">
+        <v>48.711646528585</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2.2032266675925105</v>
+      </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E39">
@@ -859,11 +1295,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40">
+      <c r="A40" s="1">
+        <v>48.71204010310705</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2.202411100192446</v>
+      </c>
       <c r="C40" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E40">
@@ -871,11 +1313,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41">
+      <c r="A41" s="1">
+        <v>48.711961340103109</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2.2025920493995814</v>
+      </c>
       <c r="C41" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E41">
@@ -883,11 +1331,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42">
+      <c r="A42" s="1">
+        <v>48.712003211719825</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2.20248991836668</v>
+      </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E42">
@@ -895,11 +1349,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43">
+      <c r="A43" s="1">
+        <v>48.712038036445804</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2.202447272167892</v>
+      </c>
       <c r="C43" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E43">
@@ -907,11 +1367,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44">
+      <c r="A44" s="1">
+        <v>48.712006966916114</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2.202513027068993</v>
+      </c>
       <c r="C44" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E44">
@@ -919,11 +1385,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45">
+      <c r="A45" s="1">
+        <v>48.712168412673499</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2.2021723345738291</v>
+      </c>
       <c r="C45" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E45">
@@ -931,11 +1403,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46">
+      <c r="A46" s="1">
+        <v>48.712517192228233</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2.2014672694193975</v>
+      </c>
       <c r="C46" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E46">
@@ -943,11 +1421,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47">
+      <c r="A47" s="1">
+        <v>48.712204095585683</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2.2020772828512887</v>
+      </c>
       <c r="C47" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E47">
@@ -955,11 +1439,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48">
+      <c r="A48" s="1">
+        <v>48.712487442066831</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2.2015063473173462</v>
+      </c>
       <c r="C48" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E48">
@@ -967,11 +1457,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49">
+      <c r="A49" s="1">
+        <v>48.712554108635011</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2.2013533630868491</v>
+      </c>
       <c r="C49" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E49">
@@ -979,11 +1475,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="50">
+      <c r="A50" s="1">
+        <v>48.71284585059113</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2.2007622092571815</v>
+      </c>
       <c r="C50" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E50">
@@ -991,11 +1493,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51">
+      <c r="A51" s="1">
+        <v>48.712820677331145</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2.2008348094244843</v>
+      </c>
       <c r="C51" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E51">
@@ -1003,11 +1511,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52">
+      <c r="A52" s="1">
+        <v>48.712914088924187</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2.2006477795272237</v>
+      </c>
       <c r="C52" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E52">
@@ -1015,11 +1529,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53">
+      <c r="A53" s="1">
+        <v>48.712891059445489</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2.2006736969915668</v>
+      </c>
       <c r="C53" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E53">
@@ -1027,11 +1547,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="54">
+      <c r="A54" s="1">
+        <v>48.712461662924007</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2.2015477992648558</v>
+      </c>
       <c r="C54" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E54">
@@ -1039,11 +1565,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="55">
+      <c r="A55" s="1">
+        <v>48.712462154648449</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2.2015278122217543</v>
+      </c>
       <c r="C55" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E55">
@@ -1051,11 +1583,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="56">
+      <c r="A56" s="1">
+        <v>48.712574336257674</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2.2013148203942734</v>
+      </c>
       <c r="C56" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E56">
@@ -1063,11 +1601,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="57">
+      <c r="A57" s="1">
+        <v>48.712754084307711</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2.2009533258018137</v>
+      </c>
       <c r="C57" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E57">
@@ -1075,11 +1619,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="58">
+      <c r="A58" s="1">
+        <v>48.712713526464192</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2.2010225386698803</v>
+      </c>
       <c r="C58" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E58">
@@ -1087,11 +1637,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="59">
+      <c r="A59" s="1">
+        <v>48.712666361580077</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2.2011157272253521</v>
+      </c>
       <c r="C59" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E59">
@@ -1099,11 +1655,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="60">
+      <c r="A60" s="1">
+        <v>48.712772928664258</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2.2008941378395099</v>
+      </c>
       <c r="C60" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E60">
@@ -1111,11 +1673,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="61">
+      <c r="A61" s="1">
+        <v>48.712694700222329</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2.2010669556413416</v>
+      </c>
       <c r="C61" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E61">
@@ -1123,11 +1691,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="62">
+      <c r="A62" s="1">
+        <v>48.712761820257413</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2.2009330553339983</v>
+      </c>
       <c r="C62" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E62">
@@ -1135,11 +1709,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="63">
+      <c r="A63" s="1">
+        <v>48.712864799963782</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2.2007355732956828</v>
+      </c>
       <c r="C63" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E63">
@@ -1147,11 +1727,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="64">
+      <c r="A64" s="1">
+        <v>48.712822333190537</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2.2008338064015578</v>
+      </c>
       <c r="C64" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E64">
@@ -1159,11 +1745,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="65">
+      <c r="A65" s="1">
+        <v>48.712933570442274</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2.2005747254901431</v>
+      </c>
       <c r="C65" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E65">
@@ -1171,11 +1763,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="66">
+      <c r="A66" s="1">
+        <v>48.712896516601369</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2.2006700436906996</v>
+      </c>
       <c r="C66" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E66">
@@ -1183,1678 +1781,4604 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="67">
+      <c r="A67" s="1">
+        <v>48.71287910237124</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2.2007368084377128</v>
+      </c>
       <c r="C67" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E67">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E67" si="1">E66+1</f>
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="68">
+      <c r="A68" s="1">
+        <v>48.712921358735848</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2.2006538996312153</v>
+      </c>
       <c r="C68" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E131" si="1">E67+1</f>
+        <f t="shared" ref="E68:E131" si="2">E67+1</f>
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="69">
+      <c r="A69" s="1">
+        <v>48.712941552254186</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2.2005754731683229</v>
+      </c>
       <c r="C69" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="70">
+      <c r="A70" s="1">
+        <v>48.712908689582157</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2.2006884797361597</v>
+      </c>
       <c r="C70" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="71">
+      <c r="A71" s="1">
+        <v>48.712894714290158</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2.2006886159574988</v>
+      </c>
       <c r="C71" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="72">
+      <c r="A72" s="1">
+        <v>48.712876604973509</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2.2007534307875236</v>
+      </c>
       <c r="C72" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="73">
+      <c r="A73" s="1">
+        <v>48.712843260648192</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2.2008126616626638</v>
+      </c>
       <c r="C73" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="74">
+      <c r="A74" s="1">
+        <v>48.712856965921532</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2.2007957142645038</v>
+      </c>
       <c r="C74" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="75">
+      <c r="A75" s="1">
+        <v>48.712825962858936</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2.200848851044253</v>
+      </c>
       <c r="C75" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="76">
+      <c r="A76" s="1">
+        <v>48.712835742334562</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2.2008478663330804</v>
+      </c>
       <c r="C76" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="77">
+      <c r="A77" s="1">
+        <v>48.712848761585157</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2.2008097407986633</v>
+      </c>
       <c r="C77" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="78">
+      <c r="A78" s="1">
+        <v>48.71282209500044</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2.2008576728898177</v>
+      </c>
       <c r="C78" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="79">
+      <c r="A79" s="1">
+        <v>48.712855659398492</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2.2007923712133195</v>
+      </c>
       <c r="C79" t="s">
         <v>5</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="80">
+      <c r="A80" s="1">
+        <v>48.712834809402899</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2.2008563439559614</v>
+      </c>
       <c r="C80" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="81">
+      <c r="A81" s="1">
+        <v>48.71283343551903</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2.2008517095642595</v>
+      </c>
       <c r="C81" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="82">
+      <c r="A82" s="1">
+        <v>48.712816109321409</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2.2008883729727158</v>
+      </c>
       <c r="C82" t="s">
         <v>5</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="83">
+      <c r="A83" s="1">
+        <v>48.712800809611672</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2.2009315027054042</v>
+      </c>
       <c r="C83" t="s">
         <v>5</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="84">
+      <c r="A84" s="1">
+        <v>48.712802938303561</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2.2009141815297144</v>
+      </c>
       <c r="C84" t="s">
         <v>5</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="85">
+      <c r="A85" s="1">
+        <v>48.712733289353217</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2.2010655371015475</v>
+      </c>
       <c r="C85" t="s">
         <v>5</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="86">
+      <c r="A86" s="1">
+        <v>48.712514397095788</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2.2014991967432014</v>
+      </c>
       <c r="C86" t="s">
         <v>5</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="87">
+      <c r="A87" s="1">
+        <v>48.712617958842166</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2.2012839578760817</v>
+      </c>
       <c r="C87" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="88">
+      <c r="A88" s="1">
+        <v>48.712253924616057</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2.2020229497235917</v>
+      </c>
       <c r="C88" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="89">
+      <c r="A89" s="1">
+        <v>48.712253924616057</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2.2020229497235917</v>
+      </c>
       <c r="C89" t="s">
         <v>5</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="90">
+      <c r="A90" s="1">
+        <v>48.71268032165397</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2.2011901218358099</v>
+      </c>
       <c r="C90" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="91">
+      <c r="A91" s="1">
+        <v>48.712051663065594</v>
+      </c>
+      <c r="B91" s="1">
+        <v>2.202455783596891</v>
+      </c>
       <c r="C91" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="92">
+      <c r="A92" s="1">
+        <v>48.712051663065594</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2.202455783596891</v>
+      </c>
       <c r="C92" t="s">
         <v>5</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="93">
+      <c r="A93" s="1">
+        <v>48.712051663065594</v>
+      </c>
+      <c r="B93" s="1">
+        <v>2.202455783596891</v>
+      </c>
       <c r="C93" t="s">
         <v>5</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="94">
+      <c r="A94" s="1">
+        <v>48.711459374673687</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2.2036474053581867</v>
+      </c>
       <c r="C94" t="s">
         <v>5</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="95">
+      <c r="A95" s="1">
+        <v>48.711471472828293</v>
+      </c>
+      <c r="B95" s="1">
+        <v>2.2036496989405157</v>
+      </c>
       <c r="C95" t="s">
         <v>5</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="96">
+      <c r="A96" s="1">
+        <v>48.711610330809222</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2.2033488275559563</v>
+      </c>
       <c r="C96" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="97">
+      <c r="A97" s="1">
+        <v>48.711907260392408</v>
+      </c>
+      <c r="B97" s="1">
+        <v>2.2027279724433835</v>
+      </c>
       <c r="C97" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="98">
+      <c r="A98" s="1">
+        <v>48.71202287952768</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2.2025213502412178</v>
+      </c>
       <c r="C98" t="s">
         <v>5</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="99">
+      <c r="A99" s="1">
+        <v>48.711479072221692</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2.2036161486397354</v>
+      </c>
       <c r="C99" t="s">
         <v>5</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="100">
+      <c r="A100" s="1">
+        <v>48.711921534579027</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2.2027009507762267</v>
+      </c>
       <c r="C100" t="s">
         <v>5</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="101">
+      <c r="A101" s="1">
+        <v>48.711973107027269</v>
+      </c>
+      <c r="B101" s="1">
+        <v>2.2025870746968006</v>
+      </c>
       <c r="C101" t="s">
         <v>5</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="102">
+      <c r="A102" s="1">
+        <v>48.712137356605908</v>
+      </c>
+      <c r="B102" s="1">
+        <v>2.2022573849118956</v>
+      </c>
       <c r="C102" t="s">
         <v>5</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="103">
+      <c r="A103" s="1">
+        <v>48.712208450036066</v>
+      </c>
+      <c r="B103" s="1">
+        <v>2.2021176778426486</v>
+      </c>
       <c r="C103" t="s">
         <v>5</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="104">
+      <c r="A104" s="1">
+        <v>48.712015741322588</v>
+      </c>
+      <c r="B104" s="1">
+        <v>2.2025093010664651</v>
+      </c>
       <c r="C104" t="s">
         <v>5</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="105">
+      <c r="A105" s="1">
+        <v>48.712208728654694</v>
+      </c>
+      <c r="B105" s="1">
+        <v>2.2020892503832687</v>
+      </c>
       <c r="C105" t="s">
         <v>5</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="106">
+      <c r="A106" s="1">
+        <v>48.712343875347898</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2.2018384331439496</v>
+      </c>
       <c r="C106" t="s">
         <v>5</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="107">
+      <c r="A107" s="1">
+        <v>48.712405182306497</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2.2016598162947725</v>
+      </c>
       <c r="C107" t="s">
         <v>5</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="108">
+      <c r="A108" s="1">
+        <v>48.712254860452603</v>
+      </c>
+      <c r="B108" s="1">
+        <v>2.2020351209310443</v>
+      </c>
       <c r="C108" t="s">
         <v>5</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="109">
+      <c r="A109" s="1">
+        <v>48.712667664917944</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2.2011709717005878</v>
+      </c>
       <c r="C109" t="s">
         <v>5</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="110">
+      <c r="A110" s="1">
+        <v>48.712466565863565</v>
+      </c>
+      <c r="B110" s="1">
+        <v>2.2015753479309144</v>
+      </c>
       <c r="C110" t="s">
         <v>5</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="111">
+      <c r="A111" s="1">
+        <v>48.712523235651112</v>
+      </c>
+      <c r="B111" s="1">
+        <v>2.2014156912593439</v>
+      </c>
       <c r="C111" t="s">
         <v>5</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="112">
+      <c r="A112" s="1">
+        <v>48.712685072267185</v>
+      </c>
+      <c r="B112" s="1">
+        <v>2.201071616376709</v>
+      </c>
       <c r="C112" t="s">
         <v>5</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="113">
+      <c r="A113" s="1">
+        <v>48.712792460216939</v>
+      </c>
+      <c r="B113" s="1">
+        <v>2.2008492717542598</v>
+      </c>
       <c r="C113" t="s">
         <v>5</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="114">
+      <c r="A114" s="1">
+        <v>48.71255774438486</v>
+      </c>
+      <c r="B114" s="1">
+        <v>2.2013456455612603</v>
+      </c>
       <c r="C114" t="s">
         <v>5</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="115">
+      <c r="A115" s="1">
+        <v>48.712657209432408</v>
+      </c>
+      <c r="B115" s="1">
+        <v>2.2011128733220304</v>
+      </c>
       <c r="C115" t="s">
         <v>5</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="116">
+      <c r="A116" s="1">
+        <v>48.712700624700723</v>
+      </c>
+      <c r="B116" s="1">
+        <v>2.2010729949938233</v>
+      </c>
       <c r="C116" t="s">
         <v>5</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="117">
+      <c r="A117" s="1">
+        <v>48.712693505915183</v>
+      </c>
+      <c r="B117" s="1">
+        <v>2.2011149049249927</v>
+      </c>
       <c r="C117" t="s">
         <v>5</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="118">
+      <c r="A118" s="1">
+        <v>48.712780516355124</v>
+      </c>
+      <c r="B118" s="1">
+        <v>2.2009055987987347</v>
+      </c>
       <c r="C118" t="s">
         <v>5</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="119">
+      <c r="A119" s="1">
+        <v>48.71262903260358</v>
+      </c>
+      <c r="B119" s="1">
+        <v>2.2012478671492812</v>
+      </c>
       <c r="C119" t="s">
         <v>5</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="120">
+      <c r="A120" s="1">
+        <v>48.712891102490524</v>
+      </c>
+      <c r="B120" s="1">
+        <v>2.2006627756167116</v>
+      </c>
       <c r="C120" t="s">
         <v>5</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="121">
+      <c r="A121" s="1">
+        <v>48.712932702936754</v>
+      </c>
+      <c r="B121" s="1">
+        <v>2.2005910393893542</v>
+      </c>
       <c r="C121" t="s">
         <v>5</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="122">
+      <c r="A122" s="1">
+        <v>48.712885427112873</v>
+      </c>
+      <c r="B122" s="1">
+        <v>2.200738177513665</v>
+      </c>
       <c r="C122" t="s">
         <v>5</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="123">
+      <c r="A123" s="1">
+        <v>48.71301255551969</v>
+      </c>
+      <c r="B123" s="1">
+        <v>2.2004153827239845</v>
+      </c>
       <c r="C123" t="s">
         <v>5</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="124">
+      <c r="A124" s="1">
+        <v>48.712872453767005</v>
+      </c>
+      <c r="B124" s="1">
+        <v>2.2007690554062145</v>
+      </c>
       <c r="C124" t="s">
         <v>5</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="125">
+      <c r="A125" s="1">
+        <v>48.712866410306027</v>
+      </c>
+      <c r="B125" s="1">
+        <v>2.200776194964615</v>
+      </c>
       <c r="C125" t="s">
         <v>5</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="126">
+      <c r="A126" s="1">
+        <v>48.712890765817107</v>
+      </c>
+      <c r="B126" s="1">
+        <v>2.2007402302477592</v>
+      </c>
       <c r="C126" t="s">
         <v>5</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="127">
+      <c r="A127" s="1">
+        <v>48.712893822133012</v>
+      </c>
+      <c r="B127" s="1">
+        <v>2.2007332444896575</v>
+      </c>
       <c r="C127" t="s">
         <v>5</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="128">
+      <c r="A128" s="1">
+        <v>48.712890299773854</v>
+      </c>
+      <c r="B128" s="1">
+        <v>2.2007173496049819</v>
+      </c>
       <c r="C128" t="s">
         <v>5</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="129">
+      <c r="A129" s="1">
+        <v>48.712867178043417</v>
+      </c>
+      <c r="B129" s="1">
+        <v>2.200774407482847</v>
+      </c>
       <c r="C129" t="s">
         <v>5</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="130">
+      <c r="A130" s="1">
+        <v>48.712873207384106</v>
+      </c>
+      <c r="B130" s="1">
+        <v>2.2007566350676084</v>
+      </c>
       <c r="C130" t="s">
         <v>5</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="131">
+      <c r="A131" s="1">
+        <v>48.712869464792306</v>
+      </c>
+      <c r="B131" s="1">
+        <v>2.2007749663029395</v>
+      </c>
       <c r="C131" t="s">
         <v>5</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E131">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="132">
+      <c r="A132" s="1">
+        <v>48.712881978628964</v>
+      </c>
+      <c r="B132" s="1">
+        <v>2.2007500410409611</v>
+      </c>
       <c r="C132" t="s">
         <v>5</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E195" si="2">E131+1</f>
+        <f t="shared" ref="E132:E195" si="3">E131+1</f>
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="133">
+      <c r="A133" s="1">
+        <v>48.712862099494004</v>
+      </c>
+      <c r="B133" s="1">
+        <v>2.2007965242581369</v>
+      </c>
       <c r="C133" t="s">
         <v>5</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="134">
+      <c r="A134" s="1">
+        <v>48.712853328300369</v>
+      </c>
+      <c r="B134" s="1">
+        <v>2.2008113767160018</v>
+      </c>
       <c r="C134" t="s">
         <v>5</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="135">
+      <c r="A135" s="1">
+        <v>48.712827368055521</v>
+      </c>
+      <c r="B135" s="1">
+        <v>2.2008668661150943</v>
+      </c>
       <c r="C135" t="s">
         <v>5</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="136">
+      <c r="A136" s="1">
+        <v>48.712836097785875</v>
+      </c>
+      <c r="B136" s="1">
+        <v>2.2008468533337782</v>
+      </c>
       <c r="C136" t="s">
         <v>5</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="137">
+      <c r="A137" s="1">
+        <v>48.712838981789766</v>
+      </c>
+      <c r="B137" s="1">
+        <v>2.200861707280295</v>
+      </c>
       <c r="C137" t="s">
         <v>5</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="138">
+      <c r="A138" s="1">
+        <v>48.712807263852923</v>
+      </c>
+      <c r="B138" s="1">
+        <v>2.2009176764978209</v>
+      </c>
       <c r="C138" t="s">
         <v>5</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="139">
+      <c r="A139" s="1">
+        <v>48.712805043361698</v>
+      </c>
+      <c r="B139" s="1">
+        <v>2.2009184882522108</v>
+      </c>
       <c r="C139" t="s">
         <v>5</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="140">
+      <c r="A140" s="1">
+        <v>48.712800085573271</v>
+      </c>
+      <c r="B140" s="1">
+        <v>2.2009536094056834</v>
+      </c>
       <c r="C140" t="s">
         <v>5</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="141">
+      <c r="A141" s="1">
+        <v>48.712762416782894</v>
+      </c>
+      <c r="B141" s="1">
+        <v>2.2010220987496085</v>
+      </c>
       <c r="C141" t="s">
         <v>5</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="142">
+      <c r="A142" s="1">
+        <v>48.712300867420993</v>
+      </c>
+      <c r="B142" s="1">
+        <v>2.2019554329135826</v>
+      </c>
       <c r="C142" t="s">
         <v>5</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="143">
+      <c r="A143" s="1">
+        <v>48.712471688895199</v>
+      </c>
+      <c r="B143" s="1">
+        <v>2.201606226293209</v>
+      </c>
       <c r="C143" t="s">
         <v>5</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="144">
+      <c r="A144" s="1">
+        <v>48.711801504162089</v>
+      </c>
+      <c r="B144" s="1">
+        <v>2.2029620218598094</v>
+      </c>
       <c r="C144" t="s">
         <v>5</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="145">
+      <c r="A145" s="1">
+        <v>48.711958298242571</v>
+      </c>
+      <c r="B145" s="1">
+        <v>2.2026518139048368</v>
+      </c>
       <c r="C145" t="s">
         <v>5</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="146">
+      <c r="A146" s="1">
+        <v>48.711859094913706</v>
+      </c>
+      <c r="B146" s="1">
+        <v>2.2028599106734625</v>
+      </c>
       <c r="C146" t="s">
         <v>5</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="147">
+      <c r="A147" s="1">
+        <v>48.711717962565146</v>
+      </c>
+      <c r="B147" s="1">
+        <v>2.2031430892531128</v>
+      </c>
       <c r="C147" t="s">
         <v>5</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="148">
+      <c r="A148" s="1">
+        <v>48.711683925778267</v>
+      </c>
+      <c r="B148" s="1">
+        <v>2.2032122670860788</v>
+      </c>
       <c r="C148" t="s">
         <v>5</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="149">
+      <c r="A149" s="1">
+        <v>48.711778832373803</v>
+      </c>
+      <c r="B149" s="1">
+        <v>2.2030194237152179</v>
+      </c>
       <c r="C149" t="s">
         <v>5</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="150">
+      <c r="A150" s="1">
+        <v>48.711549824236982</v>
+      </c>
+      <c r="B150" s="1">
+        <v>2.2034843557222796</v>
+      </c>
       <c r="C150" t="s">
         <v>5</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="151">
+      <c r="A151" s="1">
+        <v>48.711789660201767</v>
+      </c>
+      <c r="B151" s="1">
+        <v>2.2029917105551049</v>
+      </c>
       <c r="C151" t="s">
         <v>5</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="152">
+      <c r="A152" s="1">
+        <v>48.711736812962741</v>
+      </c>
+      <c r="B152" s="1">
+        <v>2.2030880449654626</v>
+      </c>
       <c r="C152" t="s">
         <v>5</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="153">
+      <c r="A153" s="1">
+        <v>48.711648109204845</v>
+      </c>
+      <c r="B153" s="1">
+        <v>2.20328338779884</v>
+      </c>
       <c r="C153" t="s">
         <v>5</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="154">
+      <c r="A154" s="1">
+        <v>48.712110301023976</v>
+      </c>
+      <c r="B154" s="1">
+        <v>2.2023257033938206</v>
+      </c>
       <c r="C154" t="s">
         <v>5</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="155">
+      <c r="A155" s="1">
+        <v>48.711878276842548</v>
+      </c>
+      <c r="B155" s="1">
+        <v>2.2028204398493885</v>
+      </c>
       <c r="C155" t="s">
         <v>5</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="156">
+      <c r="A156" s="1">
+        <v>48.712235537616515</v>
+      </c>
+      <c r="B156" s="1">
+        <v>2.2020793758114721</v>
+      </c>
       <c r="C156" t="s">
         <v>5</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="157">
+      <c r="A157" s="1">
+        <v>48.7121882569364</v>
+      </c>
+      <c r="B157" s="1">
+        <v>2.2021920459012709</v>
+      </c>
       <c r="C157" t="s">
         <v>5</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="158">
+      <c r="A158" s="1">
+        <v>48.712446132650051</v>
+      </c>
+      <c r="B158" s="1">
+        <v>2.2016384837491256</v>
+      </c>
       <c r="C158" t="s">
         <v>5</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="159">
+      <c r="A159" s="1">
+        <v>48.712491116519125</v>
+      </c>
+      <c r="B159" s="1">
+        <v>2.2015754995444521</v>
+      </c>
       <c r="C159" t="s">
         <v>5</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="160">
+      <c r="A160" s="1">
+        <v>48.712695169963524</v>
+      </c>
+      <c r="B160" s="1">
+        <v>2.201138574248259</v>
+      </c>
       <c r="C160" t="s">
         <v>5</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="161">
+      <c r="A161" s="1">
+        <v>48.712534718816592</v>
+      </c>
+      <c r="B161" s="1">
+        <v>2.2014690700737569</v>
+      </c>
       <c r="C161" t="s">
         <v>5</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="162">
+      <c r="A162" s="1">
+        <v>48.71250496115222</v>
+      </c>
+      <c r="B162" s="1">
+        <v>2.2015256019713099</v>
+      </c>
       <c r="C162" t="s">
         <v>5</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="163">
+      <c r="A163" s="1">
+        <v>48.712613895458048</v>
+      </c>
+      <c r="B163" s="1">
+        <v>2.201311173536812</v>
+      </c>
       <c r="C163" t="s">
         <v>5</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="164">
+      <c r="A164" s="1">
+        <v>48.712771819412566</v>
+      </c>
+      <c r="B164" s="1">
+        <v>2.2009787612388361</v>
+      </c>
       <c r="C164" t="s">
         <v>5</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="165">
+      <c r="A165" s="1">
+        <v>48.712435314217757</v>
+      </c>
+      <c r="B165" s="1">
+        <v>2.2016542813681883</v>
+      </c>
       <c r="C165" t="s">
         <v>5</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="166">
+      <c r="A166" s="1">
+        <v>48.712486385574813</v>
+      </c>
+      <c r="B166" s="1">
+        <v>2.2015411276902861</v>
+      </c>
       <c r="C166" t="s">
         <v>5</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="167">
+      <c r="A167" s="1">
+        <v>48.712486385574813</v>
+      </c>
+      <c r="B167" s="1">
+        <v>2.2015411276902861</v>
+      </c>
       <c r="C167" t="s">
         <v>5</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="168">
+      <c r="A168" s="1">
+        <v>48.7126008906774</v>
+      </c>
+      <c r="B168" s="1">
+        <v>2.2013167681829411</v>
+      </c>
       <c r="C168" t="s">
         <v>5</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D168" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="169">
+      <c r="A169" s="1">
+        <v>48.712748320264502</v>
+      </c>
+      <c r="B169" s="1">
+        <v>2.201017953455314</v>
+      </c>
       <c r="C169" t="s">
         <v>5</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="170">
+      <c r="A170" s="1">
+        <v>48.712634445325186</v>
+      </c>
+      <c r="B170" s="1">
+        <v>2.2012375848427199</v>
+      </c>
       <c r="C170" t="s">
         <v>5</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="171">
+      <c r="A171" s="1">
+        <v>48.712655315810721</v>
+      </c>
+      <c r="B171" s="1">
+        <v>2.2011911851250745</v>
+      </c>
       <c r="C171" t="s">
         <v>5</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="172">
+      <c r="A172" s="1">
+        <v>48.712863619380599</v>
+      </c>
+      <c r="B172" s="1">
+        <v>2.2007707614266039</v>
+      </c>
       <c r="C172" t="s">
         <v>5</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D172" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="173">
+      <c r="A173" s="1">
+        <v>48.712787160200442</v>
+      </c>
+      <c r="B173" s="1">
+        <v>2.200927237335002</v>
+      </c>
       <c r="C173" t="s">
         <v>5</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D173" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="174">
+      <c r="A174" s="1">
+        <v>48.712974340049612</v>
+      </c>
+      <c r="B174" s="1">
+        <v>2.2005370057697049</v>
+      </c>
       <c r="C174" t="s">
         <v>5</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D174" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="175">
+      <c r="A175" s="1">
+        <v>48.713019509349557</v>
+      </c>
+      <c r="B175" s="1">
+        <v>2.2004673460159219</v>
+      </c>
       <c r="C175" t="s">
         <v>5</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D175" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="176">
+      <c r="A176" s="1">
+        <v>48.712970648966611</v>
+      </c>
+      <c r="B176" s="1">
+        <v>2.2005723569110049</v>
+      </c>
       <c r="C176" t="s">
         <v>5</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D176" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="177">
+      <c r="A177" s="1">
+        <v>48.712952601593685</v>
+      </c>
+      <c r="B177" s="1">
+        <v>2.200586557965341</v>
+      </c>
       <c r="C177" t="s">
         <v>5</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D177" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="178">
+      <c r="A178" s="1">
+        <v>48.712925909498985</v>
+      </c>
+      <c r="B178" s="1">
+        <v>2.200654940467262</v>
+      </c>
       <c r="C178" t="s">
         <v>5</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D178" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="179">
+      <c r="A179" s="1">
+        <v>48.712859697865163</v>
+      </c>
+      <c r="B179" s="1">
+        <v>2.2007960333910774</v>
+      </c>
       <c r="C179" t="s">
         <v>5</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D179" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="180">
+      <c r="A180" s="1">
+        <v>48.712894301425635</v>
+      </c>
+      <c r="B180" s="1">
+        <v>2.2007354383376954</v>
+      </c>
       <c r="C180" t="s">
         <v>5</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="181">
+      <c r="A181" s="1">
+        <v>48.71289929613468</v>
+      </c>
+      <c r="B181" s="1">
+        <v>2.2007109478299385</v>
+      </c>
       <c r="C181" t="s">
         <v>5</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="182">
+      <c r="A182" s="1">
+        <v>48.712862513572773</v>
+      </c>
+      <c r="B182" s="1">
+        <v>2.2008108336146539</v>
+      </c>
       <c r="C182" t="s">
         <v>5</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D182" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="183">
+      <c r="A183" s="1">
+        <v>48.712870519509259</v>
+      </c>
+      <c r="B183" s="1">
+        <v>2.2007787541988462</v>
+      </c>
       <c r="C183" t="s">
         <v>5</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D183" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="184">
+      <c r="A184" s="1">
+        <v>48.712870477848817</v>
+      </c>
+      <c r="B184" s="1">
+        <v>2.2007888404288338</v>
+      </c>
       <c r="C184" t="s">
         <v>5</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D184" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="185">
+      <c r="A185" s="1">
+        <v>48.712865602686257</v>
+      </c>
+      <c r="B185" s="1">
+        <v>2.2008077918249951</v>
+      </c>
       <c r="C185" t="s">
         <v>5</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D185" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="186">
+      <c r="A186" s="1">
+        <v>48.712879670036315</v>
+      </c>
+      <c r="B186" s="1">
+        <v>2.2007675739019703</v>
+      </c>
       <c r="C186" t="s">
         <v>5</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D186" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="187">
+      <c r="A187" s="1">
+        <v>48.712871912154633</v>
+      </c>
+      <c r="B187" s="1">
+        <v>2.2007905150803642</v>
+      </c>
       <c r="C187" t="s">
         <v>5</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="188">
+      <c r="A188" s="1">
+        <v>48.712876272255997</v>
+      </c>
+      <c r="B188" s="1">
+        <v>2.2007913391535308</v>
+      </c>
       <c r="C188" t="s">
         <v>5</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D188" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="189">
+      <c r="A189" s="1">
+        <v>48.712849191448413</v>
+      </c>
+      <c r="B189" s="1">
+        <v>2.2008474612165241</v>
+      </c>
       <c r="C189" t="s">
         <v>5</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D189" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="190">
+      <c r="A190" s="1">
+        <v>48.712813433779509</v>
+      </c>
+      <c r="B190" s="1">
+        <v>2.2009125693235947</v>
+      </c>
       <c r="C190" t="s">
         <v>5</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D190" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="191">
+      <c r="A191" s="1">
+        <v>48.712748016738487</v>
+      </c>
+      <c r="B191" s="1">
+        <v>2.2010474271482643</v>
+      </c>
       <c r="C191" t="s">
         <v>5</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D191" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="192">
+      <c r="A192" s="1">
+        <v>48.712797237727528</v>
+      </c>
+      <c r="B192" s="1">
+        <v>2.2009463238262055</v>
+      </c>
       <c r="C192" t="s">
         <v>5</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D192" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="193">
+      <c r="A193" s="1">
+        <v>48.712766368213622</v>
+      </c>
+      <c r="B193" s="1">
+        <v>2.2010049354271208</v>
+      </c>
       <c r="C193" t="s">
         <v>5</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D193" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="194">
+      <c r="A194" s="1">
+        <v>48.712487394976591</v>
+      </c>
+      <c r="B194" s="1">
+        <v>2.2015647602270256</v>
+      </c>
       <c r="C194" t="s">
         <v>5</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D194" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="195">
+      <c r="A195" s="1">
+        <v>48.712487394976591</v>
+      </c>
+      <c r="B195" s="1">
+        <v>2.2015647602270256</v>
+      </c>
       <c r="C195" t="s">
         <v>5</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D195" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E195">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="196">
+      <c r="A196" s="1">
+        <v>48.712314055664869</v>
+      </c>
+      <c r="B196" s="1">
+        <v>2.2019470505775098</v>
+      </c>
       <c r="C196" t="s">
         <v>5</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D196" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E196">
-        <f t="shared" ref="E196:E201" si="3">E195+1</f>
+        <f t="shared" ref="E196:E201" si="4">E195+1</f>
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="197">
+      <c r="A197" s="1">
+        <v>48.712245313063001</v>
+      </c>
+      <c r="B197" s="1">
+        <v>2.2020839471526998</v>
+      </c>
       <c r="C197" t="s">
         <v>5</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D197" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="198">
+      <c r="A198" s="1">
+        <v>48.711937578754288</v>
+      </c>
+      <c r="B198" s="1">
+        <v>2.2027055553111436</v>
+      </c>
       <c r="C198" t="s">
         <v>5</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="D198" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="199">
+      <c r="A199" s="1">
+        <v>48.711937578754288</v>
+      </c>
+      <c r="B199" s="1">
+        <v>2.2027055553111436</v>
+      </c>
       <c r="C199" t="s">
         <v>5</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D199" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="200">
+      <c r="A200" s="1">
+        <v>48.711937578754288</v>
+      </c>
+      <c r="B200" s="1">
+        <v>2.2027055553111436</v>
+      </c>
       <c r="C200" t="s">
         <v>5</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D200" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="201">
+      <c r="A201" s="1">
+        <v>48.711937578754288</v>
+      </c>
+      <c r="B201" s="1">
+        <v>2.2027055553111436</v>
+      </c>
       <c r="C201" t="s">
         <v>5</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D201" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200</v>
+      </c>
+    </row>
+    <row r="202" ht="14.25">
+      <c r="A202" s="1">
+        <v>48.711622724401494</v>
+      </c>
+      <c r="B202" s="1">
+        <v>2.2033521108736043</v>
+      </c>
+    </row>
+    <row r="203" ht="14.25">
+      <c r="A203" s="1">
+        <v>48.71186342232464</v>
+      </c>
+      <c r="B203" s="1">
+        <v>2.2028564238410011</v>
+      </c>
+    </row>
+    <row r="204" ht="14.25">
+      <c r="A204" s="1">
+        <v>48.71186342232464</v>
+      </c>
+      <c r="B204" s="1">
+        <v>2.2028564238410011</v>
+      </c>
+    </row>
+    <row r="205" ht="14.25">
+      <c r="A205" s="1">
+        <v>48.711955458470165</v>
+      </c>
+      <c r="B205" s="1">
+        <v>2.2026755898690342</v>
+      </c>
+    </row>
+    <row r="206" ht="14.25">
+      <c r="A206" s="1">
+        <v>48.711955458470165</v>
+      </c>
+      <c r="B206" s="1">
+        <v>2.2026755898690342</v>
+      </c>
+    </row>
+    <row r="207" ht="14.25">
+      <c r="A207" s="1">
+        <v>48.711906150506408</v>
+      </c>
+      <c r="B207" s="1">
+        <v>2.2027854594390628</v>
+      </c>
+    </row>
+    <row r="208" ht="14.25">
+      <c r="A208" s="1">
+        <v>48.712025552333067</v>
+      </c>
+      <c r="B208" s="1">
+        <v>2.2025415043420007</v>
+      </c>
+    </row>
+    <row r="209" ht="14.25">
+      <c r="A209" s="1">
+        <v>48.712043074378975</v>
+      </c>
+      <c r="B209" s="1">
+        <v>2.2025127178293897</v>
+      </c>
+    </row>
+    <row r="210" ht="14.25">
+      <c r="A210" s="1">
+        <v>48.712051941797128</v>
+      </c>
+      <c r="B210" s="1">
+        <v>2.2024973299654218</v>
+      </c>
+    </row>
+    <row r="211" ht="14.25">
+      <c r="A211" s="1">
+        <v>48.712292838684974</v>
+      </c>
+      <c r="B211" s="1">
+        <v>2.2019955091678391</v>
+      </c>
+    </row>
+    <row r="212" ht="14.25">
+      <c r="A212" s="1">
+        <v>48.712085738306548</v>
+      </c>
+      <c r="B212" s="1">
+        <v>2.2024096402914344</v>
+      </c>
+    </row>
+    <row r="213" ht="14.25">
+      <c r="A213" s="1">
+        <v>48.712362810696838</v>
+      </c>
+      <c r="B213" s="1">
+        <v>2.2018122462497995</v>
+      </c>
+    </row>
+    <row r="214" ht="14.25">
+      <c r="A214" s="1">
+        <v>48.712263843527111</v>
+      </c>
+      <c r="B214" s="1">
+        <v>2.2020323831386861</v>
+      </c>
+    </row>
+    <row r="215" ht="14.25">
+      <c r="A215" s="1">
+        <v>48.712698600358856</v>
+      </c>
+      <c r="B215" s="1">
+        <v>2.2011279203187621</v>
+      </c>
+    </row>
+    <row r="216" ht="14.25">
+      <c r="A216" s="1">
+        <v>48.712628242700852</v>
+      </c>
+      <c r="B216" s="1">
+        <v>2.2012764337077786</v>
+      </c>
+    </row>
+    <row r="217" ht="14.25">
+      <c r="A217" s="1">
+        <v>48.712475235494189</v>
+      </c>
+      <c r="B217" s="1">
+        <v>2.2015824640696828</v>
+      </c>
+    </row>
+    <row r="218" ht="14.25">
+      <c r="A218" s="1">
+        <v>48.71256699036617</v>
+      </c>
+      <c r="B218" s="1">
+        <v>2.2013905519481645</v>
+      </c>
+    </row>
+    <row r="219" ht="14.25">
+      <c r="A219" s="1">
+        <v>48.712527086735875</v>
+      </c>
+      <c r="B219" s="1">
+        <v>2.2014827732463216</v>
+      </c>
+    </row>
+    <row r="220" ht="14.25">
+      <c r="A220" s="1">
+        <v>48.712540077720561</v>
+      </c>
+      <c r="B220" s="1">
+        <v>2.2014753147057866</v>
+      </c>
+    </row>
+    <row r="221" ht="14.25">
+      <c r="A221" s="1">
+        <v>48.712500682841849</v>
+      </c>
+      <c r="B221" s="1">
+        <v>2.2015333452753714</v>
+      </c>
+    </row>
+    <row r="222" ht="14.25">
+      <c r="A222" s="1">
+        <v>48.712667825780542</v>
+      </c>
+      <c r="B222" s="1">
+        <v>2.2011727921624056</v>
+      </c>
+    </row>
+    <row r="223" ht="14.25">
+      <c r="A223" s="1">
+        <v>48.712815857599914</v>
+      </c>
+      <c r="B223" s="1">
+        <v>2.2008690075363573</v>
+      </c>
+    </row>
+    <row r="224" ht="14.25">
+      <c r="A224" s="1">
+        <v>48.713053957045808</v>
+      </c>
+      <c r="B224" s="1">
+        <v>2.2003958325710768</v>
+      </c>
+    </row>
+    <row r="225" ht="14.25">
+      <c r="A225" s="1">
+        <v>48.712912338539397</v>
+      </c>
+      <c r="B225" s="1">
+        <v>2.2006649465234362</v>
+      </c>
+    </row>
+    <row r="226" ht="14.25">
+      <c r="A226" s="1">
+        <v>48.712989337927674</v>
+      </c>
+      <c r="B226" s="1">
+        <v>2.2005098428298204</v>
+      </c>
+    </row>
+    <row r="227" ht="14.25">
+      <c r="A227" s="1">
+        <v>48.713099159334895</v>
+      </c>
+      <c r="B227" s="1">
+        <v>2.2002985074018344</v>
+      </c>
+    </row>
+    <row r="228" ht="14.25">
+      <c r="A228" s="1">
+        <v>48.712943010461075</v>
+      </c>
+      <c r="B228" s="1">
+        <v>2.2006224176996736</v>
+      </c>
+    </row>
+    <row r="229" ht="14.25">
+      <c r="A229" s="1">
+        <v>48.712893341897917</v>
+      </c>
+      <c r="B229" s="1">
+        <v>2.2007415281545235</v>
+      </c>
+    </row>
+    <row r="230" ht="14.25">
+      <c r="A230" s="1">
+        <v>48.712941593549687</v>
+      </c>
+      <c r="B230" s="1">
+        <v>2.2006326034121186</v>
+      </c>
+    </row>
+    <row r="231" ht="14.25">
+      <c r="A231" s="1">
+        <v>48.712952434998947</v>
+      </c>
+      <c r="B231" s="1">
+        <v>2.2006218490630829</v>
+      </c>
+    </row>
+    <row r="232" ht="14.25">
+      <c r="A232" s="1">
+        <v>48.712895176303718</v>
+      </c>
+      <c r="B232" s="1">
+        <v>2.2007323690623872</v>
+      </c>
+    </row>
+    <row r="233" ht="14.25">
+      <c r="A233" s="1">
+        <v>48.712901407641937</v>
+      </c>
+      <c r="B233" s="1">
+        <v>2.2007092567861442</v>
+      </c>
+    </row>
+    <row r="234" ht="14.25">
+      <c r="A234" s="1">
+        <v>48.712870601817151</v>
+      </c>
+      <c r="B234" s="1">
+        <v>2.200793045330717</v>
+      </c>
+    </row>
+    <row r="235" ht="14.25">
+      <c r="A235" s="1">
+        <v>48.712864008517961</v>
+      </c>
+      <c r="B235" s="1">
+        <v>2.2008014994932394</v>
+      </c>
+    </row>
+    <row r="236" ht="14.25">
+      <c r="A236" s="1">
+        <v>48.712874586958328</v>
+      </c>
+      <c r="B236" s="1">
+        <v>2.2007857720007369</v>
+      </c>
+    </row>
+    <row r="237" ht="14.25">
+      <c r="A237" s="1">
+        <v>48.71286791235584</v>
+      </c>
+      <c r="B237" s="1">
+        <v>2.2007875098751009</v>
+      </c>
+    </row>
+    <row r="238" ht="14.25">
+      <c r="A238" s="1">
+        <v>48.71282824303249</v>
+      </c>
+      <c r="B238" s="1">
+        <v>2.2008943486977253</v>
+      </c>
+    </row>
+    <row r="239" ht="14.25">
+      <c r="A239" s="1">
+        <v>48.712837225830164</v>
+      </c>
+      <c r="B239" s="1">
+        <v>2.2008639049431955</v>
+      </c>
+    </row>
+    <row r="240" ht="14.25">
+      <c r="A240" s="1">
+        <v>48.712844556991683</v>
+      </c>
+      <c r="B240" s="1">
+        <v>2.2008540763531723</v>
+      </c>
+    </row>
+    <row r="241" ht="14.25">
+      <c r="A241" s="1">
+        <v>48.712845467208695</v>
+      </c>
+      <c r="B241" s="1">
+        <v>2.2008437352744696</v>
+      </c>
+    </row>
+    <row r="242" ht="14.25">
+      <c r="A242" s="1">
+        <v>48.712823719566209</v>
+      </c>
+      <c r="B242" s="1">
+        <v>2.2008884449838546</v>
+      </c>
+    </row>
+    <row r="243" ht="14.25">
+      <c r="A243" s="1">
+        <v>48.71282192989753</v>
+      </c>
+      <c r="B243" s="1">
+        <v>2.2008949335544576</v>
+      </c>
+    </row>
+    <row r="244" ht="14.25">
+      <c r="A244" s="1">
+        <v>48.712807701741546</v>
+      </c>
+      <c r="B244" s="1">
+        <v>2.2009365780967705</v>
+      </c>
+    </row>
+    <row r="245" ht="14.25">
+      <c r="A245" s="1">
+        <v>48.712736729606902</v>
+      </c>
+      <c r="B245" s="1">
+        <v>2.2010757027321985</v>
+      </c>
+    </row>
+    <row r="246" ht="14.25">
+      <c r="A246" s="1">
+        <v>48.712586459382869</v>
+      </c>
+      <c r="B246" s="1">
+        <v>2.2013792220287698</v>
+      </c>
+    </row>
+    <row r="247" ht="14.25">
+      <c r="A247" s="1">
+        <v>48.712145860323588</v>
+      </c>
+      <c r="B247" s="1">
+        <v>2.2023021424322882</v>
+      </c>
+    </row>
+    <row r="248" ht="14.25">
+      <c r="A248" s="1">
+        <v>48.712006762891853</v>
+      </c>
+      <c r="B248" s="1">
+        <v>2.2025813411521447</v>
+      </c>
+    </row>
+    <row r="249" ht="14.25">
+      <c r="A249" s="1">
+        <v>48.712059801016878</v>
+      </c>
+      <c r="B249" s="1">
+        <v>2.2024618486824976</v>
+      </c>
+    </row>
+    <row r="250" ht="14.25">
+      <c r="A250" s="1">
+        <v>48.711837027775942</v>
+      </c>
+      <c r="B250" s="1">
+        <v>2.2029555936769003</v>
+      </c>
+    </row>
+    <row r="251" ht="14.25">
+      <c r="A251" s="1">
+        <v>48.711737935824814</v>
+      </c>
+      <c r="B251" s="1">
+        <v>2.2031653812311336</v>
+      </c>
+    </row>
+    <row r="252" ht="14.25">
+      <c r="A252" s="1">
+        <v>48.711381836992629</v>
+      </c>
+      <c r="B252" s="1">
+        <v>2.2038743515836616</v>
+      </c>
+    </row>
+    <row r="253" ht="14.25">
+      <c r="A253" s="1">
+        <v>48.711678551436378</v>
+      </c>
+      <c r="B253" s="1">
+        <v>2.2032645592929874</v>
+      </c>
+    </row>
+    <row r="254" ht="14.25">
+      <c r="A254" s="1">
+        <v>48.71195237101935</v>
+      </c>
+      <c r="B254" s="1">
+        <v>2.2026971690257193</v>
+      </c>
+    </row>
+    <row r="255" ht="14.25">
+      <c r="A255" s="1">
+        <v>48.711759446166333</v>
+      </c>
+      <c r="B255" s="1">
+        <v>2.203090848502669</v>
+      </c>
+    </row>
+    <row r="256" ht="14.25">
+      <c r="A256" s="1">
+        <v>48.711867517361441</v>
+      </c>
+      <c r="B256" s="1">
+        <v>2.2028587445864276</v>
+      </c>
+    </row>
+    <row r="257" ht="14.25">
+      <c r="A257" s="1">
+        <v>48.711759614351699</v>
+      </c>
+      <c r="B257" s="1">
+        <v>2.2030870021211166</v>
+      </c>
+    </row>
+    <row r="258" ht="14.25">
+      <c r="A258" s="1">
+        <v>48.711936952766052</v>
+      </c>
+      <c r="B258" s="1">
+        <v>2.202730037438835</v>
+      </c>
+    </row>
+    <row r="259" ht="14.25">
+      <c r="A259" s="1">
+        <v>48.712079617653103</v>
+      </c>
+      <c r="B259" s="1">
+        <v>2.202434533778054</v>
+      </c>
+    </row>
+    <row r="260" ht="14.25">
+      <c r="A260" s="1">
+        <v>48.712002695185326</v>
+      </c>
+      <c r="B260" s="1">
+        <v>2.2025903879981121</v>
+      </c>
+    </row>
+    <row r="261" ht="14.25">
+      <c r="A261" s="1">
+        <v>48.712010226588447</v>
+      </c>
+      <c r="B261" s="1">
+        <v>2.2025832742922695</v>
+      </c>
+    </row>
+    <row r="262" ht="14.25">
+      <c r="A262" s="1">
+        <v>48.712029010976373</v>
+      </c>
+      <c r="B262" s="1">
+        <v>2.202531884771437</v>
+      </c>
+    </row>
+    <row r="263" ht="14.25">
+      <c r="A263" s="1">
+        <v>48.712190601682742</v>
+      </c>
+      <c r="B263" s="1">
+        <v>2.2021854099224907</v>
+      </c>
+    </row>
+    <row r="264" ht="14.25">
+      <c r="A264" s="1">
+        <v>48.712125531706427</v>
+      </c>
+      <c r="B264" s="1">
+        <v>2.2023342104236643</v>
+      </c>
+    </row>
+    <row r="265" ht="14.25">
+      <c r="A265" s="1">
+        <v>48.71224516223112</v>
+      </c>
+      <c r="B265" s="1">
+        <v>2.2020760601715654</v>
+      </c>
+    </row>
+    <row r="266" ht="14.25">
+      <c r="A266" s="1">
+        <v>48.712537952447526</v>
+      </c>
+      <c r="B266" s="1">
+        <v>2.2014637134194821</v>
+      </c>
+    </row>
+    <row r="267" ht="14.25">
+      <c r="A267" s="1">
+        <v>48.712571590062289</v>
+      </c>
+      <c r="B267" s="1">
+        <v>2.2013775749194275</v>
+      </c>
+    </row>
+    <row r="268" ht="14.25">
+      <c r="A268" s="1">
+        <v>48.712467995955272</v>
+      </c>
+      <c r="B268" s="1">
+        <v>2.2015873609883001</v>
+      </c>
+    </row>
+    <row r="269" ht="14.25">
+      <c r="A269" s="1">
+        <v>48.712571864894386</v>
+      </c>
+      <c r="B269" s="1">
+        <v>2.2013635691944011</v>
+      </c>
+    </row>
+    <row r="270" ht="14.25">
+      <c r="A270" s="1">
+        <v>48.712820310739758</v>
+      </c>
+      <c r="B270" s="1">
+        <v>2.200837494399003</v>
+      </c>
+    </row>
+    <row r="271" ht="14.25">
+      <c r="A271" s="1">
+        <v>48.712825330457356</v>
+      </c>
+      <c r="B271" s="1">
+        <v>2.2008573258025783</v>
+      </c>
+    </row>
+    <row r="272" ht="14.25">
+      <c r="A272" s="1">
+        <v>48.712897849075773</v>
+      </c>
+      <c r="B272" s="1">
+        <v>2.2007069155299952</v>
+      </c>
+    </row>
+    <row r="273" ht="14.25">
+      <c r="A273" s="1">
+        <v>48.712885736234718</v>
+      </c>
+      <c r="B273" s="1">
+        <v>2.2007205112656347</v>
+      </c>
+    </row>
+    <row r="274" ht="14.25">
+      <c r="A274" s="1">
+        <v>48.713005383718482</v>
+      </c>
+      <c r="B274" s="1">
+        <v>2.2004692058046214</v>
+      </c>
+    </row>
+    <row r="275" ht="14.25">
+      <c r="A275" s="1">
+        <v>48.713055443284233</v>
+      </c>
+      <c r="B275" s="1">
+        <v>2.2003556027522659</v>
+      </c>
+    </row>
+    <row r="276" ht="14.25">
+      <c r="A276" s="1">
+        <v>48.712866174489662</v>
+      </c>
+      <c r="B276" s="1">
+        <v>2.2007525888491997</v>
+      </c>
+    </row>
+    <row r="277" ht="14.25">
+      <c r="A277" s="1">
+        <v>48.712997033991662</v>
+      </c>
+      <c r="B277" s="1">
+        <v>2.2004809449132021</v>
+      </c>
+    </row>
+    <row r="278" ht="14.25">
+      <c r="A278" s="1">
+        <v>48.712954006502265</v>
+      </c>
+      <c r="B278" s="1">
+        <v>2.2005888567620873</v>
+      </c>
+    </row>
+    <row r="279" ht="14.25">
+      <c r="A279" s="1">
+        <v>48.712961122802035</v>
+      </c>
+      <c r="B279" s="1">
+        <v>2.2005861713443338</v>
+      </c>
+    </row>
+    <row r="280" ht="14.25">
+      <c r="A280" s="1">
+        <v>48.71298679656708</v>
+      </c>
+      <c r="B280" s="1">
+        <v>2.2005163551866436</v>
+      </c>
+    </row>
+    <row r="281" ht="14.25">
+      <c r="A281" s="1">
+        <v>48.712905631045345</v>
+      </c>
+      <c r="B281" s="1">
+        <v>2.2006854027641567</v>
+      </c>
+    </row>
+    <row r="282" ht="14.25">
+      <c r="A282" s="1">
+        <v>48.712961810374637</v>
+      </c>
+      <c r="B282" s="1">
+        <v>2.2005755303610433</v>
+      </c>
+    </row>
+    <row r="283" ht="14.25">
+      <c r="A283" s="1">
+        <v>48.712910436596935</v>
+      </c>
+      <c r="B283" s="1">
+        <v>2.2006926042221759</v>
+      </c>
+    </row>
+    <row r="284" ht="14.25">
+      <c r="A284" s="1">
+        <v>48.712883512162321</v>
+      </c>
+      <c r="B284" s="1">
+        <v>2.2007600591805083</v>
+      </c>
+    </row>
+    <row r="285" ht="14.25">
+      <c r="A285" s="1">
+        <v>48.712902013351837</v>
+      </c>
+      <c r="B285" s="1">
+        <v>2.2007216939509888</v>
+      </c>
+    </row>
+    <row r="286" ht="14.25">
+      <c r="A286" s="1">
+        <v>48.712927340527806</v>
+      </c>
+      <c r="B286" s="1">
+        <v>2.2006532499601916</v>
+      </c>
+    </row>
+    <row r="287" ht="14.25">
+      <c r="A287" s="1">
+        <v>48.7128943848913</v>
+      </c>
+      <c r="B287" s="1">
+        <v>2.2007411430931523</v>
+      </c>
+    </row>
+    <row r="288" ht="14.25">
+      <c r="A288" s="1">
+        <v>48.712882020758137</v>
+      </c>
+      <c r="B288" s="1">
+        <v>2.2007665582542337</v>
+      </c>
+    </row>
+    <row r="289" ht="14.25">
+      <c r="A289" s="1">
+        <v>48.712845667719307</v>
+      </c>
+      <c r="B289" s="1">
+        <v>2.2008387572529946</v>
+      </c>
+    </row>
+    <row r="290" ht="14.25">
+      <c r="A290" s="1">
+        <v>48.712824776207768</v>
+      </c>
+      <c r="B290" s="1">
+        <v>2.200878789475472</v>
+      </c>
+    </row>
+    <row r="291" ht="14.25">
+      <c r="A291" s="1">
+        <v>48.712829684066975</v>
+      </c>
+      <c r="B291" s="1">
+        <v>2.2008717012911205</v>
+      </c>
+    </row>
+    <row r="292" ht="14.25">
+      <c r="A292" s="1">
+        <v>48.71283669846062</v>
+      </c>
+      <c r="B292" s="1">
+        <v>2.2008535518518082</v>
+      </c>
+    </row>
+    <row r="293" ht="14.25">
+      <c r="A293" s="1">
+        <v>48.712830773826589</v>
+      </c>
+      <c r="B293" s="1">
+        <v>2.2008516253440917</v>
+      </c>
+    </row>
+    <row r="294" ht="14.25">
+      <c r="A294" s="1">
+        <v>48.712805274706895</v>
+      </c>
+      <c r="B294" s="1">
+        <v>2.2009180050507502</v>
+      </c>
+    </row>
+    <row r="295" ht="14.25">
+      <c r="A295" s="1">
+        <v>48.712802944936982</v>
+      </c>
+      <c r="B295" s="1">
+        <v>2.2009222676260691</v>
+      </c>
+    </row>
+    <row r="296" ht="14.25">
+      <c r="A296" s="1">
+        <v>48.712569086539546</v>
+      </c>
+      <c r="B296" s="1">
+        <v>2.201411403276718</v>
+      </c>
+    </row>
+    <row r="297" ht="14.25">
+      <c r="A297" s="1">
+        <v>48.712478239109331</v>
+      </c>
+      <c r="B297" s="1">
+        <v>2.2015920256041466</v>
+      </c>
+    </row>
+    <row r="298" ht="14.25">
+      <c r="A298" s="1">
+        <v>48.712406501880984</v>
+      </c>
+      <c r="B298" s="1">
+        <v>2.2017506869146728</v>
+      </c>
+    </row>
+    <row r="299" ht="14.25">
+      <c r="A299" s="1">
+        <v>48.712130046817272</v>
+      </c>
+      <c r="B299" s="1">
+        <v>2.2023216522443385</v>
+      </c>
+    </row>
+    <row r="300" ht="14.25">
+      <c r="A300" s="1">
+        <v>48.712222752527786</v>
+      </c>
+      <c r="B300" s="1">
+        <v>2.2021414781546751</v>
+      </c>
+    </row>
+    <row r="301" ht="14.25">
+      <c r="A301" s="1">
+        <v>48.71210597641528</v>
+      </c>
+      <c r="B301" s="1">
+        <v>2.202371222663988</v>
+      </c>
+    </row>
+    <row r="302" ht="14.25">
+      <c r="A302" s="1">
+        <v>48.711833800281056</v>
+      </c>
+      <c r="B302" s="1">
+        <v>2.2029385033000217</v>
+      </c>
+    </row>
+    <row r="303" ht="14.25">
+      <c r="A303" s="1">
+        <v>48.711833800281056</v>
+      </c>
+      <c r="B303" s="1">
+        <v>2.2029385033000217</v>
+      </c>
+    </row>
+    <row r="304" ht="14.25">
+      <c r="A304" s="1">
+        <v>48.711745364005338</v>
+      </c>
+      <c r="B304" s="1">
+        <v>2.2031120238908302</v>
+      </c>
+    </row>
+    <row r="305" ht="14.25">
+      <c r="A305" s="1">
+        <v>48.711741811881758</v>
+      </c>
+      <c r="B305" s="1">
+        <v>2.2031131608538219</v>
+      </c>
+    </row>
+    <row r="306" ht="14.25">
+      <c r="A306" s="1">
+        <v>48.711909923999961</v>
+      </c>
+      <c r="B306" s="1">
+        <v>2.2027834831406645</v>
+      </c>
+    </row>
+    <row r="307" ht="14.25">
+      <c r="A307" s="1">
+        <v>48.711889209125459</v>
+      </c>
+      <c r="B307" s="1">
+        <v>2.202807639260925</v>
+      </c>
+    </row>
+    <row r="308" ht="14.25">
+      <c r="A308" s="1">
+        <v>48.711889209125459</v>
+      </c>
+      <c r="B308" s="1">
+        <v>2.202807639260925</v>
+      </c>
+    </row>
+    <row r="309" ht="14.25">
+      <c r="A309" s="1">
+        <v>48.71185623095765</v>
+      </c>
+      <c r="B309" s="1">
+        <v>2.2028868455844717</v>
+      </c>
+    </row>
+    <row r="310" ht="14.25">
+      <c r="A310" s="1">
+        <v>48.711990117478948</v>
+      </c>
+      <c r="B310" s="1">
+        <v>2.2026194851861707</v>
+      </c>
+    </row>
+    <row r="311" ht="14.25">
+      <c r="A311" s="1">
+        <v>48.712039331913147</v>
+      </c>
+      <c r="B311" s="1">
+        <v>2.2025058651540785</v>
+      </c>
+    </row>
+    <row r="312" ht="14.25">
+      <c r="A312" s="1">
+        <v>48.712295451557111</v>
+      </c>
+      <c r="B312" s="1">
+        <v>2.2019907804447891</v>
+      </c>
+    </row>
+    <row r="313" ht="14.25">
+      <c r="A313" s="1">
+        <v>48.712070585198639</v>
+      </c>
+      <c r="B313" s="1">
+        <v>2.2024390027982896</v>
+      </c>
+    </row>
+    <row r="314" ht="14.25">
+      <c r="A314" s="1">
+        <v>48.712053319551984</v>
+      </c>
+      <c r="B314" s="1">
+        <v>2.202468631714027</v>
+      </c>
+    </row>
+    <row r="315" ht="14.25">
+      <c r="A315" s="1">
+        <v>48.711979998462567</v>
+      </c>
+      <c r="B315" s="1">
+        <v>2.2026111255198022</v>
+      </c>
+    </row>
+    <row r="316" ht="14.25">
+      <c r="A316" s="1">
+        <v>48.712423109083907</v>
+      </c>
+      <c r="B316" s="1">
+        <v>2.2016862586016095</v>
+      </c>
+    </row>
+    <row r="317" ht="14.25">
+      <c r="A317" s="1">
+        <v>48.712640573852013</v>
+      </c>
+      <c r="B317" s="1">
+        <v>2.2012538207686689</v>
+      </c>
+    </row>
+    <row r="318" ht="14.25">
+      <c r="A318" s="1">
+        <v>48.712861614390796</v>
+      </c>
+      <c r="B318" s="1">
+        <v>2.2007968600234866</v>
+      </c>
+    </row>
+    <row r="319" ht="14.25">
+      <c r="A319" s="1">
+        <v>48.712768723851298</v>
+      </c>
+      <c r="B319" s="1">
+        <v>2.2009808278494711</v>
+      </c>
+    </row>
+    <row r="320" ht="14.25">
+      <c r="A320" s="1">
+        <v>48.712569168396882</v>
+      </c>
+      <c r="B320" s="1">
+        <v>2.2013743521384903</v>
+      </c>
+    </row>
+    <row r="321" ht="14.25">
+      <c r="A321" s="1">
+        <v>48.712895540027297</v>
+      </c>
+      <c r="B321" s="1">
+        <v>2.2006998368474817</v>
+      </c>
+    </row>
+    <row r="322" ht="14.25">
+      <c r="A322" s="1">
+        <v>48.712961725902723</v>
+      </c>
+      <c r="B322" s="1">
+        <v>2.2005673387912119</v>
+      </c>
+    </row>
+    <row r="323" ht="14.25">
+      <c r="A323" s="1">
+        <v>48.712706538527492</v>
+      </c>
+      <c r="B323" s="1">
+        <v>2.2010884841154819</v>
+      </c>
+    </row>
+    <row r="324" ht="14.25">
+      <c r="A324" s="1">
+        <v>48.712703642829332</v>
+      </c>
+      <c r="B324" s="1">
+        <v>2.2011097997192115</v>
+      </c>
+    </row>
+    <row r="325" ht="14.25">
+      <c r="A325" s="1">
+        <v>48.712687616680192</v>
+      </c>
+      <c r="B325" s="1">
+        <v>2.2011376236713427</v>
+      </c>
+    </row>
+    <row r="326" ht="14.25">
+      <c r="A326" s="1">
+        <v>48.712647523694145</v>
+      </c>
+      <c r="B326" s="1">
+        <v>2.2012180191833188</v>
+      </c>
+    </row>
+    <row r="327" ht="14.25">
+      <c r="A327" s="1">
+        <v>48.712720530134185</v>
+      </c>
+      <c r="B327" s="1">
+        <v>2.2010677579939641</v>
+      </c>
+    </row>
+    <row r="328" ht="14.25">
+      <c r="A328" s="1">
+        <v>48.712876770193255</v>
+      </c>
+      <c r="B328" s="1">
+        <v>2.2007235413487209</v>
+      </c>
+    </row>
+    <row r="329" ht="14.25">
+      <c r="A329" s="1">
+        <v>48.71273989092348</v>
+      </c>
+      <c r="B329" s="1">
+        <v>2.2010318516793075</v>
+      </c>
+    </row>
+    <row r="330" ht="14.25">
+      <c r="A330" s="1">
+        <v>48.712904786809041</v>
+      </c>
+      <c r="B330" s="1">
+        <v>2.2006887450656443</v>
+      </c>
+    </row>
+    <row r="331" ht="14.25">
+      <c r="A331" s="1">
+        <v>48.712950051858783</v>
+      </c>
+      <c r="B331" s="1">
+        <v>2.2006050340515455</v>
+      </c>
+    </row>
+    <row r="332" ht="14.25">
+      <c r="A332" s="1">
+        <v>48.712942632528723</v>
+      </c>
+      <c r="B332" s="1">
+        <v>2.2006317093487651</v>
+      </c>
+    </row>
+    <row r="333" ht="14.25">
+      <c r="A333" s="1">
+        <v>48.712971160533087</v>
+      </c>
+      <c r="B333" s="1">
+        <v>2.2005737935287715</v>
+      </c>
+    </row>
+    <row r="334" ht="14.25">
+      <c r="A334" s="1">
+        <v>48.712908152609231</v>
+      </c>
+      <c r="B334" s="1">
+        <v>2.2006957333350945</v>
+      </c>
+    </row>
+    <row r="335" ht="14.25">
+      <c r="A335" s="1">
+        <v>48.712895400101722</v>
+      </c>
+      <c r="B335" s="1">
+        <v>2.200715336583928</v>
+      </c>
+    </row>
+    <row r="336" ht="14.25">
+      <c r="A336" s="1">
+        <v>48.712913906170101</v>
+      </c>
+      <c r="B336" s="1">
+        <v>2.2006976032875203</v>
+      </c>
+    </row>
+    <row r="337" ht="14.25">
+      <c r="A337" s="1">
+        <v>48.712886601770805</v>
+      </c>
+      <c r="B337" s="1">
+        <v>2.2007328136378779</v>
+      </c>
+    </row>
+    <row r="338" ht="14.25">
+      <c r="A338" s="1">
+        <v>48.71287544580283</v>
+      </c>
+      <c r="B338" s="1">
+        <v>2.2007663967026536</v>
+      </c>
+    </row>
+    <row r="339" ht="14.25">
+      <c r="A339" s="1">
+        <v>48.712854600599272</v>
+      </c>
+      <c r="B339" s="1">
+        <v>2.2008077157001709</v>
+      </c>
+    </row>
+    <row r="340" ht="14.25">
+      <c r="A340" s="1">
+        <v>48.712860684309575</v>
+      </c>
+      <c r="B340" s="1">
+        <v>2.200808816384463</v>
+      </c>
+    </row>
+    <row r="341" ht="14.25">
+      <c r="A341" s="1">
+        <v>48.712856347356222</v>
+      </c>
+      <c r="B341" s="1">
+        <v>2.2007987480160498</v>
+      </c>
+    </row>
+    <row r="342" ht="14.25">
+      <c r="A342" s="1">
+        <v>48.712840722720387</v>
+      </c>
+      <c r="B342" s="1">
+        <v>2.2008355848835843</v>
+      </c>
+    </row>
+    <row r="343" ht="14.25">
+      <c r="A343" s="1">
+        <v>48.71284631620194</v>
+      </c>
+      <c r="B343" s="1">
+        <v>2.2008251236631939</v>
+      </c>
+    </row>
+    <row r="344" ht="14.25">
+      <c r="A344" s="1">
+        <v>48.712834906648261</v>
+      </c>
+      <c r="B344" s="1">
+        <v>2.2008514715000547</v>
+      </c>
+    </row>
+    <row r="345" ht="14.25">
+      <c r="A345" s="1">
+        <v>48.712845408641329</v>
+      </c>
+      <c r="B345" s="1">
+        <v>2.2008303552822701</v>
+      </c>
+    </row>
+    <row r="346" ht="14.25">
+      <c r="A346" s="1">
+        <v>48.712824745873441</v>
+      </c>
+      <c r="B346" s="1">
+        <v>2.2008908187730594</v>
+      </c>
+    </row>
+    <row r="347" ht="14.25">
+      <c r="A347" s="1">
+        <v>48.712835345289676</v>
+      </c>
+      <c r="B347" s="1">
+        <v>2.2008562258908508</v>
+      </c>
+    </row>
+    <row r="348" ht="14.25">
+      <c r="A348" s="1">
+        <v>48.712766754855153</v>
+      </c>
+      <c r="B348" s="1">
+        <v>2.2010100590878832</v>
+      </c>
+    </row>
+    <row r="349" ht="14.25">
+      <c r="A349" s="1">
+        <v>48.71270406110758</v>
+      </c>
+      <c r="B349" s="1">
+        <v>2.2011335053713363</v>
+      </c>
+    </row>
+    <row r="350" ht="14.25">
+      <c r="A350" s="1">
+        <v>48.712523492896686</v>
+      </c>
+      <c r="B350" s="1">
+        <v>2.2015075201970764</v>
+      </c>
+    </row>
+    <row r="351" ht="14.25">
+      <c r="A351" s="1">
+        <v>48.71231812042911</v>
+      </c>
+      <c r="B351" s="1">
+        <v>2.2019234903227201</v>
+      </c>
+    </row>
+    <row r="352" ht="14.25">
+      <c r="A352" s="1">
+        <v>48.711900392245468</v>
+      </c>
+      <c r="B352" s="1">
+        <v>2.2028087189870513</v>
+      </c>
+    </row>
+    <row r="353" ht="14.25">
+      <c r="A353" s="1">
+        <v>48.711952706741251</v>
+      </c>
+      <c r="B353" s="1">
+        <v>2.2026923005016892</v>
+      </c>
+    </row>
+    <row r="354" ht="14.25">
+      <c r="A354" s="1">
+        <v>48.711728869116726</v>
+      </c>
+      <c r="B354" s="1">
+        <v>2.203162143913429</v>
+      </c>
+    </row>
+    <row r="355" ht="14.25">
+      <c r="A355" s="1">
+        <v>48.711822424510125</v>
+      </c>
+      <c r="B355" s="1">
+        <v>2.2029574931117097</v>
+      </c>
+    </row>
+    <row r="356" ht="14.25">
+      <c r="A356" s="1">
+        <v>48.711892216820679</v>
+      </c>
+      <c r="B356" s="1">
+        <v>2.2028199110696138</v>
+      </c>
+    </row>
+    <row r="357" ht="14.25">
+      <c r="A357" s="1">
+        <v>48.711736208790441</v>
+      </c>
+      <c r="B357" s="1">
+        <v>2.2031411906656024</v>
+      </c>
+    </row>
+    <row r="358" ht="14.25">
+      <c r="A358" s="1">
+        <v>48.71164709510186</v>
+      </c>
+      <c r="B358" s="1">
+        <v>2.2033174040551096</v>
+      </c>
+    </row>
+    <row r="359" ht="14.25">
+      <c r="A359" s="1">
+        <v>48.711531594491362</v>
+      </c>
+      <c r="B359" s="1">
+        <v>2.2035650071302295</v>
+      </c>
+    </row>
+    <row r="360" ht="14.25">
+      <c r="A360" s="1">
+        <v>48.711786219456549</v>
+      </c>
+      <c r="B360" s="1">
+        <v>2.2030298141184343</v>
+      </c>
+    </row>
+    <row r="361" ht="14.25">
+      <c r="A361" s="1">
+        <v>48.712013347515416</v>
+      </c>
+      <c r="B361" s="1">
+        <v>2.2025641683001083</v>
+      </c>
+    </row>
+    <row r="362" ht="14.25">
+      <c r="A362" s="1">
+        <v>48.71195391898177</v>
+      </c>
+      <c r="B362" s="1">
+        <v>2.2026973366328786</v>
+      </c>
+    </row>
+    <row r="363" ht="14.25">
+      <c r="A363" s="1">
+        <v>48.712169304895305</v>
+      </c>
+      <c r="B363" s="1">
+        <v>2.2022380784456561</v>
+      </c>
+    </row>
+    <row r="364" ht="14.25">
+      <c r="A364" s="1">
+        <v>48.711990260103086</v>
+      </c>
+      <c r="B364" s="1">
+        <v>2.2026208045569589</v>
+      </c>
+    </row>
+    <row r="365" ht="14.25">
+      <c r="A365" s="1">
+        <v>48.711980169572364</v>
+      </c>
+      <c r="B365" s="1">
+        <v>2.2026208340122677</v>
+      </c>
+    </row>
+    <row r="366" ht="14.25">
+      <c r="A366" s="1">
+        <v>48.712254035155382</v>
+      </c>
+      <c r="B366" s="1">
+        <v>2.2020728148514408</v>
+      </c>
+    </row>
+    <row r="367" ht="14.25">
+      <c r="A367" s="1">
+        <v>48.712121408107727</v>
+      </c>
+      <c r="B367" s="1">
+        <v>2.2023444577499998</v>
+      </c>
+    </row>
+    <row r="368" ht="14.25">
+      <c r="A368" s="1">
+        <v>48.712125162894765</v>
+      </c>
+      <c r="B368" s="1">
+        <v>2.2023187919048612</v>
+      </c>
+    </row>
+    <row r="369" ht="14.25">
+      <c r="A369" s="1">
+        <v>48.712378910413037</v>
+      </c>
+      <c r="B369" s="1">
+        <v>2.2017917381870862</v>
+      </c>
+    </row>
+    <row r="370" ht="14.25">
+      <c r="A370" s="1">
+        <v>48.712768836024843</v>
+      </c>
+      <c r="B370" s="1">
+        <v>2.2009797594100213</v>
+      </c>
+    </row>
+    <row r="371" ht="14.25">
+      <c r="A371" s="1">
+        <v>48.712745773495378</v>
+      </c>
+      <c r="B371" s="1">
+        <v>2.2010200800390125</v>
+      </c>
+    </row>
+    <row r="372" ht="14.25">
+      <c r="A372" s="1">
+        <v>48.71251292720121</v>
+      </c>
+      <c r="B372" s="1">
+        <v>2.2014911638588019</v>
+      </c>
+    </row>
+    <row r="373" ht="14.25">
+      <c r="A373" s="1">
+        <v>48.712691623921685</v>
+      </c>
+      <c r="B373" s="1">
+        <v>2.2011531975887393</v>
+      </c>
+    </row>
+    <row r="374" ht="14.25">
+      <c r="A374" s="1">
+        <v>48.712831717562388</v>
+      </c>
+      <c r="B374" s="1">
+        <v>2.2008652338660029</v>
+      </c>
+    </row>
+    <row r="375" ht="14.25">
+      <c r="A375" s="1">
+        <v>48.712720054087839</v>
+      </c>
+      <c r="B375" s="1">
+        <v>2.2010284012186729</v>
+      </c>
+    </row>
+    <row r="376" ht="14.25">
+      <c r="A376" s="1">
+        <v>48.712663486578592</v>
+      </c>
+      <c r="B376" s="1">
+        <v>2.2011498372934208</v>
+      </c>
+    </row>
+    <row r="377" ht="14.25">
+      <c r="A377" s="1">
+        <v>48.712417623000341</v>
+      </c>
+      <c r="B377" s="1">
+        <v>2.2017656876619278</v>
+      </c>
+    </row>
+    <row r="378" ht="14.25">
+      <c r="A378" s="1">
+        <v>48.712742521637715</v>
+      </c>
+      <c r="B378" s="1">
+        <v>2.2010132112949141</v>
+      </c>
+    </row>
+    <row r="379" ht="14.25">
+      <c r="A379" s="1">
+        <v>48.712790503212069</v>
+      </c>
+      <c r="B379" s="1">
+        <v>2.2009118798152718</v>
+      </c>
+    </row>
+    <row r="380" ht="14.25">
+      <c r="A380" s="1">
+        <v>48.712862711258417</v>
+      </c>
+      <c r="B380" s="1">
+        <v>2.2007940768713121</v>
+      </c>
+    </row>
+    <row r="381" ht="14.25">
+      <c r="A381" s="1">
+        <v>48.712878304308603</v>
+      </c>
+      <c r="B381" s="1">
+        <v>2.2007032509189712</v>
+      </c>
+    </row>
+    <row r="382" ht="14.25">
+      <c r="A382" s="1">
+        <v>48.712722172512009</v>
+      </c>
+      <c r="B382" s="1">
+        <v>2.2011218118243052</v>
+      </c>
+    </row>
+    <row r="383" ht="14.25">
+      <c r="A383" s="1">
+        <v>48.71285677349654</v>
+      </c>
+      <c r="B383" s="1">
+        <v>2.2008058799751264</v>
+      </c>
+    </row>
+    <row r="384" ht="14.25">
+      <c r="A384" s="1">
+        <v>48.712907400183568</v>
+      </c>
+      <c r="B384" s="1">
+        <v>2.2006978766034058</v>
+      </c>
+    </row>
+    <row r="385" ht="14.25">
+      <c r="A385" s="1">
+        <v>48.712912841675625</v>
+      </c>
+      <c r="B385" s="1">
+        <v>2.2006961999277559</v>
+      </c>
+    </row>
+    <row r="386" ht="14.25">
+      <c r="A386" s="1">
+        <v>48.712929921840932</v>
+      </c>
+      <c r="B386" s="1">
+        <v>2.2006568352334717</v>
+      </c>
+    </row>
+    <row r="387" ht="14.25">
+      <c r="A387" s="1">
+        <v>48.712867702335288</v>
+      </c>
+      <c r="B387" s="1">
+        <v>2.2007594482803712</v>
+      </c>
+    </row>
+    <row r="388" ht="14.25">
+      <c r="A388" s="1">
+        <v>48.712880767546594</v>
+      </c>
+      <c r="B388" s="1">
+        <v>2.2007492583939126</v>
+      </c>
+    </row>
+    <row r="389" ht="14.25">
+      <c r="A389" s="1">
+        <v>48.712901818836933</v>
+      </c>
+      <c r="B389" s="1">
+        <v>2.2007127584301616</v>
+      </c>
+    </row>
+    <row r="390" ht="14.25">
+      <c r="A390" s="1">
+        <v>48.712888893061184</v>
+      </c>
+      <c r="B390" s="1">
+        <v>2.20073658616493</v>
+      </c>
+    </row>
+    <row r="391" ht="14.25">
+      <c r="A391" s="1">
+        <v>48.712889648966275</v>
+      </c>
+      <c r="B391" s="1">
+        <v>2.200739165758157</v>
+      </c>
+    </row>
+    <row r="392" ht="14.25">
+      <c r="A392" s="1">
+        <v>48.712870940165189</v>
+      </c>
+      <c r="B392" s="1">
+        <v>2.2007715166527984</v>
+      </c>
+    </row>
+    <row r="393" ht="14.25">
+      <c r="A393" s="1">
+        <v>48.712872668528291</v>
+      </c>
+      <c r="B393" s="1">
+        <v>2.2007891289023513</v>
+      </c>
+    </row>
+    <row r="394" ht="14.25">
+      <c r="A394" s="1">
+        <v>48.71287254439833</v>
+      </c>
+      <c r="B394" s="1">
+        <v>2.2007821713044415</v>
+      </c>
+    </row>
+    <row r="395" ht="14.25">
+      <c r="A395" s="1">
+        <v>48.712853317339324</v>
+      </c>
+      <c r="B395" s="1">
+        <v>2.200807434422384</v>
+      </c>
+    </row>
+    <row r="396" ht="14.25">
+      <c r="A396" s="1">
+        <v>48.712847653501669</v>
+      </c>
+      <c r="B396" s="1">
+        <v>2.2008229889192052</v>
+      </c>
+    </row>
+    <row r="397" ht="14.25">
+      <c r="A397" s="1">
+        <v>48.712835957495471</v>
+      </c>
+      <c r="B397" s="1">
+        <v>2.2008423336157681</v>
+      </c>
+    </row>
+    <row r="398" ht="14.25">
+      <c r="A398" s="1">
+        <v>48.712837413580786</v>
+      </c>
+      <c r="B398" s="1">
+        <v>2.2008389138341649</v>
+      </c>
+    </row>
+    <row r="399" ht="14.25">
+      <c r="A399" s="1">
+        <v>48.712812089224734</v>
+      </c>
+      <c r="B399" s="1">
+        <v>2.2009039381854993</v>
+      </c>
+    </row>
+    <row r="400" ht="14.25">
+      <c r="A400" s="1">
+        <v>48.712814279238458</v>
+      </c>
+      <c r="B400" s="1">
+        <v>2.2008991863583982</v>
+      </c>
+    </row>
+    <row r="401" ht="14.25">
+      <c r="A401" s="1">
+        <v>48.712716578871422</v>
+      </c>
+      <c r="B401" s="1">
+        <v>2.2010956748665942</v>
+      </c>
+    </row>
+    <row r="402" ht="14.25">
+      <c r="A402" s="1">
+        <v>48.712618416964041</v>
+      </c>
+      <c r="B402" s="1">
+        <v>2.2012975568456383</v>
+      </c>
+    </row>
+    <row r="403" ht="14.25">
+      <c r="A403" s="1">
+        <v>48.712180083993907</v>
+      </c>
+      <c r="B403" s="1">
+        <v>2.2022198399846</v>
+      </c>
+    </row>
+    <row r="404" ht="14.25">
+      <c r="A404" s="1">
+        <v>48.712298042393456</v>
+      </c>
+      <c r="B404" s="1">
+        <v>2.2019852539695326</v>
+      </c>
+    </row>
+    <row r="405" ht="14.25">
+      <c r="A405" s="1">
+        <v>48.712071493903991</v>
+      </c>
+      <c r="B405" s="1">
+        <v>2.2024623327414092</v>
+      </c>
+    </row>
+    <row r="406" ht="14.25">
+      <c r="A406" s="1">
+        <v>48.711888903050443</v>
+      </c>
+      <c r="B406" s="1">
+        <v>2.2028389945758748</v>
+      </c>
+    </row>
+    <row r="407" ht="14.25">
+      <c r="A407" s="1">
+        <v>48.711842683155929</v>
+      </c>
+      <c r="B407" s="1">
+        <v>2.2029341669646643</v>
+      </c>
+    </row>
+    <row r="408" ht="14.25">
+      <c r="A408" s="1">
+        <v>48.712023912404923</v>
+      </c>
+      <c r="B408" s="1">
+        <v>2.2025545568311968</v>
+      </c>
+    </row>
+    <row r="409" ht="14.25">
+      <c r="A409" s="1">
+        <v>48.712101331918198</v>
+      </c>
+      <c r="B409" s="1">
+        <v>2.202391675696818</v>
+      </c>
+    </row>
+    <row r="410" ht="14.25">
+      <c r="A410" s="1">
+        <v>48.711876840756808</v>
+      </c>
+      <c r="B410" s="1">
+        <v>2.2028683497734067</v>
+      </c>
+    </row>
+    <row r="411" ht="14.25">
+      <c r="A411" s="1">
+        <v>48.711726346228325</v>
+      </c>
+      <c r="B411" s="1">
+        <v>2.2031807845455291</v>
+      </c>
+    </row>
+    <row r="412" ht="14.25">
+      <c r="A412" s="1">
+        <v>48.711601752013053</v>
+      </c>
+      <c r="B412" s="1">
+        <v>2.2034264028352708</v>
+      </c>
+    </row>
+    <row r="413" ht="14.25">
+      <c r="A413" s="1">
+        <v>48.711832376201251</v>
+      </c>
+      <c r="B413" s="1">
+        <v>2.2029290019501531</v>
+      </c>
+    </row>
+    <row r="414" ht="14.25">
+      <c r="A414" s="1">
+        <v>48.711901574822171</v>
+      </c>
+      <c r="B414" s="1">
+        <v>2.2027950510278678</v>
+      </c>
+    </row>
+    <row r="415" ht="14.25">
+      <c r="A415" s="1">
+        <v>48.711927574268856</v>
+      </c>
+      <c r="B415" s="1">
+        <v>2.2027549589079283</v>
+      </c>
+    </row>
+    <row r="416" ht="14.25">
+      <c r="A416" s="1">
+        <v>48.712106760561163</v>
+      </c>
+      <c r="B416" s="1">
+        <v>2.2023700658245602</v>
+      </c>
+    </row>
+    <row r="417" ht="14.25">
+      <c r="A417" s="1">
+        <v>48.712049327705707</v>
+      </c>
+      <c r="B417" s="1">
+        <v>2.2025002472137438</v>
+      </c>
+    </row>
+    <row r="418" ht="14.25">
+      <c r="A418" s="1">
+        <v>48.711950511462796</v>
+      </c>
+      <c r="B418" s="1">
+        <v>2.2027147680538306</v>
+      </c>
+    </row>
+    <row r="419" ht="14.25">
+      <c r="A419" s="1">
+        <v>48.712085904532579</v>
+      </c>
+      <c r="B419" s="1">
+        <v>2.2024231716909681</v>
+      </c>
+    </row>
+    <row r="420" ht="14.25">
+      <c r="A420" s="1">
+        <v>48.712022234193839</v>
+      </c>
+      <c r="B420" s="1">
+        <v>2.2025475435998203</v>
+      </c>
+    </row>
+    <row r="421" ht="14.25">
+      <c r="A421" s="1">
+        <v>48.711877474604954</v>
+      </c>
+      <c r="B421" s="1">
+        <v>2.2028391019837028</v>
+      </c>
+    </row>
+    <row r="422" ht="14.25">
+      <c r="A422" s="1">
+        <v>48.712397255978431</v>
+      </c>
+      <c r="B422" s="1">
+        <v>2.2017364795349375</v>
+      </c>
+    </row>
+    <row r="423" ht="14.25">
+      <c r="A423" s="1">
+        <v>48.712492528664264</v>
+      </c>
+      <c r="B423" s="1">
+        <v>2.2015247305742891</v>
+      </c>
+    </row>
+    <row r="424" ht="14.25">
+      <c r="A424" s="1">
+        <v>48.712598147762783</v>
+      </c>
+      <c r="B424" s="1">
+        <v>2.2013044392147147</v>
+      </c>
+    </row>
+    <row r="425" ht="14.25">
+      <c r="A425" s="1">
+        <v>48.712567073556365</v>
+      </c>
+      <c r="B425" s="1">
+        <v>2.2013736928277572</v>
+      </c>
+    </row>
+    <row r="426" ht="14.25">
+      <c r="A426" s="1">
+        <v>48.712909918856468</v>
+      </c>
+      <c r="B426" s="1">
+        <v>2.2006366609017314</v>
+      </c>
+    </row>
+    <row r="427" ht="14.25">
+      <c r="A427" s="1">
+        <v>48.712866697723619</v>
+      </c>
+      <c r="B427" s="1">
+        <v>2.2007880798835529</v>
+      </c>
+    </row>
+    <row r="428" ht="14.25">
+      <c r="A428" s="1">
+        <v>48.712874952921084</v>
+      </c>
+      <c r="B428" s="1">
+        <v>2.2007034019984135</v>
+      </c>
+    </row>
+    <row r="429" ht="14.25">
+      <c r="A429" s="1">
+        <v>48.712797822207172</v>
+      </c>
+      <c r="B429" s="1">
+        <v>2.2008605127711367</v>
+      </c>
+    </row>
+    <row r="430" ht="14.25">
+      <c r="A430" s="1">
+        <v>48.712907314397697</v>
+      </c>
+      <c r="B430" s="1">
+        <v>2.2006504979986508</v>
+      </c>
+    </row>
+    <row r="431" ht="14.25">
+      <c r="A431" s="1">
+        <v>48.712817648122957</v>
+      </c>
+      <c r="B431" s="1">
+        <v>2.2008674511438131</v>
+      </c>
+    </row>
+    <row r="432" ht="14.25">
+      <c r="A432" s="1">
+        <v>48.712998826745448</v>
+      </c>
+      <c r="B432" s="1">
+        <v>2.200434254045962</v>
+      </c>
+    </row>
+    <row r="433" ht="14.25">
+      <c r="A433" s="1">
+        <v>48.712998826745448</v>
+      </c>
+      <c r="B433" s="1">
+        <v>2.200434254045962</v>
+      </c>
+    </row>
+    <row r="434" ht="14.25">
+      <c r="A434" s="1">
+        <v>48.713251571254538</v>
+      </c>
+      <c r="B434" s="1">
+        <v>2.1998135739216007</v>
+      </c>
+    </row>
+    <row r="435" ht="14.25">
+      <c r="A435" s="1">
+        <v>48.713040158536359</v>
+      </c>
+      <c r="B435" s="1">
+        <v>2.2004259195513254</v>
+      </c>
+    </row>
+    <row r="436" ht="14.25">
+      <c r="A436" s="1">
+        <v>48.713110954961891</v>
+      </c>
+      <c r="B436" s="1">
+        <v>2.2002121848806571</v>
+      </c>
+    </row>
+    <row r="437" ht="14.25">
+      <c r="A437" s="1">
+        <v>48.712829903767691</v>
+      </c>
+      <c r="B437" s="1">
+        <v>2.2008499512864801</v>
+      </c>
+    </row>
+    <row r="438" ht="14.25">
+      <c r="A438" s="1">
+        <v>48.712837024047786</v>
+      </c>
+      <c r="B438" s="1">
+        <v>2.2008686350382902</v>
+      </c>
+    </row>
+    <row r="439" ht="14.25">
+      <c r="A439" s="1">
+        <v>48.713006789361643</v>
+      </c>
+      <c r="B439" s="1">
+        <v>2.2005099444611997</v>
+      </c>
+    </row>
+    <row r="440" ht="14.25">
+      <c r="A440" s="1">
+        <v>48.712917064552691</v>
+      </c>
+      <c r="B440" s="1">
+        <v>2.2006868628269425</v>
+      </c>
+    </row>
+    <row r="441" ht="14.25">
+      <c r="A441" s="1">
+        <v>48.712842814631308</v>
+      </c>
+      <c r="B441" s="1">
+        <v>2.2008422472857982</v>
+      </c>
+    </row>
+    <row r="442" ht="14.25">
+      <c r="A442" s="1">
+        <v>48.71289730020375</v>
+      </c>
+      <c r="B442" s="1">
+        <v>2.2007136267997085</v>
+      </c>
+    </row>
+    <row r="443" ht="14.25">
+      <c r="A443" s="1">
+        <v>48.712883486004436</v>
+      </c>
+      <c r="B443" s="1">
+        <v>2.2007659494620651</v>
+      </c>
+    </row>
+    <row r="444" ht="14.25">
+      <c r="A444" s="1">
+        <v>48.71286914889204</v>
+      </c>
+      <c r="B444" s="1">
+        <v>2.2007824105984151</v>
+      </c>
+    </row>
+    <row r="445" ht="14.25">
+      <c r="A445" s="1">
+        <v>48.712880661461817</v>
+      </c>
+      <c r="B445" s="1">
+        <v>2.2007595456343463</v>
+      </c>
+    </row>
+    <row r="446" ht="14.25">
+      <c r="A446" s="1">
+        <v>48.712845379927259</v>
+      </c>
+      <c r="B446" s="1">
+        <v>2.2008315607661824</v>
+      </c>
+    </row>
+    <row r="447" ht="14.25">
+      <c r="A447" s="1">
+        <v>48.712845077005362</v>
+      </c>
+      <c r="B447" s="1">
+        <v>2.2008370324033897</v>
+      </c>
+    </row>
+    <row r="448" ht="14.25">
+      <c r="A448" s="1">
+        <v>48.712830597987107</v>
+      </c>
+      <c r="B448" s="1">
+        <v>2.2008522062448335</v>
+      </c>
+    </row>
+    <row r="449" ht="14.25">
+      <c r="A449" s="1">
+        <v>48.712823719361459</v>
+      </c>
+      <c r="B449" s="1">
+        <v>2.2008791650815831</v>
+      </c>
+    </row>
+    <row r="450" ht="14.25">
+      <c r="A450" s="1">
+        <v>48.712844796242763</v>
+      </c>
+      <c r="B450" s="1">
+        <v>2.2008552336358211</v>
+      </c>
+    </row>
+    <row r="451" ht="14.25">
+      <c r="A451" s="1">
+        <v>48.712820245179572</v>
+      </c>
+      <c r="B451" s="1">
+        <v>2.2008990892669309</v>
+      </c>
+    </row>
+    <row r="452" ht="14.25">
+      <c r="A452" s="1">
+        <v>48.712794728204607</v>
+      </c>
+      <c r="B452" s="1">
+        <v>2.2009537283055676</v>
+      </c>
+    </row>
+    <row r="453" ht="14.25">
+      <c r="A453" s="1">
+        <v>48.712793674031218</v>
+      </c>
+      <c r="B453" s="1">
+        <v>2.2009521456888432</v>
+      </c>
+    </row>
+    <row r="454" ht="14.25">
+      <c r="A454" s="1">
+        <v>48.712747493003263</v>
+      </c>
+      <c r="B454" s="1">
+        <v>2.2010570394571154</v>
+      </c>
+    </row>
+    <row r="455" ht="14.25">
+      <c r="A455" s="1">
+        <v>48.712638405628233</v>
+      </c>
+      <c r="B455" s="1">
+        <v>2.2012884489060451</v>
+      </c>
+    </row>
+    <row r="456" ht="14.25">
+      <c r="A456" s="1">
+        <v>48.712303942016824</v>
+      </c>
+      <c r="B456" s="1">
+        <v>2.2019748006984456</v>
+      </c>
+    </row>
+    <row r="457" ht="14.25">
+      <c r="A457" s="1">
+        <v>48.712570119624949</v>
+      </c>
+      <c r="B457" s="1">
+        <v>2.2014133344502591</v>
+      </c>
+    </row>
+    <row r="458" ht="14.25">
+      <c r="A458" s="1">
+        <v>48.711977005189681</v>
+      </c>
+      <c r="B458" s="1">
+        <v>2.2026699706719093</v>
+      </c>
+    </row>
+    <row r="459" ht="14.25">
+      <c r="A459" s="1">
+        <v>48.712139442653012</v>
+      </c>
+      <c r="B459" s="1">
+        <v>2.2023394730116435</v>
+      </c>
+    </row>
+    <row r="460" ht="14.25">
+      <c r="A460" s="1">
+        <v>48.711573985620987</v>
+      </c>
+      <c r="B460" s="1">
+        <v>2.2035254939761133</v>
+      </c>
+    </row>
+    <row r="461" ht="14.25">
+      <c r="A461" s="1">
+        <v>48.711640934960698</v>
+      </c>
+      <c r="B461" s="1">
+        <v>2.2033610924510327</v>
+      </c>
+    </row>
+    <row r="462" ht="14.25">
+      <c r="A462" s="1">
+        <v>48.711783062335428</v>
+      </c>
+      <c r="B462" s="1">
+        <v>2.2030565849473223</v>
+      </c>
+    </row>
+    <row r="463" ht="14.25">
+      <c r="A463" s="1">
+        <v>48.711737926875124</v>
+      </c>
+      <c r="B463" s="1">
+        <v>2.203166293214982</v>
+      </c>
+    </row>
+    <row r="464" ht="14.25">
+      <c r="A464" s="1">
+        <v>48.711831603984521</v>
+      </c>
+      <c r="B464" s="1">
+        <v>2.2029579526727772</v>
+      </c>
+    </row>
+    <row r="465" ht="14.25">
+      <c r="A465" s="1">
+        <v>48.711597518795273</v>
+      </c>
+      <c r="B465" s="1">
+        <v>2.203433234663903</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3:D173" r:id="rId2" display="http://maps.google.com/mapfiles/kml/shapes/placemark_circle.png"/>
-    <hyperlink ref="D174" r:id="rId3"/>
-    <hyperlink ref="D175" r:id="rId4"/>
-    <hyperlink ref="D176" r:id="rId5"/>
-    <hyperlink ref="D177" r:id="rId6"/>
-    <hyperlink ref="D178" r:id="rId7"/>
-    <hyperlink ref="D179" r:id="rId8"/>
-    <hyperlink ref="D180" r:id="rId9"/>
-    <hyperlink ref="D181" r:id="rId10"/>
-    <hyperlink ref="D182" r:id="rId11"/>
-    <hyperlink ref="D183" r:id="rId12"/>
-    <hyperlink ref="D184" r:id="rId13"/>
-    <hyperlink ref="D185" r:id="rId14"/>
-    <hyperlink ref="D186" r:id="rId15"/>
-    <hyperlink ref="D187" r:id="rId16"/>
-    <hyperlink ref="D188" r:id="rId17"/>
-    <hyperlink ref="D189" r:id="rId18"/>
-    <hyperlink ref="D190" r:id="rId19"/>
-    <hyperlink ref="D191" r:id="rId20"/>
-    <hyperlink ref="D192" r:id="rId21"/>
-    <hyperlink ref="D193" r:id="rId22"/>
-    <hyperlink ref="D194" r:id="rId23"/>
-    <hyperlink ref="D195" r:id="rId24"/>
-    <hyperlink ref="D196" r:id="rId25"/>
-    <hyperlink ref="D197" r:id="rId26"/>
-    <hyperlink ref="D198" r:id="rId27"/>
-    <hyperlink ref="D199" r:id="rId28"/>
-    <hyperlink ref="D200" r:id="rId29"/>
-    <hyperlink ref="D201" r:id="rId30"/>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId1" ref="D3:D173"/>
+    <hyperlink r:id="rId1" ref="D174"/>
+    <hyperlink r:id="rId1" ref="D175"/>
+    <hyperlink r:id="rId1" ref="D176"/>
+    <hyperlink r:id="rId1" ref="D177"/>
+    <hyperlink r:id="rId1" ref="D178"/>
+    <hyperlink r:id="rId1" ref="D179"/>
+    <hyperlink r:id="rId1" ref="D180"/>
+    <hyperlink r:id="rId1" ref="D181"/>
+    <hyperlink r:id="rId1" ref="D182"/>
+    <hyperlink r:id="rId1" ref="D183"/>
+    <hyperlink r:id="rId1" ref="D184"/>
+    <hyperlink r:id="rId1" ref="D185"/>
+    <hyperlink r:id="rId1" ref="D186"/>
+    <hyperlink r:id="rId1" ref="D187"/>
+    <hyperlink r:id="rId1" ref="D188"/>
+    <hyperlink r:id="rId1" ref="D189"/>
+    <hyperlink r:id="rId1" ref="D190"/>
+    <hyperlink r:id="rId1" ref="D191"/>
+    <hyperlink r:id="rId1" ref="D192"/>
+    <hyperlink r:id="rId1" ref="D193"/>
+    <hyperlink r:id="rId1" ref="D194"/>
+    <hyperlink r:id="rId1" ref="D195"/>
+    <hyperlink r:id="rId1" ref="D196"/>
+    <hyperlink r:id="rId1" ref="D197"/>
+    <hyperlink r:id="rId1" ref="D198"/>
+    <hyperlink r:id="rId1" ref="D199"/>
+    <hyperlink r:id="rId1" ref="D200"/>
+    <hyperlink r:id="rId1" ref="D201"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="20.7109375"/>
+    <col customWidth="1" min="2" max="2" width="24.42578125"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/PosMob.xlsx
+++ b/PosMob.xlsx
@@ -591,7 +591,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="11.7109375"/>
+    <col customWidth="1" min="1" max="2" width="11.453125"/>
     <col customWidth="1" min="3" max="3" width="14.85546875"/>
   </cols>
   <sheetData>
@@ -614,10 +614,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>48.711724088192412</v>
+        <v>48.712782017724237</v>
       </c>
       <c r="B2" s="1">
-        <v>2.2030150418192833</v>
+        <v>2.2008250050212426</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -631,10 +631,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>48.711806310696964</v>
+        <v>48.712786419594046</v>
       </c>
       <c r="B3" s="1">
-        <v>2.2028392562735992</v>
+        <v>2.2008437255153694</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -649,10 +649,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>48.711879918916182</v>
+        <v>48.712789738319948</v>
       </c>
       <c r="B4" s="1">
-        <v>2.2026951062097688</v>
+        <v>2.2008584538606342</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -667,10 +667,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>48.711925992549091</v>
+        <v>48.712792148337115</v>
       </c>
       <c r="B5" s="1">
-        <v>2.2025875087840983</v>
+        <v>2.2008686759235938</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>48.711943576307199</v>
+        <v>48.712792890670471</v>
       </c>
       <c r="B6" s="1">
-        <v>2.2025425243255672</v>
+        <v>2.2008716628501737</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -703,10 +703,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>48.711939331215063</v>
+        <v>48.712792874550018</v>
       </c>
       <c r="B7" s="1">
-        <v>2.2025564721726689</v>
+        <v>2.2008715866297432</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -721,10 +721,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>48.711900738188838</v>
+        <v>48.712792949475691</v>
       </c>
       <c r="B8" s="1">
-        <v>2.2026311180287421</v>
+        <v>2.2008716258389924</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -739,10 +739,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>48.711971499375544</v>
+        <v>48.712792939271793</v>
       </c>
       <c r="B9" s="1">
-        <v>2.2024852861621822</v>
+        <v>2.2008716283237213</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -757,10 +757,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>48.711897474834899</v>
+        <v>48.712792968834428</v>
       </c>
       <c r="B10" s="1">
-        <v>2.2026480021939276</v>
+        <v>2.2008716013484242</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -775,10 +775,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>48.711846456567166</v>
+        <v>48.712792927528184</v>
       </c>
       <c r="B11" s="1">
-        <v>2.20274685458641</v>
+        <v>2.2008716030162931</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>48.711868696315186</v>
+        <v>48.712792961059755</v>
       </c>
       <c r="B12" s="1">
-        <v>2.2027082418092072</v>
+        <v>2.2008715334521471</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -811,10 +811,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>48.711860852804158</v>
+        <v>48.712793001746817</v>
       </c>
       <c r="B13" s="1">
-        <v>2.2027499512027582</v>
+        <v>2.200871500579793</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -829,10 +829,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>48.711875363974784</v>
+        <v>48.712792970886973</v>
       </c>
       <c r="B14" s="1">
-        <v>2.2027264285522445</v>
+        <v>2.2008714771677607</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -847,10 +847,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>48.711891140587724</v>
+        <v>48.712793058534082</v>
       </c>
       <c r="B15" s="1">
-        <v>2.2027055762141852</v>
+        <v>2.2008719033812105</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>48.711861154893377</v>
+        <v>48.712793115650129</v>
       </c>
       <c r="B16" s="1">
-        <v>2.2027527546905898</v>
+        <v>2.2008719238239469</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -883,10 +883,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>48.711639325595272</v>
+        <v>48.712782633642561</v>
       </c>
       <c r="B17" s="1">
-        <v>2.2032280575998393</v>
+        <v>2.2008275225894502</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -901,10 +901,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>48.711604416516579</v>
+        <v>48.712780881691089</v>
       </c>
       <c r="B18" s="1">
-        <v>2.2032802895174264</v>
+        <v>2.2008200015698902</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -919,10 +919,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>48.71175369247149</v>
+        <v>48.712780877628447</v>
       </c>
       <c r="B19" s="1">
-        <v>2.2029933861605273</v>
+        <v>2.2008199485025175</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -937,10 +937,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>48.711764403232884</v>
+        <v>48.712780903943759</v>
       </c>
       <c r="B20" s="1">
-        <v>2.2029826086666948</v>
+        <v>2.2008200603468868</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -955,10 +955,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>48.711663005654103</v>
+        <v>48.712780904170998</v>
       </c>
       <c r="B21" s="1">
-        <v>2.2031982143734252</v>
+        <v>2.2008200742339734</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -973,10 +973,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>48.711596539714613</v>
+        <v>48.712780868974392</v>
       </c>
       <c r="B22" s="1">
-        <v>2.2033299339267027</v>
+        <v>2.2008200922095056</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>48.711648799161736</v>
+        <v>48.712780798116988</v>
       </c>
       <c r="B23" s="1">
-        <v>2.2032483101398799</v>
+        <v>2.2008200475201765</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1009,10 +1009,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>48.711539449155332</v>
+        <v>48.712780917224158</v>
       </c>
       <c r="B24" s="1">
-        <v>2.2034787543329979</v>
+        <v>2.2008199943593381</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>48.711393767975771</v>
+        <v>48.712780916322167</v>
       </c>
       <c r="B25" s="1">
-        <v>2.2037665606614647</v>
+        <v>2.2008201788427586</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>48.711346962489912</v>
+        <v>48.71278092285084</v>
       </c>
       <c r="B26" s="1">
-        <v>2.2038558035616651</v>
+        <v>2.2008200877508104</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>48.711422853806475</v>
+        <v>48.712780838047259</v>
       </c>
       <c r="B27" s="1">
-        <v>2.2037184873160784</v>
+        <v>2.2008202244435595</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1081,10 +1081,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>48.711432540012332</v>
+        <v>48.712780746436238</v>
       </c>
       <c r="B28" s="1">
-        <v>2.2036773238442668</v>
+        <v>2.2008202105117354</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>48.711299319823979</v>
+        <v>48.712780776208</v>
       </c>
       <c r="B29" s="1">
-        <v>2.2039463471920726</v>
+        <v>2.2008203402253192</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1117,10 +1117,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>48.711151002358676</v>
+        <v>48.71273224230255</v>
       </c>
       <c r="B30" s="1">
-        <v>2.2042336474333015</v>
+        <v>2.2006454508403603</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>48.711728592234714</v>
+        <v>48.712762529342626</v>
       </c>
       <c r="B31" s="1">
-        <v>2.2030703596306762</v>
+        <v>2.2007665246905859</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>48.711703285067699</v>
+        <v>48.712761414849119</v>
       </c>
       <c r="B32" s="1">
-        <v>2.2031359650548223</v>
+        <v>2.2007528230892079</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>48.711935917281586</v>
+        <v>48.712774412431123</v>
       </c>
       <c r="B33" s="1">
-        <v>2.2026502946972477</v>
+        <v>2.2007870928330595</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>48.711707397688784</v>
+        <v>48.712767016643319</v>
       </c>
       <c r="B34" s="1">
-        <v>2.2031128468417025</v>
+        <v>2.2007372599950812</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1207,10 +1207,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>48.711744869470287</v>
+        <v>48.71277260909303</v>
       </c>
       <c r="B35" s="1">
-        <v>2.2030463201457096</v>
+        <v>2.2007369673243797</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1225,10 +1225,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>48.711898628451898</v>
+        <v>48.712782298934243</v>
       </c>
       <c r="B36" s="1">
-        <v>2.2027295312784316</v>
+        <v>2.2007567875611405</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1243,10 +1243,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>48.711861230916362</v>
+        <v>48.712784445065225</v>
       </c>
       <c r="B37" s="1">
-        <v>2.2027798106693313</v>
+        <v>2.2007423292749624</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1261,10 +1261,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>48.71197395151038</v>
+        <v>48.712791885840929</v>
       </c>
       <c r="B38" s="1">
-        <v>2.2025598019918733</v>
+        <v>2.2007522071194758</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>48.711646528585</v>
+        <v>48.712780242478523</v>
       </c>
       <c r="B39" s="1">
-        <v>2.2032266675925105</v>
+        <v>2.2006785349626155</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>48.71204010310705</v>
+        <v>48.712801883845017</v>
       </c>
       <c r="B40" s="1">
-        <v>2.202411100192446</v>
+        <v>2.2007441532532157</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1315,10 +1315,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>48.711961340103109</v>
+        <v>48.712801139498367</v>
       </c>
       <c r="B41" s="1">
-        <v>2.2025920493995814</v>
+        <v>2.2007191749807551</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1333,10 +1333,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>48.712003211719825</v>
+        <v>48.712805251518851</v>
       </c>
       <c r="B42" s="1">
-        <v>2.20248991836668</v>
+        <v>2.2007101371912632</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1351,10 +1351,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <v>48.712038036445804</v>
+        <v>48.712811431672812</v>
       </c>
       <c r="B43" s="1">
-        <v>2.202447272167892</v>
+        <v>2.2007102271274976</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1369,10 +1369,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>48.712006966916114</v>
+        <v>48.712814123118896</v>
       </c>
       <c r="B44" s="1">
-        <v>2.202513027068993</v>
+        <v>2.2006967399668569</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1387,10 +1387,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>48.712168412673499</v>
+        <v>48.712825594972607</v>
       </c>
       <c r="B45" s="1">
-        <v>2.2021723345738291</v>
+        <v>2.2007192149382306</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <v>48.712517192228233</v>
+        <v>48.712844815733874</v>
       </c>
       <c r="B46" s="1">
-        <v>2.2014672694193975</v>
+        <v>2.2007744649884589</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1423,10 +1423,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>48.712204095585683</v>
+        <v>48.712833713509625</v>
       </c>
       <c r="B47" s="1">
-        <v>2.2020772828512887</v>
+        <v>2.2007038883459056</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1441,10 +1441,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>48.712487442066831</v>
+        <v>48.71284878772795</v>
       </c>
       <c r="B48" s="1">
-        <v>2.2015063473173462</v>
+        <v>2.2007398356406398</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1459,10 +1459,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>48.712554108635011</v>
+        <v>48.712856693981479</v>
       </c>
       <c r="B49" s="1">
-        <v>2.2013533630868491</v>
+        <v>2.2007454280832119</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>48.71284585059113</v>
+        <v>48.712873622526224</v>
       </c>
       <c r="B50" s="1">
-        <v>2.2007622092571815</v>
+        <v>2.2007891271970119</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1495,10 +1495,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <v>48.712820677331145</v>
+        <v>48.712876389586121</v>
       </c>
       <c r="B51" s="1">
-        <v>2.2008348094244843</v>
+        <v>2.200777093820784</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1513,10 +1513,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>48.712914088924187</v>
+        <v>48.71288521931875</v>
       </c>
       <c r="B52" s="1">
-        <v>2.2006477795272237</v>
+        <v>2.20078619666103</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>48.712891059445489</v>
+        <v>48.712888730986499</v>
       </c>
       <c r="B53" s="1">
-        <v>2.2006736969915668</v>
+        <v>2.2007769816717437</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1549,10 +1549,10 @@
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <v>48.712461662924007</v>
+        <v>48.712869414013348</v>
       </c>
       <c r="B54" s="1">
-        <v>2.2015477992648558</v>
+        <v>2.2008135368856308</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1567,10 +1567,10 @@
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <v>48.712462154648449</v>
+        <v>48.712814435937844</v>
       </c>
       <c r="B55" s="1">
-        <v>2.2015278122217543</v>
+        <v>2.2007800322881388</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <v>48.712574336257674</v>
+        <v>48.712828843017199</v>
       </c>
       <c r="B56" s="1">
-        <v>2.2013148203942734</v>
+        <v>2.2007851088920773</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1603,10 +1603,10 @@
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <v>48.712754084307711</v>
+        <v>48.712842055664169</v>
       </c>
       <c r="B57" s="1">
-        <v>2.2009533258018137</v>
+        <v>2.2008183757790047</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1621,10 +1621,10 @@
     </row>
     <row r="58">
       <c r="A58" s="1">
-        <v>48.712713526464192</v>
+        <v>48.712875317481313</v>
       </c>
       <c r="B58" s="1">
-        <v>2.2010225386698803</v>
+        <v>2.2007126202879439</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>48.712666361580077</v>
+        <v>48.712895140142258</v>
       </c>
       <c r="B59" s="1">
-        <v>2.2011157272253521</v>
+        <v>2.2006448778772203</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <v>48.712772928664258</v>
+        <v>48.712903171971227</v>
       </c>
       <c r="B60" s="1">
-        <v>2.2008941378395099</v>
+        <v>2.2006519848102393</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1675,10 +1675,10 @@
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>48.712694700222329</v>
+        <v>48.712869499396078</v>
       </c>
       <c r="B61" s="1">
-        <v>2.2010669556413416</v>
+        <v>2.2007170494898398</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1693,10 +1693,10 @@
     </row>
     <row r="62">
       <c r="A62" s="1">
-        <v>48.712761820257413</v>
+        <v>48.712858195012181</v>
       </c>
       <c r="B62" s="1">
-        <v>2.2009330553339983</v>
+        <v>2.2007592812255812</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1711,10 +1711,10 @@
     </row>
     <row r="63">
       <c r="A63" s="1">
-        <v>48.712864799963782</v>
+        <v>48.712865642897285</v>
       </c>
       <c r="B63" s="1">
-        <v>2.2007355732956828</v>
+        <v>2.2007923323049972</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1729,10 +1729,10 @@
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>48.712822333190537</v>
+        <v>48.712843937945237</v>
       </c>
       <c r="B64" s="1">
-        <v>2.2008338064015578</v>
+        <v>2.200852098884527</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1747,10 +1747,10 @@
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>48.712933570442274</v>
+        <v>48.712828460433833</v>
       </c>
       <c r="B65" s="1">
-        <v>2.2005747254901431</v>
+        <v>2.2009126658101454</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>48.712896516601369</v>
+        <v>48.712785999603277</v>
       </c>
       <c r="B66" s="1">
-        <v>2.2006700436906996</v>
+        <v>2.2010098681992498</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>48.71287910237124</v>
+        <v>48.712751748221628</v>
       </c>
       <c r="B67" s="1">
-        <v>2.2007368084377128</v>
+        <v>2.2010893844267208</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1795,16 +1795,16 @@
         <v>6</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67" si="1">E66+1</f>
+        <f t="shared" ref="E67:E130" si="1">E66+1</f>
         <v>66</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>48.712921358735848</v>
+        <v>48.7127384903457</v>
       </c>
       <c r="B68" s="1">
-        <v>2.2006538996312153</v>
+        <v>2.2011189428563132</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1813,16 +1813,16 @@
         <v>6</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E131" si="2">E67+1</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1">
-        <v>48.712941552254186</v>
+        <v>48.712741134910956</v>
       </c>
       <c r="B69" s="1">
-        <v>2.2005754731683229</v>
+        <v>2.2011113822851622</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1831,16 +1831,16 @@
         <v>6</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>48.712908689582157</v>
+        <v>48.712751366129723</v>
       </c>
       <c r="B70" s="1">
-        <v>2.2006884797361597</v>
+        <v>2.2010890272109842</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1849,16 +1849,16 @@
         <v>6</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>48.712894714290158</v>
+        <v>48.712744480394939</v>
       </c>
       <c r="B71" s="1">
-        <v>2.2006886159574988</v>
+        <v>2.2011040744477479</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1867,16 +1867,16 @@
         <v>6</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>48.712876604973509</v>
+        <v>48.712747877764556</v>
       </c>
       <c r="B72" s="1">
-        <v>2.2007534307875236</v>
+        <v>2.2010945080331603</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1885,16 +1885,16 @@
         <v>6</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>48.712843260648192</v>
+        <v>48.712738440694132</v>
       </c>
       <c r="B73" s="1">
-        <v>2.2008126616626638</v>
+        <v>2.2011176315735614</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1903,16 +1903,16 @@
         <v>6</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>48.712856965921532</v>
+        <v>48.712728979833109</v>
       </c>
       <c r="B74" s="1">
-        <v>2.2007957142645038</v>
+        <v>2.2011390551211361</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1921,16 +1921,16 @@
         <v>6</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>48.712825962858936</v>
+        <v>48.712739876088854</v>
       </c>
       <c r="B75" s="1">
-        <v>2.200848851044253</v>
+        <v>2.2011130654402882</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1939,16 +1939,16 @@
         <v>6</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>48.712835742334562</v>
+        <v>48.712753206946367</v>
       </c>
       <c r="B76" s="1">
-        <v>2.2008478663330804</v>
+        <v>2.201083040728665</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1957,16 +1957,16 @@
         <v>6</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1">
-        <v>48.712848761585157</v>
+        <v>48.712761545992883</v>
       </c>
       <c r="B77" s="1">
-        <v>2.2008097407986633</v>
+        <v>2.2010628669707106</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1975,16 +1975,16 @@
         <v>6</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>48.71282209500044</v>
+        <v>48.712773020105082</v>
       </c>
       <c r="B78" s="1">
-        <v>2.2008576728898177</v>
+        <v>2.2010373670393957</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -1993,16 +1993,16 @@
         <v>6</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>48.712855659398492</v>
+        <v>48.712834836618008</v>
       </c>
       <c r="B79" s="1">
-        <v>2.2007923712133195</v>
+        <v>2.2008924584800917</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2011,16 +2011,16 @@
         <v>6</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>48.712834809402899</v>
+        <v>48.712828944908331</v>
       </c>
       <c r="B80" s="1">
-        <v>2.2008563439559614</v>
+        <v>2.2009043696510568</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2029,16 +2029,16 @@
         <v>6</v>
       </c>
       <c r="E80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1">
-        <v>48.71283343551903</v>
+        <v>48.712847356515574</v>
       </c>
       <c r="B81" s="1">
-        <v>2.2008517095642595</v>
+        <v>2.200864135864288</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2047,16 +2047,16 @@
         <v>6</v>
       </c>
       <c r="E81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1">
-        <v>48.712816109321409</v>
+        <v>48.712843332719153</v>
       </c>
       <c r="B82" s="1">
-        <v>2.2008883729727158</v>
+        <v>2.2008751526006791</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2065,16 +2065,16 @@
         <v>6</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1">
-        <v>48.712800809611672</v>
+        <v>48.71283854191087</v>
       </c>
       <c r="B83" s="1">
-        <v>2.2009315027054042</v>
+        <v>2.2008854751578451</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2083,16 +2083,16 @@
         <v>6</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1">
-        <v>48.712802938303561</v>
+        <v>48.712834507092722</v>
       </c>
       <c r="B84" s="1">
-        <v>2.2009141815297144</v>
+        <v>2.2008969755129297</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2101,16 +2101,16 @@
         <v>6</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1">
-        <v>48.712733289353217</v>
+        <v>48.712820257696045</v>
       </c>
       <c r="B85" s="1">
-        <v>2.2010655371015475</v>
+        <v>2.2009040953900745</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2119,16 +2119,16 @@
         <v>6</v>
       </c>
       <c r="E85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1">
-        <v>48.712514397095788</v>
+        <v>48.712786758878899</v>
       </c>
       <c r="B86" s="1">
-        <v>2.2014991967432014</v>
+        <v>2.2009213696442163</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2137,16 +2137,16 @@
         <v>6</v>
       </c>
       <c r="E86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1">
-        <v>48.712617958842166</v>
+        <v>48.712751385508938</v>
       </c>
       <c r="B87" s="1">
-        <v>2.2012839578760817</v>
+        <v>2.2010379249327925</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2155,16 +2155,16 @@
         <v>6</v>
       </c>
       <c r="E87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1">
-        <v>48.712253924616057</v>
+        <v>48.712784599468272</v>
       </c>
       <c r="B88" s="1">
-        <v>2.2020229497235917</v>
+        <v>2.200848656512739</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2173,16 +2173,16 @@
         <v>6</v>
       </c>
       <c r="E88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1">
-        <v>48.712253924616057</v>
+        <v>48.712748771679578</v>
       </c>
       <c r="B89" s="1">
-        <v>2.2020229497235917</v>
+        <v>2.2007329963593132</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2191,16 +2191,16 @@
         <v>6</v>
       </c>
       <c r="E89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1">
-        <v>48.71268032165397</v>
+        <v>48.712750588546534</v>
       </c>
       <c r="B90" s="1">
-        <v>2.2011901218358099</v>
+        <v>2.200708448728931</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2209,16 +2209,16 @@
         <v>6</v>
       </c>
       <c r="E90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>48.712051663065594</v>
+        <v>48.712728095498782</v>
       </c>
       <c r="B91" s="1">
-        <v>2.202455783596891</v>
+        <v>2.2005648143023366</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2227,16 +2227,16 @@
         <v>6</v>
       </c>
       <c r="E91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1">
-        <v>48.712051663065594</v>
+        <v>48.712759675475432</v>
       </c>
       <c r="B92" s="1">
-        <v>2.202455783596891</v>
+        <v>2.2007171376382888</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2245,16 +2245,16 @@
         <v>6</v>
       </c>
       <c r="E92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1">
-        <v>48.712051663065594</v>
+        <v>48.71275379557234</v>
       </c>
       <c r="B93" s="1">
-        <v>2.202455783596891</v>
+        <v>2.200734725790547</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2263,16 +2263,16 @@
         <v>6</v>
       </c>
       <c r="E93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>48.711459374673687</v>
+        <v>48.712625967880072</v>
       </c>
       <c r="B94" s="1">
-        <v>2.2036474053581867</v>
+        <v>2.2002213737532976</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2281,16 +2281,16 @@
         <v>6</v>
       </c>
       <c r="E94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>48.711471472828293</v>
+        <v>48.712628390466115</v>
       </c>
       <c r="B95" s="1">
-        <v>2.2036496989405157</v>
+        <v>2.2002172732984331</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2299,16 +2299,16 @@
         <v>6</v>
       </c>
       <c r="E95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1">
-        <v>48.711610330809222</v>
+        <v>48.712638465484986</v>
       </c>
       <c r="B96" s="1">
-        <v>2.2033488275559563</v>
+        <v>2.2002328834277018</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2317,16 +2317,16 @@
         <v>6</v>
       </c>
       <c r="E96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1">
-        <v>48.711907260392408</v>
+        <v>48.712644444172618</v>
       </c>
       <c r="B97" s="1">
-        <v>2.2027279724433835</v>
+        <v>2.2002270838386302</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2335,16 +2335,16 @@
         <v>6</v>
       </c>
       <c r="E97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1">
-        <v>48.71202287952768</v>
+        <v>48.71266684158001</v>
       </c>
       <c r="B98" s="1">
-        <v>2.2025213502412178</v>
+        <v>2.2002853634452544</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2353,16 +2353,16 @@
         <v>6</v>
       </c>
       <c r="E98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1">
-        <v>48.711479072221692</v>
+        <v>48.712644155384815</v>
       </c>
       <c r="B99" s="1">
-        <v>2.2036161486397354</v>
+        <v>2.20016819708031</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2371,16 +2371,16 @@
         <v>6</v>
       </c>
       <c r="E99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>48.711921534579027</v>
+        <v>48.712670957259355</v>
       </c>
       <c r="B100" s="1">
-        <v>2.2027009507762267</v>
+        <v>2.2002413902193143</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2389,16 +2389,16 @@
         <v>6</v>
       </c>
       <c r="E100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1">
-        <v>48.711973107027269</v>
+        <v>48.712679075253419</v>
       </c>
       <c r="B101" s="1">
-        <v>2.2025870746968006</v>
+        <v>2.2002425242414629</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2407,16 +2407,16 @@
         <v>6</v>
       </c>
       <c r="E101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1">
-        <v>48.712137356605908</v>
+        <v>48.712691967930631</v>
       </c>
       <c r="B102" s="1">
-        <v>2.2022573849118956</v>
+        <v>2.2002634259705616</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2425,16 +2425,16 @@
         <v>6</v>
       </c>
       <c r="E102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>48.712208450036066</v>
+        <v>48.712700243195549</v>
       </c>
       <c r="B103" s="1">
-        <v>2.2021176778426486</v>
+        <v>2.2002635834529412</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2443,16 +2443,16 @@
         <v>6</v>
       </c>
       <c r="E103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>48.712015741322588</v>
+        <v>48.712695273577957</v>
       </c>
       <c r="B104" s="1">
-        <v>2.2025093010664651</v>
+        <v>2.2002133572618394</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2461,16 +2461,16 @@
         <v>6</v>
       </c>
       <c r="E104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1">
-        <v>48.712208728654694</v>
+        <v>48.712708749088506</v>
       </c>
       <c r="B105" s="1">
-        <v>2.2020892503832687</v>
+        <v>2.200235583994814</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2479,16 +2479,16 @@
         <v>6</v>
       </c>
       <c r="E105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>48.712343875347898</v>
+        <v>48.712719869074263</v>
       </c>
       <c r="B106" s="1">
-        <v>2.2018384331439496</v>
+        <v>2.2002479048897272</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2497,16 +2497,16 @@
         <v>6</v>
       </c>
       <c r="E106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1">
-        <v>48.712405182306497</v>
+        <v>48.712720512562456</v>
       </c>
       <c r="B107" s="1">
-        <v>2.2016598162947725</v>
+        <v>2.200222600169818</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2515,16 +2515,16 @@
         <v>6</v>
       </c>
       <c r="E107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1">
-        <v>48.712254860452603</v>
+        <v>48.712728110547083</v>
       </c>
       <c r="B108" s="1">
-        <v>2.2020351209310443</v>
+        <v>2.2002245697571157</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2533,16 +2533,16 @@
         <v>6</v>
       </c>
       <c r="E108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1">
-        <v>48.712667664917944</v>
+        <v>48.712748844785018</v>
       </c>
       <c r="B109" s="1">
-        <v>2.2011709717005878</v>
+        <v>2.2002759395679159</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2551,16 +2551,16 @@
         <v>6</v>
       </c>
       <c r="E109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1">
-        <v>48.712466565863565</v>
+        <v>48.712740906373377</v>
       </c>
       <c r="B110" s="1">
-        <v>2.2015753479309144</v>
+        <v>2.2002158184491241</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2569,16 +2569,16 @@
         <v>6</v>
       </c>
       <c r="E110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1">
-        <v>48.712523235651112</v>
+        <v>48.712746412855736</v>
       </c>
       <c r="B111" s="1">
-        <v>2.2014156912593439</v>
+        <v>2.200210364177452</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2587,16 +2587,16 @@
         <v>6</v>
       </c>
       <c r="E111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1">
-        <v>48.712685072267185</v>
+        <v>48.712744800374118</v>
       </c>
       <c r="B112" s="1">
-        <v>2.201071616376709</v>
+        <v>2.2002423669018185</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2605,16 +2605,16 @@
         <v>6</v>
       </c>
       <c r="E112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1">
-        <v>48.712792460216939</v>
+        <v>48.712742046425937</v>
       </c>
       <c r="B113" s="1">
-        <v>2.2008492717542598</v>
+        <v>2.2002846101740139</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2623,16 +2623,16 @@
         <v>6</v>
       </c>
       <c r="E113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1">
-        <v>48.71255774438486</v>
+        <v>48.712736197588576</v>
       </c>
       <c r="B114" s="1">
-        <v>2.2013456455612603</v>
+        <v>2.2002284434503152</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2641,16 +2641,16 @@
         <v>6</v>
       </c>
       <c r="E114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>48.712657209432408</v>
+        <v>48.712722069873273</v>
       </c>
       <c r="B115" s="1">
-        <v>2.2011128733220304</v>
+        <v>2.2002634686639984</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2659,16 +2659,16 @@
         <v>6</v>
       </c>
       <c r="E115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1">
-        <v>48.712700624700723</v>
+        <v>48.712739911509836</v>
       </c>
       <c r="B116" s="1">
-        <v>2.2010729949938233</v>
+        <v>2.2002835431574645</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2677,16 +2677,16 @@
         <v>6</v>
       </c>
       <c r="E116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>48.712693505915183</v>
+        <v>48.712747246792361</v>
       </c>
       <c r="B117" s="1">
-        <v>2.2011149049249927</v>
+        <v>2.200296451773013</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2695,16 +2695,16 @@
         <v>6</v>
       </c>
       <c r="E117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1">
-        <v>48.712780516355124</v>
+        <v>48.71273166960335</v>
       </c>
       <c r="B118" s="1">
-        <v>2.2009055987987347</v>
+        <v>2.2003280694999892</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2713,16 +2713,16 @@
         <v>6</v>
       </c>
       <c r="E118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>48.71262903260358</v>
+        <v>48.71273723039247</v>
       </c>
       <c r="B119" s="1">
-        <v>2.2012478671492812</v>
+        <v>2.2003030251777091</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2731,16 +2731,16 @@
         <v>6</v>
       </c>
       <c r="E119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1">
-        <v>48.712891102490524</v>
+        <v>48.712741472471563</v>
       </c>
       <c r="B120" s="1">
-        <v>2.2006627756167116</v>
+        <v>2.2003051263833018</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2749,16 +2749,16 @@
         <v>6</v>
       </c>
       <c r="E120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1">
-        <v>48.712932702936754</v>
+        <v>48.712730791962507</v>
       </c>
       <c r="B121" s="1">
-        <v>2.2005910393893542</v>
+        <v>2.2003354729407265</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2767,16 +2767,16 @@
         <v>6</v>
       </c>
       <c r="E121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1">
-        <v>48.712885427112873</v>
+        <v>48.712692616734572</v>
       </c>
       <c r="B122" s="1">
-        <v>2.200738177513665</v>
+        <v>2.2004187141107487</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2785,16 +2785,16 @@
         <v>6</v>
       </c>
       <c r="E122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>48.71301255551969</v>
+        <v>48.71266503618439</v>
       </c>
       <c r="B123" s="1">
-        <v>2.2004153827239845</v>
+        <v>2.2004855013088322</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2803,16 +2803,16 @@
         <v>6</v>
       </c>
       <c r="E123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1">
-        <v>48.712872453767005</v>
+        <v>48.712652009119957</v>
       </c>
       <c r="B124" s="1">
-        <v>2.2007690554062145</v>
+        <v>2.2005161713639794</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2821,16 +2821,16 @@
         <v>6</v>
       </c>
       <c r="E124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1">
-        <v>48.712866410306027</v>
+        <v>48.712651733407768</v>
       </c>
       <c r="B125" s="1">
-        <v>2.200776194964615</v>
+        <v>2.2005196489932524</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2839,16 +2839,16 @@
         <v>6</v>
       </c>
       <c r="E125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1">
-        <v>48.712890765817107</v>
+        <v>48.712632375784111</v>
       </c>
       <c r="B126" s="1">
-        <v>2.2007402302477592</v>
+        <v>2.2005667345502959</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2857,16 +2857,16 @@
         <v>6</v>
       </c>
       <c r="E126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1">
-        <v>48.712893822133012</v>
+        <v>48.712622532458603</v>
       </c>
       <c r="B127" s="1">
-        <v>2.2007332444896575</v>
+        <v>2.200588966569204</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2875,16 +2875,16 @@
         <v>6</v>
       </c>
       <c r="E127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>48.712890299773854</v>
+        <v>48.712601989592692</v>
       </c>
       <c r="B128" s="1">
-        <v>2.2007173496049819</v>
+        <v>2.2006389147904231</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2893,16 +2893,16 @@
         <v>6</v>
       </c>
       <c r="E128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1">
-        <v>48.712867178043417</v>
+        <v>48.71261831306726</v>
       </c>
       <c r="B129" s="1">
-        <v>2.200774407482847</v>
+        <v>2.2006019452411909</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2911,16 +2911,16 @@
         <v>6</v>
       </c>
       <c r="E129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1">
-        <v>48.712873207384106</v>
+        <v>48.712603583453827</v>
       </c>
       <c r="B130" s="1">
-        <v>2.2007566350676084</v>
+        <v>2.2006373802671022</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2929,16 +2929,16 @@
         <v>6</v>
       </c>
       <c r="E130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1">
-        <v>48.712869464792306</v>
+        <v>48.712609251603659</v>
       </c>
       <c r="B131" s="1">
-        <v>2.2007749663029395</v>
+        <v>2.2006250683857878</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2947,16 +2947,16 @@
         <v>6</v>
       </c>
       <c r="E131">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E131" si="2">E130+1</f>
         <v>130</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>48.712881978628964</v>
+        <v>48.712627769280857</v>
       </c>
       <c r="B132" s="1">
-        <v>2.2007500410409611</v>
+        <v>2.2005835674608938</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2971,10 +2971,10 @@
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>48.712862099494004</v>
+        <v>48.712664759651666</v>
       </c>
       <c r="B133" s="1">
-        <v>2.2007965242581369</v>
+        <v>2.2004959361724059</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="134">
       <c r="A134" s="1">
-        <v>48.712853328300369</v>
+        <v>48.712633743416617</v>
       </c>
       <c r="B134" s="1">
-        <v>2.2008113767160018</v>
+        <v>2.2005692714354712</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3007,10 +3007,10 @@
     </row>
     <row r="135">
       <c r="A135" s="1">
-        <v>48.712827368055521</v>
+        <v>48.712712932636606</v>
       </c>
       <c r="B135" s="1">
-        <v>2.2008668661150943</v>
+        <v>2.2003863199486529</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3025,10 +3025,10 @@
     </row>
     <row r="136">
       <c r="A136" s="1">
-        <v>48.712836097785875</v>
+        <v>48.712746321689508</v>
       </c>
       <c r="B136" s="1">
-        <v>2.2008468533337782</v>
+        <v>2.2003092287943868</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3043,10 +3043,10 @@
     </row>
     <row r="137">
       <c r="A137" s="1">
-        <v>48.712838981789766</v>
+        <v>48.712715436036255</v>
       </c>
       <c r="B137" s="1">
-        <v>2.200861707280295</v>
+        <v>2.2003824873678748</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3061,10 +3061,10 @@
     </row>
     <row r="138">
       <c r="A138" s="1">
-        <v>48.712807263852923</v>
+        <v>48.712705684271704</v>
       </c>
       <c r="B138" s="1">
-        <v>2.2009176764978209</v>
+        <v>2.2004071576153361</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3079,10 +3079,10 @@
     </row>
     <row r="139">
       <c r="A139" s="1">
-        <v>48.712805043361698</v>
+        <v>48.712700812124815</v>
       </c>
       <c r="B139" s="1">
-        <v>2.2009184882522108</v>
+        <v>2.2004193393884104</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3097,10 +3097,10 @@
     </row>
     <row r="140">
       <c r="A140" s="1">
-        <v>48.712800085573271</v>
+        <v>48.712701974311578</v>
       </c>
       <c r="B140" s="1">
-        <v>2.2009536094056834</v>
+        <v>2.2004158977176669</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3115,10 +3115,10 @@
     </row>
     <row r="141">
       <c r="A141" s="1">
-        <v>48.712762416782894</v>
+        <v>48.712682906545687</v>
       </c>
       <c r="B141" s="1">
-        <v>2.2010220987496085</v>
+        <v>2.2004618770563877</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3133,10 +3133,10 @@
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>48.712300867420993</v>
+        <v>48.712666085448241</v>
       </c>
       <c r="B142" s="1">
-        <v>2.2019554329135826</v>
+        <v>2.2003868273789235</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3151,10 +3151,10 @@
     </row>
     <row r="143">
       <c r="A143" s="1">
-        <v>48.712471688895199</v>
+        <v>48.712676786500921</v>
       </c>
       <c r="B143" s="1">
-        <v>2.201606226293209</v>
+        <v>2.2004113148370839</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3169,10 +3169,10 @@
     </row>
     <row r="144">
       <c r="A144" s="1">
-        <v>48.711801504162089</v>
+        <v>48.712636892612409</v>
       </c>
       <c r="B144" s="1">
-        <v>2.2029620218598094</v>
+        <v>2.2002946704715671</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3187,10 +3187,10 @@
     </row>
     <row r="145">
       <c r="A145" s="1">
-        <v>48.711958298242571</v>
+        <v>48.712640155923957</v>
       </c>
       <c r="B145" s="1">
-        <v>2.2026518139048368</v>
+        <v>2.2003374900759534</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3205,10 +3205,10 @@
     </row>
     <row r="146">
       <c r="A146" s="1">
-        <v>48.711859094913706</v>
+        <v>48.712642797429815</v>
       </c>
       <c r="B146" s="1">
-        <v>2.2028599106734625</v>
+        <v>2.2003015972203488</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3223,10 +3223,10 @@
     </row>
     <row r="147">
       <c r="A147" s="1">
-        <v>48.711717962565146</v>
+        <v>48.712631298588285</v>
       </c>
       <c r="B147" s="1">
-        <v>2.2031430892531128</v>
+        <v>2.2002866276956476</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3241,10 +3241,10 @@
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>48.711683925778267</v>
+        <v>48.712642733497731</v>
       </c>
       <c r="B148" s="1">
-        <v>2.2032122670860788</v>
+        <v>2.200256240444165</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3259,10 +3259,10 @@
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>48.711778832373803</v>
+        <v>48.712645213313252</v>
       </c>
       <c r="B149" s="1">
-        <v>2.2030194237152179</v>
+        <v>2.2002646196903903</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3277,10 +3277,10 @@
     </row>
     <row r="150">
       <c r="A150" s="1">
-        <v>48.711549824236982</v>
+        <v>48.712638756973583</v>
       </c>
       <c r="B150" s="1">
-        <v>2.2034843557222796</v>
+        <v>2.2002213034360869</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3295,10 +3295,10 @@
     </row>
     <row r="151">
       <c r="A151" s="1">
-        <v>48.711789660201767</v>
+        <v>48.712654391726332</v>
       </c>
       <c r="B151" s="1">
-        <v>2.2029917105551049</v>
+        <v>2.2002463497135523</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3313,10 +3313,10 @@
     </row>
     <row r="152">
       <c r="A152" s="1">
-        <v>48.711736812962741</v>
+        <v>48.712656607869974</v>
       </c>
       <c r="B152" s="1">
-        <v>2.2030880449654626</v>
+        <v>2.2002228932676644</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3331,10 +3331,10 @@
     </row>
     <row r="153">
       <c r="A153" s="1">
-        <v>48.711648109204845</v>
+        <v>48.712657270136425</v>
       </c>
       <c r="B153" s="1">
-        <v>2.20328338779884</v>
+        <v>2.2001917673653986</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3349,10 +3349,10 @@
     </row>
     <row r="154">
       <c r="A154" s="1">
-        <v>48.712110301023976</v>
+        <v>48.712685046271929</v>
       </c>
       <c r="B154" s="1">
-        <v>2.2023257033938206</v>
+        <v>2.2002659709722945</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3367,10 +3367,10 @@
     </row>
     <row r="155">
       <c r="A155" s="1">
-        <v>48.711878276842548</v>
+        <v>48.712691666990075</v>
       </c>
       <c r="B155" s="1">
-        <v>2.2028204398493885</v>
+        <v>2.2002591937131686</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="156">
       <c r="A156" s="1">
-        <v>48.712235537616515</v>
+        <v>48.712697996926373</v>
       </c>
       <c r="B156" s="1">
-        <v>2.2020793758114721</v>
+        <v>2.2002502989682009</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3403,10 +3403,10 @@
     </row>
     <row r="157">
       <c r="A157" s="1">
-        <v>48.7121882569364</v>
+        <v>48.712704308050185</v>
       </c>
       <c r="B157" s="1">
-        <v>2.2021920459012709</v>
+        <v>2.20024335541149</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3421,10 +3421,10 @@
     </row>
     <row r="158">
       <c r="A158" s="1">
-        <v>48.712446132650051</v>
+        <v>48.712721541399276</v>
       </c>
       <c r="B158" s="1">
-        <v>2.2016384837491256</v>
+        <v>2.2002777917679608</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="159">
       <c r="A159" s="1">
-        <v>48.712491116519125</v>
+        <v>48.712728859240329</v>
       </c>
       <c r="B159" s="1">
-        <v>2.2015754995444521</v>
+        <v>2.2002744789192081</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3457,10 +3457,10 @@
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>48.712695169963524</v>
+        <v>48.712742867164494</v>
       </c>
       <c r="B160" s="1">
-        <v>2.201138574248259</v>
+        <v>2.2002949612118328</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3475,10 +3475,10 @@
     </row>
     <row r="161">
       <c r="A161" s="1">
-        <v>48.712534718816592</v>
+        <v>48.71274035202665</v>
       </c>
       <c r="B161" s="1">
-        <v>2.2014690700737569</v>
+        <v>2.2002512119005244</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3493,10 +3493,10 @@
     </row>
     <row r="162">
       <c r="A162" s="1">
-        <v>48.71250496115222</v>
+        <v>48.712744153516063</v>
       </c>
       <c r="B162" s="1">
-        <v>2.2015256019713099</v>
+        <v>2.2002363899966673</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3511,10 +3511,10 @@
     </row>
     <row r="163">
       <c r="A163" s="1">
-        <v>48.712613895458048</v>
+        <v>48.712755617101926</v>
       </c>
       <c r="B163" s="1">
-        <v>2.201311173536812</v>
+        <v>2.2002444161791455</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3529,10 +3529,10 @@
     </row>
     <row r="164">
       <c r="A164" s="1">
-        <v>48.712771819412566</v>
+        <v>48.712769171341868</v>
       </c>
       <c r="B164" s="1">
-        <v>2.2009787612388361</v>
+        <v>2.2002645947977615</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3547,10 +3547,10 @@
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>48.712435314217757</v>
+        <v>48.712753857665874</v>
       </c>
       <c r="B165" s="1">
-        <v>2.2016542813681883</v>
+        <v>2.2001827500222975</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3565,10 +3565,10 @@
     </row>
     <row r="166">
       <c r="A166" s="1">
-        <v>48.712486385574813</v>
+        <v>48.71274297029602</v>
       </c>
       <c r="B166" s="1">
-        <v>2.2015411276902861</v>
+        <v>2.2002311906635694</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3583,10 +3583,10 @@
     </row>
     <row r="167">
       <c r="A167" s="1">
-        <v>48.712486385574813</v>
+        <v>48.71283562050543</v>
       </c>
       <c r="B167" s="1">
-        <v>2.2015411276902861</v>
+        <v>2.2005506222757334</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3601,10 +3601,10 @@
     </row>
     <row r="168">
       <c r="A168" s="1">
-        <v>48.7126008906774</v>
+        <v>48.712736380466943</v>
       </c>
       <c r="B168" s="1">
-        <v>2.2013167681829411</v>
+        <v>2.2002771743180309</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3619,10 +3619,10 @@
     </row>
     <row r="169">
       <c r="A169" s="1">
-        <v>48.712748320264502</v>
+        <v>48.712729927895339</v>
       </c>
       <c r="B169" s="1">
-        <v>2.201017953455314</v>
+        <v>2.2003391061759174</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3637,10 +3637,10 @@
     </row>
     <row r="170">
       <c r="A170" s="1">
-        <v>48.712634445325186</v>
+        <v>48.712725229163055</v>
       </c>
       <c r="B170" s="1">
-        <v>2.2012375848427199</v>
+        <v>2.2003093621451733</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3655,10 +3655,10 @@
     </row>
     <row r="171">
       <c r="A171" s="1">
-        <v>48.712655315810721</v>
+        <v>48.712730080029303</v>
       </c>
       <c r="B171" s="1">
-        <v>2.2011911851250745</v>
+        <v>2.2002922792834898</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3673,10 +3673,10 @@
     </row>
     <row r="172">
       <c r="A172" s="1">
-        <v>48.712863619380599</v>
+        <v>48.712746495433983</v>
       </c>
       <c r="B172" s="1">
-        <v>2.2007707614266039</v>
+        <v>2.2003197328554633</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3691,10 +3691,10 @@
     </row>
     <row r="173">
       <c r="A173" s="1">
-        <v>48.712787160200442</v>
+        <v>48.712745393114517</v>
       </c>
       <c r="B173" s="1">
-        <v>2.200927237335002</v>
+        <v>2.2003157558256223</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3709,10 +3709,10 @@
     </row>
     <row r="174">
       <c r="A174" s="1">
-        <v>48.712974340049612</v>
+        <v>48.712733444869656</v>
       </c>
       <c r="B174" s="1">
-        <v>2.2005370057697049</v>
+        <v>2.2003472334166752</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3727,10 +3727,10 @@
     </row>
     <row r="175">
       <c r="A175" s="1">
-        <v>48.713019509349557</v>
+        <v>48.712711799434473</v>
       </c>
       <c r="B175" s="1">
-        <v>2.2004673460159219</v>
+        <v>2.2003954315884395</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="176">
       <c r="A176" s="1">
-        <v>48.712970648966611</v>
+        <v>48.712697665028642</v>
       </c>
       <c r="B176" s="1">
-        <v>2.2005723569110049</v>
+        <v>2.2004271641612592</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3763,10 +3763,10 @@
     </row>
     <row r="177">
       <c r="A177" s="1">
-        <v>48.712952601593685</v>
+        <v>48.712672518047924</v>
       </c>
       <c r="B177" s="1">
-        <v>2.200586557965341</v>
+        <v>2.2004841893604006</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3781,10 +3781,10 @@
     </row>
     <row r="178">
       <c r="A178" s="1">
-        <v>48.712925909498985</v>
+        <v>48.712669618301696</v>
       </c>
       <c r="B178" s="1">
-        <v>2.200654940467262</v>
+        <v>2.2004898912697763</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3799,10 +3799,10 @@
     </row>
     <row r="179">
       <c r="A179" s="1">
-        <v>48.712859697865163</v>
+        <v>48.712644065891602</v>
       </c>
       <c r="B179" s="1">
-        <v>2.2007960333910774</v>
+        <v>2.2005488053844555</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3817,10 +3817,10 @@
     </row>
     <row r="180">
       <c r="A180" s="1">
-        <v>48.712894301425635</v>
+        <v>48.712615737197318</v>
       </c>
       <c r="B180" s="1">
-        <v>2.2007354383376954</v>
+        <v>2.2006150682093377</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3835,10 +3835,10 @@
     </row>
     <row r="181">
       <c r="A181" s="1">
-        <v>48.71289929613468</v>
+        <v>48.712600304386122</v>
       </c>
       <c r="B181" s="1">
-        <v>2.2007109478299385</v>
+        <v>2.2006510379982869</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3853,10 +3853,10 @@
     </row>
     <row r="182">
       <c r="A182" s="1">
-        <v>48.712862513572773</v>
+        <v>48.712603589282267</v>
       </c>
       <c r="B182" s="1">
-        <v>2.2008108336146539</v>
+        <v>2.2006418687588982</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3871,10 +3871,10 @@
     </row>
     <row r="183">
       <c r="A183" s="1">
-        <v>48.712870519509259</v>
+        <v>48.712588125941679</v>
       </c>
       <c r="B183" s="1">
-        <v>2.2007787541988462</v>
+        <v>2.2006782859626148</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3889,10 +3889,10 @@
     </row>
     <row r="184">
       <c r="A184" s="1">
-        <v>48.712870477848817</v>
+        <v>48.712595550378921</v>
       </c>
       <c r="B184" s="1">
-        <v>2.2007888404288338</v>
+        <v>2.2006622973040675</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3907,10 +3907,10 @@
     </row>
     <row r="185">
       <c r="A185" s="1">
-        <v>48.712865602686257</v>
+        <v>48.712599882950393</v>
       </c>
       <c r="B185" s="1">
-        <v>2.2008077918249951</v>
+        <v>2.2006534883482276</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3925,10 +3925,10 @@
     </row>
     <row r="186">
       <c r="A186" s="1">
-        <v>48.712879670036315</v>
+        <v>48.712643210967734</v>
       </c>
       <c r="B186" s="1">
-        <v>2.2007675739019703</v>
+        <v>2.2005529969159836</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3943,10 +3943,10 @@
     </row>
     <row r="187">
       <c r="A187" s="1">
-        <v>48.712871912154633</v>
+        <v>48.712726135846225</v>
       </c>
       <c r="B187" s="1">
-        <v>2.2007905150803642</v>
+        <v>2.2003597562014705</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3961,10 +3961,10 @@
     </row>
     <row r="188">
       <c r="A188" s="1">
-        <v>48.712876272255997</v>
+        <v>48.712725691419926</v>
       </c>
       <c r="B188" s="1">
-        <v>2.2007913391535308</v>
+        <v>2.2003613977565806</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3979,10 +3979,10 @@
     </row>
     <row r="189">
       <c r="A189" s="1">
-        <v>48.712849191448413</v>
+        <v>48.712720130294493</v>
       </c>
       <c r="B189" s="1">
-        <v>2.2008474612165241</v>
+        <v>2.2003741076808869</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3997,10 +3997,10 @@
     </row>
     <row r="190">
       <c r="A190" s="1">
-        <v>48.712813433779509</v>
+        <v>48.712714014699543</v>
       </c>
       <c r="B190" s="1">
-        <v>2.2009125693235947</v>
+        <v>2.2003866407948514</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4015,10 +4015,10 @@
     </row>
     <row r="191">
       <c r="A191" s="1">
-        <v>48.712748016738487</v>
+        <v>48.712698003345672</v>
       </c>
       <c r="B191" s="1">
-        <v>2.2010474271482643</v>
+        <v>2.2004488531200064</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4033,10 +4033,10 @@
     </row>
     <row r="192">
       <c r="A192" s="1">
-        <v>48.712797237727528</v>
+        <v>48.712718796762665</v>
       </c>
       <c r="B192" s="1">
-        <v>2.2009463238262055</v>
+        <v>2.200414709666846</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="193">
       <c r="A193" s="1">
-        <v>48.712766368213622</v>
+        <v>48.712684930855765</v>
       </c>
       <c r="B193" s="1">
-        <v>2.2010049354271208</v>
+        <v>2.2004743400097393</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4069,10 +4069,10 @@
     </row>
     <row r="194">
       <c r="A194" s="1">
-        <v>48.712487394976591</v>
+        <v>48.712691779746542</v>
       </c>
       <c r="B194" s="1">
-        <v>2.2015647602270256</v>
+        <v>2.2003877595225898</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4087,10 +4087,10 @@
     </row>
     <row r="195">
       <c r="A195" s="1">
-        <v>48.712487394976591</v>
+        <v>48.71277084736689</v>
       </c>
       <c r="B195" s="1">
-        <v>2.2015647602270256</v>
+        <v>2.2007064991878171</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4105,10 +4105,10 @@
     </row>
     <row r="196">
       <c r="A196" s="1">
-        <v>48.712314055664869</v>
+        <v>48.71265628556344</v>
       </c>
       <c r="B196" s="1">
-        <v>2.2019470505775098</v>
+        <v>2.2003277800345398</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4123,10 +4123,10 @@
     </row>
     <row r="197">
       <c r="A197" s="1">
-        <v>48.712245313063001</v>
+        <v>48.712648757135739</v>
       </c>
       <c r="B197" s="1">
-        <v>2.2020839471526998</v>
+        <v>2.2003352946196242</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4141,10 +4141,10 @@
     </row>
     <row r="198">
       <c r="A198" s="1">
-        <v>48.711937578754288</v>
+        <v>48.712627445172309</v>
       </c>
       <c r="B198" s="1">
-        <v>2.2027055553111436</v>
+        <v>2.2002885117535329</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4159,10 +4159,10 @@
     </row>
     <row r="199">
       <c r="A199" s="1">
-        <v>48.711937578754288</v>
+        <v>48.712751069747718</v>
       </c>
       <c r="B199" s="1">
-        <v>2.2027055553111436</v>
+        <v>2.2007509341836524</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4177,10 +4177,10 @@
     </row>
     <row r="200">
       <c r="A200" s="1">
-        <v>48.711937578754288</v>
+        <v>48.71275100390023</v>
       </c>
       <c r="B200" s="1">
-        <v>2.2027055553111436</v>
+        <v>2.2007500164139491</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4195,10 +4195,10 @@
     </row>
     <row r="201">
       <c r="A201" s="1">
-        <v>48.711937578754288</v>
+        <v>48.712751653709013</v>
       </c>
       <c r="B201" s="1">
-        <v>2.2027055553111436</v>
+        <v>2.2007458391149055</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4213,2114 +4213,2114 @@
     </row>
     <row r="202" ht="14.25">
       <c r="A202" s="1">
-        <v>48.711622724401494</v>
+        <v>48.71256846993932</v>
       </c>
       <c r="B202" s="1">
-        <v>2.2033521108736043</v>
+        <v>2.200058486666594</v>
       </c>
     </row>
     <row r="203" ht="14.25">
       <c r="A203" s="1">
-        <v>48.71186342232464</v>
+        <v>48.712584738288697</v>
       </c>
       <c r="B203" s="1">
-        <v>2.2028564238410011</v>
+        <v>2.2000879750857409</v>
       </c>
     </row>
     <row r="204" ht="14.25">
       <c r="A204" s="1">
-        <v>48.71186342232464</v>
+        <v>48.712767576552906</v>
       </c>
       <c r="B204" s="1">
-        <v>2.2028564238410011</v>
+        <v>2.2007121412866346</v>
       </c>
     </row>
     <row r="205" ht="14.25">
       <c r="A205" s="1">
-        <v>48.711955458470165</v>
+        <v>48.712618172575255</v>
       </c>
       <c r="B205" s="1">
-        <v>2.2026755898690342</v>
+        <v>2.2001471763510243</v>
       </c>
     </row>
     <row r="206" ht="14.25">
       <c r="A206" s="1">
-        <v>48.711955458470165</v>
+        <v>48.712778373330721</v>
       </c>
       <c r="B206" s="1">
-        <v>2.2026755898690342</v>
+        <v>2.2006883374891593</v>
       </c>
     </row>
     <row r="207" ht="14.25">
       <c r="A207" s="1">
-        <v>48.711906150506408</v>
+        <v>48.712651690781996</v>
       </c>
       <c r="B207" s="1">
-        <v>2.2027854594390628</v>
+        <v>2.2002049060765354</v>
       </c>
     </row>
     <row r="208" ht="14.25">
       <c r="A208" s="1">
-        <v>48.712025552333067</v>
+        <v>48.712662129538849</v>
       </c>
       <c r="B208" s="1">
-        <v>2.2025415043420007</v>
+        <v>2.200211547621691</v>
       </c>
     </row>
     <row r="209" ht="14.25">
       <c r="A209" s="1">
-        <v>48.712043074378975</v>
+        <v>48.712667660463623</v>
       </c>
       <c r="B209" s="1">
-        <v>2.2025127178293897</v>
+        <v>2.20020215745549</v>
       </c>
     </row>
     <row r="210" ht="14.25">
       <c r="A210" s="1">
-        <v>48.712051941797128</v>
+        <v>48.712673008869018</v>
       </c>
       <c r="B210" s="1">
-        <v>2.2024973299654218</v>
+        <v>2.2001916539477135</v>
       </c>
     </row>
     <row r="211" ht="14.25">
       <c r="A211" s="1">
-        <v>48.712292838684974</v>
+        <v>48.71268919918375</v>
       </c>
       <c r="B211" s="1">
-        <v>2.2019955091678391</v>
+        <v>2.2002192480316349</v>
       </c>
     </row>
     <row r="212" ht="14.25">
       <c r="A212" s="1">
-        <v>48.712085738306548</v>
+        <v>48.71268354752447</v>
       </c>
       <c r="B212" s="1">
-        <v>2.2024096402914344</v>
+        <v>2.2001683018937457</v>
       </c>
     </row>
     <row r="213" ht="14.25">
       <c r="A213" s="1">
-        <v>48.712362810696838</v>
+        <v>48.712703507936382</v>
       </c>
       <c r="B213" s="1">
-        <v>2.2018122462497995</v>
+        <v>2.2002097035630164</v>
       </c>
     </row>
     <row r="214" ht="14.25">
       <c r="A214" s="1">
-        <v>48.712263843527111</v>
+        <v>48.712709928772767</v>
       </c>
       <c r="B214" s="1">
-        <v>2.2020323831386861</v>
+        <v>2.2002025539818217</v>
       </c>
     </row>
     <row r="215" ht="14.25">
       <c r="A215" s="1">
-        <v>48.712698600358856</v>
+        <v>48.712730723183874</v>
       </c>
       <c r="B215" s="1">
-        <v>2.2011279203187621</v>
+        <v>2.2002436924441278</v>
       </c>
     </row>
     <row r="216" ht="14.25">
       <c r="A216" s="1">
-        <v>48.712628242700852</v>
+        <v>48.7127304014369</v>
       </c>
       <c r="B216" s="1">
-        <v>2.2012764337077786</v>
+        <v>2.2002136089612501</v>
       </c>
     </row>
     <row r="217" ht="14.25">
       <c r="A217" s="1">
-        <v>48.712475235494189</v>
+        <v>48.712720998089978</v>
       </c>
       <c r="B217" s="1">
-        <v>2.2015824640696828</v>
+        <v>2.2001878785072844</v>
       </c>
     </row>
     <row r="218" ht="14.25">
       <c r="A218" s="1">
-        <v>48.71256699036617</v>
+        <v>48.712729556915548</v>
       </c>
       <c r="B218" s="1">
-        <v>2.2013905519481645</v>
+        <v>2.200185309734275</v>
       </c>
     </row>
     <row r="219" ht="14.25">
       <c r="A219" s="1">
-        <v>48.712527086735875</v>
+        <v>48.712680191104482</v>
       </c>
       <c r="B219" s="1">
-        <v>2.2014827732463216</v>
+        <v>2.2002910946864862</v>
       </c>
     </row>
     <row r="220" ht="14.25">
       <c r="A220" s="1">
-        <v>48.712540077720561</v>
+        <v>48.712731713345434</v>
       </c>
       <c r="B220" s="1">
-        <v>2.2014753147057866</v>
+        <v>2.2001788809672691</v>
       </c>
     </row>
     <row r="221" ht="14.25">
       <c r="A221" s="1">
-        <v>48.712500682841849</v>
+        <v>48.71272916789848</v>
       </c>
       <c r="B221" s="1">
-        <v>2.2015333452753714</v>
+        <v>2.2001686357967447</v>
       </c>
     </row>
     <row r="222" ht="14.25">
       <c r="A222" s="1">
-        <v>48.712667825780542</v>
+        <v>48.712741327608299</v>
       </c>
       <c r="B222" s="1">
-        <v>2.2011727921624056</v>
+        <v>2.2001844906247237</v>
       </c>
     </row>
     <row r="223" ht="14.25">
       <c r="A223" s="1">
-        <v>48.712815857599914</v>
+        <v>48.712750945195523</v>
       </c>
       <c r="B223" s="1">
-        <v>2.2008690075363573</v>
+        <v>2.2002011824141952</v>
       </c>
     </row>
     <row r="224" ht="14.25">
       <c r="A224" s="1">
-        <v>48.713053957045808</v>
+        <v>48.712770548328876</v>
       </c>
       <c r="B224" s="1">
-        <v>2.2003958325710768</v>
+        <v>2.200234679072075</v>
       </c>
     </row>
     <row r="225" ht="14.25">
       <c r="A225" s="1">
-        <v>48.712912338539397</v>
+        <v>48.712749393480301</v>
       </c>
       <c r="B225" s="1">
-        <v>2.2006649465234362</v>
+        <v>2.2002200941564172</v>
       </c>
     </row>
     <row r="226" ht="14.25">
       <c r="A226" s="1">
-        <v>48.712989337927674</v>
+        <v>48.712733651612879</v>
       </c>
       <c r="B226" s="1">
-        <v>2.2005098428298204</v>
+        <v>2.2002503115703878</v>
       </c>
     </row>
     <row r="227" ht="14.25">
       <c r="A227" s="1">
-        <v>48.713099159334895</v>
+        <v>48.712671627014828</v>
       </c>
       <c r="B227" s="1">
-        <v>2.2002985074018344</v>
+        <v>2.2003960067474613</v>
       </c>
     </row>
     <row r="228" ht="14.25">
       <c r="A228" s="1">
-        <v>48.712943010461075</v>
+        <v>48.712642197112899</v>
       </c>
       <c r="B228" s="1">
-        <v>2.2006224176996736</v>
+        <v>2.2004663465990446</v>
       </c>
     </row>
     <row r="229" ht="14.25">
       <c r="A229" s="1">
-        <v>48.712893341897917</v>
+        <v>48.712627442782363</v>
       </c>
       <c r="B229" s="1">
-        <v>2.2007415281545235</v>
+        <v>2.2005002939415981</v>
       </c>
     </row>
     <row r="230" ht="14.25">
       <c r="A230" s="1">
-        <v>48.712941593549687</v>
+        <v>48.712614400905835</v>
       </c>
       <c r="B230" s="1">
-        <v>2.2006326034121186</v>
+        <v>2.2005331522110181</v>
       </c>
     </row>
     <row r="231" ht="14.25">
       <c r="A231" s="1">
-        <v>48.712952434998947</v>
+        <v>48.712606535000724</v>
       </c>
       <c r="B231" s="1">
-        <v>2.2006218490630829</v>
+        <v>2.2005534880667486</v>
       </c>
     </row>
     <row r="232" ht="14.25">
       <c r="A232" s="1">
-        <v>48.712895176303718</v>
+        <v>48.71259430963179</v>
       </c>
       <c r="B232" s="1">
-        <v>2.2007323690623872</v>
+        <v>2.2005826223757881</v>
       </c>
     </row>
     <row r="233" ht="14.25">
       <c r="A233" s="1">
-        <v>48.712901407641937</v>
+        <v>48.712612236312474</v>
       </c>
       <c r="B233" s="1">
-        <v>2.2007092567861442</v>
+        <v>2.2005402421148474</v>
       </c>
     </row>
     <row r="234" ht="14.25">
       <c r="A234" s="1">
-        <v>48.712870601817151</v>
+        <v>48.712616677877328</v>
       </c>
       <c r="B234" s="1">
-        <v>2.200793045330717</v>
+        <v>2.200528864774951</v>
       </c>
     </row>
     <row r="235" ht="14.25">
       <c r="A235" s="1">
-        <v>48.712864008517961</v>
+        <v>48.712600996964952</v>
       </c>
       <c r="B235" s="1">
-        <v>2.2008014994932394</v>
+        <v>2.2005648264808761</v>
       </c>
     </row>
     <row r="236" ht="14.25">
       <c r="A236" s="1">
-        <v>48.712874586958328</v>
+        <v>48.712672420067427</v>
       </c>
       <c r="B236" s="1">
-        <v>2.2007857720007369</v>
+        <v>2.2003949354557233</v>
       </c>
     </row>
     <row r="237" ht="14.25">
       <c r="A237" s="1">
-        <v>48.71286791235584</v>
+        <v>48.712704677701488</v>
       </c>
       <c r="B237" s="1">
-        <v>2.2007875098751009</v>
+        <v>2.2003197503799194</v>
       </c>
     </row>
     <row r="238" ht="14.25">
       <c r="A238" s="1">
-        <v>48.71282824303249</v>
+        <v>48.712700850560104</v>
       </c>
       <c r="B238" s="1">
-        <v>2.2008943486977253</v>
+        <v>2.2003285000200608</v>
       </c>
     </row>
     <row r="239" ht="14.25">
       <c r="A239" s="1">
-        <v>48.712837225830164</v>
+        <v>48.71269519889789</v>
       </c>
       <c r="B239" s="1">
-        <v>2.2008639049431955</v>
+        <v>2.200340372077358</v>
       </c>
     </row>
     <row r="240" ht="14.25">
       <c r="A240" s="1">
-        <v>48.712844556991683</v>
+        <v>48.712689726933611</v>
       </c>
       <c r="B240" s="1">
-        <v>2.2008540763531723</v>
+        <v>2.200352853038742</v>
       </c>
     </row>
     <row r="241" ht="14.25">
       <c r="A241" s="1">
-        <v>48.712845467208695</v>
+        <v>48.712706946842502</v>
       </c>
       <c r="B241" s="1">
-        <v>2.2008437352744696</v>
+        <v>2.2003113569823549</v>
       </c>
     </row>
     <row r="242" ht="14.25">
       <c r="A242" s="1">
-        <v>48.712823719566209</v>
+        <v>48.712700730239682</v>
       </c>
       <c r="B242" s="1">
-        <v>2.2008884449838546</v>
+        <v>2.2003235938992005</v>
       </c>
     </row>
     <row r="243" ht="14.25">
       <c r="A243" s="1">
-        <v>48.71282192989753</v>
+        <v>48.71269500240075</v>
       </c>
       <c r="B243" s="1">
-        <v>2.2008949335544576</v>
+        <v>2.2003362001757134</v>
       </c>
     </row>
     <row r="244" ht="14.25">
       <c r="A244" s="1">
-        <v>48.712807701741546</v>
+        <v>48.712670746257473</v>
       </c>
       <c r="B244" s="1">
-        <v>2.2009365780967705</v>
+        <v>2.2004311807295558</v>
       </c>
     </row>
     <row r="245" ht="14.25">
       <c r="A245" s="1">
-        <v>48.712736729606902</v>
+        <v>48.712662063158383</v>
       </c>
       <c r="B245" s="1">
-        <v>2.2010757027321985</v>
+        <v>2.200433191769037</v>
       </c>
     </row>
     <row r="246" ht="14.25">
       <c r="A246" s="1">
-        <v>48.712586459382869</v>
+        <v>48.712661992611565</v>
       </c>
       <c r="B246" s="1">
-        <v>2.2013792220287698</v>
+        <v>2.2003883835521267</v>
       </c>
     </row>
     <row r="247" ht="14.25">
       <c r="A247" s="1">
-        <v>48.712145860323588</v>
+        <v>48.712635346006479</v>
       </c>
       <c r="B247" s="1">
-        <v>2.2023021424322882</v>
+        <v>2.2003107282665635</v>
       </c>
     </row>
     <row r="248" ht="14.25">
       <c r="A248" s="1">
-        <v>48.712006762891853</v>
+        <v>48.712622538220089</v>
       </c>
       <c r="B248" s="1">
-        <v>2.2025813411521447</v>
+        <v>2.2002981655601213</v>
       </c>
     </row>
     <row r="249" ht="14.25">
       <c r="A249" s="1">
-        <v>48.712059801016878</v>
+        <v>48.712620615679292</v>
       </c>
       <c r="B249" s="1">
-        <v>2.2024618486824976</v>
+        <v>2.2003217196657308</v>
       </c>
     </row>
     <row r="250" ht="14.25">
       <c r="A250" s="1">
-        <v>48.711837027775942</v>
+        <v>48.712603987922733</v>
       </c>
       <c r="B250" s="1">
-        <v>2.2029555936769003</v>
+        <v>2.2002904977363826</v>
       </c>
     </row>
     <row r="251" ht="14.25">
       <c r="A251" s="1">
-        <v>48.711737935824814</v>
+        <v>48.712612280257581</v>
       </c>
       <c r="B251" s="1">
-        <v>2.2031653812311336</v>
+        <v>2.2002475770015586</v>
       </c>
     </row>
     <row r="252" ht="14.25">
       <c r="A252" s="1">
-        <v>48.711381836992629</v>
+        <v>48.712592217944419</v>
       </c>
       <c r="B252" s="1">
-        <v>2.2038743515836616</v>
+        <v>2.2001792452497511</v>
       </c>
     </row>
     <row r="253" ht="14.25">
       <c r="A253" s="1">
-        <v>48.711678551436378</v>
+        <v>48.712610803390895</v>
       </c>
       <c r="B253" s="1">
-        <v>2.2032645592929874</v>
+        <v>2.2002245046597491</v>
       </c>
     </row>
     <row r="254" ht="14.25">
       <c r="A254" s="1">
-        <v>48.71195237101935</v>
+        <v>48.712629036716642</v>
       </c>
       <c r="B254" s="1">
-        <v>2.2026971690257193</v>
+        <v>2.2002553018225828</v>
       </c>
     </row>
     <row r="255" ht="14.25">
       <c r="A255" s="1">
-        <v>48.711759446166333</v>
+        <v>48.712626720649219</v>
       </c>
       <c r="B255" s="1">
-        <v>2.203090848502669</v>
+        <v>2.2002148046470853</v>
       </c>
     </row>
     <row r="256" ht="14.25">
       <c r="A256" s="1">
-        <v>48.711867517361441</v>
+        <v>48.712637118470909</v>
       </c>
       <c r="B256" s="1">
-        <v>2.2028587445864276</v>
+        <v>2.2002196408846708</v>
       </c>
     </row>
     <row r="257" ht="14.25">
       <c r="A257" s="1">
-        <v>48.711759614351699</v>
+        <v>48.712636409088127</v>
       </c>
       <c r="B257" s="1">
-        <v>2.2030870021211166</v>
+        <v>2.2001882950761877</v>
       </c>
     </row>
     <row r="258" ht="14.25">
       <c r="A258" s="1">
-        <v>48.711936952766052</v>
+        <v>48.712651364623561</v>
       </c>
       <c r="B258" s="1">
-        <v>2.202730037438835</v>
+        <v>2.2002092135311684</v>
       </c>
     </row>
     <row r="259" ht="14.25">
       <c r="A259" s="1">
-        <v>48.712079617653103</v>
+        <v>48.712661427278654</v>
       </c>
       <c r="B259" s="1">
-        <v>2.202434533778054</v>
+        <v>2.2002142586405338</v>
       </c>
     </row>
     <row r="260" ht="14.25">
       <c r="A260" s="1">
-        <v>48.712002695185326</v>
+        <v>48.712663386470311</v>
       </c>
       <c r="B260" s="1">
-        <v>2.2025903879981121</v>
+        <v>2.2001940998138108</v>
       </c>
     </row>
     <row r="261" ht="14.25">
       <c r="A261" s="1">
-        <v>48.712010226588447</v>
+        <v>48.712669847503186</v>
       </c>
       <c r="B261" s="1">
-        <v>2.2025832742922695</v>
+        <v>2.2001814644373323</v>
       </c>
     </row>
     <row r="262" ht="14.25">
       <c r="A262" s="1">
-        <v>48.712029010976373</v>
+        <v>48.712675837249783</v>
       </c>
       <c r="B262" s="1">
-        <v>2.202531884771437</v>
+        <v>2.2001744236261147</v>
       </c>
     </row>
     <row r="263" ht="14.25">
       <c r="A263" s="1">
-        <v>48.712190601682742</v>
+        <v>48.712689741816888</v>
       </c>
       <c r="B263" s="1">
-        <v>2.2021854099224907</v>
+        <v>2.200190466577848</v>
       </c>
     </row>
     <row r="264" ht="14.25">
       <c r="A264" s="1">
-        <v>48.712125531706427</v>
+        <v>48.712691813050782</v>
       </c>
       <c r="B264" s="1">
-        <v>2.2023342104236643</v>
+        <v>2.2001673931894077</v>
       </c>
     </row>
     <row r="265" ht="14.25">
       <c r="A265" s="1">
-        <v>48.71224516223112</v>
+        <v>48.71270329790547</v>
       </c>
       <c r="B265" s="1">
-        <v>2.2020760601715654</v>
+        <v>2.2001761386452738</v>
       </c>
     </row>
     <row r="266" ht="14.25">
       <c r="A266" s="1">
-        <v>48.712537952447526</v>
+        <v>48.71272321965521</v>
       </c>
       <c r="B266" s="1">
-        <v>2.2014637134194821</v>
+        <v>2.2002119102762681</v>
       </c>
     </row>
     <row r="267" ht="14.25">
       <c r="A267" s="1">
-        <v>48.712571590062289</v>
+        <v>48.712727987947574</v>
       </c>
       <c r="B267" s="1">
-        <v>2.2013775749194275</v>
+        <v>2.2002095518633911</v>
       </c>
     </row>
     <row r="268" ht="14.25">
       <c r="A268" s="1">
-        <v>48.712467995955272</v>
+        <v>48.712726903248175</v>
       </c>
       <c r="B268" s="1">
-        <v>2.2015873609883001</v>
+        <v>2.2001727079991791</v>
       </c>
     </row>
     <row r="269" ht="14.25">
       <c r="A269" s="1">
-        <v>48.712571864894386</v>
+        <v>48.712736748221239</v>
       </c>
       <c r="B269" s="1">
-        <v>2.2013635691944011</v>
+        <v>2.2001744726481025</v>
       </c>
     </row>
     <row r="270" ht="14.25">
       <c r="A270" s="1">
-        <v>48.712820310739758</v>
+        <v>48.71272960879643</v>
       </c>
       <c r="B270" s="1">
-        <v>2.200837494399003</v>
+        <v>2.2002683965684455</v>
       </c>
     </row>
     <row r="271" ht="14.25">
       <c r="A271" s="1">
-        <v>48.712825330457356</v>
+        <v>48.712703065624041</v>
       </c>
       <c r="B271" s="1">
-        <v>2.2008573258025783</v>
+        <v>2.200336916918662</v>
       </c>
     </row>
     <row r="272" ht="14.25">
       <c r="A272" s="1">
-        <v>48.712897849075773</v>
+        <v>48.712712602339813</v>
       </c>
       <c r="B272" s="1">
-        <v>2.2007069155299952</v>
+        <v>2.2003165569955652</v>
       </c>
     </row>
     <row r="273" ht="14.25">
       <c r="A273" s="1">
-        <v>48.712885736234718</v>
+        <v>48.712746175159779</v>
       </c>
       <c r="B273" s="1">
-        <v>2.2007205112656347</v>
+        <v>2.2002369775099289</v>
       </c>
     </row>
     <row r="274" ht="14.25">
       <c r="A274" s="1">
-        <v>48.713005383718482</v>
+        <v>48.712743450966826</v>
       </c>
       <c r="B274" s="1">
-        <v>2.2004692058046214</v>
+        <v>2.2002792476453896</v>
       </c>
     </row>
     <row r="275" ht="14.25">
       <c r="A275" s="1">
-        <v>48.713055443284233</v>
+        <v>48.712736846638812</v>
       </c>
       <c r="B275" s="1">
-        <v>2.2003556027522659</v>
+        <v>2.2003039670793845</v>
       </c>
     </row>
     <row r="276" ht="14.25">
       <c r="A276" s="1">
-        <v>48.712866174489662</v>
+        <v>48.712735494231403</v>
       </c>
       <c r="B276" s="1">
-        <v>2.2007525888491997</v>
+        <v>2.2003175631321965</v>
       </c>
     </row>
     <row r="277" ht="14.25">
       <c r="A277" s="1">
-        <v>48.712997033991662</v>
+        <v>48.712723973878489</v>
       </c>
       <c r="B277" s="1">
-        <v>2.2004809449132021</v>
+        <v>2.2003220663516596</v>
       </c>
     </row>
     <row r="278" ht="14.25">
       <c r="A278" s="1">
-        <v>48.712954006502265</v>
+        <v>48.712732562180946</v>
       </c>
       <c r="B278" s="1">
-        <v>2.2005888567620873</v>
+        <v>2.2003011602781801</v>
       </c>
     </row>
     <row r="279" ht="14.25">
       <c r="A279" s="1">
-        <v>48.712961122802035</v>
+        <v>48.712720012873824</v>
       </c>
       <c r="B279" s="1">
-        <v>2.2005861713443338</v>
+        <v>2.2003278063572429</v>
       </c>
     </row>
     <row r="280" ht="14.25">
       <c r="A280" s="1">
-        <v>48.71298679656708</v>
+        <v>48.71270578247082</v>
       </c>
       <c r="B280" s="1">
-        <v>2.2005163551866436</v>
+        <v>2.2003616693104133</v>
       </c>
     </row>
     <row r="281" ht="14.25">
       <c r="A281" s="1">
-        <v>48.712905631045345</v>
+        <v>48.712684358160587</v>
       </c>
       <c r="B281" s="1">
-        <v>2.2006854027641567</v>
+        <v>2.200411589709296</v>
       </c>
     </row>
     <row r="282" ht="14.25">
       <c r="A282" s="1">
-        <v>48.712961810374637</v>
+        <v>48.712658855606506</v>
       </c>
       <c r="B282" s="1">
-        <v>2.2005755303610433</v>
+        <v>2.2004690036565053</v>
       </c>
     </row>
     <row r="283" ht="14.25">
       <c r="A283" s="1">
-        <v>48.712910436596935</v>
+        <v>48.712623766770506</v>
       </c>
       <c r="B283" s="1">
-        <v>2.2006926042221759</v>
+        <v>2.2005520483903718</v>
       </c>
     </row>
     <row r="284" ht="14.25">
       <c r="A284" s="1">
-        <v>48.712883512162321</v>
+        <v>48.712592694752587</v>
       </c>
       <c r="B284" s="1">
-        <v>2.2007600591805083</v>
+        <v>2.2006259681156042</v>
       </c>
     </row>
     <row r="285" ht="14.25">
       <c r="A285" s="1">
-        <v>48.712902013351837</v>
+        <v>48.71259171637066</v>
       </c>
       <c r="B285" s="1">
-        <v>2.2007216939509888</v>
+        <v>2.2006266256690141</v>
       </c>
     </row>
     <row r="286" ht="14.25">
       <c r="A286" s="1">
-        <v>48.712927340527806</v>
+        <v>48.712599101505745</v>
       </c>
       <c r="B286" s="1">
-        <v>2.2006532499601916</v>
+        <v>2.2006099319582368</v>
       </c>
     </row>
     <row r="287" ht="14.25">
       <c r="A287" s="1">
-        <v>48.7128943848913</v>
+        <v>48.712678338392067</v>
       </c>
       <c r="B287" s="1">
-        <v>2.2007411430931523</v>
+        <v>2.2004220578737823</v>
       </c>
     </row>
     <row r="288" ht="14.25">
       <c r="A288" s="1">
-        <v>48.712882020758137</v>
+        <v>48.712720603667293</v>
       </c>
       <c r="B288" s="1">
-        <v>2.2007665582542337</v>
+        <v>2.2003202428377482</v>
       </c>
     </row>
     <row r="289" ht="14.25">
       <c r="A289" s="1">
-        <v>48.712845667719307</v>
+        <v>48.7127353237344</v>
       </c>
       <c r="B289" s="1">
-        <v>2.2008387572529946</v>
+        <v>2.2002839815629383</v>
       </c>
     </row>
     <row r="290" ht="14.25">
       <c r="A290" s="1">
-        <v>48.712824776207768</v>
+        <v>48.712729563795797</v>
       </c>
       <c r="B290" s="1">
-        <v>2.200878789475472</v>
+        <v>2.2002948298810994</v>
       </c>
     </row>
     <row r="291" ht="14.25">
       <c r="A291" s="1">
-        <v>48.712829684066975</v>
+        <v>48.712723844516212</v>
       </c>
       <c r="B291" s="1">
-        <v>2.2008717012911205</v>
+        <v>2.2003070615495162</v>
       </c>
     </row>
     <row r="292" ht="14.25">
       <c r="A292" s="1">
-        <v>48.71283669846062</v>
+        <v>48.712712251042923</v>
       </c>
       <c r="B292" s="1">
-        <v>2.2008535518518082</v>
+        <v>2.2003343602595806</v>
       </c>
     </row>
     <row r="293" ht="14.25">
       <c r="A293" s="1">
-        <v>48.712830773826589</v>
+        <v>48.712680325726375</v>
       </c>
       <c r="B293" s="1">
-        <v>2.2008516253440917</v>
+        <v>2.2004099580748369</v>
       </c>
     </row>
     <row r="294" ht="14.25">
       <c r="A294" s="1">
-        <v>48.712805274706895</v>
+        <v>48.712686942707428</v>
       </c>
       <c r="B294" s="1">
-        <v>2.2009180050507502</v>
+        <v>2.200395052750058</v>
       </c>
     </row>
     <row r="295" ht="14.25">
       <c r="A295" s="1">
-        <v>48.712802944936982</v>
+        <v>48.712693472027667</v>
       </c>
       <c r="B295" s="1">
-        <v>2.2009222676260691</v>
+        <v>2.2003785923877581</v>
       </c>
     </row>
     <row r="296" ht="14.25">
       <c r="A296" s="1">
-        <v>48.712569086539546</v>
+        <v>48.712668345152572</v>
       </c>
       <c r="B296" s="1">
-        <v>2.201411403276718</v>
+        <v>2.2003686719126501</v>
       </c>
     </row>
     <row r="297" ht="14.25">
       <c r="A297" s="1">
-        <v>48.712478239109331</v>
+        <v>48.712661410477878</v>
       </c>
       <c r="B297" s="1">
-        <v>2.2015920256041466</v>
+        <v>2.2003670388032361</v>
       </c>
     </row>
     <row r="298" ht="14.25">
       <c r="A298" s="1">
-        <v>48.712406501880984</v>
+        <v>48.712656712992562</v>
       </c>
       <c r="B298" s="1">
-        <v>2.2017506869146728</v>
+        <v>2.2003564933649389</v>
       </c>
     </row>
     <row r="299" ht="14.25">
       <c r="A299" s="1">
-        <v>48.712130046817272</v>
+        <v>48.71263646747672</v>
       </c>
       <c r="B299" s="1">
-        <v>2.2023216522443385</v>
+        <v>2.2003209378270143</v>
       </c>
     </row>
     <row r="300" ht="14.25">
       <c r="A300" s="1">
-        <v>48.712222752527786</v>
+        <v>48.712652767656536</v>
       </c>
       <c r="B300" s="1">
-        <v>2.2021414781546751</v>
+        <v>2.2003040175962236</v>
       </c>
     </row>
     <row r="301" ht="14.25">
       <c r="A301" s="1">
-        <v>48.71210597641528</v>
+        <v>48.712618563206476</v>
       </c>
       <c r="B301" s="1">
-        <v>2.202371222663988</v>
+        <v>2.2003485488210459</v>
       </c>
     </row>
     <row r="302" ht="14.25">
       <c r="A302" s="1">
-        <v>48.711833800281056</v>
+        <v>48.712601535626177</v>
       </c>
       <c r="B302" s="1">
-        <v>2.2029385033000217</v>
+        <v>2.20031422061605</v>
       </c>
     </row>
     <row r="303" ht="14.25">
       <c r="A303" s="1">
-        <v>48.711833800281056</v>
+        <v>48.712739472142573</v>
       </c>
       <c r="B303" s="1">
-        <v>2.2029385033000217</v>
+        <v>2.2007534889728668</v>
       </c>
     </row>
     <row r="304" ht="14.25">
       <c r="A304" s="1">
-        <v>48.711745364005338</v>
+        <v>48.712576754456947</v>
       </c>
       <c r="B304" s="1">
-        <v>2.2031120238908302</v>
+        <v>2.2002294285169799</v>
       </c>
     </row>
     <row r="305" ht="14.25">
       <c r="A305" s="1">
-        <v>48.711741811881758</v>
+        <v>48.712580508457712</v>
       </c>
       <c r="B305" s="1">
-        <v>2.2031131608538219</v>
+        <v>2.2002192648509871</v>
       </c>
     </row>
     <row r="306" ht="14.25">
       <c r="A306" s="1">
-        <v>48.711909923999961</v>
+        <v>48.712594055133231</v>
       </c>
       <c r="B306" s="1">
-        <v>2.2027834831406645</v>
+        <v>2.2002343285108341</v>
       </c>
     </row>
     <row r="307" ht="14.25">
       <c r="A307" s="1">
-        <v>48.711889209125459</v>
+        <v>48.712597105787339</v>
       </c>
       <c r="B307" s="1">
-        <v>2.202807639260925</v>
+        <v>2.2002158029580312</v>
       </c>
     </row>
     <row r="308" ht="14.25">
       <c r="A308" s="1">
-        <v>48.711889209125459</v>
+        <v>48.712758833604312</v>
       </c>
       <c r="B308" s="1">
-        <v>2.202807639260925</v>
+        <v>2.2007041122714068</v>
       </c>
     </row>
     <row r="309" ht="14.25">
       <c r="A309" s="1">
-        <v>48.71185623095765</v>
+        <v>48.712601941365001</v>
       </c>
       <c r="B309" s="1">
-        <v>2.2028868455844717</v>
+        <v>2.200179753850362</v>
       </c>
     </row>
     <row r="310" ht="14.25">
       <c r="A310" s="1">
-        <v>48.711990117478948</v>
+        <v>48.71261461999994</v>
       </c>
       <c r="B310" s="1">
-        <v>2.2026194851861707</v>
+        <v>2.2001919994174308</v>
       </c>
     </row>
     <row r="311" ht="14.25">
       <c r="A311" s="1">
-        <v>48.712039331913147</v>
+        <v>48.712622368213395</v>
       </c>
       <c r="B311" s="1">
-        <v>2.2025058651540785</v>
+        <v>2.2001896739947568</v>
       </c>
     </row>
     <row r="312" ht="14.25">
       <c r="A312" s="1">
-        <v>48.712295451557111</v>
+        <v>48.712641323040899</v>
       </c>
       <c r="B312" s="1">
-        <v>2.2019907804447891</v>
+        <v>2.2002248520700221</v>
       </c>
     </row>
     <row r="313" ht="14.25">
       <c r="A313" s="1">
-        <v>48.712070585198639</v>
+        <v>48.712648228895638</v>
       </c>
       <c r="B313" s="1">
-        <v>2.2024390027982896</v>
+        <v>2.2002167299744864</v>
       </c>
     </row>
     <row r="314" ht="14.25">
       <c r="A314" s="1">
-        <v>48.712053319551984</v>
+        <v>48.712637280797217</v>
       </c>
       <c r="B314" s="1">
-        <v>2.202468631714027</v>
+        <v>2.2001563379017561</v>
       </c>
     </row>
     <row r="315" ht="14.25">
       <c r="A315" s="1">
-        <v>48.711979998462567</v>
+        <v>48.712637038941146</v>
       </c>
       <c r="B315" s="1">
-        <v>2.2026111255198022</v>
+        <v>2.2001281704287297</v>
       </c>
     </row>
     <row r="316" ht="14.25">
       <c r="A316" s="1">
-        <v>48.712423109083907</v>
+        <v>48.712666243828359</v>
       </c>
       <c r="B316" s="1">
-        <v>2.2016862586016095</v>
+        <v>2.2001911625592805</v>
       </c>
     </row>
     <row r="317" ht="14.25">
       <c r="A317" s="1">
-        <v>48.712640573852013</v>
+        <v>48.712683205106202</v>
       </c>
       <c r="B317" s="1">
-        <v>2.2012538207686689</v>
+        <v>2.2002158356163957</v>
       </c>
     </row>
     <row r="318" ht="14.25">
       <c r="A318" s="1">
-        <v>48.712861614390796</v>
+        <v>48.712699985017224</v>
       </c>
       <c r="B318" s="1">
-        <v>2.2007968600234866</v>
+        <v>2.2002430049420756</v>
       </c>
     </row>
     <row r="319" ht="14.25">
       <c r="A319" s="1">
-        <v>48.712768723851298</v>
+        <v>48.712704211723945</v>
       </c>
       <c r="B319" s="1">
-        <v>2.2009808278494711</v>
+        <v>2.200238203959278</v>
       </c>
     </row>
     <row r="320" ht="14.25">
       <c r="A320" s="1">
-        <v>48.712569168396882</v>
+        <v>48.712691821076113</v>
       </c>
       <c r="B320" s="1">
-        <v>2.2013743521384903</v>
+        <v>2.2001683665780933</v>
       </c>
     </row>
     <row r="321" ht="14.25">
       <c r="A321" s="1">
-        <v>48.712895540027297</v>
+        <v>48.712713966655649</v>
       </c>
       <c r="B321" s="1">
-        <v>2.2006998368474817</v>
+        <v>2.2002084180902997</v>
       </c>
     </row>
     <row r="322" ht="14.25">
       <c r="A322" s="1">
-        <v>48.712961725902723</v>
+        <v>48.712719774959147</v>
       </c>
       <c r="B322" s="1">
-        <v>2.2005673387912119</v>
+        <v>2.2001986650408711</v>
       </c>
     </row>
     <row r="323" ht="14.25">
       <c r="A323" s="1">
-        <v>48.712706538527492</v>
+        <v>48.712734061096128</v>
       </c>
       <c r="B323" s="1">
-        <v>2.2010884841154819</v>
+        <v>2.2001025561516223</v>
       </c>
     </row>
     <row r="324" ht="14.25">
       <c r="A324" s="1">
-        <v>48.712703642829332</v>
+        <v>48.712724579586769</v>
       </c>
       <c r="B324" s="1">
-        <v>2.2011097997192115</v>
+        <v>2.2001165437511054</v>
       </c>
     </row>
     <row r="325" ht="14.25">
       <c r="A325" s="1">
-        <v>48.712687616680192</v>
+        <v>48.712709604091152</v>
       </c>
       <c r="B325" s="1">
-        <v>2.2011376236713427</v>
+        <v>2.2001429340815855</v>
       </c>
     </row>
     <row r="326" ht="14.25">
       <c r="A326" s="1">
-        <v>48.712647523694145</v>
+        <v>48.712712980951189</v>
       </c>
       <c r="B326" s="1">
-        <v>2.2012180191833188</v>
+        <v>2.2001348777048007</v>
       </c>
     </row>
     <row r="327" ht="14.25">
       <c r="A327" s="1">
-        <v>48.712720530134185</v>
+        <v>48.712741806467967</v>
       </c>
       <c r="B327" s="1">
-        <v>2.2010677579939641</v>
+        <v>2.2000886183715611</v>
       </c>
     </row>
     <row r="328" ht="14.25">
       <c r="A328" s="1">
-        <v>48.712876770193255</v>
+        <v>48.712709058427372</v>
       </c>
       <c r="B328" s="1">
-        <v>2.2007235413487209</v>
+        <v>2.2002079177430409</v>
       </c>
     </row>
     <row r="329" ht="14.25">
       <c r="A329" s="1">
-        <v>48.71273989092348</v>
+        <v>48.71273448594561</v>
       </c>
       <c r="B329" s="1">
-        <v>2.2010318516793075</v>
+        <v>2.2001208698955934</v>
       </c>
     </row>
     <row r="330" ht="14.25">
       <c r="A330" s="1">
-        <v>48.712904786809041</v>
+        <v>48.712617378848769</v>
       </c>
       <c r="B330" s="1">
-        <v>2.2006887450656443</v>
+        <v>2.2003902792813919</v>
       </c>
     </row>
     <row r="331" ht="14.25">
       <c r="A331" s="1">
-        <v>48.712950051858783</v>
+        <v>48.712550167126928</v>
       </c>
       <c r="B331" s="1">
-        <v>2.2006050340515455</v>
+        <v>2.2005508768450208</v>
       </c>
     </row>
     <row r="332" ht="14.25">
       <c r="A332" s="1">
-        <v>48.712942632528723</v>
+        <v>48.712554672551967</v>
       </c>
       <c r="B332" s="1">
-        <v>2.2006317093487651</v>
+        <v>2.2005390603081909</v>
       </c>
     </row>
     <row r="333" ht="14.25">
       <c r="A333" s="1">
-        <v>48.712971160533087</v>
+        <v>48.712535366342273</v>
       </c>
       <c r="B333" s="1">
-        <v>2.2005737935287715</v>
+        <v>2.2005837556045305</v>
       </c>
     </row>
     <row r="334" ht="14.25">
       <c r="A334" s="1">
-        <v>48.712908152609231</v>
+        <v>48.712509096697886</v>
       </c>
       <c r="B334" s="1">
-        <v>2.2006957333350945</v>
+        <v>2.2006452741072597</v>
       </c>
     </row>
     <row r="335" ht="14.25">
       <c r="A335" s="1">
-        <v>48.712895400101722</v>
+        <v>48.712518371834371</v>
       </c>
       <c r="B335" s="1">
-        <v>2.200715336583928</v>
+        <v>2.2006225688386083</v>
       </c>
     </row>
     <row r="336" ht="14.25">
       <c r="A336" s="1">
-        <v>48.712913906170101</v>
+        <v>48.712513081517422</v>
       </c>
       <c r="B336" s="1">
-        <v>2.2006976032875203</v>
+        <v>2.2006335608053744</v>
       </c>
     </row>
     <row r="337" ht="14.25">
       <c r="A337" s="1">
-        <v>48.712886601770805</v>
+        <v>48.712518587783762</v>
       </c>
       <c r="B337" s="1">
-        <v>2.2007328136378779</v>
+        <v>2.2006188263603637</v>
       </c>
     </row>
     <row r="338" ht="14.25">
       <c r="A338" s="1">
-        <v>48.71287544580283</v>
+        <v>48.71254652502337</v>
       </c>
       <c r="B338" s="1">
-        <v>2.2007663967026536</v>
+        <v>2.2005515342341244</v>
       </c>
     </row>
     <row r="339" ht="14.25">
       <c r="A339" s="1">
-        <v>48.712854600599272</v>
+        <v>48.712634993769363</v>
       </c>
       <c r="B339" s="1">
-        <v>2.2008077157001709</v>
+        <v>2.2003398302938297</v>
       </c>
     </row>
     <row r="340" ht="14.25">
       <c r="A340" s="1">
-        <v>48.712860684309575</v>
+        <v>48.712656501384608</v>
       </c>
       <c r="B340" s="1">
-        <v>2.200808816384463</v>
+        <v>2.2002867489286024</v>
       </c>
     </row>
     <row r="341" ht="14.25">
       <c r="A341" s="1">
-        <v>48.712856347356222</v>
+        <v>48.712677232254762</v>
       </c>
       <c r="B341" s="1">
-        <v>2.2007987480160498</v>
+        <v>2.2002357723977202</v>
       </c>
     </row>
     <row r="342" ht="14.25">
       <c r="A342" s="1">
-        <v>48.712840722720387</v>
+        <v>48.712683062434856</v>
       </c>
       <c r="B342" s="1">
-        <v>2.2008355848835843</v>
+        <v>2.2002208018829879</v>
       </c>
     </row>
     <row r="343" ht="14.25">
       <c r="A343" s="1">
-        <v>48.71284631620194</v>
+        <v>48.712672701889076</v>
       </c>
       <c r="B343" s="1">
-        <v>2.2008251236631939</v>
+        <v>2.2002428474975027</v>
       </c>
     </row>
     <row r="344" ht="14.25">
       <c r="A344" s="1">
-        <v>48.712834906648261</v>
+        <v>48.712684610686253</v>
       </c>
       <c r="B344" s="1">
-        <v>2.2008514715000547</v>
+        <v>2.2002124867488768</v>
       </c>
     </row>
     <row r="345" ht="14.25">
       <c r="A345" s="1">
-        <v>48.712845408641329</v>
+        <v>48.712684472889954</v>
       </c>
       <c r="B345" s="1">
-        <v>2.2008303552822701</v>
+        <v>2.2002837536509259</v>
       </c>
     </row>
     <row r="346" ht="14.25">
       <c r="A346" s="1">
-        <v>48.712824745873441</v>
+        <v>48.712676716299292</v>
       </c>
       <c r="B346" s="1">
-        <v>2.2008908187730594</v>
+        <v>2.2003006181408153</v>
       </c>
     </row>
     <row r="347" ht="14.25">
       <c r="A347" s="1">
-        <v>48.712835345289676</v>
+        <v>48.712672035540294</v>
       </c>
       <c r="B347" s="1">
-        <v>2.2008562258908508</v>
+        <v>2.200312072720441</v>
       </c>
     </row>
     <row r="348" ht="14.25">
       <c r="A348" s="1">
-        <v>48.712766754855153</v>
+        <v>48.712662960571592</v>
       </c>
       <c r="B348" s="1">
-        <v>2.2010100590878832</v>
+        <v>2.2003148970855038</v>
       </c>
     </row>
     <row r="349" ht="14.25">
       <c r="A349" s="1">
-        <v>48.71270406110758</v>
+        <v>48.712659179427249</v>
       </c>
       <c r="B349" s="1">
-        <v>2.2011335053713363</v>
+        <v>2.2003025943908043</v>
       </c>
     </row>
     <row r="350" ht="14.25">
       <c r="A350" s="1">
-        <v>48.712523492896686</v>
+        <v>48.712639222669594</v>
       </c>
       <c r="B350" s="1">
-        <v>2.2015075201970764</v>
+        <v>2.2002939480818906</v>
       </c>
     </row>
     <row r="351" ht="14.25">
       <c r="A351" s="1">
-        <v>48.71231812042911</v>
+        <v>48.71262238608891</v>
       </c>
       <c r="B351" s="1">
-        <v>2.2019234903227201</v>
+        <v>2.2002726094840064</v>
       </c>
     </row>
     <row r="352" ht="14.25">
       <c r="A352" s="1">
-        <v>48.711900392245468</v>
+        <v>48.712585758321765</v>
       </c>
       <c r="B352" s="1">
-        <v>2.2028087189870513</v>
+        <v>2.2002322555082037</v>
       </c>
     </row>
     <row r="353" ht="14.25">
       <c r="A353" s="1">
-        <v>48.711952706741251</v>
+        <v>48.712584803899759</v>
       </c>
       <c r="B353" s="1">
-        <v>2.2026923005016892</v>
+        <v>2.2002563119510175</v>
       </c>
     </row>
     <row r="354" ht="14.25">
       <c r="A354" s="1">
-        <v>48.711728869116726</v>
+        <v>48.712580344928355</v>
       </c>
       <c r="B354" s="1">
-        <v>2.203162143913429</v>
+        <v>2.2002053598612759</v>
       </c>
     </row>
     <row r="355" ht="14.25">
       <c r="A355" s="1">
-        <v>48.711822424510125</v>
+        <v>48.712585536401875</v>
       </c>
       <c r="B355" s="1">
-        <v>2.2029574931117097</v>
+        <v>2.2002161995382523</v>
       </c>
     </row>
     <row r="356" ht="14.25">
       <c r="A356" s="1">
-        <v>48.711892216820679</v>
+        <v>48.712589585808367</v>
       </c>
       <c r="B356" s="1">
-        <v>2.2028199110696138</v>
+        <v>2.2002269303592623</v>
       </c>
     </row>
     <row r="357" ht="14.25">
       <c r="A357" s="1">
-        <v>48.711736208790441</v>
+        <v>48.712592332379423</v>
       </c>
       <c r="B357" s="1">
-        <v>2.2031411906656024</v>
+        <v>2.2002233613503011</v>
       </c>
     </row>
     <row r="358" ht="14.25">
       <c r="A358" s="1">
-        <v>48.71164709510186</v>
+        <v>48.712582190305817</v>
       </c>
       <c r="B358" s="1">
-        <v>2.2033174040551096</v>
+        <v>2.2001656712425626</v>
       </c>
     </row>
     <row r="359" ht="14.25">
       <c r="A359" s="1">
-        <v>48.711531594491362</v>
+        <v>48.712580775353473</v>
       </c>
       <c r="B359" s="1">
-        <v>2.2035650071302295</v>
+        <v>2.200136075929112</v>
       </c>
     </row>
     <row r="360" ht="14.25">
       <c r="A360" s="1">
-        <v>48.711786219456549</v>
+        <v>48.712587606074813</v>
       </c>
       <c r="B360" s="1">
-        <v>2.2030298141184343</v>
+        <v>2.2001284733123039</v>
       </c>
     </row>
     <row r="361" ht="14.25">
       <c r="A361" s="1">
-        <v>48.712013347515416</v>
+        <v>48.712618087782808</v>
       </c>
       <c r="B361" s="1">
-        <v>2.2025641683001083</v>
+        <v>2.2001934426303924</v>
       </c>
     </row>
     <row r="362" ht="14.25">
       <c r="A362" s="1">
-        <v>48.71195391898177</v>
+        <v>48.712619912325351</v>
       </c>
       <c r="B362" s="1">
-        <v>2.2026973366328786</v>
+        <v>2.2001694307820188</v>
       </c>
     </row>
     <row r="363" ht="14.25">
       <c r="A363" s="1">
-        <v>48.712169304895305</v>
+        <v>48.71263709704963</v>
       </c>
       <c r="B363" s="1">
-        <v>2.2022380784456561</v>
+        <v>2.2001905072306722</v>
       </c>
     </row>
     <row r="364" ht="14.25">
       <c r="A364" s="1">
-        <v>48.711990260103086</v>
+        <v>48.712630889300819</v>
       </c>
       <c r="B364" s="1">
-        <v>2.2026208045569589</v>
+        <v>2.2001440702922408</v>
       </c>
     </row>
     <row r="365" ht="14.25">
       <c r="A365" s="1">
-        <v>48.711980169572364</v>
+        <v>48.71263708498271</v>
       </c>
       <c r="B365" s="1">
-        <v>2.2026208340122677</v>
+        <v>2.2001338464167786</v>
       </c>
     </row>
     <row r="366" ht="14.25">
       <c r="A366" s="1">
-        <v>48.712254035155382</v>
+        <v>48.712656721414838</v>
       </c>
       <c r="B366" s="1">
-        <v>2.2020728148514408</v>
+        <v>2.2001661927458609</v>
       </c>
     </row>
     <row r="367" ht="14.25">
       <c r="A367" s="1">
-        <v>48.712121408107727</v>
+        <v>48.712653798542696</v>
       </c>
       <c r="B367" s="1">
-        <v>2.2023444577499998</v>
+        <v>2.2001294357652452</v>
       </c>
     </row>
     <row r="368" ht="14.25">
       <c r="A368" s="1">
-        <v>48.712125162894765</v>
+        <v>48.712660128220499</v>
       </c>
       <c r="B368" s="1">
-        <v>2.2023187919048612</v>
+        <v>2.200121117550343</v>
       </c>
     </row>
     <row r="369" ht="14.25">
       <c r="A369" s="1">
-        <v>48.712378910413037</v>
+        <v>48.712677645580129</v>
       </c>
       <c r="B369" s="1">
-        <v>2.2017917381870862</v>
+        <v>2.2001428615569032</v>
       </c>
     </row>
     <row r="370" ht="14.25">
       <c r="A370" s="1">
-        <v>48.712768836024843</v>
+        <v>48.712704259778775</v>
       </c>
       <c r="B370" s="1">
-        <v>2.2009797594100213</v>
+        <v>2.2001918687760407</v>
       </c>
     </row>
     <row r="371" ht="14.25">
       <c r="A371" s="1">
-        <v>48.712745773495378</v>
+        <v>48.712706880742076</v>
       </c>
       <c r="B371" s="1">
-        <v>2.2010200800390125</v>
+        <v>2.2001774012233235</v>
       </c>
     </row>
     <row r="372" ht="14.25">
       <c r="A372" s="1">
-        <v>48.71251292720121</v>
+        <v>48.712696383331206</v>
       </c>
       <c r="B372" s="1">
-        <v>2.2014911638588019</v>
+        <v>2.2001153169187839</v>
       </c>
     </row>
     <row r="373" ht="14.25">
       <c r="A373" s="1">
-        <v>48.712691623921685</v>
+        <v>48.712716869820902</v>
       </c>
       <c r="B373" s="1">
-        <v>2.2011531975887393</v>
+        <v>2.2001681098461656</v>
       </c>
     </row>
     <row r="374" ht="14.25">
       <c r="A374" s="1">
-        <v>48.712831717562388</v>
+        <v>48.71273042284821</v>
       </c>
       <c r="B374" s="1">
-        <v>2.2008652338660029</v>
+        <v>2.2001788942520411</v>
       </c>
     </row>
     <row r="375" ht="14.25">
       <c r="A375" s="1">
-        <v>48.712720054087839</v>
+        <v>48.712710061261248</v>
       </c>
       <c r="B375" s="1">
-        <v>2.2010284012186729</v>
+        <v>2.2001448776813262</v>
       </c>
     </row>
     <row r="376" ht="14.25">
       <c r="A376" s="1">
-        <v>48.712663486578592</v>
+        <v>48.712700187563307</v>
       </c>
       <c r="B376" s="1">
-        <v>2.2011498372934208</v>
+        <v>2.2001431501349482</v>
       </c>
     </row>
     <row r="377" ht="14.25">
       <c r="A377" s="1">
-        <v>48.712417623000341</v>
+        <v>48.712701588871518</v>
       </c>
       <c r="B377" s="1">
-        <v>2.2017656876619278</v>
+        <v>2.2001724576214867</v>
       </c>
     </row>
     <row r="378" ht="14.25">
       <c r="A378" s="1">
-        <v>48.712742521637715</v>
+        <v>48.712726975962823</v>
       </c>
       <c r="B378" s="1">
-        <v>2.2010132112949141</v>
+        <v>2.2001401354295034</v>
       </c>
     </row>
     <row r="379" ht="14.25">
       <c r="A379" s="1">
-        <v>48.712790503212069</v>
+        <v>48.712727892386539</v>
       </c>
       <c r="B379" s="1">
-        <v>2.2009118798152718</v>
+        <v>2.2001482239442738</v>
       </c>
     </row>
     <row r="380" ht="14.25">
       <c r="A380" s="1">
-        <v>48.712862711258417</v>
+        <v>48.710719307304686</v>
       </c>
       <c r="B380" s="1">
-        <v>2.2007940768713121</v>
+        <v>2.2049712280318645</v>
       </c>
     </row>
     <row r="381" ht="14.25">
       <c r="A381" s="1">
-        <v>48.712878304308603</v>
+        <v>48.712721388977101</v>
       </c>
       <c r="B381" s="1">
-        <v>2.2007032509189712</v>
+        <v>2.2001535854817891</v>
       </c>
     </row>
     <row r="382" ht="14.25">
       <c r="A382" s="1">
-        <v>48.712722172512009</v>
+        <v>48.712669775613314</v>
       </c>
       <c r="B382" s="1">
-        <v>2.2011218118243052</v>
+        <v>2.2003012950448966</v>
       </c>
     </row>
     <row r="383" ht="14.25">
       <c r="A383" s="1">
-        <v>48.71285677349654</v>
+        <v>48.712674054775789</v>
       </c>
       <c r="B383" s="1">
-        <v>2.2008058799751264</v>
+        <v>2.20030965041069</v>
       </c>
     </row>
     <row r="384" ht="14.25">
       <c r="A384" s="1">
-        <v>48.712907400183568</v>
+        <v>48.71265739357213</v>
       </c>
       <c r="B384" s="1">
-        <v>2.2006978766034058</v>
+        <v>2.2003490452906402</v>
       </c>
     </row>
     <row r="385" ht="14.25">
       <c r="A385" s="1">
-        <v>48.712912841675625</v>
+        <v>48.712626345419316</v>
       </c>
       <c r="B385" s="1">
-        <v>2.2006961999277559</v>
+        <v>2.2004211149240955</v>
       </c>
     </row>
     <row r="386" ht="14.25">
       <c r="A386" s="1">
-        <v>48.712929921840932</v>
+        <v>48.712612871451455</v>
       </c>
       <c r="B386" s="1">
-        <v>2.2006568352334717</v>
+        <v>2.2004489692581326</v>
       </c>
     </row>
     <row r="387" ht="14.25">
       <c r="A387" s="1">
-        <v>48.712867702335288</v>
+        <v>48.712596424732858</v>
       </c>
       <c r="B387" s="1">
-        <v>2.2007594482803712</v>
+        <v>2.2004882671521404</v>
       </c>
     </row>
     <row r="388" ht="14.25">
       <c r="A388" s="1">
-        <v>48.712880767546594</v>
+        <v>48.712584573026042</v>
       </c>
       <c r="B388" s="1">
-        <v>2.2007492583939126</v>
+        <v>2.2005163465872264</v>
       </c>
     </row>
     <row r="389" ht="14.25">
       <c r="A389" s="1">
-        <v>48.712901818836933</v>
+        <v>48.712591306251007</v>
       </c>
       <c r="B389" s="1">
-        <v>2.2007127584301616</v>
+        <v>2.2004978101267714</v>
       </c>
     </row>
     <row r="390" ht="14.25">
       <c r="A390" s="1">
-        <v>48.712888893061184</v>
+        <v>48.712596116270213</v>
       </c>
       <c r="B390" s="1">
-        <v>2.20073658616493</v>
+        <v>2.2004857286913384</v>
       </c>
     </row>
     <row r="391" ht="14.25">
       <c r="A391" s="1">
-        <v>48.712889648966275</v>
+        <v>48.712606152294541</v>
       </c>
       <c r="B391" s="1">
-        <v>2.200739165758157</v>
+        <v>2.2004608875575653</v>
       </c>
     </row>
     <row r="392" ht="14.25">
       <c r="A392" s="1">
-        <v>48.712870940165189</v>
+        <v>48.712627922943767</v>
       </c>
       <c r="B392" s="1">
-        <v>2.2007715166527984</v>
+        <v>2.2004074963773568</v>
       </c>
     </row>
     <row r="393" ht="14.25">
       <c r="A393" s="1">
-        <v>48.712872668528291</v>
+        <v>48.712670735385288</v>
       </c>
       <c r="B393" s="1">
-        <v>2.2007891289023513</v>
+        <v>2.2003056321015673</v>
       </c>
     </row>
     <row r="394" ht="14.25">
       <c r="A394" s="1">
-        <v>48.71287254439833</v>
+        <v>48.712685960140014</v>
       </c>
       <c r="B394" s="1">
-        <v>2.2007821713044415</v>
+        <v>2.200268077680152</v>
       </c>
     </row>
     <row r="395" ht="14.25">
       <c r="A395" s="1">
-        <v>48.712853317339324</v>
+        <v>48.712680551865773</v>
       </c>
       <c r="B395" s="1">
-        <v>2.200807434422384</v>
+        <v>2.2002791957316803</v>
       </c>
     </row>
     <row r="396" ht="14.25">
       <c r="A396" s="1">
-        <v>48.712847653501669</v>
+        <v>48.712674560489233</v>
       </c>
       <c r="B396" s="1">
-        <v>2.2008229889192052</v>
+        <v>2.2002910886969871</v>
       </c>
     </row>
     <row r="397" ht="14.25">
       <c r="A397" s="1">
-        <v>48.712835957495471</v>
+        <v>48.712660134558057</v>
       </c>
       <c r="B397" s="1">
-        <v>2.2008423336157681</v>
+        <v>2.2003275720538999</v>
       </c>
     </row>
     <row r="398" ht="14.25">
       <c r="A398" s="1">
-        <v>48.712837413580786</v>
+        <v>48.712663228178087</v>
       </c>
       <c r="B398" s="1">
-        <v>2.2008389138341649</v>
+        <v>2.2003195725676088</v>
       </c>
     </row>
     <row r="399" ht="14.25">
       <c r="A399" s="1">
-        <v>48.712812089224734</v>
+        <v>48.712640397939765</v>
       </c>
       <c r="B399" s="1">
-        <v>2.2009039381854993</v>
+        <v>2.200373071518599</v>
       </c>
     </row>
     <row r="400" ht="14.25">
       <c r="A400" s="1">
-        <v>48.712814279238458</v>
+        <v>48.712659030803309</v>
       </c>
       <c r="B400" s="1">
-        <v>2.2008991863583982</v>
+        <v>2.2003389475418667</v>
       </c>
     </row>
     <row r="401" ht="14.25">
       <c r="A401" s="1">
-        <v>48.712716578871422</v>
+        <v>48.712660357452826</v>
       </c>
       <c r="B401" s="1">
-        <v>2.2010956748665942</v>
+        <v>2.2003117049105425</v>
       </c>
     </row>
     <row r="402" ht="14.25">
       <c r="A402" s="1">
-        <v>48.712618416964041</v>
+        <v>48.712648372989584</v>
       </c>
       <c r="B402" s="1">
-        <v>2.2012975568456383</v>
+        <v>2.2003054665233219</v>
       </c>
     </row>
     <row r="403" ht="14.25">
       <c r="A403" s="1">
-        <v>48.712180083993907</v>
+        <v>48.71262058486284</v>
       </c>
       <c r="B403" s="1">
-        <v>2.2022198399846</v>
+        <v>2.2002528899996099</v>
       </c>
     </row>
     <row r="404" ht="14.25">
       <c r="A404" s="1">
-        <v>48.712298042393456</v>
+        <v>48.712621889669038</v>
       </c>
       <c r="B404" s="1">
-        <v>2.2019852539695326</v>
+        <v>2.2002811624700054</v>
       </c>
     </row>
     <row r="405" ht="14.25">
       <c r="A405" s="1">
-        <v>48.712071493903991</v>
+        <v>48.712587759295147</v>
       </c>
       <c r="B405" s="1">
-        <v>2.2024623327414092</v>
+        <v>2.2002988878998639</v>
       </c>
     </row>
     <row r="406" ht="14.25">
       <c r="A406" s="1">
-        <v>48.711888903050443</v>
+        <v>48.712569439314073</v>
       </c>
       <c r="B406" s="1">
-        <v>2.2028389945758748</v>
+        <v>2.2002825363915761</v>
       </c>
     </row>
     <row r="407" ht="14.25">
       <c r="A407" s="1">
-        <v>48.711842683155929</v>
+        <v>48.71257425770537</v>
       </c>
       <c r="B407" s="1">
-        <v>2.2029341669646643</v>
+        <v>2.2002676772857894</v>
       </c>
     </row>
     <row r="408" ht="14.25">
       <c r="A408" s="1">
-        <v>48.712023912404923</v>
+        <v>48.712578058160865</v>
       </c>
       <c r="B408" s="1">
-        <v>2.2025545568311968</v>
+        <v>2.2003096325386955</v>
       </c>
     </row>
     <row r="409" ht="14.25">
       <c r="A409" s="1">
-        <v>48.712101331918198</v>
+        <v>48.712582925802252</v>
       </c>
       <c r="B409" s="1">
-        <v>2.202391675696818</v>
+        <v>2.2003211061256556</v>
       </c>
     </row>
     <row r="410" ht="14.25">
       <c r="A410" s="1">
-        <v>48.711876840756808</v>
+        <v>48.712570797044137</v>
       </c>
       <c r="B410" s="1">
-        <v>2.2028683497734067</v>
+        <v>2.2002750945255962</v>
       </c>
     </row>
     <row r="411" ht="14.25">
       <c r="A411" s="1">
-        <v>48.711726346228325</v>
+        <v>48.712566986177833</v>
       </c>
       <c r="B411" s="1">
-        <v>2.2031807845455291</v>
+        <v>2.2002398005428732</v>
       </c>
     </row>
     <row r="412" ht="14.25">
       <c r="A412" s="1">
-        <v>48.711601752013053</v>
+        <v>48.712563573297849</v>
       </c>
       <c r="B412" s="1">
-        <v>2.2034264028352708</v>
+        <v>2.2002062367615105</v>
       </c>
     </row>
     <row r="413" ht="14.25">
       <c r="A413" s="1">
-        <v>48.711832376201251</v>
+        <v>48.712581460459212</v>
       </c>
       <c r="B413" s="1">
-        <v>2.2029290019501531</v>
+        <v>2.2002326107551018</v>
       </c>
     </row>
     <row r="414" ht="14.25">
       <c r="A414" s="1">
-        <v>48.711901574822171</v>
+        <v>48.71259049537661</v>
       </c>
       <c r="B414" s="1">
-        <v>2.2027950510278678</v>
+        <v>2.2002315696256391</v>
       </c>
     </row>
     <row r="415" ht="14.25">
       <c r="A415" s="1">
-        <v>48.711927574268856</v>
+        <v>48.712595808330533</v>
       </c>
       <c r="B415" s="1">
-        <v>2.2027549589079283</v>
+        <v>2.2002194382767244</v>
       </c>
     </row>
     <row r="416" ht="14.25">
       <c r="A416" s="1">
-        <v>48.712106760561163</v>
+        <v>48.712611053639868</v>
       </c>
       <c r="B416" s="1">
-        <v>2.2023700658245602</v>
+        <v>2.200236449812885</v>
       </c>
     </row>
     <row r="417" ht="14.25">
       <c r="A417" s="1">
-        <v>48.712049327705707</v>
+        <v>48.712612230252162</v>
       </c>
       <c r="B417" s="1">
-        <v>2.2025002472137438</v>
+        <v>2.2002100241440754</v>
       </c>
     </row>
     <row r="418" ht="14.25">
       <c r="A418" s="1">
-        <v>48.711950511462796</v>
+        <v>48.712611372319742</v>
       </c>
       <c r="B418" s="1">
-        <v>2.2027147680538306</v>
+        <v>2.2001827202959818</v>
       </c>
     </row>
     <row r="419" ht="14.25">
       <c r="A419" s="1">
-        <v>48.712085904532579</v>
+        <v>48.712624477825571</v>
       </c>
       <c r="B419" s="1">
-        <v>2.2024231716909681</v>
+        <v>2.200190980349729</v>
       </c>
     </row>
     <row r="420" ht="14.25">
       <c r="A420" s="1">
-        <v>48.712022234193839</v>
+        <v>48.712624374094418</v>
       </c>
       <c r="B420" s="1">
-        <v>2.2025475435998203</v>
+        <v>2.2001669429376691</v>
       </c>
     </row>
     <row r="421" ht="14.25">
       <c r="A421" s="1">
-        <v>48.711877474604954</v>
+        <v>48.712631203967327</v>
       </c>
       <c r="B421" s="1">
-        <v>2.2028391019837028</v>
+        <v>2.2001579933734594</v>
       </c>
     </row>
     <row r="422" ht="14.25">
       <c r="A422" s="1">
-        <v>48.712397255978431</v>
+        <v>48.712657934460964</v>
       </c>
       <c r="B422" s="1">
-        <v>2.2017364795349375</v>
+        <v>2.2002015297633974</v>
       </c>
     </row>
     <row r="423" ht="14.25">
       <c r="A423" s="1">
-        <v>48.712492528664264</v>
+        <v>48.712666326476267</v>
       </c>
       <c r="B423" s="1">
-        <v>2.2015247305742891</v>
+        <v>2.2001922164073178</v>
       </c>
     </row>
     <row r="424" ht="14.25">
       <c r="A424" s="1">
-        <v>48.712598147762783</v>
+        <v>48.712676962471754</v>
       </c>
       <c r="B424" s="1">
-        <v>2.2013044392147147</v>
+        <v>2.2001893185159549</v>
       </c>
     </row>
     <row r="425" ht="14.25">
       <c r="A425" s="1">
-        <v>48.712567073556365</v>
+        <v>48.712678965652465</v>
       </c>
       <c r="B425" s="1">
-        <v>2.2013736928277572</v>
+        <v>2.200169297635072</v>
       </c>
     </row>
     <row r="426" ht="14.25">
       <c r="A426" s="1">
-        <v>48.712909918856468</v>
+        <v>48.712699397118108</v>
       </c>
       <c r="B426" s="1">
-        <v>2.2006366609017314</v>
+        <v>2.2001967313408413</v>
       </c>
     </row>
     <row r="427" ht="14.25">
       <c r="A427" s="1">
-        <v>48.712866697723619</v>
+        <v>48.71273434262848</v>
       </c>
       <c r="B427" s="1">
-        <v>2.2007880798835529</v>
+        <v>2.200163855669222</v>
       </c>
     </row>
     <row r="428" ht="14.25">
       <c r="A428" s="1">
-        <v>48.712874952921084</v>
+        <v>48.712724129568578</v>
       </c>
       <c r="B428" s="1">
-        <v>2.2007034019984135</v>
+        <v>2.2002000984689918</v>
       </c>
     </row>
     <row r="429" ht="14.25">
       <c r="A429" s="1">
-        <v>48.712797822207172</v>
+        <v>48.712722669452248</v>
       </c>
       <c r="B429" s="1">
-        <v>2.2008605127711367</v>
+        <v>2.200168416530897</v>
       </c>
     </row>
     <row r="430" ht="14.25">
       <c r="A430" s="1">
-        <v>48.712907314397697</v>
+        <v>48.712746090611077</v>
       </c>
       <c r="B430" s="1">
-        <v>2.2006504979986508</v>
+        <v>2.2001439320279652</v>
       </c>
     </row>
     <row r="431" ht="14.25">
       <c r="A431" s="1">
-        <v>48.712817648122957</v>
+        <v>48.712739435891436</v>
       </c>
       <c r="B431" s="1">
-        <v>2.2008674511438131</v>
+        <v>2.2001415956521329</v>
       </c>
     </row>
     <row r="432" ht="14.25">
       <c r="A432" s="1">
-        <v>48.712998826745448</v>
+        <v>48.712753881038282</v>
       </c>
       <c r="B432" s="1">
-        <v>2.200434254045962</v>
+        <v>2.2001805929441871</v>
       </c>
     </row>
     <row r="433" ht="14.25">
       <c r="A433" s="1">
-        <v>48.712998826745448</v>
+        <v>48.712837352663605</v>
       </c>
       <c r="B433" s="1">
-        <v>2.200434254045962</v>
+        <v>2.2006188898781143</v>
       </c>
     </row>
     <row r="434" ht="14.25">
       <c r="A434" s="1">
-        <v>48.713251571254538</v>
+        <v>48.712756019103075</v>
       </c>
       <c r="B434" s="1">
-        <v>2.1998135739216007</v>
+        <v>2.2002887131783062</v>
       </c>
     </row>
     <row r="435" ht="14.25">
       <c r="A435" s="1">
-        <v>48.713040158536359</v>
+        <v>48.712724831017503</v>
       </c>
       <c r="B435" s="1">
-        <v>2.2004259195513254</v>
+        <v>2.2003589158483705</v>
       </c>
     </row>
     <row r="436" ht="14.25">
       <c r="A436" s="1">
-        <v>48.713110954961891</v>
+        <v>48.712714947335833</v>
       </c>
       <c r="B436" s="1">
-        <v>2.2002121848806571</v>
+        <v>2.2003847377999737</v>
       </c>
     </row>
     <row r="437" ht="14.25">
       <c r="A437" s="1">
-        <v>48.712829903767691</v>
+        <v>48.712678139786469</v>
       </c>
       <c r="B437" s="1">
-        <v>2.2008499512864801</v>
+        <v>2.2004696226159868</v>
       </c>
     </row>
     <row r="438" ht="14.25">
       <c r="A438" s="1">
-        <v>48.712837024047786</v>
+        <v>48.712666485282838</v>
       </c>
       <c r="B438" s="1">
-        <v>2.2008686350382902</v>
+        <v>2.2004950333468716</v>
       </c>
     </row>
     <row r="439" ht="14.25">
       <c r="A439" s="1">
-        <v>48.713006789361643</v>
+        <v>48.712677581586519</v>
       </c>
       <c r="B439" s="1">
-        <v>2.2005099444611997</v>
+        <v>2.200469183658821</v>
       </c>
     </row>
     <row r="440" ht="14.25">
       <c r="A440" s="1">
-        <v>48.712917064552691</v>
+        <v>48.712672105296456</v>
       </c>
       <c r="B440" s="1">
-        <v>2.2006868628269425</v>
+        <v>2.2004776366516925</v>
       </c>
     </row>
     <row r="441" ht="14.25">
       <c r="A441" s="1">
-        <v>48.712842814631308</v>
+        <v>48.712648977425971</v>
       </c>
       <c r="B441" s="1">
-        <v>2.2008422472857982</v>
+        <v>2.2005328000249773</v>
       </c>
     </row>
     <row r="442" ht="14.25">
       <c r="A442" s="1">
-        <v>48.71289730020375</v>
+        <v>48.712643241961743</v>
       </c>
       <c r="B442" s="1">
-        <v>2.2007136267997085</v>
+        <v>2.2005462039448269</v>
       </c>
     </row>
     <row r="443" ht="14.25">
       <c r="A443" s="1">
-        <v>48.712883486004436</v>
+        <v>48.712636718610774</v>
       </c>
       <c r="B443" s="1">
-        <v>2.2007659494620651</v>
+        <v>2.2005610336944836</v>
       </c>
     </row>
     <row r="444" ht="14.25">
       <c r="A444" s="1">
-        <v>48.71286914889204</v>
+        <v>48.712649146773451</v>
       </c>
       <c r="B444" s="1">
-        <v>2.2007824105984151</v>
+        <v>2.2005298703879772</v>
       </c>
     </row>
     <row r="445" ht="14.25">
       <c r="A445" s="1">
-        <v>48.712880661461817</v>
+        <v>48.712725513453485</v>
       </c>
       <c r="B445" s="1">
-        <v>2.2007595456343463</v>
+        <v>2.2003460743129137</v>
       </c>
     </row>
     <row r="446" ht="14.25">
       <c r="A446" s="1">
-        <v>48.712845379927259</v>
+        <v>48.712724891779992</v>
       </c>
       <c r="B446" s="1">
-        <v>2.2008315607661824</v>
+        <v>2.2003462943286318</v>
       </c>
     </row>
     <row r="447" ht="14.25">
       <c r="A447" s="1">
-        <v>48.712845077005362</v>
+        <v>48.71276776725945</v>
       </c>
       <c r="B447" s="1">
-        <v>2.2008370324033897</v>
+        <v>2.2002725102789391</v>
       </c>
     </row>
     <row r="448" ht="14.25">
       <c r="A448" s="1">
-        <v>48.712830597987107</v>
+        <v>48.712741714952642</v>
       </c>
       <c r="B448" s="1">
-        <v>2.2008522062448335</v>
+        <v>2.2003322412579069</v>
       </c>
     </row>
     <row r="449" ht="14.25">
       <c r="A449" s="1">
-        <v>48.712823719361459</v>
+        <v>48.712736961308693</v>
       </c>
       <c r="B449" s="1">
-        <v>2.2008791650815831</v>
+        <v>2.2003450391109363</v>
       </c>
     </row>
     <row r="450" ht="14.25">
       <c r="A450" s="1">
-        <v>48.712844796242763</v>
+        <v>48.71273243907391</v>
       </c>
       <c r="B450" s="1">
-        <v>2.2008552336358211</v>
+        <v>2.2003565913493084</v>
       </c>
     </row>
     <row r="451" ht="14.25">
       <c r="A451" s="1">
-        <v>48.712820245179572</v>
+        <v>48.712727217596814</v>
       </c>
       <c r="B451" s="1">
-        <v>2.2008990892669309</v>
+        <v>2.2003697390486661</v>
       </c>
     </row>
     <row r="452" ht="14.25">
       <c r="A452" s="1">
-        <v>48.712794728204607</v>
+        <v>48.712733085651784</v>
       </c>
       <c r="B452" s="1">
-        <v>2.2009537283055676</v>
+        <v>2.2003523128536182</v>
       </c>
     </row>
     <row r="453" ht="14.25">
       <c r="A453" s="1">
-        <v>48.712793674031218</v>
+        <v>48.712727720041499</v>
       </c>
       <c r="B453" s="1">
-        <v>2.2009521456888432</v>
+        <v>2.2003646380247437</v>
       </c>
     </row>
     <row r="454" ht="14.25">
       <c r="A454" s="1">
-        <v>48.712747493003263</v>
+        <v>48.712719418017265</v>
       </c>
       <c r="B454" s="1">
-        <v>2.2010570394571154</v>
+        <v>2.2003696195849356</v>
       </c>
     </row>
     <row r="455" ht="14.25">
       <c r="A455" s="1">
-        <v>48.712638405628233</v>
+        <v>48.71272159185299</v>
       </c>
       <c r="B455" s="1">
-        <v>2.2012884489060451</v>
+        <v>2.2003312539296145</v>
       </c>
     </row>
     <row r="456" ht="14.25">
       <c r="A456" s="1">
-        <v>48.712303942016824</v>
+        <v>48.712669893828419</v>
       </c>
       <c r="B456" s="1">
-        <v>2.2019748006984456</v>
+        <v>2.20035680462466</v>
       </c>
     </row>
     <row r="457" ht="14.25">
       <c r="A457" s="1">
-        <v>48.712570119624949</v>
+        <v>48.712676448057664</v>
       </c>
       <c r="B457" s="1">
-        <v>2.2014133344502591</v>
+        <v>2.2004143102157125</v>
       </c>
     </row>
     <row r="458" ht="14.25">
       <c r="A458" s="1">
-        <v>48.711977005189681</v>
+        <v>48.712636051378809</v>
       </c>
       <c r="B458" s="1">
-        <v>2.2026699706719093</v>
+        <v>2.2003379630179052</v>
       </c>
     </row>
     <row r="459" ht="14.25">
       <c r="A459" s="1">
-        <v>48.712139442653012</v>
+        <v>48.712653976593323</v>
       </c>
       <c r="B459" s="1">
-        <v>2.2023394730116435</v>
+        <v>2.2003426472442316</v>
       </c>
     </row>
     <row r="460" ht="14.25">
       <c r="A460" s="1">
-        <v>48.711573985620987</v>
+        <v>48.71261930363476</v>
       </c>
       <c r="B460" s="1">
-        <v>2.2035254939761133</v>
+        <v>2.2002616053004131</v>
       </c>
     </row>
     <row r="461" ht="14.25">
       <c r="A461" s="1">
-        <v>48.711640934960698</v>
+        <v>48.712623302789481</v>
       </c>
       <c r="B461" s="1">
-        <v>2.2033610924510327</v>
+        <v>2.2002731662400095</v>
       </c>
     </row>
     <row r="462" ht="14.25">
       <c r="A462" s="1">
-        <v>48.711783062335428</v>
+        <v>48.712631988799892</v>
       </c>
       <c r="B462" s="1">
-        <v>2.2030565849473223</v>
+        <v>2.2002930653889212</v>
       </c>
     </row>
     <row r="463" ht="14.25">
       <c r="A463" s="1">
-        <v>48.711737926875124</v>
+        <v>48.712632187955144</v>
       </c>
       <c r="B463" s="1">
-        <v>2.203166293214982</v>
+        <v>2.2002935347142021</v>
       </c>
     </row>
     <row r="464" ht="14.25">
       <c r="A464" s="1">
-        <v>48.711831603984521</v>
+        <v>48.712631962645311</v>
       </c>
       <c r="B464" s="1">
-        <v>2.2029579526727772</v>
+        <v>2.2002937582915671</v>
       </c>
     </row>
     <row r="465" ht="14.25">
       <c r="A465" s="1">
-        <v>48.711597518795273</v>
+        <v>48.712631789907121</v>
       </c>
       <c r="B465" s="1">
-        <v>2.203433234663903</v>
+        <v>2.2002937921804295</v>
       </c>
     </row>
   </sheetData>

--- a/PosMob.xlsx
+++ b/PosMob.xlsx
@@ -585,7 +585,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A369" zoomScale="100" workbookViewId="0">
       <selection activeCell="H199" activeCellId="0" sqref="H199"/>
     </sheetView>
   </sheetViews>
@@ -614,10 +614,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>48.712782017724237</v>
+        <v>48.713138051680275</v>
       </c>
       <c r="B2" s="1">
-        <v>2.2008250050212426</v>
+        <v>2.2199025166351145</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -631,10 +631,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>48.712786419594046</v>
+        <v>48.713138031384808</v>
       </c>
       <c r="B3" s="1">
-        <v>2.2008437255153694</v>
+        <v>2.2199024949168362</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -649,10 +649,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>48.712789738319948</v>
+        <v>48.713138035719041</v>
       </c>
       <c r="B4" s="1">
-        <v>2.2008584538606342</v>
+        <v>2.2199024769058462</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -667,10 +667,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>48.712792148337115</v>
+        <v>48.713138102419187</v>
       </c>
       <c r="B5" s="1">
-        <v>2.2008686759235938</v>
+        <v>2.2199024374587624</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>48.712792890670471</v>
+        <v>48.71313808351254</v>
       </c>
       <c r="B6" s="1">
-        <v>2.2008716628501737</v>
+        <v>2.2199024720549172</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -703,10 +703,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>48.712792874550018</v>
+        <v>48.713138065784683</v>
       </c>
       <c r="B7" s="1">
-        <v>2.2008715866297432</v>
+        <v>2.2199024749938623</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -721,10 +721,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>48.712792949475691</v>
+        <v>48.713138092993631</v>
       </c>
       <c r="B8" s="1">
-        <v>2.2008716258389924</v>
+        <v>2.219902458034241</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -739,10 +739,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>48.712792939271793</v>
+        <v>48.713138128904305</v>
       </c>
       <c r="B9" s="1">
-        <v>2.2008716283237213</v>
+        <v>2.2199024086441832</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -757,10 +757,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>48.712792968834428</v>
+        <v>48.713138160504961</v>
       </c>
       <c r="B10" s="1">
-        <v>2.2008716013484242</v>
+        <v>2.2199024117091453</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -775,10 +775,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>48.712792927528184</v>
+        <v>48.713138185308914</v>
       </c>
       <c r="B11" s="1">
-        <v>2.2008716030162931</v>
+        <v>2.2199023851045214</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>48.712792961059755</v>
+        <v>48.713138221555354</v>
       </c>
       <c r="B12" s="1">
-        <v>2.2008715334521471</v>
+        <v>2.219902429380102</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -811,10 +811,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>48.712793001746817</v>
+        <v>48.713138213069399</v>
       </c>
       <c r="B13" s="1">
-        <v>2.200871500579793</v>
+        <v>2.219902393536564</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -829,10 +829,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>48.712792970886973</v>
+        <v>48.713138193178708</v>
       </c>
       <c r="B14" s="1">
-        <v>2.2008714771677607</v>
+        <v>2.2199023889732361</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -847,10 +847,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>48.712793058534082</v>
+        <v>48.713138231058906</v>
       </c>
       <c r="B15" s="1">
-        <v>2.2008719033812105</v>
+        <v>2.2199023646804612</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>48.712793115650129</v>
+        <v>48.713138234991568</v>
       </c>
       <c r="B16" s="1">
-        <v>2.2008719238239469</v>
+        <v>2.2199023550470831</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -883,10 +883,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>48.712782633642561</v>
+        <v>48.713138241446664</v>
       </c>
       <c r="B17" s="1">
-        <v>2.2008275225894502</v>
+        <v>2.2199023501471542</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -901,10 +901,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>48.712780881691089</v>
+        <v>48.713138235290906</v>
       </c>
       <c r="B18" s="1">
-        <v>2.2008200015698902</v>
+        <v>2.2199023372469826</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -919,10 +919,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>48.712780877628447</v>
+        <v>48.713138256801507</v>
       </c>
       <c r="B19" s="1">
-        <v>2.2008199485025175</v>
+        <v>2.2199023200603043</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -937,10 +937,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>48.712780903943759</v>
+        <v>48.713138305855487</v>
       </c>
       <c r="B20" s="1">
-        <v>2.2008200603468868</v>
+        <v>2.2199023296403926</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -955,10 +955,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>48.712780904170998</v>
+        <v>48.71313830644965</v>
       </c>
       <c r="B21" s="1">
-        <v>2.2008200742339734</v>
+        <v>2.2199023070367687</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -973,10 +973,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>48.712780868974392</v>
+        <v>48.713138333015593</v>
       </c>
       <c r="B22" s="1">
-        <v>2.2008200922095056</v>
+        <v>2.219902308120302</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>48.712780798116988</v>
+        <v>48.71313830525731</v>
       </c>
       <c r="B23" s="1">
-        <v>2.2008200475201765</v>
+        <v>2.2199023318525941</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1009,10 +1009,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>48.712780917224158</v>
+        <v>48.713138331493369</v>
       </c>
       <c r="B24" s="1">
-        <v>2.2008199943593381</v>
+        <v>2.2199023194519034</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>48.712780916322167</v>
+        <v>48.71313834839183</v>
       </c>
       <c r="B25" s="1">
-        <v>2.2008201788427586</v>
+        <v>2.2199022916049307</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>48.71278092285084</v>
+        <v>48.713138345021413</v>
       </c>
       <c r="B26" s="1">
-        <v>2.2008200877508104</v>
+        <v>2.2199022604300964</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>48.712780838047259</v>
+        <v>48.713138366737184</v>
       </c>
       <c r="B27" s="1">
-        <v>2.2008202244435595</v>
+        <v>2.2199022671582669</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1081,10 +1081,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>48.712780746436238</v>
+        <v>48.713138377584997</v>
       </c>
       <c r="B28" s="1">
-        <v>2.2008202105117354</v>
+        <v>2.2199023024462696</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>48.712780776208</v>
+        <v>48.713138377710564</v>
       </c>
       <c r="B29" s="1">
-        <v>2.2008203402253192</v>
+        <v>2.2199022159130077</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1117,10 +1117,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>48.71273224230255</v>
+        <v>48.713138387341978</v>
       </c>
       <c r="B30" s="1">
-        <v>2.2006454508403603</v>
+        <v>2.2199022191747493</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>48.712762529342626</v>
+        <v>48.713138399633557</v>
       </c>
       <c r="B31" s="1">
-        <v>2.2007665246905859</v>
+        <v>2.219902192023556</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>48.712761414849119</v>
+        <v>48.713138432077486</v>
       </c>
       <c r="B32" s="1">
-        <v>2.2007528230892079</v>
+        <v>2.219902236499836</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>48.712774412431123</v>
+        <v>48.713138447272229</v>
       </c>
       <c r="B33" s="1">
-        <v>2.2007870928330595</v>
+        <v>2.2199021898098974</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>48.712767016643319</v>
+        <v>48.713138447539016</v>
       </c>
       <c r="B34" s="1">
-        <v>2.2007372599950812</v>
+        <v>2.2199022068090666</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1207,10 +1207,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>48.71277260909303</v>
+        <v>48.713138467795645</v>
       </c>
       <c r="B35" s="1">
-        <v>2.2007369673243797</v>
+        <v>2.2199021646454433</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1225,10 +1225,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>48.712782298934243</v>
+        <v>48.713138473342262</v>
       </c>
       <c r="B36" s="1">
-        <v>2.2007567875611405</v>
+        <v>2.2199021913667787</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1243,10 +1243,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>48.712784445065225</v>
+        <v>48.713138500485755</v>
       </c>
       <c r="B37" s="1">
-        <v>2.2007423292749624</v>
+        <v>2.2199022018560632</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1261,10 +1261,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>48.712791885840929</v>
+        <v>48.713138541316887</v>
       </c>
       <c r="B38" s="1">
-        <v>2.2007522071194758</v>
+        <v>2.2199021880620053</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>48.712780242478523</v>
+        <v>48.71313848560817</v>
       </c>
       <c r="B39" s="1">
-        <v>2.2006785349626155</v>
+        <v>2.2199021428194805</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>48.712801883845017</v>
+        <v>48.713138538217052</v>
       </c>
       <c r="B40" s="1">
-        <v>2.2007441532532157</v>
+        <v>2.219902113390344</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1315,10 +1315,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>48.712801139498367</v>
+        <v>48.713138523692585</v>
       </c>
       <c r="B41" s="1">
-        <v>2.2007191749807551</v>
+        <v>2.2199020879338387</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1333,10 +1333,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>48.712805251518851</v>
+        <v>48.713138558813064</v>
       </c>
       <c r="B42" s="1">
-        <v>2.2007101371912632</v>
+        <v>2.2199021169389455</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1351,10 +1351,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <v>48.712811431672812</v>
+        <v>48.713138625138789</v>
       </c>
       <c r="B43" s="1">
-        <v>2.2007102271274976</v>
+        <v>2.2199020940858971</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1369,10 +1369,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>48.712814123118896</v>
+        <v>48.713138537495126</v>
       </c>
       <c r="B44" s="1">
-        <v>2.2006967399668569</v>
+        <v>2.2199020497118749</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1387,10 +1387,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>48.712825594972607</v>
+        <v>48.713138609354033</v>
       </c>
       <c r="B45" s="1">
-        <v>2.2007192149382306</v>
+        <v>2.2199020786458834</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <v>48.712844815733874</v>
+        <v>48.713138646028433</v>
       </c>
       <c r="B46" s="1">
-        <v>2.2007744649884589</v>
+        <v>2.2199021005280009</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1423,10 +1423,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>48.712833713509625</v>
+        <v>48.713138658708857</v>
       </c>
       <c r="B47" s="1">
-        <v>2.2007038883459056</v>
+        <v>2.219902040877618</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1441,10 +1441,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>48.71284878772795</v>
+        <v>48.713138612365753</v>
       </c>
       <c r="B48" s="1">
-        <v>2.2007398356406398</v>
+        <v>2.2199020433272478</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1459,10 +1459,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>48.712856693981479</v>
+        <v>48.71313862617518</v>
       </c>
       <c r="B49" s="1">
-        <v>2.2007454280832119</v>
+        <v>2.2199019901123567</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>48.712873622526224</v>
+        <v>48.713138678983157</v>
       </c>
       <c r="B50" s="1">
-        <v>2.2007891271970119</v>
+        <v>2.2199020480215705</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1495,10 +1495,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <v>48.712876389586121</v>
+        <v>48.713138675136967</v>
       </c>
       <c r="B51" s="1">
-        <v>2.200777093820784</v>
+        <v>2.2199020563754308</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1513,10 +1513,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>48.71288521931875</v>
+        <v>48.713138698396264</v>
       </c>
       <c r="B52" s="1">
-        <v>2.20078619666103</v>
+        <v>2.2199020131696114</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>48.712888730986499</v>
+        <v>48.713138740612038</v>
       </c>
       <c r="B53" s="1">
-        <v>2.2007769816717437</v>
+        <v>2.2199020185581722</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1549,10 +1549,10 @@
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <v>48.712869414013348</v>
+        <v>48.71313874780315</v>
       </c>
       <c r="B54" s="1">
-        <v>2.2008135368856308</v>
+        <v>2.219901965518758</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1567,10 +1567,10 @@
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <v>48.712814435937844</v>
+        <v>48.713138745996808</v>
       </c>
       <c r="B55" s="1">
-        <v>2.2007800322881388</v>
+        <v>2.2199020056671266</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <v>48.712828843017199</v>
+        <v>48.713138781400197</v>
       </c>
       <c r="B56" s="1">
-        <v>2.2007851088920773</v>
+        <v>2.2199019873656201</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1603,10 +1603,10 @@
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <v>48.712842055664169</v>
+        <v>48.713138807241798</v>
       </c>
       <c r="B57" s="1">
-        <v>2.2008183757790047</v>
+        <v>2.2199019604082646</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1621,10 +1621,10 @@
     </row>
     <row r="58">
       <c r="A58" s="1">
-        <v>48.712875317481313</v>
+        <v>48.713138789464907</v>
       </c>
       <c r="B58" s="1">
-        <v>2.2007126202879439</v>
+        <v>2.2199019708958536</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>48.712895140142258</v>
+        <v>48.713138818563024</v>
       </c>
       <c r="B59" s="1">
-        <v>2.2006448778772203</v>
+        <v>2.2199019701459628</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <v>48.712903171971227</v>
+        <v>48.713138834721825</v>
       </c>
       <c r="B60" s="1">
-        <v>2.2006519848102393</v>
+        <v>2.2199019321516817</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1675,10 +1675,10 @@
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>48.712869499396078</v>
+        <v>48.713138859526104</v>
       </c>
       <c r="B61" s="1">
-        <v>2.2007170494898398</v>
+        <v>2.2199019756488498</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1693,10 +1693,10 @@
     </row>
     <row r="62">
       <c r="A62" s="1">
-        <v>48.712858195012181</v>
+        <v>48.71313886331567</v>
       </c>
       <c r="B62" s="1">
-        <v>2.2007592812255812</v>
+        <v>2.2199019453225808</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1711,10 +1711,10 @@
     </row>
     <row r="63">
       <c r="A63" s="1">
-        <v>48.712865642897285</v>
+        <v>48.713138834066243</v>
       </c>
       <c r="B63" s="1">
-        <v>2.2007923323049972</v>
+        <v>2.2199018972467268</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1729,10 +1729,10 @@
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>48.712843937945237</v>
+        <v>48.713138879917956</v>
       </c>
       <c r="B64" s="1">
-        <v>2.200852098884527</v>
+        <v>2.2199019158108806</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1747,10 +1747,10 @@
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>48.712828460433833</v>
+        <v>48.713138900686808</v>
       </c>
       <c r="B65" s="1">
-        <v>2.2009126658101454</v>
+        <v>2.2199019218675127</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>48.712785999603277</v>
+        <v>48.713138902007167</v>
       </c>
       <c r="B66" s="1">
-        <v>2.2010098681992498</v>
+        <v>2.2199018276452054</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>48.712751748221628</v>
+        <v>48.713138947533096</v>
       </c>
       <c r="B67" s="1">
-        <v>2.2010893844267208</v>
+        <v>2.2199018371959238</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1801,10 +1801,10 @@
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>48.7127384903457</v>
+        <v>48.713138931219916</v>
       </c>
       <c r="B68" s="1">
-        <v>2.2011189428563132</v>
+        <v>2.2199018391035699</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1819,10 +1819,10 @@
     </row>
     <row r="69">
       <c r="A69" s="1">
-        <v>48.712741134910956</v>
+        <v>48.713138944732528</v>
       </c>
       <c r="B69" s="1">
-        <v>2.2011113822851622</v>
+        <v>2.2199018455604702</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1837,10 +1837,10 @@
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>48.712751366129723</v>
+        <v>48.713138898336432</v>
       </c>
       <c r="B70" s="1">
-        <v>2.2010890272109842</v>
+        <v>2.2199018536384809</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1855,10 +1855,10 @@
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>48.712744480394939</v>
+        <v>48.713138954657929</v>
       </c>
       <c r="B71" s="1">
-        <v>2.2011040744477479</v>
+        <v>2.2199018418390071</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1873,10 +1873,10 @@
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>48.712747877764556</v>
+        <v>48.713138977967787</v>
       </c>
       <c r="B72" s="1">
-        <v>2.2010945080331603</v>
+        <v>2.2199017615755019</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1891,10 +1891,10 @@
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>48.712738440694132</v>
+        <v>48.713138952682264</v>
       </c>
       <c r="B73" s="1">
-        <v>2.2011176315735614</v>
+        <v>2.2199018280314164</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>48.712728979833109</v>
+        <v>48.713139091559562</v>
       </c>
       <c r="B74" s="1">
-        <v>2.2011390551211361</v>
+        <v>2.2199017425446077</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1927,10 +1927,10 @@
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>48.712739876088854</v>
+        <v>48.713139029542617</v>
       </c>
       <c r="B75" s="1">
-        <v>2.2011130654402882</v>
+        <v>2.2199017817603175</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1945,10 +1945,10 @@
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>48.712753206946367</v>
+        <v>48.713139007123239</v>
       </c>
       <c r="B76" s="1">
-        <v>2.201083040728665</v>
+        <v>2.2199017958861269</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1963,10 +1963,10 @@
     </row>
     <row r="77">
       <c r="A77" s="1">
-        <v>48.712761545992883</v>
+        <v>48.713139039105862</v>
       </c>
       <c r="B77" s="1">
-        <v>2.2010628669707106</v>
+        <v>2.2199017337323768</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1981,10 +1981,10 @@
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>48.712773020105082</v>
+        <v>48.713139064387384</v>
       </c>
       <c r="B78" s="1">
-        <v>2.2010373670393957</v>
+        <v>2.2199017650430544</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>48.712834836618008</v>
+        <v>48.713139069558096</v>
       </c>
       <c r="B79" s="1">
-        <v>2.2008924584800917</v>
+        <v>2.2199017357074435</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2017,10 +2017,10 @@
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>48.712828944908331</v>
+        <v>48.713139060462247</v>
       </c>
       <c r="B80" s="1">
-        <v>2.2009043696510568</v>
+        <v>2.219901719402452</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="81">
       <c r="A81" s="1">
-        <v>48.712847356515574</v>
+        <v>48.713139110566374</v>
       </c>
       <c r="B81" s="1">
-        <v>2.200864135864288</v>
+        <v>2.2199017348775865</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2053,10 +2053,10 @@
     </row>
     <row r="82">
       <c r="A82" s="1">
-        <v>48.712843332719153</v>
+        <v>48.713139107377415</v>
       </c>
       <c r="B82" s="1">
-        <v>2.2008751526006791</v>
+        <v>2.2199016867362777</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1">
-        <v>48.71283854191087</v>
+        <v>48.71313910721647</v>
       </c>
       <c r="B83" s="1">
-        <v>2.2008854751578451</v>
+        <v>2.2199017174860294</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="84">
       <c r="A84" s="1">
-        <v>48.712834507092722</v>
+        <v>48.713139156152359</v>
       </c>
       <c r="B84" s="1">
-        <v>2.2008969755129297</v>
+        <v>2.2199016998108148</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2107,10 +2107,10 @@
     </row>
     <row r="85">
       <c r="A85" s="1">
-        <v>48.712820257696045</v>
+        <v>48.713139169110178</v>
       </c>
       <c r="B85" s="1">
-        <v>2.2009040953900745</v>
+        <v>2.219901661373334</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2125,10 +2125,10 @@
     </row>
     <row r="86">
       <c r="A86" s="1">
-        <v>48.712786758878899</v>
+        <v>48.713139163920161</v>
       </c>
       <c r="B86" s="1">
-        <v>2.2009213696442163</v>
+        <v>2.2199016442793105</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2143,10 +2143,10 @@
     </row>
     <row r="87">
       <c r="A87" s="1">
-        <v>48.712751385508938</v>
+        <v>48.713139165162673</v>
       </c>
       <c r="B87" s="1">
-        <v>2.2010379249327925</v>
+        <v>2.2199016933924072</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="88">
       <c r="A88" s="1">
-        <v>48.712784599468272</v>
+        <v>48.713139235893927</v>
       </c>
       <c r="B88" s="1">
-        <v>2.200848656512739</v>
+        <v>2.2199016457305327</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1">
-        <v>48.712748771679578</v>
+        <v>48.713139227447257</v>
       </c>
       <c r="B89" s="1">
-        <v>2.2007329963593132</v>
+        <v>2.2199016576557744</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="90">
       <c r="A90" s="1">
-        <v>48.712750588546534</v>
+        <v>48.713139215761665</v>
       </c>
       <c r="B90" s="1">
-        <v>2.200708448728931</v>
+        <v>2.2199016283596902</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2215,10 +2215,10 @@
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>48.712728095498782</v>
+        <v>48.713139242996711</v>
       </c>
       <c r="B91" s="1">
-        <v>2.2005648143023366</v>
+        <v>2.2199016214143121</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2233,10 +2233,10 @@
     </row>
     <row r="92">
       <c r="A92" s="1">
-        <v>48.712759675475432</v>
+        <v>48.713139264646252</v>
       </c>
       <c r="B92" s="1">
-        <v>2.2007171376382888</v>
+        <v>2.2199015942694129</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2251,10 +2251,10 @@
     </row>
     <row r="93">
       <c r="A93" s="1">
-        <v>48.71275379557234</v>
+        <v>48.713139301999803</v>
       </c>
       <c r="B93" s="1">
-        <v>2.200734725790547</v>
+        <v>2.2199015953703856</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2269,10 +2269,10 @@
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>48.712625967880072</v>
+        <v>48.713139337591052</v>
       </c>
       <c r="B94" s="1">
-        <v>2.2002213737532976</v>
+        <v>2.2199016035525196</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>48.712628390466115</v>
+        <v>48.713139277375596</v>
       </c>
       <c r="B95" s="1">
-        <v>2.2002172732984331</v>
+        <v>2.2199015793538703</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2305,10 +2305,10 @@
     </row>
     <row r="96">
       <c r="A96" s="1">
-        <v>48.712638465484986</v>
+        <v>48.71313932618024</v>
       </c>
       <c r="B96" s="1">
-        <v>2.2002328834277018</v>
+        <v>2.2199015845421584</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2323,10 +2323,10 @@
     </row>
     <row r="97">
       <c r="A97" s="1">
-        <v>48.712644444172618</v>
+        <v>48.713139338606545</v>
       </c>
       <c r="B97" s="1">
-        <v>2.2002270838386302</v>
+        <v>2.2199015219203431</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2341,10 +2341,10 @@
     </row>
     <row r="98">
       <c r="A98" s="1">
-        <v>48.71266684158001</v>
+        <v>48.713139354435803</v>
       </c>
       <c r="B98" s="1">
-        <v>2.2002853634452544</v>
+        <v>2.2199015612061515</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2359,10 +2359,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1">
-        <v>48.712644155384815</v>
+        <v>48.713139340241327</v>
       </c>
       <c r="B99" s="1">
-        <v>2.20016819708031</v>
+        <v>2.2199015426874253</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2377,10 +2377,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>48.712670957259355</v>
+        <v>48.713139378382735</v>
       </c>
       <c r="B100" s="1">
-        <v>2.2002413902193143</v>
+        <v>2.2199015275204856</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="101">
       <c r="A101" s="1">
-        <v>48.712679075253419</v>
+        <v>48.713139416242171</v>
       </c>
       <c r="B101" s="1">
-        <v>2.2002425242414629</v>
+        <v>2.2199015125361439</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1">
-        <v>48.712691967930631</v>
+        <v>48.713139422528954</v>
       </c>
       <c r="B102" s="1">
-        <v>2.2002634259705616</v>
+        <v>2.2199015227898098</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2431,10 +2431,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>48.712700243195549</v>
+        <v>48.713139415704951</v>
       </c>
       <c r="B103" s="1">
-        <v>2.2002635834529412</v>
+        <v>2.219901505448338</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2449,10 +2449,10 @@
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>48.712695273577957</v>
+        <v>48.713139440599996</v>
       </c>
       <c r="B104" s="1">
-        <v>2.2002133572618394</v>
+        <v>2.219901547947138</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2467,10 +2467,10 @@
     </row>
     <row r="105">
       <c r="A105" s="1">
-        <v>48.712708749088506</v>
+        <v>48.713139464976535</v>
       </c>
       <c r="B105" s="1">
-        <v>2.200235583994814</v>
+        <v>2.2199014729842568</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2485,10 +2485,10 @@
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>48.712719869074263</v>
+        <v>48.713139445659657</v>
       </c>
       <c r="B106" s="1">
-        <v>2.2002479048897272</v>
+        <v>2.2199014528206034</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2503,10 +2503,10 @@
     </row>
     <row r="107">
       <c r="A107" s="1">
-        <v>48.712720512562456</v>
+        <v>48.713139446367784</v>
       </c>
       <c r="B107" s="1">
-        <v>2.200222600169818</v>
+        <v>2.2199014440215739</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2521,10 +2521,10 @@
     </row>
     <row r="108">
       <c r="A108" s="1">
-        <v>48.712728110547083</v>
+        <v>48.713139528198354</v>
       </c>
       <c r="B108" s="1">
-        <v>2.2002245697571157</v>
+        <v>2.2199014032432327</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="109">
       <c r="A109" s="1">
-        <v>48.712748844785018</v>
+        <v>48.713139488293976</v>
       </c>
       <c r="B109" s="1">
-        <v>2.2002759395679159</v>
+        <v>2.2199014022389156</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2557,10 +2557,10 @@
     </row>
     <row r="110">
       <c r="A110" s="1">
-        <v>48.712740906373377</v>
+        <v>48.713139476170163</v>
       </c>
       <c r="B110" s="1">
-        <v>2.2002158184491241</v>
+        <v>2.2199014242191697</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2575,10 +2575,10 @@
     </row>
     <row r="111">
       <c r="A111" s="1">
-        <v>48.712746412855736</v>
+        <v>48.713139482116709</v>
       </c>
       <c r="B111" s="1">
-        <v>2.200210364177452</v>
+        <v>2.2199013396145233</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="112">
       <c r="A112" s="1">
-        <v>48.712744800374118</v>
+        <v>48.713139518252163</v>
       </c>
       <c r="B112" s="1">
-        <v>2.2002423669018185</v>
+        <v>2.2199014053006834</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2611,10 +2611,10 @@
     </row>
     <row r="113">
       <c r="A113" s="1">
-        <v>48.712742046425937</v>
+        <v>48.713139500100169</v>
       </c>
       <c r="B113" s="1">
-        <v>2.2002846101740139</v>
+        <v>2.2199013658832669</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2629,10 +2629,10 @@
     </row>
     <row r="114">
       <c r="A114" s="1">
-        <v>48.712736197588576</v>
+        <v>48.713139558602442</v>
       </c>
       <c r="B114" s="1">
-        <v>2.2002284434503152</v>
+        <v>2.2199013670254946</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2647,10 +2647,10 @@
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>48.712722069873273</v>
+        <v>48.713139568743088</v>
       </c>
       <c r="B115" s="1">
-        <v>2.2002634686639984</v>
+        <v>2.2199013715503342</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="116">
       <c r="A116" s="1">
-        <v>48.712739911509836</v>
+        <v>48.713139607325715</v>
       </c>
       <c r="B116" s="1">
-        <v>2.2002835431574645</v>
+        <v>2.2199013413192614</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2683,10 +2683,10 @@
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>48.712747246792361</v>
+        <v>48.71313960598107</v>
       </c>
       <c r="B117" s="1">
-        <v>2.200296451773013</v>
+        <v>2.2199013413948956</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2701,10 +2701,10 @@
     </row>
     <row r="118">
       <c r="A118" s="1">
-        <v>48.71273166960335</v>
+        <v>48.713139615260779</v>
       </c>
       <c r="B118" s="1">
-        <v>2.2003280694999892</v>
+        <v>2.2199013016965639</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2719,10 +2719,10 @@
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>48.71273723039247</v>
+        <v>48.713139642217584</v>
       </c>
       <c r="B119" s="1">
-        <v>2.2003030251777091</v>
+        <v>2.2199012909868121</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2737,10 +2737,10 @@
     </row>
     <row r="120">
       <c r="A120" s="1">
-        <v>48.712741472471563</v>
+        <v>48.713139658732239</v>
       </c>
       <c r="B120" s="1">
-        <v>2.2003051263833018</v>
+        <v>2.2199012983703832</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2755,10 +2755,10 @@
     </row>
     <row r="121">
       <c r="A121" s="1">
-        <v>48.712730791962507</v>
+        <v>48.713139663895703</v>
       </c>
       <c r="B121" s="1">
-        <v>2.2003354729407265</v>
+        <v>2.2199013024446379</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2773,10 +2773,10 @@
     </row>
     <row r="122">
       <c r="A122" s="1">
-        <v>48.712692616734572</v>
+        <v>48.713139671645514</v>
       </c>
       <c r="B122" s="1">
-        <v>2.2004187141107487</v>
+        <v>2.219901246013992</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>48.71266503618439</v>
+        <v>48.713139660584041</v>
       </c>
       <c r="B123" s="1">
-        <v>2.2004855013088322</v>
+        <v>2.2199012477142319</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2809,10 +2809,10 @@
     </row>
     <row r="124">
       <c r="A124" s="1">
-        <v>48.712652009119957</v>
+        <v>48.713139728315511</v>
       </c>
       <c r="B124" s="1">
-        <v>2.2005161713639794</v>
+        <v>2.2199012518337851</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2827,10 +2827,10 @@
     </row>
     <row r="125">
       <c r="A125" s="1">
-        <v>48.712651733407768</v>
+        <v>48.713139765561408</v>
       </c>
       <c r="B125" s="1">
-        <v>2.2005196489932524</v>
+        <v>2.2199012078399831</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2845,10 +2845,10 @@
     </row>
     <row r="126">
       <c r="A126" s="1">
-        <v>48.712632375784111</v>
+        <v>48.713139747250338</v>
       </c>
       <c r="B126" s="1">
-        <v>2.2005667345502959</v>
+        <v>2.219901180198415</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2863,10 +2863,10 @@
     </row>
     <row r="127">
       <c r="A127" s="1">
-        <v>48.712622532458603</v>
+        <v>48.713139719707058</v>
       </c>
       <c r="B127" s="1">
-        <v>2.200588966569204</v>
+        <v>2.2199011758298068</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2881,10 +2881,10 @@
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>48.712601989592692</v>
+        <v>48.713139741692885</v>
       </c>
       <c r="B128" s="1">
-        <v>2.2006389147904231</v>
+        <v>2.2199011939623432</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2899,10 +2899,10 @@
     </row>
     <row r="129">
       <c r="A129" s="1">
-        <v>48.71261831306726</v>
+        <v>48.713139758464287</v>
       </c>
       <c r="B129" s="1">
-        <v>2.2006019452411909</v>
+        <v>2.2199011878823409</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2917,10 +2917,10 @@
     </row>
     <row r="130">
       <c r="A130" s="1">
-        <v>48.712603583453827</v>
+        <v>48.713139758905506</v>
       </c>
       <c r="B130" s="1">
-        <v>2.2006373802671022</v>
+        <v>2.2199011592741082</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2935,10 +2935,10 @@
     </row>
     <row r="131">
       <c r="A131" s="1">
-        <v>48.712609251603659</v>
+        <v>48.713139795627704</v>
       </c>
       <c r="B131" s="1">
-        <v>2.2006250683857878</v>
+        <v>2.2199011503298975</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2947,16 +2947,16 @@
         <v>6</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131" si="2">E130+1</f>
+        <f t="shared" ref="E131:E194" si="2">E130+1</f>
         <v>130</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>48.712627769280857</v>
+        <v>48.713139795774545</v>
       </c>
       <c r="B132" s="1">
-        <v>2.2005835674608938</v>
+        <v>2.2199011531275734</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2965,16 +2965,16 @@
         <v>6</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E195" si="3">E131+1</f>
+        <f t="shared" si="2"/>
         <v>131</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>48.712664759651666</v>
+        <v>48.713139845400896</v>
       </c>
       <c r="B133" s="1">
-        <v>2.2004959361724059</v>
+        <v>2.219901126265067</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2983,16 +2983,16 @@
         <v>6</v>
       </c>
       <c r="E133">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1">
-        <v>48.712633743416617</v>
+        <v>48.713139859709578</v>
       </c>
       <c r="B134" s="1">
-        <v>2.2005692714354712</v>
+        <v>2.2199011312600736</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3001,16 +3001,16 @@
         <v>6</v>
       </c>
       <c r="E134">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1">
-        <v>48.712712932636606</v>
+        <v>48.713139886532595</v>
       </c>
       <c r="B135" s="1">
-        <v>2.2003863199486529</v>
+        <v>2.2199010889312429</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3019,16 +3019,16 @@
         <v>6</v>
       </c>
       <c r="E135">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1">
-        <v>48.712746321689508</v>
+        <v>48.713139850195908</v>
       </c>
       <c r="B136" s="1">
-        <v>2.2003092287943868</v>
+        <v>2.2199011115816458</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3037,16 +3037,16 @@
         <v>6</v>
       </c>
       <c r="E136">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1">
-        <v>48.712715436036255</v>
+        <v>48.713139882798529</v>
       </c>
       <c r="B137" s="1">
-        <v>2.2003824873678748</v>
+        <v>2.219901130592687</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3055,16 +3055,16 @@
         <v>6</v>
       </c>
       <c r="E137">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1">
-        <v>48.712705684271704</v>
+        <v>48.713139913845012</v>
       </c>
       <c r="B138" s="1">
-        <v>2.2004071576153361</v>
+        <v>2.2199011217903601</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3073,16 +3073,16 @@
         <v>6</v>
       </c>
       <c r="E138">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1">
-        <v>48.712700812124815</v>
+        <v>48.713139900270747</v>
       </c>
       <c r="B139" s="1">
-        <v>2.2004193393884104</v>
+        <v>2.2199010825624672</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3091,16 +3091,16 @@
         <v>6</v>
       </c>
       <c r="E139">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1">
-        <v>48.712701974311578</v>
+        <v>48.713139902768759</v>
       </c>
       <c r="B140" s="1">
-        <v>2.2004158977176669</v>
+        <v>2.2199010985691952</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3109,16 +3109,16 @@
         <v>6</v>
       </c>
       <c r="E140">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1">
-        <v>48.712682906545687</v>
+        <v>48.713139968911314</v>
       </c>
       <c r="B141" s="1">
-        <v>2.2004618770563877</v>
+        <v>2.2199010479308021</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3127,16 +3127,16 @@
         <v>6</v>
       </c>
       <c r="E141">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>48.712666085448241</v>
+        <v>48.713139945804322</v>
       </c>
       <c r="B142" s="1">
-        <v>2.2003868273789235</v>
+        <v>2.2199010917454314</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3145,16 +3145,16 @@
         <v>6</v>
       </c>
       <c r="E142">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1">
-        <v>48.712676786500921</v>
+        <v>48.713139975000772</v>
       </c>
       <c r="B143" s="1">
-        <v>2.2004113148370839</v>
+        <v>2.2199010989573771</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3163,16 +3163,16 @@
         <v>6</v>
       </c>
       <c r="E143">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1">
-        <v>48.712636892612409</v>
+        <v>48.713139971595339</v>
       </c>
       <c r="B144" s="1">
-        <v>2.2002946704715671</v>
+        <v>2.2199011012398571</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3181,16 +3181,16 @@
         <v>6</v>
       </c>
       <c r="E144">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1">
-        <v>48.712640155923957</v>
+        <v>48.71313999649098</v>
       </c>
       <c r="B145" s="1">
-        <v>2.2003374900759534</v>
+        <v>2.2199010164761019</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3199,16 +3199,16 @@
         <v>6</v>
       </c>
       <c r="E145">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1">
-        <v>48.712642797429815</v>
+        <v>48.713139980205398</v>
       </c>
       <c r="B146" s="1">
-        <v>2.2003015972203488</v>
+        <v>2.2199010803196875</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3217,16 +3217,16 @@
         <v>6</v>
       </c>
       <c r="E146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1">
-        <v>48.712631298588285</v>
+        <v>48.71313999648391</v>
       </c>
       <c r="B147" s="1">
-        <v>2.2002866276956476</v>
+        <v>2.2199010112588327</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3235,16 +3235,16 @@
         <v>6</v>
       </c>
       <c r="E147">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>48.712642733497731</v>
+        <v>48.713140023089743</v>
       </c>
       <c r="B148" s="1">
-        <v>2.200256240444165</v>
+        <v>2.219901034400261</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3253,16 +3253,16 @@
         <v>6</v>
       </c>
       <c r="E148">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>48.712645213313252</v>
+        <v>48.713140039796222</v>
       </c>
       <c r="B149" s="1">
-        <v>2.2002646196903903</v>
+        <v>2.2199009961608835</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3271,16 +3271,16 @@
         <v>6</v>
       </c>
       <c r="E149">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1">
-        <v>48.712638756973583</v>
+        <v>48.713140063192682</v>
       </c>
       <c r="B150" s="1">
-        <v>2.2002213034360869</v>
+        <v>2.2199009793677367</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3289,16 +3289,16 @@
         <v>6</v>
       </c>
       <c r="E150">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1">
-        <v>48.712654391726332</v>
+        <v>48.713140068639376</v>
       </c>
       <c r="B151" s="1">
-        <v>2.2002463497135523</v>
+        <v>2.2199009756723602</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3307,16 +3307,16 @@
         <v>6</v>
       </c>
       <c r="E151">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1">
-        <v>48.712656607869974</v>
+        <v>48.713140104499288</v>
       </c>
       <c r="B152" s="1">
-        <v>2.2002228932676644</v>
+        <v>2.2199009789142377</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3325,16 +3325,16 @@
         <v>6</v>
       </c>
       <c r="E152">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1">
-        <v>48.712657270136425</v>
+        <v>48.713140130375649</v>
       </c>
       <c r="B153" s="1">
-        <v>2.2001917673653986</v>
+        <v>2.2199009688186035</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3343,16 +3343,16 @@
         <v>6</v>
       </c>
       <c r="E153">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1">
-        <v>48.712685046271929</v>
+        <v>48.713140129963215</v>
       </c>
       <c r="B154" s="1">
-        <v>2.2002659709722945</v>
+        <v>2.2199009432965484</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3361,16 +3361,16 @@
         <v>6</v>
       </c>
       <c r="E154">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1">
-        <v>48.712691666990075</v>
+        <v>48.713140137640032</v>
       </c>
       <c r="B155" s="1">
-        <v>2.2002591937131686</v>
+        <v>2.2199009781997567</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3379,16 +3379,16 @@
         <v>6</v>
       </c>
       <c r="E155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1">
-        <v>48.712697996926373</v>
+        <v>48.713140135006419</v>
       </c>
       <c r="B156" s="1">
-        <v>2.2002502989682009</v>
+        <v>2.2199008863836882</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3397,16 +3397,16 @@
         <v>6</v>
       </c>
       <c r="E156">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1">
-        <v>48.712704308050185</v>
+        <v>48.713140160035742</v>
       </c>
       <c r="B157" s="1">
-        <v>2.20024335541149</v>
+        <v>2.2199009518468586</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3415,16 +3415,16 @@
         <v>6</v>
       </c>
       <c r="E157">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1">
-        <v>48.712721541399276</v>
+        <v>48.71314017476972</v>
       </c>
       <c r="B158" s="1">
-        <v>2.2002777917679608</v>
+        <v>2.2199009173182129</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3433,16 +3433,16 @@
         <v>6</v>
       </c>
       <c r="E158">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1">
-        <v>48.712728859240329</v>
+        <v>48.713140196244467</v>
       </c>
       <c r="B159" s="1">
-        <v>2.2002744789192081</v>
+        <v>2.21990090908298</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3451,16 +3451,16 @@
         <v>6</v>
       </c>
       <c r="E159">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>48.712742867164494</v>
+        <v>48.71314021153902</v>
       </c>
       <c r="B160" s="1">
-        <v>2.2002949612118328</v>
+        <v>2.2199009261652303</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3469,16 +3469,16 @@
         <v>6</v>
       </c>
       <c r="E160">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1">
-        <v>48.71274035202665</v>
+        <v>48.713140216779777</v>
       </c>
       <c r="B161" s="1">
-        <v>2.2002512119005244</v>
+        <v>2.2199008744805813</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3487,16 +3487,16 @@
         <v>6</v>
       </c>
       <c r="E161">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1">
-        <v>48.712744153516063</v>
+        <v>48.713140235749449</v>
       </c>
       <c r="B162" s="1">
-        <v>2.2002363899966673</v>
+        <v>2.219900896233463</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3505,16 +3505,16 @@
         <v>6</v>
       </c>
       <c r="E162">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1">
-        <v>48.712755617101926</v>
+        <v>48.713140223146304</v>
       </c>
       <c r="B163" s="1">
-        <v>2.2002444161791455</v>
+        <v>2.2199009100727989</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3523,16 +3523,16 @@
         <v>6</v>
       </c>
       <c r="E163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1">
-        <v>48.712769171341868</v>
+        <v>48.713140286108938</v>
       </c>
       <c r="B164" s="1">
-        <v>2.2002645947977615</v>
+        <v>2.2199008462598973</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3541,16 +3541,16 @@
         <v>6</v>
       </c>
       <c r="E164">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>163</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>48.712753857665874</v>
+        <v>48.713140291589632</v>
       </c>
       <c r="B165" s="1">
-        <v>2.2001827500222975</v>
+        <v>2.219900831769436</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3559,16 +3559,16 @@
         <v>6</v>
       </c>
       <c r="E165">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1">
-        <v>48.71274297029602</v>
+        <v>48.713140319412645</v>
       </c>
       <c r="B166" s="1">
-        <v>2.2002311906635694</v>
+        <v>2.21990080341926</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3577,16 +3577,16 @@
         <v>6</v>
       </c>
       <c r="E166">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1">
-        <v>48.71283562050543</v>
+        <v>48.713140315947591</v>
       </c>
       <c r="B167" s="1">
-        <v>2.2005506222757334</v>
+        <v>2.2199008245272043</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3595,16 +3595,16 @@
         <v>6</v>
       </c>
       <c r="E167">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1">
-        <v>48.712736380466943</v>
+        <v>48.71314030713387</v>
       </c>
       <c r="B168" s="1">
-        <v>2.2002771743180309</v>
+        <v>2.219900841970611</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3613,16 +3613,16 @@
         <v>6</v>
       </c>
       <c r="E168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1">
-        <v>48.712729927895339</v>
+        <v>48.713140328292674</v>
       </c>
       <c r="B169" s="1">
-        <v>2.2003391061759174</v>
+        <v>2.2199008030405207</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3631,16 +3631,16 @@
         <v>6</v>
       </c>
       <c r="E169">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1">
-        <v>48.712725229163055</v>
+        <v>48.713140324496003</v>
       </c>
       <c r="B170" s="1">
-        <v>2.2003093621451733</v>
+        <v>2.2199008364173412</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3649,16 +3649,16 @@
         <v>6</v>
       </c>
       <c r="E170">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1">
-        <v>48.712730080029303</v>
+        <v>48.71314036709731</v>
       </c>
       <c r="B171" s="1">
-        <v>2.2002922792834898</v>
+        <v>2.2199008161544231</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3667,16 +3667,16 @@
         <v>6</v>
       </c>
       <c r="E171">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1">
-        <v>48.712746495433983</v>
+        <v>48.713140389297116</v>
       </c>
       <c r="B172" s="1">
-        <v>2.2003197328554633</v>
+        <v>2.2199007680427778</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3685,16 +3685,16 @@
         <v>6</v>
       </c>
       <c r="E172">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1">
-        <v>48.712745393114517</v>
+        <v>48.71314037382767</v>
       </c>
       <c r="B173" s="1">
-        <v>2.2003157558256223</v>
+        <v>2.219900808139982</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3703,16 +3703,16 @@
         <v>6</v>
       </c>
       <c r="E173">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>172</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1">
-        <v>48.712733444869656</v>
+        <v>48.713140399558839</v>
       </c>
       <c r="B174" s="1">
-        <v>2.2003472334166752</v>
+        <v>2.2199007748552959</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3721,16 +3721,16 @@
         <v>6</v>
       </c>
       <c r="E174">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>173</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1">
-        <v>48.712711799434473</v>
+        <v>48.713140412627197</v>
       </c>
       <c r="B175" s="1">
-        <v>2.2003954315884395</v>
+        <v>2.2199007264823045</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3739,16 +3739,16 @@
         <v>6</v>
       </c>
       <c r="E175">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1">
-        <v>48.712697665028642</v>
+        <v>48.71314047373221</v>
       </c>
       <c r="B176" s="1">
-        <v>2.2004271641612592</v>
+        <v>2.2199007365776398</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3757,16 +3757,16 @@
         <v>6</v>
       </c>
       <c r="E176">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1">
-        <v>48.712672518047924</v>
+        <v>48.713140465270861</v>
       </c>
       <c r="B177" s="1">
-        <v>2.2004841893604006</v>
+        <v>2.2199006986640764</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3775,16 +3775,16 @@
         <v>6</v>
       </c>
       <c r="E177">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>176</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1">
-        <v>48.712669618301696</v>
+        <v>48.713140471854821</v>
       </c>
       <c r="B178" s="1">
-        <v>2.2004898912697763</v>
+        <v>2.2199007076234496</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3793,16 +3793,16 @@
         <v>6</v>
       </c>
       <c r="E178">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1">
-        <v>48.712644065891602</v>
+        <v>48.713140472343028</v>
       </c>
       <c r="B179" s="1">
-        <v>2.2005488053844555</v>
+        <v>2.2199007278340859</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3811,16 +3811,16 @@
         <v>6</v>
       </c>
       <c r="E179">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1">
-        <v>48.712615737197318</v>
+        <v>48.713140484301626</v>
       </c>
       <c r="B180" s="1">
-        <v>2.2006150682093377</v>
+        <v>2.2199006645261492</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3829,16 +3829,16 @@
         <v>6</v>
       </c>
       <c r="E180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1">
-        <v>48.712600304386122</v>
+        <v>48.713140489854965</v>
       </c>
       <c r="B181" s="1">
-        <v>2.2006510379982869</v>
+        <v>2.2199006452529817</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3847,16 +3847,16 @@
         <v>6</v>
       </c>
       <c r="E181">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1">
-        <v>48.712603589282267</v>
+        <v>48.713140507964617</v>
       </c>
       <c r="B182" s="1">
-        <v>2.2006418687588982</v>
+        <v>2.2199006635128185</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3865,16 +3865,16 @@
         <v>6</v>
       </c>
       <c r="E182">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1">
-        <v>48.712588125941679</v>
+        <v>48.713140495383392</v>
       </c>
       <c r="B183" s="1">
-        <v>2.2006782859626148</v>
+        <v>2.2199006837321891</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3883,16 +3883,16 @@
         <v>6</v>
       </c>
       <c r="E183">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1">
-        <v>48.712595550378921</v>
+        <v>48.713140487480231</v>
       </c>
       <c r="B184" s="1">
-        <v>2.2006622973040675</v>
+        <v>2.219900635127031</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3901,16 +3901,16 @@
         <v>6</v>
       </c>
       <c r="E184">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>183</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1">
-        <v>48.712599882950393</v>
+        <v>48.713140538955315</v>
       </c>
       <c r="B185" s="1">
-        <v>2.2006534883482276</v>
+        <v>2.2199005939371377</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3919,16 +3919,16 @@
         <v>6</v>
       </c>
       <c r="E185">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1">
-        <v>48.712643210967734</v>
+        <v>48.713140577118438</v>
       </c>
       <c r="B186" s="1">
-        <v>2.2005529969159836</v>
+        <v>2.219900598888128</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3937,16 +3937,16 @@
         <v>6</v>
       </c>
       <c r="E186">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>185</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1">
-        <v>48.712726135846225</v>
+        <v>48.713140595651673</v>
       </c>
       <c r="B187" s="1">
-        <v>2.2003597562014705</v>
+        <v>2.2199005795530682</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3955,16 +3955,16 @@
         <v>6</v>
       </c>
       <c r="E187">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>186</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1">
-        <v>48.712725691419926</v>
+        <v>48.713140537123856</v>
       </c>
       <c r="B188" s="1">
-        <v>2.2003613977565806</v>
+        <v>2.2199006088820568</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3973,16 +3973,16 @@
         <v>6</v>
       </c>
       <c r="E188">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>187</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1">
-        <v>48.712720130294493</v>
+        <v>48.713140605008213</v>
       </c>
       <c r="B189" s="1">
-        <v>2.2003741076808869</v>
+        <v>2.2199005588158607</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3991,16 +3991,16 @@
         <v>6</v>
       </c>
       <c r="E189">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>188</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1">
-        <v>48.712714014699543</v>
+        <v>48.713140626293331</v>
       </c>
       <c r="B190" s="1">
-        <v>2.2003866407948514</v>
+        <v>2.219900550622889</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4009,16 +4009,16 @@
         <v>6</v>
       </c>
       <c r="E190">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>189</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1">
-        <v>48.712698003345672</v>
+        <v>48.713140623871567</v>
       </c>
       <c r="B191" s="1">
-        <v>2.2004488531200064</v>
+        <v>2.2199005317942571</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4027,16 +4027,16 @@
         <v>6</v>
       </c>
       <c r="E191">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1">
-        <v>48.712718796762665</v>
+        <v>48.713140659962924</v>
       </c>
       <c r="B192" s="1">
-        <v>2.200414709666846</v>
+        <v>2.2199005747191167</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4045,16 +4045,16 @@
         <v>6</v>
       </c>
       <c r="E192">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>191</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1">
-        <v>48.712684930855765</v>
+        <v>48.713140640824761</v>
       </c>
       <c r="B193" s="1">
-        <v>2.2004743400097393</v>
+        <v>2.2199005039011626</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4063,16 +4063,16 @@
         <v>6</v>
       </c>
       <c r="E193">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1">
-        <v>48.712691779746542</v>
+        <v>48.713140639965808</v>
       </c>
       <c r="B194" s="1">
-        <v>2.2003877595225898</v>
+        <v>2.2199005089100869</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4081,16 +4081,16 @@
         <v>6</v>
       </c>
       <c r="E194">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>193</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1">
-        <v>48.71277084736689</v>
+        <v>48.71314068404866</v>
       </c>
       <c r="B195" s="1">
-        <v>2.2007064991878171</v>
+        <v>2.2199005057359043</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4099,16 +4099,16 @@
         <v>6</v>
       </c>
       <c r="E195">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E195:E258" si="3">E194+1</f>
         <v>194</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1">
-        <v>48.71265628556344</v>
+        <v>48.713140682774934</v>
       </c>
       <c r="B196" s="1">
-        <v>2.2003277800345398</v>
+        <v>2.2199004813345469</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4117,16 +4117,16 @@
         <v>6</v>
       </c>
       <c r="E196">
-        <f t="shared" ref="E196:E201" si="4">E195+1</f>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1">
-        <v>48.712648757135739</v>
+        <v>48.713140721852206</v>
       </c>
       <c r="B197" s="1">
-        <v>2.2003352946196242</v>
+        <v>2.2199004382441014</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4135,16 +4135,16 @@
         <v>6</v>
       </c>
       <c r="E197">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1">
-        <v>48.712627445172309</v>
+        <v>48.713140780441051</v>
       </c>
       <c r="B198" s="1">
-        <v>2.2002885117535329</v>
+        <v>2.2199004277539625</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4153,16 +4153,16 @@
         <v>6</v>
       </c>
       <c r="E198">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>197</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1">
-        <v>48.712751069747718</v>
+        <v>48.713140753283156</v>
       </c>
       <c r="B199" s="1">
-        <v>2.2007509341836524</v>
+        <v>2.2199004341788218</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4171,16 +4171,16 @@
         <v>6</v>
       </c>
       <c r="E199">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1">
-        <v>48.71275100390023</v>
+        <v>48.713140783954323</v>
       </c>
       <c r="B200" s="1">
-        <v>2.2007500164139491</v>
+        <v>2.2199004299513443</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4189,16 +4189,16 @@
         <v>6</v>
       </c>
       <c r="E200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>199</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1">
-        <v>48.712751653709013</v>
+        <v>48.713140826144404</v>
       </c>
       <c r="B201" s="1">
-        <v>2.2007458391149055</v>
+        <v>2.2199004277160928</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4207,2121 +4207,3655 @@
         <v>6</v>
       </c>
       <c r="E201">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
     <row r="202" ht="14.25">
       <c r="A202" s="1">
-        <v>48.71256846993932</v>
+        <v>48.713140819858722</v>
       </c>
       <c r="B202" s="1">
-        <v>2.200058486666594</v>
+        <v>2.2199004306250245</v>
+      </c>
+      <c r="C202" t="s">
+        <v>5</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="3"/>
+        <v>201</v>
       </c>
     </row>
     <row r="203" ht="14.25">
       <c r="A203" s="1">
-        <v>48.712584738288697</v>
+        <v>48.713140827829349</v>
       </c>
       <c r="B203" s="1">
-        <v>2.2000879750857409</v>
+        <v>2.2199004420448367</v>
+      </c>
+      <c r="C203" t="s">
+        <v>5</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="3"/>
+        <v>202</v>
       </c>
     </row>
     <row r="204" ht="14.25">
       <c r="A204" s="1">
-        <v>48.712767576552906</v>
+        <v>48.713140882338763</v>
       </c>
       <c r="B204" s="1">
-        <v>2.2007121412866346</v>
+        <v>2.2199004175507735</v>
+      </c>
+      <c r="C204" t="s">
+        <v>5</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="3"/>
+        <v>203</v>
       </c>
     </row>
     <row r="205" ht="14.25">
       <c r="A205" s="1">
-        <v>48.712618172575255</v>
+        <v>48.713140875111051</v>
       </c>
       <c r="B205" s="1">
-        <v>2.2001471763510243</v>
+        <v>2.2199003892690339</v>
+      </c>
+      <c r="C205" t="s">
+        <v>5</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="3"/>
+        <v>204</v>
       </c>
     </row>
     <row r="206" ht="14.25">
       <c r="A206" s="1">
-        <v>48.712778373330721</v>
+        <v>48.713140846545812</v>
       </c>
       <c r="B206" s="1">
-        <v>2.2006883374891593</v>
+        <v>2.2199003990532722</v>
+      </c>
+      <c r="C206" t="s">
+        <v>5</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="3"/>
+        <v>205</v>
       </c>
     </row>
     <row r="207" ht="14.25">
       <c r="A207" s="1">
-        <v>48.712651690781996</v>
+        <v>48.713140877947673</v>
       </c>
       <c r="B207" s="1">
-        <v>2.2002049060765354</v>
+        <v>2.2199003527555141</v>
+      </c>
+      <c r="C207" t="s">
+        <v>5</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="3"/>
+        <v>206</v>
       </c>
     </row>
     <row r="208" ht="14.25">
       <c r="A208" s="1">
-        <v>48.712662129538849</v>
+        <v>48.71314092348495</v>
       </c>
       <c r="B208" s="1">
-        <v>2.200211547621691</v>
+        <v>2.2199003532989829</v>
+      </c>
+      <c r="C208" t="s">
+        <v>5</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="3"/>
+        <v>207</v>
       </c>
     </row>
     <row r="209" ht="14.25">
       <c r="A209" s="1">
-        <v>48.712667660463623</v>
+        <v>48.713140926793365</v>
       </c>
       <c r="B209" s="1">
-        <v>2.20020215745549</v>
+        <v>2.219900441644441</v>
+      </c>
+      <c r="C209" t="s">
+        <v>5</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="3"/>
+        <v>208</v>
       </c>
     </row>
     <row r="210" ht="14.25">
       <c r="A210" s="1">
-        <v>48.712673008869018</v>
+        <v>48.713140935575673</v>
       </c>
       <c r="B210" s="1">
-        <v>2.2001916539477135</v>
+        <v>2.2199003549094942</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="3"/>
+        <v>209</v>
       </c>
     </row>
     <row r="211" ht="14.25">
       <c r="A211" s="1">
-        <v>48.71268919918375</v>
+        <v>48.713140969032779</v>
       </c>
       <c r="B211" s="1">
-        <v>2.2002192480316349</v>
+        <v>2.2199003066201701</v>
+      </c>
+      <c r="C211" t="s">
+        <v>5</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="3"/>
+        <v>210</v>
       </c>
     </row>
     <row r="212" ht="14.25">
       <c r="A212" s="1">
-        <v>48.71268354752447</v>
+        <v>48.713140961602882</v>
       </c>
       <c r="B212" s="1">
-        <v>2.2001683018937457</v>
+        <v>2.2199003380358553</v>
+      </c>
+      <c r="C212" t="s">
+        <v>5</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="3"/>
+        <v>211</v>
       </c>
     </row>
     <row r="213" ht="14.25">
       <c r="A213" s="1">
-        <v>48.712703507936382</v>
+        <v>48.71314095448362</v>
       </c>
       <c r="B213" s="1">
-        <v>2.2002097035630164</v>
+        <v>2.2199002820524298</v>
+      </c>
+      <c r="C213" t="s">
+        <v>5</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="3"/>
+        <v>212</v>
       </c>
     </row>
     <row r="214" ht="14.25">
       <c r="A214" s="1">
-        <v>48.712709928772767</v>
+        <v>48.713140948574967</v>
       </c>
       <c r="B214" s="1">
-        <v>2.2002025539818217</v>
+        <v>2.2199002739547167</v>
+      </c>
+      <c r="C214" t="s">
+        <v>5</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="3"/>
+        <v>213</v>
       </c>
     </row>
     <row r="215" ht="14.25">
       <c r="A215" s="1">
-        <v>48.712730723183874</v>
+        <v>48.713140993763517</v>
       </c>
       <c r="B215" s="1">
-        <v>2.2002436924441278</v>
+        <v>2.2199002249151092</v>
+      </c>
+      <c r="C215" t="s">
+        <v>5</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="3"/>
+        <v>214</v>
       </c>
     </row>
     <row r="216" ht="14.25">
       <c r="A216" s="1">
-        <v>48.7127304014369</v>
+        <v>48.713140998942691</v>
       </c>
       <c r="B216" s="1">
-        <v>2.2002136089612501</v>
+        <v>2.2199002566236574</v>
+      </c>
+      <c r="C216" t="s">
+        <v>5</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="3"/>
+        <v>215</v>
       </c>
     </row>
     <row r="217" ht="14.25">
       <c r="A217" s="1">
-        <v>48.712720998089978</v>
+        <v>48.713141020670662</v>
       </c>
       <c r="B217" s="1">
-        <v>2.2001878785072844</v>
+        <v>2.2199002703051081</v>
+      </c>
+      <c r="C217" t="s">
+        <v>5</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="3"/>
+        <v>216</v>
       </c>
     </row>
     <row r="218" ht="14.25">
       <c r="A218" s="1">
-        <v>48.712729556915548</v>
+        <v>48.713141078664982</v>
       </c>
       <c r="B218" s="1">
-        <v>2.200185309734275</v>
+        <v>2.2199002100156728</v>
+      </c>
+      <c r="C218" t="s">
+        <v>5</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="3"/>
+        <v>217</v>
       </c>
     </row>
     <row r="219" ht="14.25">
       <c r="A219" s="1">
-        <v>48.712680191104482</v>
+        <v>48.713141061381499</v>
       </c>
       <c r="B219" s="1">
-        <v>2.2002910946864862</v>
+        <v>2.2199002417461102</v>
+      </c>
+      <c r="C219" t="s">
+        <v>5</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="3"/>
+        <v>218</v>
       </c>
     </row>
     <row r="220" ht="14.25">
       <c r="A220" s="1">
-        <v>48.712731713345434</v>
+        <v>48.713141071910528</v>
       </c>
       <c r="B220" s="1">
-        <v>2.2001788809672691</v>
+        <v>2.2199002528508647</v>
+      </c>
+      <c r="C220" t="s">
+        <v>5</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="3"/>
+        <v>219</v>
       </c>
     </row>
     <row r="221" ht="14.25">
       <c r="A221" s="1">
-        <v>48.71272916789848</v>
+        <v>48.713141091315919</v>
       </c>
       <c r="B221" s="1">
-        <v>2.2001686357967447</v>
+        <v>2.2199002164604327</v>
+      </c>
+      <c r="C221" t="s">
+        <v>5</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="3"/>
+        <v>220</v>
       </c>
     </row>
     <row r="222" ht="14.25">
       <c r="A222" s="1">
-        <v>48.712741327608299</v>
+        <v>48.713141093794917</v>
       </c>
       <c r="B222" s="1">
-        <v>2.2001844906247237</v>
+        <v>2.2199002170240147</v>
+      </c>
+      <c r="C222" t="s">
+        <v>5</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="3"/>
+        <v>221</v>
       </c>
     </row>
     <row r="223" ht="14.25">
       <c r="A223" s="1">
-        <v>48.712750945195523</v>
+        <v>48.713141101927945</v>
       </c>
       <c r="B223" s="1">
-        <v>2.2002011824141952</v>
+        <v>2.2199002324135741</v>
+      </c>
+      <c r="C223" t="s">
+        <v>5</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="3"/>
+        <v>222</v>
       </c>
     </row>
     <row r="224" ht="14.25">
       <c r="A224" s="1">
-        <v>48.712770548328876</v>
+        <v>48.713141139640236</v>
       </c>
       <c r="B224" s="1">
-        <v>2.200234679072075</v>
+        <v>2.2199001748896863</v>
+      </c>
+      <c r="C224" t="s">
+        <v>5</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="3"/>
+        <v>223</v>
       </c>
     </row>
     <row r="225" ht="14.25">
       <c r="A225" s="1">
-        <v>48.712749393480301</v>
+        <v>48.713141157562283</v>
       </c>
       <c r="B225" s="1">
-        <v>2.2002200941564172</v>
+        <v>2.2199001599823727</v>
+      </c>
+      <c r="C225" t="s">
+        <v>5</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="3"/>
+        <v>224</v>
       </c>
     </row>
     <row r="226" ht="14.25">
       <c r="A226" s="1">
-        <v>48.712733651612879</v>
+        <v>48.713141152046482</v>
       </c>
       <c r="B226" s="1">
-        <v>2.2002503115703878</v>
+        <v>2.2199002049866805</v>
+      </c>
+      <c r="C226" t="s">
+        <v>5</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="3"/>
+        <v>225</v>
       </c>
     </row>
     <row r="227" ht="14.25">
       <c r="A227" s="1">
-        <v>48.712671627014828</v>
+        <v>48.713141202695589</v>
       </c>
       <c r="B227" s="1">
-        <v>2.2003960067474613</v>
+        <v>2.2199001361196609</v>
+      </c>
+      <c r="C227" t="s">
+        <v>5</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="3"/>
+        <v>226</v>
       </c>
     </row>
     <row r="228" ht="14.25">
       <c r="A228" s="1">
-        <v>48.712642197112899</v>
+        <v>48.713141184910178</v>
       </c>
       <c r="B228" s="1">
-        <v>2.2004663465990446</v>
+        <v>2.2199001155860376</v>
+      </c>
+      <c r="C228" t="s">
+        <v>5</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="3"/>
+        <v>227</v>
       </c>
     </row>
     <row r="229" ht="14.25">
       <c r="A229" s="1">
-        <v>48.712627442782363</v>
+        <v>48.713141205754134</v>
       </c>
       <c r="B229" s="1">
-        <v>2.2005002939415981</v>
+        <v>2.2199001417526514</v>
+      </c>
+      <c r="C229" t="s">
+        <v>5</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="3"/>
+        <v>228</v>
       </c>
     </row>
     <row r="230" ht="14.25">
       <c r="A230" s="1">
-        <v>48.712614400905835</v>
+        <v>48.713141226787705</v>
       </c>
       <c r="B230" s="1">
-        <v>2.2005331522110181</v>
+        <v>2.2199000793458605</v>
+      </c>
+      <c r="C230" t="s">
+        <v>5</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="3"/>
+        <v>229</v>
       </c>
     </row>
     <row r="231" ht="14.25">
       <c r="A231" s="1">
-        <v>48.712606535000724</v>
+        <v>48.713141236294945</v>
       </c>
       <c r="B231" s="1">
-        <v>2.2005534880667486</v>
+        <v>2.219900129213491</v>
+      </c>
+      <c r="C231" t="s">
+        <v>5</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="3"/>
+        <v>230</v>
       </c>
     </row>
     <row r="232" ht="14.25">
       <c r="A232" s="1">
-        <v>48.71259430963179</v>
+        <v>48.713141249626439</v>
       </c>
       <c r="B232" s="1">
-        <v>2.2005826223757881</v>
+        <v>2.219900086791859</v>
+      </c>
+      <c r="C232" t="s">
+        <v>5</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="3"/>
+        <v>231</v>
       </c>
     </row>
     <row r="233" ht="14.25">
       <c r="A233" s="1">
-        <v>48.712612236312474</v>
+        <v>48.713141292183714</v>
       </c>
       <c r="B233" s="1">
-        <v>2.2005402421148474</v>
+        <v>2.2199000770018587</v>
+      </c>
+      <c r="C233" t="s">
+        <v>5</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="3"/>
+        <v>232</v>
       </c>
     </row>
     <row r="234" ht="14.25">
       <c r="A234" s="1">
-        <v>48.712616677877328</v>
+        <v>48.713141269129885</v>
       </c>
       <c r="B234" s="1">
-        <v>2.200528864774951</v>
+        <v>2.21990004763791</v>
+      </c>
+      <c r="C234" t="s">
+        <v>5</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="3"/>
+        <v>233</v>
       </c>
     </row>
     <row r="235" ht="14.25">
       <c r="A235" s="1">
-        <v>48.712600996964952</v>
+        <v>48.713141301700631</v>
       </c>
       <c r="B235" s="1">
-        <v>2.2005648264808761</v>
+        <v>2.2199000843805696</v>
+      </c>
+      <c r="C235" t="s">
+        <v>5</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="3"/>
+        <v>234</v>
       </c>
     </row>
     <row r="236" ht="14.25">
       <c r="A236" s="1">
-        <v>48.712672420067427</v>
+        <v>48.713141323811953</v>
       </c>
       <c r="B236" s="1">
-        <v>2.2003949354557233</v>
+        <v>2.2199000648363687</v>
+      </c>
+      <c r="C236" t="s">
+        <v>5</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="3"/>
+        <v>235</v>
       </c>
     </row>
     <row r="237" ht="14.25">
       <c r="A237" s="1">
-        <v>48.712704677701488</v>
+        <v>48.713141355997735</v>
       </c>
       <c r="B237" s="1">
-        <v>2.2003197503799194</v>
+        <v>2.2199000730367118</v>
+      </c>
+      <c r="C237" t="s">
+        <v>5</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="3"/>
+        <v>236</v>
       </c>
     </row>
     <row r="238" ht="14.25">
       <c r="A238" s="1">
-        <v>48.712700850560104</v>
+        <v>48.713141368828772</v>
       </c>
       <c r="B238" s="1">
-        <v>2.2003285000200608</v>
+        <v>2.2199000348876421</v>
+      </c>
+      <c r="C238" t="s">
+        <v>5</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="3"/>
+        <v>237</v>
       </c>
     </row>
     <row r="239" ht="14.25">
       <c r="A239" s="1">
-        <v>48.71269519889789</v>
+        <v>48.713141349140642</v>
       </c>
       <c r="B239" s="1">
-        <v>2.200340372077358</v>
+        <v>2.2199000692461195</v>
+      </c>
+      <c r="C239" t="s">
+        <v>5</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="3"/>
+        <v>238</v>
       </c>
     </row>
     <row r="240" ht="14.25">
       <c r="A240" s="1">
-        <v>48.712689726933611</v>
+        <v>48.713141366896245</v>
       </c>
       <c r="B240" s="1">
-        <v>2.200352853038742</v>
+        <v>2.2199000517957761</v>
+      </c>
+      <c r="C240" t="s">
+        <v>5</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="3"/>
+        <v>239</v>
       </c>
     </row>
     <row r="241" ht="14.25">
       <c r="A241" s="1">
-        <v>48.712706946842502</v>
+        <v>48.713141354718388</v>
       </c>
       <c r="B241" s="1">
-        <v>2.2003113569823549</v>
+        <v>2.219900034151526</v>
+      </c>
+      <c r="C241" t="s">
+        <v>5</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="3"/>
+        <v>240</v>
       </c>
     </row>
     <row r="242" ht="14.25">
       <c r="A242" s="1">
-        <v>48.712700730239682</v>
+        <v>48.713141375341813</v>
       </c>
       <c r="B242" s="1">
-        <v>2.2003235938992005</v>
+        <v>2.2199000482727462</v>
+      </c>
+      <c r="C242" t="s">
+        <v>5</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="3"/>
+        <v>241</v>
       </c>
     </row>
     <row r="243" ht="14.25">
       <c r="A243" s="1">
-        <v>48.71269500240075</v>
+        <v>48.713141417426044</v>
       </c>
       <c r="B243" s="1">
-        <v>2.2003362001757134</v>
+        <v>2.2199000572433709</v>
+      </c>
+      <c r="C243" t="s">
+        <v>5</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E243">
+        <f t="shared" si="3"/>
+        <v>242</v>
       </c>
     </row>
     <row r="244" ht="14.25">
       <c r="A244" s="1">
-        <v>48.712670746257473</v>
+        <v>48.713141370775439</v>
       </c>
       <c r="B244" s="1">
-        <v>2.2004311807295558</v>
+        <v>2.2198999975580325</v>
+      </c>
+      <c r="C244" t="s">
+        <v>5</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="3"/>
+        <v>243</v>
       </c>
     </row>
     <row r="245" ht="14.25">
       <c r="A245" s="1">
-        <v>48.712662063158383</v>
+        <v>48.71314140112792</v>
       </c>
       <c r="B245" s="1">
-        <v>2.200433191769037</v>
+        <v>2.2199000005472258</v>
+      </c>
+      <c r="C245" t="s">
+        <v>5</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E245">
+        <f t="shared" si="3"/>
+        <v>244</v>
       </c>
     </row>
     <row r="246" ht="14.25">
       <c r="A246" s="1">
-        <v>48.712661992611565</v>
+        <v>48.713141440598903</v>
       </c>
       <c r="B246" s="1">
-        <v>2.2003883835521267</v>
+        <v>2.2198999644912605</v>
+      </c>
+      <c r="C246" t="s">
+        <v>5</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E246">
+        <f t="shared" si="3"/>
+        <v>245</v>
       </c>
     </row>
     <row r="247" ht="14.25">
       <c r="A247" s="1">
-        <v>48.712635346006479</v>
+        <v>48.713141471632419</v>
       </c>
       <c r="B247" s="1">
-        <v>2.2003107282665635</v>
+        <v>2.2198999426119914</v>
+      </c>
+      <c r="C247" t="s">
+        <v>5</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E247">
+        <f t="shared" si="3"/>
+        <v>246</v>
       </c>
     </row>
     <row r="248" ht="14.25">
       <c r="A248" s="1">
-        <v>48.712622538220089</v>
+        <v>48.713141472002704</v>
       </c>
       <c r="B248" s="1">
-        <v>2.2002981655601213</v>
+        <v>2.2198999050791883</v>
+      </c>
+      <c r="C248" t="s">
+        <v>5</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E248">
+        <f t="shared" si="3"/>
+        <v>247</v>
       </c>
     </row>
     <row r="249" ht="14.25">
       <c r="A249" s="1">
-        <v>48.712620615679292</v>
+        <v>48.713141502728696</v>
       </c>
       <c r="B249" s="1">
-        <v>2.2003217196657308</v>
+        <v>2.2198999228553506</v>
+      </c>
+      <c r="C249" t="s">
+        <v>5</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E249">
+        <f t="shared" si="3"/>
+        <v>248</v>
       </c>
     </row>
     <row r="250" ht="14.25">
       <c r="A250" s="1">
-        <v>48.712603987922733</v>
+        <v>48.713141463903462</v>
       </c>
       <c r="B250" s="1">
-        <v>2.2002904977363826</v>
+        <v>2.2198999294156452</v>
+      </c>
+      <c r="C250" t="s">
+        <v>5</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E250">
+        <f t="shared" si="3"/>
+        <v>249</v>
       </c>
     </row>
     <row r="251" ht="14.25">
       <c r="A251" s="1">
-        <v>48.712612280257581</v>
+        <v>48.713141520540304</v>
       </c>
       <c r="B251" s="1">
-        <v>2.2002475770015586</v>
+        <v>2.2198998626418898</v>
+      </c>
+      <c r="C251" t="s">
+        <v>5</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E251">
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
     </row>
     <row r="252" ht="14.25">
       <c r="A252" s="1">
-        <v>48.712592217944419</v>
+        <v>48.713141492182274</v>
       </c>
       <c r="B252" s="1">
-        <v>2.2001792452497511</v>
+        <v>2.2198998947225923</v>
+      </c>
+      <c r="C252" t="s">
+        <v>5</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E252">
+        <f t="shared" si="3"/>
+        <v>251</v>
       </c>
     </row>
     <row r="253" ht="14.25">
       <c r="A253" s="1">
-        <v>48.712610803390895</v>
+        <v>48.713141549956575</v>
       </c>
       <c r="B253" s="1">
-        <v>2.2002245046597491</v>
+        <v>2.2198998804178838</v>
+      </c>
+      <c r="C253" t="s">
+        <v>5</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E253">
+        <f t="shared" si="3"/>
+        <v>252</v>
       </c>
     </row>
     <row r="254" ht="14.25">
       <c r="A254" s="1">
-        <v>48.712629036716642</v>
+        <v>48.713141557210612</v>
       </c>
       <c r="B254" s="1">
-        <v>2.2002553018225828</v>
+        <v>2.2198998360070794</v>
+      </c>
+      <c r="C254" t="s">
+        <v>5</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E254">
+        <f t="shared" si="3"/>
+        <v>253</v>
       </c>
     </row>
     <row r="255" ht="14.25">
       <c r="A255" s="1">
-        <v>48.712626720649219</v>
+        <v>48.713141586281417</v>
       </c>
       <c r="B255" s="1">
-        <v>2.2002148046470853</v>
+        <v>2.2198998084797386</v>
+      </c>
+      <c r="C255" t="s">
+        <v>5</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="3"/>
+        <v>254</v>
       </c>
     </row>
     <row r="256" ht="14.25">
       <c r="A256" s="1">
-        <v>48.712637118470909</v>
+        <v>48.71314156765709</v>
       </c>
       <c r="B256" s="1">
-        <v>2.2002196408846708</v>
+        <v>2.2198998231746878</v>
+      </c>
+      <c r="C256" t="s">
+        <v>5</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E256">
+        <f t="shared" si="3"/>
+        <v>255</v>
       </c>
     </row>
     <row r="257" ht="14.25">
       <c r="A257" s="1">
-        <v>48.712636409088127</v>
+        <v>48.713141623021613</v>
       </c>
       <c r="B257" s="1">
-        <v>2.2001882950761877</v>
+        <v>2.2198998241923822</v>
+      </c>
+      <c r="C257" t="s">
+        <v>5</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E257">
+        <f t="shared" si="3"/>
+        <v>256</v>
       </c>
     </row>
     <row r="258" ht="14.25">
       <c r="A258" s="1">
-        <v>48.712651364623561</v>
+        <v>48.713141625580519</v>
       </c>
       <c r="B258" s="1">
-        <v>2.2002092135311684</v>
+        <v>2.2198997632998658</v>
+      </c>
+      <c r="C258" t="s">
+        <v>5</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E258">
+        <f t="shared" si="3"/>
+        <v>257</v>
       </c>
     </row>
     <row r="259" ht="14.25">
       <c r="A259" s="1">
-        <v>48.712661427278654</v>
+        <v>48.71314165051102</v>
       </c>
       <c r="B259" s="1">
-        <v>2.2002142586405338</v>
+        <v>2.2198997654774391</v>
+      </c>
+      <c r="C259" t="s">
+        <v>5</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E259">
+        <f t="shared" ref="E259:E322" si="4">E258+1</f>
+        <v>258</v>
       </c>
     </row>
     <row r="260" ht="14.25">
       <c r="A260" s="1">
-        <v>48.712663386470311</v>
+        <v>48.713141682652846</v>
       </c>
       <c r="B260" s="1">
-        <v>2.2001940998138108</v>
+        <v>2.2198997539205054</v>
+      </c>
+      <c r="C260" t="s">
+        <v>5</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E260">
+        <f t="shared" si="4"/>
+        <v>259</v>
       </c>
     </row>
     <row r="261" ht="14.25">
       <c r="A261" s="1">
-        <v>48.712669847503186</v>
+        <v>48.713141626621415</v>
       </c>
       <c r="B261" s="1">
-        <v>2.2001814644373323</v>
+        <v>2.2198997755204735</v>
+      </c>
+      <c r="C261" t="s">
+        <v>5</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E261">
+        <f t="shared" si="4"/>
+        <v>260</v>
       </c>
     </row>
     <row r="262" ht="14.25">
       <c r="A262" s="1">
-        <v>48.712675837249783</v>
+        <v>48.713141662669521</v>
       </c>
       <c r="B262" s="1">
-        <v>2.2001744236261147</v>
+        <v>2.2198997471837569</v>
+      </c>
+      <c r="C262" t="s">
+        <v>5</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E262">
+        <f t="shared" si="4"/>
+        <v>261</v>
       </c>
     </row>
     <row r="263" ht="14.25">
       <c r="A263" s="1">
-        <v>48.712689741816888</v>
+        <v>48.713141655999394</v>
       </c>
       <c r="B263" s="1">
-        <v>2.200190466577848</v>
+        <v>2.2198997287904598</v>
+      </c>
+      <c r="C263" t="s">
+        <v>5</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E263">
+        <f t="shared" si="4"/>
+        <v>262</v>
       </c>
     </row>
     <row r="264" ht="14.25">
       <c r="A264" s="1">
-        <v>48.712691813050782</v>
+        <v>48.713141676478187</v>
       </c>
       <c r="B264" s="1">
-        <v>2.2001673931894077</v>
+        <v>2.2198997041796056</v>
+      </c>
+      <c r="C264" t="s">
+        <v>5</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E264">
+        <f t="shared" si="4"/>
+        <v>263</v>
       </c>
     </row>
     <row r="265" ht="14.25">
       <c r="A265" s="1">
-        <v>48.71270329790547</v>
+        <v>48.713141716420445</v>
       </c>
       <c r="B265" s="1">
-        <v>2.2001761386452738</v>
+        <v>2.2198997287828202</v>
+      </c>
+      <c r="C265" t="s">
+        <v>5</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E265">
+        <f t="shared" si="4"/>
+        <v>264</v>
       </c>
     </row>
     <row r="266" ht="14.25">
       <c r="A266" s="1">
-        <v>48.71272321965521</v>
+        <v>48.713141733868824</v>
       </c>
       <c r="B266" s="1">
-        <v>2.2002119102762681</v>
+        <v>2.2198996821916679</v>
+      </c>
+      <c r="C266" t="s">
+        <v>5</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E266">
+        <f t="shared" si="4"/>
+        <v>265</v>
       </c>
     </row>
     <row r="267" ht="14.25">
       <c r="A267" s="1">
-        <v>48.712727987947574</v>
+        <v>48.713141733378421</v>
       </c>
       <c r="B267" s="1">
-        <v>2.2002095518633911</v>
+        <v>2.2198996881872781</v>
+      </c>
+      <c r="C267" t="s">
+        <v>5</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E267">
+        <f t="shared" si="4"/>
+        <v>266</v>
       </c>
     </row>
     <row r="268" ht="14.25">
       <c r="A268" s="1">
-        <v>48.712726903248175</v>
+        <v>48.713141797174373</v>
       </c>
       <c r="B268" s="1">
-        <v>2.2001727079991791</v>
+        <v>2.2198996385161101</v>
+      </c>
+      <c r="C268" t="s">
+        <v>5</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E268">
+        <f t="shared" si="4"/>
+        <v>267</v>
       </c>
     </row>
     <row r="269" ht="14.25">
       <c r="A269" s="1">
-        <v>48.712736748221239</v>
+        <v>48.713141806282756</v>
       </c>
       <c r="B269" s="1">
-        <v>2.2001744726481025</v>
+        <v>2.2198996976252743</v>
+      </c>
+      <c r="C269" t="s">
+        <v>5</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E269">
+        <f t="shared" si="4"/>
+        <v>268</v>
       </c>
     </row>
     <row r="270" ht="14.25">
       <c r="A270" s="1">
-        <v>48.71272960879643</v>
+        <v>48.71314182434292</v>
       </c>
       <c r="B270" s="1">
-        <v>2.2002683965684455</v>
+        <v>2.2198996306334169</v>
+      </c>
+      <c r="C270" t="s">
+        <v>5</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E270">
+        <f t="shared" si="4"/>
+        <v>269</v>
       </c>
     </row>
     <row r="271" ht="14.25">
       <c r="A271" s="1">
-        <v>48.712703065624041</v>
+        <v>48.713141805867949</v>
       </c>
       <c r="B271" s="1">
-        <v>2.200336916918662</v>
+        <v>2.2198996372428881</v>
+      </c>
+      <c r="C271" t="s">
+        <v>5</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E271">
+        <f t="shared" si="4"/>
+        <v>270</v>
       </c>
     </row>
     <row r="272" ht="14.25">
       <c r="A272" s="1">
-        <v>48.712712602339813</v>
+        <v>48.71314185983492</v>
       </c>
       <c r="B272" s="1">
-        <v>2.2003165569955652</v>
+        <v>2.219899596793375</v>
+      </c>
+      <c r="C272" t="s">
+        <v>5</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E272">
+        <f t="shared" si="4"/>
+        <v>271</v>
       </c>
     </row>
     <row r="273" ht="14.25">
       <c r="A273" s="1">
-        <v>48.712746175159779</v>
+        <v>48.71314187443182</v>
       </c>
       <c r="B273" s="1">
-        <v>2.2002369775099289</v>
+        <v>2.2198996613315161</v>
+      </c>
+      <c r="C273" t="s">
+        <v>5</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E273">
+        <f t="shared" si="4"/>
+        <v>272</v>
       </c>
     </row>
     <row r="274" ht="14.25">
       <c r="A274" s="1">
-        <v>48.712743450966826</v>
+        <v>48.713141842426623</v>
       </c>
       <c r="B274" s="1">
-        <v>2.2002792476453896</v>
+        <v>2.2198995806825566</v>
+      </c>
+      <c r="C274" t="s">
+        <v>5</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E274">
+        <f t="shared" si="4"/>
+        <v>273</v>
       </c>
     </row>
     <row r="275" ht="14.25">
       <c r="A275" s="1">
-        <v>48.712736846638812</v>
+        <v>48.713141896271388</v>
       </c>
       <c r="B275" s="1">
-        <v>2.2003039670793845</v>
+        <v>2.2198995648735806</v>
+      </c>
+      <c r="C275" t="s">
+        <v>5</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E275">
+        <f t="shared" si="4"/>
+        <v>274</v>
       </c>
     </row>
     <row r="276" ht="14.25">
       <c r="A276" s="1">
-        <v>48.712735494231403</v>
+        <v>48.71314192008456</v>
       </c>
       <c r="B276" s="1">
-        <v>2.2003175631321965</v>
+        <v>2.2198995764670535</v>
+      </c>
+      <c r="C276" t="s">
+        <v>5</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E276">
+        <f t="shared" si="4"/>
+        <v>275</v>
       </c>
     </row>
     <row r="277" ht="14.25">
       <c r="A277" s="1">
-        <v>48.712723973878489</v>
+        <v>48.713141907201582</v>
       </c>
       <c r="B277" s="1">
-        <v>2.2003220663516596</v>
+        <v>2.219899584051348</v>
+      </c>
+      <c r="C277" t="s">
+        <v>5</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E277">
+        <f t="shared" si="4"/>
+        <v>276</v>
       </c>
     </row>
     <row r="278" ht="14.25">
       <c r="A278" s="1">
-        <v>48.712732562180946</v>
+        <v>48.713141940247993</v>
       </c>
       <c r="B278" s="1">
-        <v>2.2003011602781801</v>
+        <v>2.2198995136166011</v>
+      </c>
+      <c r="C278" t="s">
+        <v>5</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E278">
+        <f t="shared" si="4"/>
+        <v>277</v>
       </c>
     </row>
     <row r="279" ht="14.25">
       <c r="A279" s="1">
-        <v>48.712720012873824</v>
+        <v>48.713141905469804</v>
       </c>
       <c r="B279" s="1">
-        <v>2.2003278063572429</v>
+        <v>2.2198995190091861</v>
+      </c>
+      <c r="C279" t="s">
+        <v>5</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E279">
+        <f t="shared" si="4"/>
+        <v>278</v>
       </c>
     </row>
     <row r="280" ht="14.25">
       <c r="A280" s="1">
-        <v>48.71270578247082</v>
+        <v>48.713141952157613</v>
       </c>
       <c r="B280" s="1">
-        <v>2.2003616693104133</v>
+        <v>2.2198994913116681</v>
+      </c>
+      <c r="C280" t="s">
+        <v>5</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E280">
+        <f t="shared" si="4"/>
+        <v>279</v>
       </c>
     </row>
     <row r="281" ht="14.25">
       <c r="A281" s="1">
-        <v>48.712684358160587</v>
+        <v>48.713141990794227</v>
       </c>
       <c r="B281" s="1">
-        <v>2.200411589709296</v>
+        <v>2.2198995318261963</v>
+      </c>
+      <c r="C281" t="s">
+        <v>5</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E281">
+        <f t="shared" si="4"/>
+        <v>280</v>
       </c>
     </row>
     <row r="282" ht="14.25">
       <c r="A282" s="1">
-        <v>48.712658855606506</v>
+        <v>48.713142001541783</v>
       </c>
       <c r="B282" s="1">
-        <v>2.2004690036565053</v>
+        <v>2.2198994740882574</v>
+      </c>
+      <c r="C282" t="s">
+        <v>5</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E282">
+        <f t="shared" si="4"/>
+        <v>281</v>
       </c>
     </row>
     <row r="283" ht="14.25">
       <c r="A283" s="1">
-        <v>48.712623766770506</v>
+        <v>48.713141984149111</v>
       </c>
       <c r="B283" s="1">
-        <v>2.2005520483903718</v>
+        <v>2.2198994758925883</v>
+      </c>
+      <c r="C283" t="s">
+        <v>5</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E283">
+        <f t="shared" si="4"/>
+        <v>282</v>
       </c>
     </row>
     <row r="284" ht="14.25">
       <c r="A284" s="1">
-        <v>48.712592694752587</v>
+        <v>48.713142050144945</v>
       </c>
       <c r="B284" s="1">
-        <v>2.2006259681156042</v>
+        <v>2.2198995097904035</v>
+      </c>
+      <c r="C284" t="s">
+        <v>5</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E284">
+        <f t="shared" si="4"/>
+        <v>283</v>
       </c>
     </row>
     <row r="285" ht="14.25">
       <c r="A285" s="1">
-        <v>48.71259171637066</v>
+        <v>48.71314208274169</v>
       </c>
       <c r="B285" s="1">
-        <v>2.2006266256690141</v>
+        <v>2.2198994300031738</v>
+      </c>
+      <c r="C285" t="s">
+        <v>5</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E285">
+        <f t="shared" si="4"/>
+        <v>284</v>
       </c>
     </row>
     <row r="286" ht="14.25">
       <c r="A286" s="1">
-        <v>48.712599101505745</v>
+        <v>48.713142091095861</v>
       </c>
       <c r="B286" s="1">
-        <v>2.2006099319582368</v>
+        <v>2.2198994421631655</v>
+      </c>
+      <c r="C286" t="s">
+        <v>5</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E286">
+        <f t="shared" si="4"/>
+        <v>285</v>
       </c>
     </row>
     <row r="287" ht="14.25">
       <c r="A287" s="1">
-        <v>48.712678338392067</v>
+        <v>48.713142076771973</v>
       </c>
       <c r="B287" s="1">
-        <v>2.2004220578737823</v>
+        <v>2.2198994732827857</v>
+      </c>
+      <c r="C287" t="s">
+        <v>5</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E287">
+        <f t="shared" si="4"/>
+        <v>286</v>
       </c>
     </row>
     <row r="288" ht="14.25">
       <c r="A288" s="1">
-        <v>48.712720603667293</v>
+        <v>48.713142111575706</v>
       </c>
       <c r="B288" s="1">
-        <v>2.2003202428377482</v>
+        <v>2.2198994469794546</v>
+      </c>
+      <c r="C288" t="s">
+        <v>5</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E288">
+        <f t="shared" si="4"/>
+        <v>287</v>
       </c>
     </row>
     <row r="289" ht="14.25">
       <c r="A289" s="1">
-        <v>48.7127353237344</v>
+        <v>48.713142090633561</v>
       </c>
       <c r="B289" s="1">
-        <v>2.2002839815629383</v>
+        <v>2.2198993911858311</v>
+      </c>
+      <c r="C289" t="s">
+        <v>5</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E289">
+        <f t="shared" si="4"/>
+        <v>288</v>
       </c>
     </row>
     <row r="290" ht="14.25">
       <c r="A290" s="1">
-        <v>48.712729563795797</v>
+        <v>48.713142159613803</v>
       </c>
       <c r="B290" s="1">
-        <v>2.2002948298810994</v>
+        <v>2.2198993826074607</v>
+      </c>
+      <c r="C290" t="s">
+        <v>5</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E290">
+        <f t="shared" si="4"/>
+        <v>289</v>
       </c>
     </row>
     <row r="291" ht="14.25">
       <c r="A291" s="1">
-        <v>48.712723844516212</v>
+        <v>48.713142183089865</v>
       </c>
       <c r="B291" s="1">
-        <v>2.2003070615495162</v>
+        <v>2.2198993791826487</v>
+      </c>
+      <c r="C291" t="s">
+        <v>5</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E291">
+        <f t="shared" si="4"/>
+        <v>290</v>
       </c>
     </row>
     <row r="292" ht="14.25">
       <c r="A292" s="1">
-        <v>48.712712251042923</v>
+        <v>48.713142196618627</v>
       </c>
       <c r="B292" s="1">
-        <v>2.2003343602595806</v>
+        <v>2.2198993349956222</v>
+      </c>
+      <c r="C292" t="s">
+        <v>5</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E292">
+        <f t="shared" si="4"/>
+        <v>291</v>
       </c>
     </row>
     <row r="293" ht="14.25">
       <c r="A293" s="1">
-        <v>48.712680325726375</v>
+        <v>48.713142204507299</v>
       </c>
       <c r="B293" s="1">
-        <v>2.2004099580748369</v>
+        <v>2.2198993060102379</v>
+      </c>
+      <c r="C293" t="s">
+        <v>5</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E293">
+        <f t="shared" si="4"/>
+        <v>292</v>
       </c>
     </row>
     <row r="294" ht="14.25">
       <c r="A294" s="1">
-        <v>48.712686942707428</v>
+        <v>48.713142190073505</v>
       </c>
       <c r="B294" s="1">
-        <v>2.200395052750058</v>
+        <v>2.2198993408906142</v>
+      </c>
+      <c r="C294" t="s">
+        <v>5</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E294">
+        <f t="shared" si="4"/>
+        <v>293</v>
       </c>
     </row>
     <row r="295" ht="14.25">
       <c r="A295" s="1">
-        <v>48.712693472027667</v>
+        <v>48.713142208125426</v>
       </c>
       <c r="B295" s="1">
-        <v>2.2003785923877581</v>
+        <v>2.2198993239444582</v>
+      </c>
+      <c r="C295" t="s">
+        <v>5</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E295">
+        <f t="shared" si="4"/>
+        <v>294</v>
       </c>
     </row>
     <row r="296" ht="14.25">
       <c r="A296" s="1">
-        <v>48.712668345152572</v>
+        <v>48.713142250950796</v>
       </c>
       <c r="B296" s="1">
-        <v>2.2003686719126501</v>
+        <v>2.2198992834508586</v>
+      </c>
+      <c r="C296" t="s">
+        <v>5</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E296">
+        <f t="shared" si="4"/>
+        <v>295</v>
       </c>
     </row>
     <row r="297" ht="14.25">
       <c r="A297" s="1">
-        <v>48.712661410477878</v>
+        <v>48.713142239575618</v>
       </c>
       <c r="B297" s="1">
-        <v>2.2003670388032361</v>
+        <v>2.2198992796040486</v>
+      </c>
+      <c r="C297" t="s">
+        <v>5</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E297">
+        <f t="shared" si="4"/>
+        <v>296</v>
       </c>
     </row>
     <row r="298" ht="14.25">
       <c r="A298" s="1">
-        <v>48.712656712992562</v>
+        <v>48.71314228124978</v>
       </c>
       <c r="B298" s="1">
-        <v>2.2003564933649389</v>
+        <v>2.2198992521649439</v>
+      </c>
+      <c r="C298" t="s">
+        <v>5</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E298">
+        <f t="shared" si="4"/>
+        <v>297</v>
       </c>
     </row>
     <row r="299" ht="14.25">
       <c r="A299" s="1">
-        <v>48.71263646747672</v>
+        <v>48.713142279437278</v>
       </c>
       <c r="B299" s="1">
-        <v>2.2003209378270143</v>
+        <v>2.2198992468634491</v>
+      </c>
+      <c r="C299" t="s">
+        <v>5</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E299">
+        <f t="shared" si="4"/>
+        <v>298</v>
       </c>
     </row>
     <row r="300" ht="14.25">
       <c r="A300" s="1">
-        <v>48.712652767656536</v>
+        <v>48.713142297520285</v>
       </c>
       <c r="B300" s="1">
-        <v>2.2003040175962236</v>
+        <v>2.2198992144242147</v>
+      </c>
+      <c r="C300" t="s">
+        <v>5</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E300">
+        <f t="shared" si="4"/>
+        <v>299</v>
       </c>
     </row>
     <row r="301" ht="14.25">
       <c r="A301" s="1">
-        <v>48.712618563206476</v>
+        <v>48.713142330561453</v>
       </c>
       <c r="B301" s="1">
-        <v>2.2003485488210459</v>
+        <v>2.2198992117024416</v>
+      </c>
+      <c r="C301" t="s">
+        <v>5</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E301">
+        <f t="shared" si="4"/>
+        <v>300</v>
       </c>
     </row>
     <row r="302" ht="14.25">
       <c r="A302" s="1">
-        <v>48.712601535626177</v>
+        <v>48.713142310306068</v>
       </c>
       <c r="B302" s="1">
-        <v>2.20031422061605</v>
+        <v>2.2198992311270511</v>
+      </c>
+      <c r="C302" t="s">
+        <v>5</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E302">
+        <f t="shared" si="4"/>
+        <v>301</v>
       </c>
     </row>
     <row r="303" ht="14.25">
       <c r="A303" s="1">
-        <v>48.712739472142573</v>
+        <v>48.713142326705544</v>
       </c>
       <c r="B303" s="1">
-        <v>2.2007534889728668</v>
+        <v>2.2198991929583487</v>
+      </c>
+      <c r="C303" t="s">
+        <v>5</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E303">
+        <f t="shared" si="4"/>
+        <v>302</v>
       </c>
     </row>
     <row r="304" ht="14.25">
       <c r="A304" s="1">
-        <v>48.712576754456947</v>
+        <v>48.713142337053313</v>
       </c>
       <c r="B304" s="1">
-        <v>2.2002294285169799</v>
+        <v>2.2198991780437534</v>
+      </c>
+      <c r="C304" t="s">
+        <v>5</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E304">
+        <f t="shared" si="4"/>
+        <v>303</v>
       </c>
     </row>
     <row r="305" ht="14.25">
       <c r="A305" s="1">
-        <v>48.712580508457712</v>
+        <v>48.713142391080417</v>
       </c>
       <c r="B305" s="1">
-        <v>2.2002192648509871</v>
+        <v>2.2198991556481582</v>
+      </c>
+      <c r="C305" t="s">
+        <v>5</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E305">
+        <f t="shared" si="4"/>
+        <v>304</v>
       </c>
     </row>
     <row r="306" ht="14.25">
       <c r="A306" s="1">
-        <v>48.712594055133231</v>
+        <v>48.713142386089423</v>
       </c>
       <c r="B306" s="1">
-        <v>2.2002343285108341</v>
+        <v>2.2198991632312888</v>
+      </c>
+      <c r="C306" t="s">
+        <v>5</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E306">
+        <f t="shared" si="4"/>
+        <v>305</v>
       </c>
     </row>
     <row r="307" ht="14.25">
       <c r="A307" s="1">
-        <v>48.712597105787339</v>
+        <v>48.713142380034633</v>
       </c>
       <c r="B307" s="1">
-        <v>2.2002158029580312</v>
+        <v>2.2198991467785052</v>
+      </c>
+      <c r="C307" t="s">
+        <v>5</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E307">
+        <f t="shared" si="4"/>
+        <v>306</v>
       </c>
     </row>
     <row r="308" ht="14.25">
       <c r="A308" s="1">
-        <v>48.712758833604312</v>
+        <v>48.713142425493473</v>
       </c>
       <c r="B308" s="1">
-        <v>2.2007041122714068</v>
+        <v>2.2198990973751402</v>
+      </c>
+      <c r="C308" t="s">
+        <v>5</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E308">
+        <f t="shared" si="4"/>
+        <v>307</v>
       </c>
     </row>
     <row r="309" ht="14.25">
       <c r="A309" s="1">
-        <v>48.712601941365001</v>
+        <v>48.713142414094122</v>
       </c>
       <c r="B309" s="1">
-        <v>2.200179753850362</v>
+        <v>2.2198991420717289</v>
+      </c>
+      <c r="C309" t="s">
+        <v>5</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E309">
+        <f t="shared" si="4"/>
+        <v>308</v>
       </c>
     </row>
     <row r="310" ht="14.25">
       <c r="A310" s="1">
-        <v>48.71261461999994</v>
+        <v>48.713142442685815</v>
       </c>
       <c r="B310" s="1">
-        <v>2.2001919994174308</v>
+        <v>2.2198990644321528</v>
+      </c>
+      <c r="C310" t="s">
+        <v>5</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E310">
+        <f t="shared" si="4"/>
+        <v>309</v>
       </c>
     </row>
     <row r="311" ht="14.25">
       <c r="A311" s="1">
-        <v>48.712622368213395</v>
+        <v>48.71314246736172</v>
       </c>
       <c r="B311" s="1">
-        <v>2.2001896739947568</v>
+        <v>2.2198990603843596</v>
+      </c>
+      <c r="C311" t="s">
+        <v>5</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E311">
+        <f t="shared" si="4"/>
+        <v>310</v>
       </c>
     </row>
     <row r="312" ht="14.25">
       <c r="A312" s="1">
-        <v>48.712641323040899</v>
+        <v>48.713142492884757</v>
       </c>
       <c r="B312" s="1">
-        <v>2.2002248520700221</v>
+        <v>2.2198991134053334</v>
+      </c>
+      <c r="C312" t="s">
+        <v>5</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E312">
+        <f t="shared" si="4"/>
+        <v>311</v>
       </c>
     </row>
     <row r="313" ht="14.25">
       <c r="A313" s="1">
-        <v>48.712648228895638</v>
+        <v>48.713142511988828</v>
       </c>
       <c r="B313" s="1">
-        <v>2.2002167299744864</v>
+        <v>2.2198990790310305</v>
+      </c>
+      <c r="C313" t="s">
+        <v>5</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E313">
+        <f t="shared" si="4"/>
+        <v>312</v>
       </c>
     </row>
     <row r="314" ht="14.25">
       <c r="A314" s="1">
-        <v>48.712637280797217</v>
+        <v>48.713142538278404</v>
       </c>
       <c r="B314" s="1">
-        <v>2.2001563379017561</v>
+        <v>2.2198990311798381</v>
+      </c>
+      <c r="C314" t="s">
+        <v>5</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E314">
+        <f t="shared" si="4"/>
+        <v>313</v>
       </c>
     </row>
     <row r="315" ht="14.25">
       <c r="A315" s="1">
-        <v>48.712637038941146</v>
+        <v>48.71314256067393</v>
       </c>
       <c r="B315" s="1">
-        <v>2.2001281704287297</v>
+        <v>2.2198990345304761</v>
+      </c>
+      <c r="C315" t="s">
+        <v>5</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E315">
+        <f t="shared" si="4"/>
+        <v>314</v>
       </c>
     </row>
     <row r="316" ht="14.25">
       <c r="A316" s="1">
-        <v>48.712666243828359</v>
+        <v>48.713142529347088</v>
       </c>
       <c r="B316" s="1">
-        <v>2.2001911625592805</v>
+        <v>2.2198990317191276</v>
+      </c>
+      <c r="C316" t="s">
+        <v>5</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E316">
+        <f t="shared" si="4"/>
+        <v>315</v>
       </c>
     </row>
     <row r="317" ht="14.25">
       <c r="A317" s="1">
-        <v>48.712683205106202</v>
+        <v>48.713142584217842</v>
       </c>
       <c r="B317" s="1">
-        <v>2.2002158356163957</v>
+        <v>2.2198990180986491</v>
+      </c>
+      <c r="C317" t="s">
+        <v>5</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E317">
+        <f t="shared" si="4"/>
+        <v>316</v>
       </c>
     </row>
     <row r="318" ht="14.25">
       <c r="A318" s="1">
-        <v>48.712699985017224</v>
+        <v>48.713142561523817</v>
       </c>
       <c r="B318" s="1">
-        <v>2.2002430049420756</v>
+        <v>2.2198989791585393</v>
+      </c>
+      <c r="C318" t="s">
+        <v>5</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E318">
+        <f t="shared" si="4"/>
+        <v>317</v>
       </c>
     </row>
     <row r="319" ht="14.25">
       <c r="A319" s="1">
-        <v>48.712704211723945</v>
+        <v>48.713142550235531</v>
       </c>
       <c r="B319" s="1">
-        <v>2.200238203959278</v>
+        <v>2.2198989204103672</v>
+      </c>
+      <c r="C319" t="s">
+        <v>5</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E319">
+        <f t="shared" si="4"/>
+        <v>318</v>
       </c>
     </row>
     <row r="320" ht="14.25">
       <c r="A320" s="1">
-        <v>48.712691821076113</v>
+        <v>48.713142617610629</v>
       </c>
       <c r="B320" s="1">
-        <v>2.2001683665780933</v>
+        <v>2.219898969885592</v>
+      </c>
+      <c r="C320" t="s">
+        <v>5</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E320">
+        <f t="shared" si="4"/>
+        <v>319</v>
       </c>
     </row>
     <row r="321" ht="14.25">
       <c r="A321" s="1">
-        <v>48.712713966655649</v>
+        <v>48.713142605300327</v>
       </c>
       <c r="B321" s="1">
-        <v>2.2002084180902997</v>
+        <v>2.2198989659691333</v>
+      </c>
+      <c r="C321" t="s">
+        <v>5</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E321">
+        <f t="shared" si="4"/>
+        <v>320</v>
       </c>
     </row>
     <row r="322" ht="14.25">
       <c r="A322" s="1">
-        <v>48.712719774959147</v>
+        <v>48.713142631075009</v>
       </c>
       <c r="B322" s="1">
-        <v>2.2001986650408711</v>
+        <v>2.2198989397921989</v>
+      </c>
+      <c r="C322" t="s">
+        <v>5</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E322">
+        <f t="shared" si="4"/>
+        <v>321</v>
       </c>
     </row>
     <row r="323" ht="14.25">
       <c r="A323" s="1">
-        <v>48.712734061096128</v>
+        <v>48.713142647699485</v>
       </c>
       <c r="B323" s="1">
-        <v>2.2001025561516223</v>
+        <v>2.2198988833171689</v>
+      </c>
+      <c r="C323" t="s">
+        <v>5</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E323">
+        <f t="shared" ref="E323:E386" si="5">E322+1</f>
+        <v>322</v>
       </c>
     </row>
     <row r="324" ht="14.25">
       <c r="A324" s="1">
-        <v>48.712724579586769</v>
+        <v>48.713142672675183</v>
       </c>
       <c r="B324" s="1">
-        <v>2.2001165437511054</v>
+        <v>2.2198988881784323</v>
+      </c>
+      <c r="C324" t="s">
+        <v>5</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E324">
+        <f t="shared" si="5"/>
+        <v>323</v>
       </c>
     </row>
     <row r="325" ht="14.25">
       <c r="A325" s="1">
-        <v>48.712709604091152</v>
+        <v>48.71314267891394</v>
       </c>
       <c r="B325" s="1">
-        <v>2.2001429340815855</v>
+        <v>2.2198988823183443</v>
+      </c>
+      <c r="C325" t="s">
+        <v>5</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E325">
+        <f t="shared" si="5"/>
+        <v>324</v>
       </c>
     </row>
     <row r="326" ht="14.25">
       <c r="A326" s="1">
-        <v>48.712712980951189</v>
+        <v>48.713142702811197</v>
       </c>
       <c r="B326" s="1">
-        <v>2.2001348777048007</v>
+        <v>2.219898881939697</v>
+      </c>
+      <c r="C326" t="s">
+        <v>5</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E326">
+        <f t="shared" si="5"/>
+        <v>325</v>
       </c>
     </row>
     <row r="327" ht="14.25">
       <c r="A327" s="1">
-        <v>48.712741806467967</v>
+        <v>48.713142717206743</v>
       </c>
       <c r="B327" s="1">
-        <v>2.2000886183715611</v>
+        <v>2.2198989008016277</v>
+      </c>
+      <c r="C327" t="s">
+        <v>5</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E327">
+        <f t="shared" si="5"/>
+        <v>326</v>
       </c>
     </row>
     <row r="328" ht="14.25">
       <c r="A328" s="1">
-        <v>48.712709058427372</v>
+        <v>48.713142757453774</v>
       </c>
       <c r="B328" s="1">
-        <v>2.2002079177430409</v>
+        <v>2.2198988049679058</v>
+      </c>
+      <c r="C328" t="s">
+        <v>5</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E328">
+        <f t="shared" si="5"/>
+        <v>327</v>
       </c>
     </row>
     <row r="329" ht="14.25">
       <c r="A329" s="1">
-        <v>48.71273448594561</v>
+        <v>48.713142766336716</v>
       </c>
       <c r="B329" s="1">
-        <v>2.2001208698955934</v>
+        <v>2.219898840134396</v>
+      </c>
+      <c r="C329" t="s">
+        <v>5</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E329">
+        <f t="shared" si="5"/>
+        <v>328</v>
       </c>
     </row>
     <row r="330" ht="14.25">
       <c r="A330" s="1">
-        <v>48.712617378848769</v>
+        <v>48.713142747193999</v>
       </c>
       <c r="B330" s="1">
-        <v>2.2003902792813919</v>
+        <v>2.219898854080701</v>
+      </c>
+      <c r="C330" t="s">
+        <v>5</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E330">
+        <f t="shared" si="5"/>
+        <v>329</v>
       </c>
     </row>
     <row r="331" ht="14.25">
       <c r="A331" s="1">
-        <v>48.712550167126928</v>
+        <v>48.713142777920588</v>
       </c>
       <c r="B331" s="1">
-        <v>2.2005508768450208</v>
+        <v>2.2198987895628379</v>
+      </c>
+      <c r="C331" t="s">
+        <v>5</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E331">
+        <f t="shared" si="5"/>
+        <v>330</v>
       </c>
     </row>
     <row r="332" ht="14.25">
       <c r="A332" s="1">
-        <v>48.712554672551967</v>
+        <v>48.713142810102546</v>
       </c>
       <c r="B332" s="1">
-        <v>2.2005390603081909</v>
+        <v>2.2198987907715866</v>
+      </c>
+      <c r="C332" t="s">
+        <v>5</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E332">
+        <f t="shared" si="5"/>
+        <v>331</v>
       </c>
     </row>
     <row r="333" ht="14.25">
       <c r="A333" s="1">
-        <v>48.712535366342273</v>
+        <v>48.713142769480406</v>
       </c>
       <c r="B333" s="1">
-        <v>2.2005837556045305</v>
+        <v>2.2198988058209692</v>
+      </c>
+      <c r="C333" t="s">
+        <v>5</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E333">
+        <f t="shared" si="5"/>
+        <v>332</v>
       </c>
     </row>
     <row r="334" ht="14.25">
       <c r="A334" s="1">
-        <v>48.712509096697886</v>
+        <v>48.713142825055641</v>
       </c>
       <c r="B334" s="1">
-        <v>2.2006452741072597</v>
+        <v>2.2198987416705234</v>
+      </c>
+      <c r="C334" t="s">
+        <v>5</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E334">
+        <f t="shared" si="5"/>
+        <v>333</v>
       </c>
     </row>
     <row r="335" ht="14.25">
       <c r="A335" s="1">
-        <v>48.712518371834371</v>
+        <v>48.713142878614072</v>
       </c>
       <c r="B335" s="1">
-        <v>2.2006225688386083</v>
+        <v>2.2198987567258497</v>
+      </c>
+      <c r="C335" t="s">
+        <v>5</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E335">
+        <f t="shared" si="5"/>
+        <v>334</v>
       </c>
     </row>
     <row r="336" ht="14.25">
       <c r="A336" s="1">
-        <v>48.712513081517422</v>
+        <v>48.713142822561736</v>
       </c>
       <c r="B336" s="1">
-        <v>2.2006335608053744</v>
+        <v>2.2198987419740268</v>
+      </c>
+      <c r="C336" t="s">
+        <v>5</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E336">
+        <f t="shared" si="5"/>
+        <v>335</v>
       </c>
     </row>
     <row r="337" ht="14.25">
       <c r="A337" s="1">
-        <v>48.712518587783762</v>
+        <v>48.713142851429005</v>
       </c>
       <c r="B337" s="1">
-        <v>2.2006188263603637</v>
+        <v>2.2198987694088883</v>
+      </c>
+      <c r="C337" t="s">
+        <v>5</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E337">
+        <f t="shared" si="5"/>
+        <v>336</v>
       </c>
     </row>
     <row r="338" ht="14.25">
       <c r="A338" s="1">
-        <v>48.71254652502337</v>
+        <v>48.713142888678696</v>
       </c>
       <c r="B338" s="1">
-        <v>2.2005515342341244</v>
+        <v>2.2198987193042599</v>
+      </c>
+      <c r="C338" t="s">
+        <v>5</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E338">
+        <f t="shared" si="5"/>
+        <v>337</v>
       </c>
     </row>
     <row r="339" ht="14.25">
       <c r="A339" s="1">
-        <v>48.712634993769363</v>
+        <v>48.713142887044917</v>
       </c>
       <c r="B339" s="1">
-        <v>2.2003398302938297</v>
+        <v>2.2198987243780404</v>
+      </c>
+      <c r="C339" t="s">
+        <v>5</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E339">
+        <f t="shared" si="5"/>
+        <v>338</v>
       </c>
     </row>
     <row r="340" ht="14.25">
       <c r="A340" s="1">
-        <v>48.712656501384608</v>
+        <v>48.713142926423366</v>
       </c>
       <c r="B340" s="1">
-        <v>2.2002867489286024</v>
+        <v>2.2198986839353196</v>
+      </c>
+      <c r="C340" t="s">
+        <v>5</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E340">
+        <f t="shared" si="5"/>
+        <v>339</v>
       </c>
     </row>
     <row r="341" ht="14.25">
       <c r="A341" s="1">
-        <v>48.712677232254762</v>
+        <v>48.713142962263504</v>
       </c>
       <c r="B341" s="1">
-        <v>2.2002357723977202</v>
+        <v>2.2198986844899777</v>
+      </c>
+      <c r="C341" t="s">
+        <v>5</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E341">
+        <f t="shared" si="5"/>
+        <v>340</v>
       </c>
     </row>
     <row r="342" ht="14.25">
       <c r="A342" s="1">
-        <v>48.712683062434856</v>
+        <v>48.713142968268677</v>
       </c>
       <c r="B342" s="1">
-        <v>2.2002208018829879</v>
+        <v>2.2198986382045938</v>
+      </c>
+      <c r="C342" t="s">
+        <v>5</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E342">
+        <f t="shared" si="5"/>
+        <v>341</v>
       </c>
     </row>
     <row r="343" ht="14.25">
       <c r="A343" s="1">
-        <v>48.712672701889076</v>
+        <v>48.713142950178842</v>
       </c>
       <c r="B343" s="1">
-        <v>2.2002428474975027</v>
+        <v>2.2198986446750868</v>
+      </c>
+      <c r="C343" t="s">
+        <v>5</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E343">
+        <f t="shared" si="5"/>
+        <v>342</v>
       </c>
     </row>
     <row r="344" ht="14.25">
       <c r="A344" s="1">
-        <v>48.712684610686253</v>
+        <v>48.713142983457544</v>
       </c>
       <c r="B344" s="1">
-        <v>2.2002124867488768</v>
+        <v>2.2198986637146723</v>
+      </c>
+      <c r="C344" t="s">
+        <v>5</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E344">
+        <f t="shared" si="5"/>
+        <v>343</v>
       </c>
     </row>
     <row r="345" ht="14.25">
       <c r="A345" s="1">
-        <v>48.712684472889954</v>
+        <v>48.71314298227702</v>
       </c>
       <c r="B345" s="1">
-        <v>2.2002837536509259</v>
+        <v>2.2198986111252692</v>
+      </c>
+      <c r="C345" t="s">
+        <v>5</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E345">
+        <f t="shared" si="5"/>
+        <v>344</v>
       </c>
     </row>
     <row r="346" ht="14.25">
       <c r="A346" s="1">
-        <v>48.712676716299292</v>
+        <v>48.713143000199736</v>
       </c>
       <c r="B346" s="1">
-        <v>2.2003006181408153</v>
+        <v>2.2198986234321132</v>
+      </c>
+      <c r="C346" t="s">
+        <v>5</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E346">
+        <f t="shared" si="5"/>
+        <v>345</v>
       </c>
     </row>
     <row r="347" ht="14.25">
       <c r="A347" s="1">
-        <v>48.712672035540294</v>
+        <v>48.713142991180611</v>
       </c>
       <c r="B347" s="1">
-        <v>2.200312072720441</v>
+        <v>2.2198985694793758</v>
+      </c>
+      <c r="C347" t="s">
+        <v>5</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E347">
+        <f t="shared" si="5"/>
+        <v>346</v>
       </c>
     </row>
     <row r="348" ht="14.25">
       <c r="A348" s="1">
-        <v>48.712662960571592</v>
+        <v>48.713143008410192</v>
       </c>
       <c r="B348" s="1">
-        <v>2.2003148970855038</v>
+        <v>2.2198985766071742</v>
+      </c>
+      <c r="C348" t="s">
+        <v>5</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E348">
+        <f t="shared" si="5"/>
+        <v>347</v>
       </c>
     </row>
     <row r="349" ht="14.25">
       <c r="A349" s="1">
-        <v>48.712659179427249</v>
+        <v>48.713143066888868</v>
       </c>
       <c r="B349" s="1">
-        <v>2.2003025943908043</v>
+        <v>2.2198985754819547</v>
+      </c>
+      <c r="C349" t="s">
+        <v>5</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E349">
+        <f t="shared" si="5"/>
+        <v>348</v>
       </c>
     </row>
     <row r="350" ht="14.25">
       <c r="A350" s="1">
-        <v>48.712639222669594</v>
+        <v>48.713143055725801</v>
       </c>
       <c r="B350" s="1">
-        <v>2.2002939480818906</v>
+        <v>2.219898550176294</v>
+      </c>
+      <c r="C350" t="s">
+        <v>5</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E350">
+        <f t="shared" si="5"/>
+        <v>349</v>
       </c>
     </row>
     <row r="351" ht="14.25">
       <c r="A351" s="1">
-        <v>48.71262238608891</v>
+        <v>48.713143090605065</v>
       </c>
       <c r="B351" s="1">
-        <v>2.2002726094840064</v>
+        <v>2.2198985652572385</v>
+      </c>
+      <c r="C351" t="s">
+        <v>5</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E351">
+        <f t="shared" si="5"/>
+        <v>350</v>
       </c>
     </row>
     <row r="352" ht="14.25">
       <c r="A352" s="1">
-        <v>48.712585758321765</v>
+        <v>48.713143093779763</v>
       </c>
       <c r="B352" s="1">
-        <v>2.2002322555082037</v>
+        <v>2.219898524479647</v>
+      </c>
+      <c r="C352" t="s">
+        <v>5</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E352">
+        <f t="shared" si="5"/>
+        <v>351</v>
       </c>
     </row>
     <row r="353" ht="14.25">
       <c r="A353" s="1">
-        <v>48.712584803899759</v>
+        <v>48.713143115796321</v>
       </c>
       <c r="B353" s="1">
-        <v>2.2002563119510175</v>
+        <v>2.2198985350602629</v>
+      </c>
+      <c r="C353" t="s">
+        <v>5</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E353">
+        <f t="shared" si="5"/>
+        <v>352</v>
       </c>
     </row>
     <row r="354" ht="14.25">
       <c r="A354" s="1">
-        <v>48.712580344928355</v>
+        <v>48.713143164721572</v>
       </c>
       <c r="B354" s="1">
-        <v>2.2002053598612759</v>
+        <v>2.2198985014261057</v>
+      </c>
+      <c r="C354" t="s">
+        <v>5</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E354">
+        <f t="shared" si="5"/>
+        <v>353</v>
       </c>
     </row>
     <row r="355" ht="14.25">
       <c r="A355" s="1">
-        <v>48.712585536401875</v>
+        <v>48.713143170666022</v>
       </c>
       <c r="B355" s="1">
-        <v>2.2002161995382523</v>
+        <v>2.2198985401082405</v>
+      </c>
+      <c r="C355" t="s">
+        <v>5</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E355">
+        <f t="shared" si="5"/>
+        <v>354</v>
       </c>
     </row>
     <row r="356" ht="14.25">
       <c r="A356" s="1">
-        <v>48.712589585808367</v>
+        <v>48.713143137093709</v>
       </c>
       <c r="B356" s="1">
-        <v>2.2002269303592623</v>
+        <v>2.2198985552292716</v>
+      </c>
+      <c r="C356" t="s">
+        <v>5</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E356">
+        <f t="shared" si="5"/>
+        <v>355</v>
       </c>
     </row>
     <row r="357" ht="14.25">
       <c r="A357" s="1">
-        <v>48.712592332379423</v>
+        <v>48.71314315839286</v>
       </c>
       <c r="B357" s="1">
-        <v>2.2002233613503011</v>
+        <v>2.2198985371117566</v>
+      </c>
+      <c r="C357" t="s">
+        <v>5</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E357">
+        <f t="shared" si="5"/>
+        <v>356</v>
       </c>
     </row>
     <row r="358" ht="14.25">
       <c r="A358" s="1">
-        <v>48.712582190305817</v>
+        <v>48.713143187109011</v>
       </c>
       <c r="B358" s="1">
-        <v>2.2001656712425626</v>
+        <v>2.2198984867435119</v>
+      </c>
+      <c r="C358" t="s">
+        <v>5</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E358">
+        <f t="shared" si="5"/>
+        <v>357</v>
       </c>
     </row>
     <row r="359" ht="14.25">
       <c r="A359" s="1">
-        <v>48.712580775353473</v>
+        <v>48.713143184254172</v>
       </c>
       <c r="B359" s="1">
-        <v>2.200136075929112</v>
+        <v>2.2198984258050038</v>
+      </c>
+      <c r="C359" t="s">
+        <v>5</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E359">
+        <f t="shared" si="5"/>
+        <v>358</v>
       </c>
     </row>
     <row r="360" ht="14.25">
       <c r="A360" s="1">
-        <v>48.712587606074813</v>
+        <v>48.713143189260485</v>
       </c>
       <c r="B360" s="1">
-        <v>2.2001284733123039</v>
+        <v>2.2198984594744751</v>
+      </c>
+      <c r="C360" t="s">
+        <v>5</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E360">
+        <f t="shared" si="5"/>
+        <v>359</v>
       </c>
     </row>
     <row r="361" ht="14.25">
       <c r="A361" s="1">
-        <v>48.712618087782808</v>
+        <v>48.713143214137013</v>
       </c>
       <c r="B361" s="1">
-        <v>2.2001934426303924</v>
+        <v>2.2198984074299437</v>
+      </c>
+      <c r="C361" t="s">
+        <v>5</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E361">
+        <f t="shared" si="5"/>
+        <v>360</v>
       </c>
     </row>
     <row r="362" ht="14.25">
       <c r="A362" s="1">
-        <v>48.712619912325351</v>
+        <v>48.713143218748606</v>
       </c>
       <c r="B362" s="1">
-        <v>2.2001694307820188</v>
+        <v>2.2198983743792486</v>
+      </c>
+      <c r="C362" t="s">
+        <v>5</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E362">
+        <f t="shared" si="5"/>
+        <v>361</v>
       </c>
     </row>
     <row r="363" ht="14.25">
       <c r="A363" s="1">
-        <v>48.71263709704963</v>
+        <v>48.713143220021962</v>
       </c>
       <c r="B363" s="1">
-        <v>2.2001905072306722</v>
+        <v>2.2198983871334956</v>
+      </c>
+      <c r="C363" t="s">
+        <v>5</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E363">
+        <f t="shared" si="5"/>
+        <v>362</v>
       </c>
     </row>
     <row r="364" ht="14.25">
       <c r="A364" s="1">
-        <v>48.712630889300819</v>
+        <v>48.713143321205393</v>
       </c>
       <c r="B364" s="1">
-        <v>2.2001440702922408</v>
+        <v>2.2198983970686443</v>
+      </c>
+      <c r="C364" t="s">
+        <v>5</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E364">
+        <f t="shared" si="5"/>
+        <v>363</v>
       </c>
     </row>
     <row r="365" ht="14.25">
       <c r="A365" s="1">
-        <v>48.71263708498271</v>
+        <v>48.713143256880379</v>
       </c>
       <c r="B365" s="1">
-        <v>2.2001338464167786</v>
+        <v>2.2198983934094203</v>
+      </c>
+      <c r="C365" t="s">
+        <v>5</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E365">
+        <f t="shared" si="5"/>
+        <v>364</v>
       </c>
     </row>
     <row r="366" ht="14.25">
       <c r="A366" s="1">
-        <v>48.712656721414838</v>
+        <v>48.713143298404241</v>
       </c>
       <c r="B366" s="1">
-        <v>2.2001661927458609</v>
+        <v>2.2198983801505006</v>
+      </c>
+      <c r="C366" t="s">
+        <v>5</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E366">
+        <f t="shared" si="5"/>
+        <v>365</v>
       </c>
     </row>
     <row r="367" ht="14.25">
       <c r="A367" s="1">
-        <v>48.712653798542696</v>
+        <v>48.713143250961508</v>
       </c>
       <c r="B367" s="1">
-        <v>2.2001294357652452</v>
+        <v>2.2198983728190647</v>
+      </c>
+      <c r="C367" t="s">
+        <v>5</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E367">
+        <f t="shared" si="5"/>
+        <v>366</v>
       </c>
     </row>
     <row r="368" ht="14.25">
       <c r="A368" s="1">
-        <v>48.712660128220499</v>
+        <v>48.713143351261699</v>
       </c>
       <c r="B368" s="1">
-        <v>2.200121117550343</v>
+        <v>2.2198983765023703</v>
+      </c>
+      <c r="C368" t="s">
+        <v>5</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E368">
+        <f t="shared" si="5"/>
+        <v>367</v>
       </c>
     </row>
     <row r="369" ht="14.25">
       <c r="A369" s="1">
-        <v>48.712677645580129</v>
+        <v>48.713143383579592</v>
       </c>
       <c r="B369" s="1">
-        <v>2.2001428615569032</v>
+        <v>2.2198983732305386</v>
+      </c>
+      <c r="C369" t="s">
+        <v>5</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E369">
+        <f t="shared" si="5"/>
+        <v>368</v>
       </c>
     </row>
     <row r="370" ht="14.25">
       <c r="A370" s="1">
-        <v>48.712704259778775</v>
+        <v>48.713143365445596</v>
       </c>
       <c r="B370" s="1">
-        <v>2.2001918687760407</v>
+        <v>2.2198983441032119</v>
+      </c>
+      <c r="C370" t="s">
+        <v>5</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E370">
+        <f t="shared" si="5"/>
+        <v>369</v>
       </c>
     </row>
     <row r="371" ht="14.25">
       <c r="A371" s="1">
-        <v>48.712706880742076</v>
+        <v>48.713143393591551</v>
       </c>
       <c r="B371" s="1">
-        <v>2.2001774012233235</v>
+        <v>2.2198983129821448</v>
+      </c>
+      <c r="C371" t="s">
+        <v>5</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E371">
+        <f t="shared" si="5"/>
+        <v>370</v>
       </c>
     </row>
     <row r="372" ht="14.25">
       <c r="A372" s="1">
-        <v>48.712696383331206</v>
+        <v>48.71314339658926</v>
       </c>
       <c r="B372" s="1">
-        <v>2.2001153169187839</v>
+        <v>2.2198982898533508</v>
+      </c>
+      <c r="C372" t="s">
+        <v>5</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E372">
+        <f t="shared" si="5"/>
+        <v>371</v>
       </c>
     </row>
     <row r="373" ht="14.25">
       <c r="A373" s="1">
-        <v>48.712716869820902</v>
+        <v>48.713143375687359</v>
       </c>
       <c r="B373" s="1">
-        <v>2.2001681098461656</v>
+        <v>2.2198982882484857</v>
+      </c>
+      <c r="C373" t="s">
+        <v>5</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E373">
+        <f t="shared" si="5"/>
+        <v>372</v>
       </c>
     </row>
     <row r="374" ht="14.25">
       <c r="A374" s="1">
-        <v>48.71273042284821</v>
+        <v>48.713143434408394</v>
       </c>
       <c r="B374" s="1">
-        <v>2.2001788942520411</v>
+        <v>2.2198982623929</v>
+      </c>
+      <c r="C374" t="s">
+        <v>5</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E374">
+        <f t="shared" si="5"/>
+        <v>373</v>
       </c>
     </row>
     <row r="375" ht="14.25">
       <c r="A375" s="1">
-        <v>48.712710061261248</v>
+        <v>48.713143457186554</v>
       </c>
       <c r="B375" s="1">
-        <v>2.2001448776813262</v>
+        <v>2.2198982200293726</v>
+      </c>
+      <c r="C375" t="s">
+        <v>5</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E375">
+        <f t="shared" si="5"/>
+        <v>374</v>
       </c>
     </row>
     <row r="376" ht="14.25">
       <c r="A376" s="1">
-        <v>48.712700187563307</v>
+        <v>48.713143468729029</v>
       </c>
       <c r="B376" s="1">
-        <v>2.2001431501349482</v>
+        <v>2.2198982116371675</v>
+      </c>
+      <c r="C376" t="s">
+        <v>5</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E376">
+        <f t="shared" si="5"/>
+        <v>375</v>
       </c>
     </row>
     <row r="377" ht="14.25">
       <c r="A377" s="1">
-        <v>48.712701588871518</v>
+        <v>48.71314349915275</v>
       </c>
       <c r="B377" s="1">
-        <v>2.2001724576214867</v>
+        <v>2.2198982248791927</v>
+      </c>
+      <c r="C377" t="s">
+        <v>5</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E377">
+        <f t="shared" si="5"/>
+        <v>376</v>
       </c>
     </row>
     <row r="378" ht="14.25">
       <c r="A378" s="1">
-        <v>48.712726975962823</v>
+        <v>48.713143521137106</v>
       </c>
       <c r="B378" s="1">
-        <v>2.2001401354295034</v>
+        <v>2.2198981872162249</v>
+      </c>
+      <c r="C378" t="s">
+        <v>5</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E378">
+        <f t="shared" si="5"/>
+        <v>377</v>
       </c>
     </row>
     <row r="379" ht="14.25">
       <c r="A379" s="1">
-        <v>48.712727892386539</v>
+        <v>48.713143548827375</v>
       </c>
       <c r="B379" s="1">
-        <v>2.2001482239442738</v>
+        <v>2.2198981454654332</v>
+      </c>
+      <c r="C379" t="s">
+        <v>5</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E379">
+        <f t="shared" si="5"/>
+        <v>378</v>
       </c>
     </row>
     <row r="380" ht="14.25">
       <c r="A380" s="1">
-        <v>48.710719307304686</v>
+        <v>48.713143557574526</v>
       </c>
       <c r="B380" s="1">
-        <v>2.2049712280318645</v>
+        <v>2.2198981939677167</v>
+      </c>
+      <c r="C380" t="s">
+        <v>5</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E380">
+        <f t="shared" si="5"/>
+        <v>379</v>
       </c>
     </row>
     <row r="381" ht="14.25">
       <c r="A381" s="1">
-        <v>48.712721388977101</v>
+        <v>48.713143560869376</v>
       </c>
       <c r="B381" s="1">
-        <v>2.2001535854817891</v>
+        <v>2.2198981598394609</v>
+      </c>
+      <c r="C381" t="s">
+        <v>5</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E381">
+        <f t="shared" si="5"/>
+        <v>380</v>
       </c>
     </row>
     <row r="382" ht="14.25">
       <c r="A382" s="1">
-        <v>48.712669775613314</v>
+        <v>48.713143617032102</v>
       </c>
       <c r="B382" s="1">
-        <v>2.2003012950448966</v>
+        <v>2.2198981027500175</v>
+      </c>
+      <c r="C382" t="s">
+        <v>5</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E382">
+        <f t="shared" si="5"/>
+        <v>381</v>
       </c>
     </row>
     <row r="383" ht="14.25">
       <c r="A383" s="1">
-        <v>48.712674054775789</v>
+        <v>48.71314360588039</v>
       </c>
       <c r="B383" s="1">
-        <v>2.20030965041069</v>
+        <v>2.2198980744112218</v>
+      </c>
+      <c r="C383" t="s">
+        <v>5</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E383">
+        <f t="shared" si="5"/>
+        <v>382</v>
       </c>
     </row>
     <row r="384" ht="14.25">
       <c r="A384" s="1">
-        <v>48.71265739357213</v>
+        <v>48.713143622684314</v>
       </c>
       <c r="B384" s="1">
-        <v>2.2003490452906402</v>
+        <v>2.2198981110917817</v>
+      </c>
+      <c r="C384" t="s">
+        <v>5</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E384">
+        <f t="shared" si="5"/>
+        <v>383</v>
       </c>
     </row>
     <row r="385" ht="14.25">
       <c r="A385" s="1">
-        <v>48.712626345419316</v>
+        <v>48.713143649280028</v>
       </c>
       <c r="B385" s="1">
-        <v>2.2004211149240955</v>
+        <v>2.2198980796764567</v>
+      </c>
+      <c r="C385" t="s">
+        <v>5</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E385">
+        <f t="shared" si="5"/>
+        <v>384</v>
       </c>
     </row>
     <row r="386" ht="14.25">
       <c r="A386" s="1">
-        <v>48.712612871451455</v>
+        <v>48.713143629242175</v>
       </c>
       <c r="B386" s="1">
-        <v>2.2004489692581326</v>
+        <v>2.2198980570597286</v>
+      </c>
+      <c r="C386" t="s">
+        <v>5</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E386">
+        <f t="shared" si="5"/>
+        <v>385</v>
       </c>
     </row>
     <row r="387" ht="14.25">
-      <c r="A387" s="1">
-        <v>48.712596424732858</v>
-      </c>
-      <c r="B387" s="1">
-        <v>2.2004882671521404</v>
-      </c>
+      <c r="A387" s="1"/>
+      <c r="B387" s="1"/>
     </row>
     <row r="388" ht="14.25">
-      <c r="A388" s="1">
-        <v>48.712584573026042</v>
-      </c>
-      <c r="B388" s="1">
-        <v>2.2005163465872264</v>
-      </c>
+      <c r="A388" s="1"/>
+      <c r="B388" s="1"/>
     </row>
     <row r="389" ht="14.25">
-      <c r="A389" s="1">
-        <v>48.712591306251007</v>
-      </c>
-      <c r="B389" s="1">
-        <v>2.2004978101267714</v>
-      </c>
+      <c r="A389" s="1"/>
+      <c r="B389" s="1"/>
     </row>
     <row r="390" ht="14.25">
-      <c r="A390" s="1">
-        <v>48.712596116270213</v>
-      </c>
-      <c r="B390" s="1">
-        <v>2.2004857286913384</v>
-      </c>
+      <c r="A390" s="1"/>
+      <c r="B390" s="1"/>
     </row>
     <row r="391" ht="14.25">
-      <c r="A391" s="1">
-        <v>48.712606152294541</v>
-      </c>
-      <c r="B391" s="1">
-        <v>2.2004608875575653</v>
-      </c>
+      <c r="A391" s="1"/>
+      <c r="B391" s="1"/>
     </row>
     <row r="392" ht="14.25">
-      <c r="A392" s="1">
-        <v>48.712627922943767</v>
-      </c>
-      <c r="B392" s="1">
-        <v>2.2004074963773568</v>
-      </c>
+      <c r="A392" s="1"/>
+      <c r="B392" s="1"/>
     </row>
     <row r="393" ht="14.25">
-      <c r="A393" s="1">
-        <v>48.712670735385288</v>
-      </c>
-      <c r="B393" s="1">
-        <v>2.2003056321015673</v>
-      </c>
+      <c r="A393" s="1"/>
+      <c r="B393" s="1"/>
     </row>
     <row r="394" ht="14.25">
-      <c r="A394" s="1">
-        <v>48.712685960140014</v>
-      </c>
-      <c r="B394" s="1">
-        <v>2.200268077680152</v>
-      </c>
+      <c r="A394" s="1"/>
+      <c r="B394" s="1"/>
     </row>
     <row r="395" ht="14.25">
-      <c r="A395" s="1">
-        <v>48.712680551865773</v>
-      </c>
-      <c r="B395" s="1">
-        <v>2.2002791957316803</v>
-      </c>
+      <c r="A395" s="1"/>
+      <c r="B395" s="1"/>
     </row>
     <row r="396" ht="14.25">
-      <c r="A396" s="1">
-        <v>48.712674560489233</v>
-      </c>
-      <c r="B396" s="1">
-        <v>2.2002910886969871</v>
-      </c>
+      <c r="A396" s="1"/>
+      <c r="B396" s="1"/>
     </row>
     <row r="397" ht="14.25">
-      <c r="A397" s="1">
-        <v>48.712660134558057</v>
-      </c>
-      <c r="B397" s="1">
-        <v>2.2003275720538999</v>
-      </c>
+      <c r="A397" s="1"/>
+      <c r="B397" s="1"/>
     </row>
     <row r="398" ht="14.25">
-      <c r="A398" s="1">
-        <v>48.712663228178087</v>
-      </c>
-      <c r="B398" s="1">
-        <v>2.2003195725676088</v>
-      </c>
+      <c r="A398" s="1"/>
+      <c r="B398" s="1"/>
     </row>
     <row r="399" ht="14.25">
-      <c r="A399" s="1">
-        <v>48.712640397939765</v>
-      </c>
-      <c r="B399" s="1">
-        <v>2.200373071518599</v>
-      </c>
+      <c r="A399" s="1"/>
+      <c r="B399" s="1"/>
     </row>
     <row r="400" ht="14.25">
-      <c r="A400" s="1">
-        <v>48.712659030803309</v>
-      </c>
-      <c r="B400" s="1">
-        <v>2.2003389475418667</v>
-      </c>
+      <c r="A400" s="1"/>
+      <c r="B400" s="1"/>
     </row>
     <row r="401" ht="14.25">
-      <c r="A401" s="1">
-        <v>48.712660357452826</v>
-      </c>
-      <c r="B401" s="1">
-        <v>2.2003117049105425</v>
-      </c>
+      <c r="A401" s="1"/>
+      <c r="B401" s="1"/>
     </row>
     <row r="402" ht="14.25">
-      <c r="A402" s="1">
-        <v>48.712648372989584</v>
-      </c>
-      <c r="B402" s="1">
-        <v>2.2003054665233219</v>
-      </c>
+      <c r="A402" s="1"/>
+      <c r="B402" s="1"/>
     </row>
     <row r="403" ht="14.25">
-      <c r="A403" s="1">
-        <v>48.71262058486284</v>
-      </c>
-      <c r="B403" s="1">
-        <v>2.2002528899996099</v>
-      </c>
+      <c r="A403" s="1"/>
+      <c r="B403" s="1"/>
     </row>
     <row r="404" ht="14.25">
-      <c r="A404" s="1">
-        <v>48.712621889669038</v>
-      </c>
-      <c r="B404" s="1">
-        <v>2.2002811624700054</v>
-      </c>
+      <c r="A404" s="1"/>
+      <c r="B404" s="1"/>
     </row>
     <row r="405" ht="14.25">
-      <c r="A405" s="1">
-        <v>48.712587759295147</v>
-      </c>
-      <c r="B405" s="1">
-        <v>2.2002988878998639</v>
-      </c>
+      <c r="A405" s="1"/>
+      <c r="B405" s="1"/>
     </row>
     <row r="406" ht="14.25">
-      <c r="A406" s="1">
-        <v>48.712569439314073</v>
-      </c>
-      <c r="B406" s="1">
-        <v>2.2002825363915761</v>
-      </c>
+      <c r="A406" s="1"/>
+      <c r="B406" s="1"/>
     </row>
     <row r="407" ht="14.25">
-      <c r="A407" s="1">
-        <v>48.71257425770537</v>
-      </c>
-      <c r="B407" s="1">
-        <v>2.2002676772857894</v>
-      </c>
+      <c r="A407" s="1"/>
+      <c r="B407" s="1"/>
     </row>
     <row r="408" ht="14.25">
-      <c r="A408" s="1">
-        <v>48.712578058160865</v>
-      </c>
-      <c r="B408" s="1">
-        <v>2.2003096325386955</v>
-      </c>
+      <c r="A408" s="1"/>
+      <c r="B408" s="1"/>
     </row>
     <row r="409" ht="14.25">
-      <c r="A409" s="1">
-        <v>48.712582925802252</v>
-      </c>
-      <c r="B409" s="1">
-        <v>2.2003211061256556</v>
-      </c>
+      <c r="A409" s="1"/>
+      <c r="B409" s="1"/>
     </row>
     <row r="410" ht="14.25">
-      <c r="A410" s="1">
-        <v>48.712570797044137</v>
-      </c>
-      <c r="B410" s="1">
-        <v>2.2002750945255962</v>
-      </c>
+      <c r="A410" s="1"/>
+      <c r="B410" s="1"/>
     </row>
     <row r="411" ht="14.25">
-      <c r="A411" s="1">
-        <v>48.712566986177833</v>
-      </c>
-      <c r="B411" s="1">
-        <v>2.2002398005428732</v>
-      </c>
+      <c r="A411" s="1"/>
+      <c r="B411" s="1"/>
     </row>
     <row r="412" ht="14.25">
-      <c r="A412" s="1">
-        <v>48.712563573297849</v>
-      </c>
-      <c r="B412" s="1">
-        <v>2.2002062367615105</v>
-      </c>
+      <c r="A412" s="1"/>
+      <c r="B412" s="1"/>
     </row>
     <row r="413" ht="14.25">
-      <c r="A413" s="1">
-        <v>48.712581460459212</v>
-      </c>
-      <c r="B413" s="1">
-        <v>2.2002326107551018</v>
-      </c>
+      <c r="A413" s="1"/>
+      <c r="B413" s="1"/>
     </row>
     <row r="414" ht="14.25">
-      <c r="A414" s="1">
-        <v>48.71259049537661</v>
-      </c>
-      <c r="B414" s="1">
-        <v>2.2002315696256391</v>
-      </c>
+      <c r="A414" s="1"/>
+      <c r="B414" s="1"/>
     </row>
     <row r="415" ht="14.25">
-      <c r="A415" s="1">
-        <v>48.712595808330533</v>
-      </c>
-      <c r="B415" s="1">
-        <v>2.2002194382767244</v>
-      </c>
+      <c r="A415" s="1"/>
+      <c r="B415" s="1"/>
     </row>
     <row r="416" ht="14.25">
-      <c r="A416" s="1">
-        <v>48.712611053639868</v>
-      </c>
-      <c r="B416" s="1">
-        <v>2.200236449812885</v>
-      </c>
+      <c r="A416" s="1"/>
+      <c r="B416" s="1"/>
     </row>
     <row r="417" ht="14.25">
-      <c r="A417" s="1">
-        <v>48.712612230252162</v>
-      </c>
-      <c r="B417" s="1">
-        <v>2.2002100241440754</v>
-      </c>
+      <c r="A417" s="1"/>
+      <c r="B417" s="1"/>
     </row>
     <row r="418" ht="14.25">
-      <c r="A418" s="1">
-        <v>48.712611372319742</v>
-      </c>
-      <c r="B418" s="1">
-        <v>2.2001827202959818</v>
-      </c>
+      <c r="A418" s="1"/>
+      <c r="B418" s="1"/>
     </row>
     <row r="419" ht="14.25">
-      <c r="A419" s="1">
-        <v>48.712624477825571</v>
-      </c>
-      <c r="B419" s="1">
-        <v>2.200190980349729</v>
-      </c>
+      <c r="A419" s="1"/>
+      <c r="B419" s="1"/>
     </row>
     <row r="420" ht="14.25">
-      <c r="A420" s="1">
-        <v>48.712624374094418</v>
-      </c>
-      <c r="B420" s="1">
-        <v>2.2001669429376691</v>
-      </c>
+      <c r="A420" s="1"/>
+      <c r="B420" s="1"/>
     </row>
     <row r="421" ht="14.25">
-      <c r="A421" s="1">
-        <v>48.712631203967327</v>
-      </c>
-      <c r="B421" s="1">
-        <v>2.2001579933734594</v>
-      </c>
+      <c r="A421" s="1"/>
+      <c r="B421" s="1"/>
     </row>
     <row r="422" ht="14.25">
-      <c r="A422" s="1">
-        <v>48.712657934460964</v>
-      </c>
-      <c r="B422" s="1">
-        <v>2.2002015297633974</v>
-      </c>
+      <c r="A422" s="1"/>
+      <c r="B422" s="1"/>
     </row>
     <row r="423" ht="14.25">
-      <c r="A423" s="1">
-        <v>48.712666326476267</v>
-      </c>
-      <c r="B423" s="1">
-        <v>2.2001922164073178</v>
-      </c>
+      <c r="A423" s="1"/>
+      <c r="B423" s="1"/>
     </row>
     <row r="424" ht="14.25">
-      <c r="A424" s="1">
-        <v>48.712676962471754</v>
-      </c>
-      <c r="B424" s="1">
-        <v>2.2001893185159549</v>
-      </c>
+      <c r="A424" s="1"/>
+      <c r="B424" s="1"/>
     </row>
     <row r="425" ht="14.25">
-      <c r="A425" s="1">
-        <v>48.712678965652465</v>
-      </c>
-      <c r="B425" s="1">
-        <v>2.200169297635072</v>
-      </c>
+      <c r="A425" s="1"/>
+      <c r="B425" s="1"/>
     </row>
     <row r="426" ht="14.25">
-      <c r="A426" s="1">
-        <v>48.712699397118108</v>
-      </c>
-      <c r="B426" s="1">
-        <v>2.2001967313408413</v>
-      </c>
+      <c r="A426" s="1"/>
+      <c r="B426" s="1"/>
     </row>
     <row r="427" ht="14.25">
-      <c r="A427" s="1">
-        <v>48.71273434262848</v>
-      </c>
-      <c r="B427" s="1">
-        <v>2.200163855669222</v>
-      </c>
+      <c r="A427" s="1"/>
+      <c r="B427" s="1"/>
     </row>
     <row r="428" ht="14.25">
-      <c r="A428" s="1">
-        <v>48.712724129568578</v>
-      </c>
-      <c r="B428" s="1">
-        <v>2.2002000984689918</v>
-      </c>
+      <c r="A428" s="1"/>
+      <c r="B428" s="1"/>
     </row>
     <row r="429" ht="14.25">
-      <c r="A429" s="1">
-        <v>48.712722669452248</v>
-      </c>
-      <c r="B429" s="1">
-        <v>2.200168416530897</v>
-      </c>
+      <c r="A429" s="1"/>
+      <c r="B429" s="1"/>
     </row>
     <row r="430" ht="14.25">
-      <c r="A430" s="1">
-        <v>48.712746090611077</v>
-      </c>
-      <c r="B430" s="1">
-        <v>2.2001439320279652</v>
-      </c>
+      <c r="A430" s="1"/>
+      <c r="B430" s="1"/>
     </row>
     <row r="431" ht="14.25">
-      <c r="A431" s="1">
-        <v>48.712739435891436</v>
-      </c>
-      <c r="B431" s="1">
-        <v>2.2001415956521329</v>
-      </c>
+      <c r="A431" s="1"/>
+      <c r="B431" s="1"/>
     </row>
     <row r="432" ht="14.25">
-      <c r="A432" s="1">
-        <v>48.712753881038282</v>
-      </c>
-      <c r="B432" s="1">
-        <v>2.2001805929441871</v>
-      </c>
+      <c r="A432" s="1"/>
+      <c r="B432" s="1"/>
     </row>
     <row r="433" ht="14.25">
-      <c r="A433" s="1">
-        <v>48.712837352663605</v>
-      </c>
-      <c r="B433" s="1">
-        <v>2.2006188898781143</v>
-      </c>
+      <c r="A433" s="1"/>
+      <c r="B433" s="1"/>
     </row>
     <row r="434" ht="14.25">
-      <c r="A434" s="1">
-        <v>48.712756019103075</v>
-      </c>
-      <c r="B434" s="1">
-        <v>2.2002887131783062</v>
-      </c>
+      <c r="A434" s="1"/>
+      <c r="B434" s="1"/>
     </row>
     <row r="435" ht="14.25">
-      <c r="A435" s="1">
-        <v>48.712724831017503</v>
-      </c>
-      <c r="B435" s="1">
-        <v>2.2003589158483705</v>
-      </c>
+      <c r="A435" s="1"/>
+      <c r="B435" s="1"/>
     </row>
     <row r="436" ht="14.25">
-      <c r="A436" s="1">
-        <v>48.712714947335833</v>
-      </c>
-      <c r="B436" s="1">
-        <v>2.2003847377999737</v>
-      </c>
+      <c r="A436" s="1"/>
+      <c r="B436" s="1"/>
     </row>
     <row r="437" ht="14.25">
-      <c r="A437" s="1">
-        <v>48.712678139786469</v>
-      </c>
-      <c r="B437" s="1">
-        <v>2.2004696226159868</v>
-      </c>
+      <c r="A437" s="1"/>
+      <c r="B437" s="1"/>
     </row>
     <row r="438" ht="14.25">
-      <c r="A438" s="1">
-        <v>48.712666485282838</v>
-      </c>
-      <c r="B438" s="1">
-        <v>2.2004950333468716</v>
-      </c>
+      <c r="A438" s="1"/>
+      <c r="B438" s="1"/>
     </row>
     <row r="439" ht="14.25">
-      <c r="A439" s="1">
-        <v>48.712677581586519</v>
-      </c>
-      <c r="B439" s="1">
-        <v>2.200469183658821</v>
-      </c>
+      <c r="A439" s="1"/>
+      <c r="B439" s="1"/>
     </row>
     <row r="440" ht="14.25">
-      <c r="A440" s="1">
-        <v>48.712672105296456</v>
-      </c>
-      <c r="B440" s="1">
-        <v>2.2004776366516925</v>
-      </c>
+      <c r="A440" s="1"/>
+      <c r="B440" s="1"/>
     </row>
     <row r="441" ht="14.25">
-      <c r="A441" s="1">
-        <v>48.712648977425971</v>
-      </c>
-      <c r="B441" s="1">
-        <v>2.2005328000249773</v>
-      </c>
+      <c r="A441" s="1"/>
+      <c r="B441" s="1"/>
     </row>
     <row r="442" ht="14.25">
-      <c r="A442" s="1">
-        <v>48.712643241961743</v>
-      </c>
-      <c r="B442" s="1">
-        <v>2.2005462039448269</v>
-      </c>
+      <c r="A442" s="1"/>
+      <c r="B442" s="1"/>
     </row>
     <row r="443" ht="14.25">
-      <c r="A443" s="1">
-        <v>48.712636718610774</v>
-      </c>
-      <c r="B443" s="1">
-        <v>2.2005610336944836</v>
-      </c>
+      <c r="A443" s="1"/>
+      <c r="B443" s="1"/>
     </row>
     <row r="444" ht="14.25">
-      <c r="A444" s="1">
-        <v>48.712649146773451</v>
-      </c>
-      <c r="B444" s="1">
-        <v>2.2005298703879772</v>
-      </c>
+      <c r="A444" s="1"/>
+      <c r="B444" s="1"/>
     </row>
     <row r="445" ht="14.25">
-      <c r="A445" s="1">
-        <v>48.712725513453485</v>
-      </c>
-      <c r="B445" s="1">
-        <v>2.2003460743129137</v>
-      </c>
+      <c r="A445" s="1"/>
+      <c r="B445" s="1"/>
     </row>
     <row r="446" ht="14.25">
-      <c r="A446" s="1">
-        <v>48.712724891779992</v>
-      </c>
-      <c r="B446" s="1">
-        <v>2.2003462943286318</v>
-      </c>
+      <c r="A446" s="1"/>
+      <c r="B446" s="1"/>
     </row>
     <row r="447" ht="14.25">
-      <c r="A447" s="1">
-        <v>48.71276776725945</v>
-      </c>
-      <c r="B447" s="1">
-        <v>2.2002725102789391</v>
-      </c>
+      <c r="A447" s="1"/>
+      <c r="B447" s="1"/>
     </row>
     <row r="448" ht="14.25">
-      <c r="A448" s="1">
-        <v>48.712741714952642</v>
-      </c>
-      <c r="B448" s="1">
-        <v>2.2003322412579069</v>
-      </c>
+      <c r="A448" s="1"/>
+      <c r="B448" s="1"/>
     </row>
     <row r="449" ht="14.25">
-      <c r="A449" s="1">
-        <v>48.712736961308693</v>
-      </c>
-      <c r="B449" s="1">
-        <v>2.2003450391109363</v>
-      </c>
+      <c r="A449" s="1"/>
+      <c r="B449" s="1"/>
     </row>
     <row r="450" ht="14.25">
-      <c r="A450" s="1">
-        <v>48.71273243907391</v>
-      </c>
-      <c r="B450" s="1">
-        <v>2.2003565913493084</v>
-      </c>
+      <c r="A450" s="1"/>
+      <c r="B450" s="1"/>
     </row>
     <row r="451" ht="14.25">
-      <c r="A451" s="1">
-        <v>48.712727217596814</v>
-      </c>
-      <c r="B451" s="1">
-        <v>2.2003697390486661</v>
-      </c>
+      <c r="A451" s="1"/>
+      <c r="B451" s="1"/>
     </row>
     <row r="452" ht="14.25">
-      <c r="A452" s="1">
-        <v>48.712733085651784</v>
-      </c>
-      <c r="B452" s="1">
-        <v>2.2003523128536182</v>
-      </c>
+      <c r="A452" s="1"/>
+      <c r="B452" s="1"/>
     </row>
     <row r="453" ht="14.25">
-      <c r="A453" s="1">
-        <v>48.712727720041499</v>
-      </c>
-      <c r="B453" s="1">
-        <v>2.2003646380247437</v>
-      </c>
+      <c r="A453" s="1"/>
+      <c r="B453" s="1"/>
     </row>
     <row r="454" ht="14.25">
-      <c r="A454" s="1">
-        <v>48.712719418017265</v>
-      </c>
-      <c r="B454" s="1">
-        <v>2.2003696195849356</v>
-      </c>
+      <c r="A454" s="1"/>
+      <c r="B454" s="1"/>
     </row>
     <row r="455" ht="14.25">
-      <c r="A455" s="1">
-        <v>48.71272159185299</v>
-      </c>
-      <c r="B455" s="1">
-        <v>2.2003312539296145</v>
-      </c>
+      <c r="A455" s="1"/>
+      <c r="B455" s="1"/>
     </row>
     <row r="456" ht="14.25">
-      <c r="A456" s="1">
-        <v>48.712669893828419</v>
-      </c>
-      <c r="B456" s="1">
-        <v>2.20035680462466</v>
-      </c>
+      <c r="A456" s="1"/>
+      <c r="B456" s="1"/>
     </row>
     <row r="457" ht="14.25">
-      <c r="A457" s="1">
-        <v>48.712676448057664</v>
-      </c>
-      <c r="B457" s="1">
-        <v>2.2004143102157125</v>
-      </c>
+      <c r="A457" s="1"/>
+      <c r="B457" s="1"/>
     </row>
     <row r="458" ht="14.25">
-      <c r="A458" s="1">
-        <v>48.712636051378809</v>
-      </c>
-      <c r="B458" s="1">
-        <v>2.2003379630179052</v>
-      </c>
+      <c r="A458" s="1"/>
+      <c r="B458" s="1"/>
     </row>
     <row r="459" ht="14.25">
-      <c r="A459" s="1">
-        <v>48.712653976593323</v>
-      </c>
-      <c r="B459" s="1">
-        <v>2.2003426472442316</v>
-      </c>
+      <c r="A459" s="1"/>
+      <c r="B459" s="1"/>
     </row>
     <row r="460" ht="14.25">
-      <c r="A460" s="1">
-        <v>48.71261930363476</v>
-      </c>
-      <c r="B460" s="1">
-        <v>2.2002616053004131</v>
-      </c>
+      <c r="A460" s="1"/>
+      <c r="B460" s="1"/>
     </row>
     <row r="461" ht="14.25">
-      <c r="A461" s="1">
-        <v>48.712623302789481</v>
-      </c>
-      <c r="B461" s="1">
-        <v>2.2002731662400095</v>
-      </c>
+      <c r="A461" s="1"/>
+      <c r="B461" s="1"/>
     </row>
     <row r="462" ht="14.25">
-      <c r="A462" s="1">
-        <v>48.712631988799892</v>
-      </c>
-      <c r="B462" s="1">
-        <v>2.2002930653889212</v>
-      </c>
+      <c r="A462" s="1"/>
+      <c r="B462" s="1"/>
     </row>
     <row r="463" ht="14.25">
-      <c r="A463" s="1">
-        <v>48.712632187955144</v>
-      </c>
-      <c r="B463" s="1">
-        <v>2.2002935347142021</v>
-      </c>
+      <c r="A463" s="1"/>
+      <c r="B463" s="1"/>
     </row>
     <row r="464" ht="14.25">
-      <c r="A464" s="1">
-        <v>48.712631962645311</v>
-      </c>
-      <c r="B464" s="1">
-        <v>2.2002937582915671</v>
-      </c>
+      <c r="A464" s="1"/>
+      <c r="B464" s="1"/>
     </row>
     <row r="465" ht="14.25">
-      <c r="A465" s="1">
-        <v>48.712631789907121</v>
-      </c>
-      <c r="B465" s="1">
-        <v>2.2002937921804295</v>
-      </c>
+      <c r="A465" s="1"/>
+      <c r="B465" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6355,6 +7889,191 @@
     <hyperlink r:id="rId1" ref="D199"/>
     <hyperlink r:id="rId1" ref="D200"/>
     <hyperlink r:id="rId1" ref="D201"/>
+    <hyperlink r:id="rId1" ref="D202"/>
+    <hyperlink r:id="rId1" ref="D203"/>
+    <hyperlink r:id="rId1" ref="D204"/>
+    <hyperlink r:id="rId1" ref="D205"/>
+    <hyperlink r:id="rId1" ref="D206"/>
+    <hyperlink r:id="rId1" ref="D207"/>
+    <hyperlink r:id="rId1" ref="D208"/>
+    <hyperlink r:id="rId1" ref="D209"/>
+    <hyperlink r:id="rId1" ref="D210"/>
+    <hyperlink r:id="rId1" ref="D211"/>
+    <hyperlink r:id="rId1" ref="D212"/>
+    <hyperlink r:id="rId1" ref="D213"/>
+    <hyperlink r:id="rId1" ref="D214"/>
+    <hyperlink r:id="rId1" ref="D215"/>
+    <hyperlink r:id="rId1" ref="D216"/>
+    <hyperlink r:id="rId1" ref="D217"/>
+    <hyperlink r:id="rId1" ref="D218"/>
+    <hyperlink r:id="rId1" ref="D219"/>
+    <hyperlink r:id="rId1" ref="D220"/>
+    <hyperlink r:id="rId1" ref="D221"/>
+    <hyperlink r:id="rId1" ref="D222"/>
+    <hyperlink r:id="rId1" ref="D223"/>
+    <hyperlink r:id="rId1" ref="D224"/>
+    <hyperlink r:id="rId1" ref="D225"/>
+    <hyperlink r:id="rId1" ref="D226"/>
+    <hyperlink r:id="rId1" ref="D227"/>
+    <hyperlink r:id="rId1" ref="D228"/>
+    <hyperlink r:id="rId1" ref="D229"/>
+    <hyperlink r:id="rId1" ref="D230"/>
+    <hyperlink r:id="rId1" ref="D231"/>
+    <hyperlink r:id="rId1" ref="D232"/>
+    <hyperlink r:id="rId1" ref="D233"/>
+    <hyperlink r:id="rId1" ref="D234"/>
+    <hyperlink r:id="rId1" ref="D235"/>
+    <hyperlink r:id="rId1" ref="D236"/>
+    <hyperlink r:id="rId1" ref="D237"/>
+    <hyperlink r:id="rId1" ref="D238"/>
+    <hyperlink r:id="rId1" ref="D239"/>
+    <hyperlink r:id="rId1" ref="D240"/>
+    <hyperlink r:id="rId1" ref="D241"/>
+    <hyperlink r:id="rId1" ref="D242"/>
+    <hyperlink r:id="rId1" ref="D243"/>
+    <hyperlink r:id="rId1" ref="D244"/>
+    <hyperlink r:id="rId1" ref="D245"/>
+    <hyperlink r:id="rId1" ref="D246"/>
+    <hyperlink r:id="rId1" ref="D247"/>
+    <hyperlink r:id="rId1" ref="D248"/>
+    <hyperlink r:id="rId1" ref="D249"/>
+    <hyperlink r:id="rId1" ref="D250"/>
+    <hyperlink r:id="rId1" ref="D251"/>
+    <hyperlink r:id="rId1" ref="D252"/>
+    <hyperlink r:id="rId1" ref="D253"/>
+    <hyperlink r:id="rId1" ref="D254"/>
+    <hyperlink r:id="rId1" ref="D255"/>
+    <hyperlink r:id="rId1" ref="D256"/>
+    <hyperlink r:id="rId1" ref="D257"/>
+    <hyperlink r:id="rId1" ref="D258"/>
+    <hyperlink r:id="rId1" ref="D259"/>
+    <hyperlink r:id="rId1" ref="D260"/>
+    <hyperlink r:id="rId1" ref="D261"/>
+    <hyperlink r:id="rId1" ref="D262"/>
+    <hyperlink r:id="rId1" ref="D263"/>
+    <hyperlink r:id="rId1" ref="D264"/>
+    <hyperlink r:id="rId1" ref="D265"/>
+    <hyperlink r:id="rId1" ref="D266"/>
+    <hyperlink r:id="rId1" ref="D267"/>
+    <hyperlink r:id="rId1" ref="D268"/>
+    <hyperlink r:id="rId1" ref="D269"/>
+    <hyperlink r:id="rId1" ref="D270"/>
+    <hyperlink r:id="rId1" ref="D271"/>
+    <hyperlink r:id="rId1" ref="D272"/>
+    <hyperlink r:id="rId1" ref="D273"/>
+    <hyperlink r:id="rId1" ref="D274"/>
+    <hyperlink r:id="rId1" ref="D275"/>
+    <hyperlink r:id="rId1" ref="D276"/>
+    <hyperlink r:id="rId1" ref="D277"/>
+    <hyperlink r:id="rId1" ref="D278"/>
+    <hyperlink r:id="rId1" ref="D279"/>
+    <hyperlink r:id="rId1" ref="D280"/>
+    <hyperlink r:id="rId1" ref="D281"/>
+    <hyperlink r:id="rId1" ref="D282"/>
+    <hyperlink r:id="rId1" ref="D283"/>
+    <hyperlink r:id="rId1" ref="D284"/>
+    <hyperlink r:id="rId1" ref="D285"/>
+    <hyperlink r:id="rId1" ref="D286"/>
+    <hyperlink r:id="rId1" ref="D287"/>
+    <hyperlink r:id="rId1" ref="D288"/>
+    <hyperlink r:id="rId1" ref="D289"/>
+    <hyperlink r:id="rId1" ref="D290"/>
+    <hyperlink r:id="rId1" ref="D291"/>
+    <hyperlink r:id="rId1" ref="D292"/>
+    <hyperlink r:id="rId1" ref="D293"/>
+    <hyperlink r:id="rId1" ref="D294"/>
+    <hyperlink r:id="rId1" ref="D295"/>
+    <hyperlink r:id="rId1" ref="D296"/>
+    <hyperlink r:id="rId1" ref="D297"/>
+    <hyperlink r:id="rId1" ref="D298"/>
+    <hyperlink r:id="rId1" ref="D299"/>
+    <hyperlink r:id="rId1" ref="D300"/>
+    <hyperlink r:id="rId1" ref="D301"/>
+    <hyperlink r:id="rId1" ref="D302"/>
+    <hyperlink r:id="rId1" ref="D303"/>
+    <hyperlink r:id="rId1" ref="D304"/>
+    <hyperlink r:id="rId1" ref="D305"/>
+    <hyperlink r:id="rId1" ref="D306"/>
+    <hyperlink r:id="rId1" ref="D307"/>
+    <hyperlink r:id="rId1" ref="D308"/>
+    <hyperlink r:id="rId1" ref="D309"/>
+    <hyperlink r:id="rId1" ref="D310"/>
+    <hyperlink r:id="rId1" ref="D311"/>
+    <hyperlink r:id="rId1" ref="D312"/>
+    <hyperlink r:id="rId1" ref="D313"/>
+    <hyperlink r:id="rId1" ref="D314"/>
+    <hyperlink r:id="rId1" ref="D315"/>
+    <hyperlink r:id="rId1" ref="D316"/>
+    <hyperlink r:id="rId1" ref="D317"/>
+    <hyperlink r:id="rId1" ref="D318"/>
+    <hyperlink r:id="rId1" ref="D319"/>
+    <hyperlink r:id="rId1" ref="D320"/>
+    <hyperlink r:id="rId1" ref="D321"/>
+    <hyperlink r:id="rId1" ref="D322"/>
+    <hyperlink r:id="rId1" ref="D323"/>
+    <hyperlink r:id="rId1" ref="D324"/>
+    <hyperlink r:id="rId1" ref="D325"/>
+    <hyperlink r:id="rId1" ref="D326"/>
+    <hyperlink r:id="rId1" ref="D327"/>
+    <hyperlink r:id="rId1" ref="D328"/>
+    <hyperlink r:id="rId1" ref="D329"/>
+    <hyperlink r:id="rId1" ref="D330"/>
+    <hyperlink r:id="rId1" ref="D331"/>
+    <hyperlink r:id="rId1" ref="D332"/>
+    <hyperlink r:id="rId1" ref="D333"/>
+    <hyperlink r:id="rId1" ref="D334"/>
+    <hyperlink r:id="rId1" ref="D335"/>
+    <hyperlink r:id="rId1" ref="D336"/>
+    <hyperlink r:id="rId1" ref="D337"/>
+    <hyperlink r:id="rId1" ref="D338"/>
+    <hyperlink r:id="rId1" ref="D339"/>
+    <hyperlink r:id="rId1" ref="D340"/>
+    <hyperlink r:id="rId1" ref="D341"/>
+    <hyperlink r:id="rId1" ref="D342"/>
+    <hyperlink r:id="rId1" ref="D343"/>
+    <hyperlink r:id="rId1" ref="D344"/>
+    <hyperlink r:id="rId1" ref="D345"/>
+    <hyperlink r:id="rId1" ref="D346"/>
+    <hyperlink r:id="rId1" ref="D347"/>
+    <hyperlink r:id="rId1" ref="D348"/>
+    <hyperlink r:id="rId1" ref="D349"/>
+    <hyperlink r:id="rId1" ref="D350"/>
+    <hyperlink r:id="rId1" ref="D351"/>
+    <hyperlink r:id="rId1" ref="D352"/>
+    <hyperlink r:id="rId1" ref="D353"/>
+    <hyperlink r:id="rId1" ref="D354"/>
+    <hyperlink r:id="rId1" ref="D355"/>
+    <hyperlink r:id="rId1" ref="D356"/>
+    <hyperlink r:id="rId1" ref="D357"/>
+    <hyperlink r:id="rId1" ref="D358"/>
+    <hyperlink r:id="rId1" ref="D359"/>
+    <hyperlink r:id="rId1" ref="D360"/>
+    <hyperlink r:id="rId1" ref="D361"/>
+    <hyperlink r:id="rId1" ref="D362"/>
+    <hyperlink r:id="rId1" ref="D363"/>
+    <hyperlink r:id="rId1" ref="D364"/>
+    <hyperlink r:id="rId1" ref="D365"/>
+    <hyperlink r:id="rId1" ref="D366"/>
+    <hyperlink r:id="rId1" ref="D367"/>
+    <hyperlink r:id="rId1" ref="D368"/>
+    <hyperlink r:id="rId1" ref="D369"/>
+    <hyperlink r:id="rId1" ref="D370"/>
+    <hyperlink r:id="rId1" ref="D371"/>
+    <hyperlink r:id="rId1" ref="D372"/>
+    <hyperlink r:id="rId1" ref="D373"/>
+    <hyperlink r:id="rId1" ref="D374"/>
+    <hyperlink r:id="rId1" ref="D375"/>
+    <hyperlink r:id="rId1" ref="D376"/>
+    <hyperlink r:id="rId1" ref="D377"/>
+    <hyperlink r:id="rId1" ref="D378"/>
+    <hyperlink r:id="rId1" ref="D379"/>
+    <hyperlink r:id="rId1" ref="D380"/>
+    <hyperlink r:id="rId1" ref="D381"/>
+    <hyperlink r:id="rId1" ref="D382"/>
+    <hyperlink r:id="rId1" ref="D383"/>
+    <hyperlink r:id="rId1" ref="D384"/>
+    <hyperlink r:id="rId1" ref="D385"/>
+    <hyperlink r:id="rId1" ref="D386"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/PosMob.xlsx
+++ b/PosMob.xlsx
@@ -585,7 +585,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A369" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A374" zoomScale="100" workbookViewId="0">
       <selection activeCell="H199" activeCellId="0" sqref="H199"/>
     </sheetView>
   </sheetViews>
@@ -614,10 +614,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>48.713138051680275</v>
+        <v>48.713132338642929</v>
       </c>
       <c r="B2" s="1">
-        <v>2.2199025166351145</v>
+        <v>2.2198924041120667</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -631,10 +631,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>48.713138031384808</v>
+        <v>48.713129575064329</v>
       </c>
       <c r="B3" s="1">
-        <v>2.2199024949168362</v>
+        <v>2.2198919685034415</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -649,10 +649,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>48.713138035719041</v>
+        <v>48.713133351786986</v>
       </c>
       <c r="B4" s="1">
-        <v>2.2199024769058462</v>
+        <v>2.2198969768223114</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -667,10 +667,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>48.713138102419187</v>
+        <v>48.713131628588819</v>
       </c>
       <c r="B5" s="1">
-        <v>2.2199024374587624</v>
+        <v>2.2199007342104236</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>48.71313808351254</v>
+        <v>48.713131759763186</v>
       </c>
       <c r="B6" s="1">
-        <v>2.2199024720549172</v>
+        <v>2.2198964201167777</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -703,10 +703,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>48.713138065784683</v>
+        <v>48.713132038127362</v>
       </c>
       <c r="B7" s="1">
-        <v>2.2199024749938623</v>
+        <v>2.2198919376097135</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -721,10 +721,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>48.713138092993631</v>
+        <v>48.713132365634955</v>
       </c>
       <c r="B8" s="1">
-        <v>2.219902458034241</v>
+        <v>2.2198950939818274</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -739,10 +739,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>48.713138128904305</v>
+        <v>48.713129381929107</v>
       </c>
       <c r="B9" s="1">
-        <v>2.2199024086441832</v>
+        <v>2.2199002461562678</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -757,10 +757,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>48.713138160504961</v>
+        <v>48.713130997346028</v>
       </c>
       <c r="B10" s="1">
-        <v>2.2199024117091453</v>
+        <v>2.2198959302173558</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -775,10 +775,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>48.713138185308914</v>
+        <v>48.713133352322984</v>
       </c>
       <c r="B11" s="1">
-        <v>2.2199023851045214</v>
+        <v>2.2198894546855144</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>48.713138221555354</v>
+        <v>48.713135433727544</v>
       </c>
       <c r="B12" s="1">
-        <v>2.219902429380102</v>
+        <v>2.219899111641594</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -811,10 +811,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>48.713138213069399</v>
+        <v>48.713132795087994</v>
       </c>
       <c r="B13" s="1">
-        <v>2.219902393536564</v>
+        <v>2.2198961932100807</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -829,10 +829,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>48.713138193178708</v>
+        <v>48.713135612332508</v>
       </c>
       <c r="B14" s="1">
-        <v>2.2199023889732361</v>
+        <v>2.2198944102231346</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -847,10 +847,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>48.713138231058906</v>
+        <v>48.71313313255817</v>
       </c>
       <c r="B15" s="1">
-        <v>2.2199023646804612</v>
+        <v>2.2198987468341569</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>48.713138234991568</v>
+        <v>48.713125820594811</v>
       </c>
       <c r="B16" s="1">
-        <v>2.2199023550470831</v>
+        <v>2.2198995020719057</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -883,10 +883,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>48.713138241446664</v>
+        <v>48.713124741794566</v>
       </c>
       <c r="B17" s="1">
-        <v>2.2199023501471542</v>
+        <v>2.2198964110675341</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -901,10 +901,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>48.713138235290906</v>
+        <v>48.713120173623544</v>
       </c>
       <c r="B18" s="1">
-        <v>2.2199023372469826</v>
+        <v>2.2198904834151358</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -919,10 +919,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>48.713138256801507</v>
+        <v>48.713122780122724</v>
       </c>
       <c r="B19" s="1">
-        <v>2.2199023200603043</v>
+        <v>2.2198930540448942</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -937,10 +937,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>48.713138305855487</v>
+        <v>48.713117265735988</v>
       </c>
       <c r="B20" s="1">
-        <v>2.2199023296403926</v>
+        <v>2.2198907392975467</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -955,10 +955,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>48.71313830644965</v>
+        <v>48.713116139313613</v>
       </c>
       <c r="B21" s="1">
-        <v>2.2199023070367687</v>
+        <v>2.2198936989571143</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -973,10 +973,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>48.713138333015593</v>
+        <v>48.713108989485903</v>
       </c>
       <c r="B22" s="1">
-        <v>2.219902308120302</v>
+        <v>2.219893397309912</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>48.71313830525731</v>
+        <v>48.713109224808385</v>
       </c>
       <c r="B23" s="1">
-        <v>2.2199023318525941</v>
+        <v>2.2198950172154688</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1009,10 +1009,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>48.713138331493369</v>
+        <v>48.713113660307044</v>
       </c>
       <c r="B24" s="1">
-        <v>2.2199023194519034</v>
+        <v>2.2198932732277292</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>48.71313834839183</v>
+        <v>48.713110090142486</v>
       </c>
       <c r="B25" s="1">
-        <v>2.2199022916049307</v>
+        <v>2.2198968462498185</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>48.713138345021413</v>
+        <v>48.713102901300921</v>
       </c>
       <c r="B26" s="1">
-        <v>2.2199022604300964</v>
+        <v>2.2199007129194848</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>48.713138366737184</v>
+        <v>48.713107425856798</v>
       </c>
       <c r="B27" s="1">
-        <v>2.2199022671582669</v>
+        <v>2.2198939535781776</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1081,10 +1081,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>48.713138377584997</v>
+        <v>48.713109546342224</v>
       </c>
       <c r="B28" s="1">
-        <v>2.2199023024462696</v>
+        <v>2.2198897439057119</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>48.713138377710564</v>
+        <v>48.713108136692803</v>
       </c>
       <c r="B29" s="1">
-        <v>2.2199022159130077</v>
+        <v>2.2198942305585159</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1117,10 +1117,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>48.713138387341978</v>
+        <v>48.713109283534131</v>
       </c>
       <c r="B30" s="1">
-        <v>2.2199022191747493</v>
+        <v>2.2198948184091005</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>48.713138399633557</v>
+        <v>48.713111388615651</v>
       </c>
       <c r="B31" s="1">
-        <v>2.219902192023556</v>
+        <v>2.2198933595759698</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>48.713138432077486</v>
+        <v>48.713114603191407</v>
       </c>
       <c r="B32" s="1">
-        <v>2.219902236499836</v>
+        <v>2.219896433182301</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>48.713138447272229</v>
+        <v>48.713102554977432</v>
       </c>
       <c r="B33" s="1">
-        <v>2.2199021898098974</v>
+        <v>2.2198931008548572</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>48.713138447539016</v>
+        <v>48.713104807224887</v>
       </c>
       <c r="B34" s="1">
-        <v>2.2199022068090666</v>
+        <v>2.2198964179280831</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1207,10 +1207,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>48.713138467795645</v>
+        <v>48.713111469705552</v>
       </c>
       <c r="B35" s="1">
-        <v>2.2199021646454433</v>
+        <v>2.219896818525708</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1225,10 +1225,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>48.713138473342262</v>
+        <v>48.713111618284223</v>
       </c>
       <c r="B36" s="1">
-        <v>2.2199021913667787</v>
+        <v>2.2198998853922665</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1243,10 +1243,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>48.713138500485755</v>
+        <v>48.713111653306299</v>
       </c>
       <c r="B37" s="1">
-        <v>2.2199022018560632</v>
+        <v>2.2198997547642452</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1261,10 +1261,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>48.713138541316887</v>
+        <v>48.713108215934618</v>
       </c>
       <c r="B38" s="1">
-        <v>2.2199021880620053</v>
+        <v>2.2198985645593465</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>48.71313848560817</v>
+        <v>48.713106386957911</v>
       </c>
       <c r="B39" s="1">
-        <v>2.2199021428194805</v>
+        <v>2.2198984387609544</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>48.713138538217052</v>
+        <v>48.713111654983393</v>
       </c>
       <c r="B40" s="1">
-        <v>2.219902113390344</v>
+        <v>2.2199087059990967</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1315,10 +1315,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>48.713138523692585</v>
+        <v>48.713108691251264</v>
       </c>
       <c r="B41" s="1">
-        <v>2.2199020879338387</v>
+        <v>2.2199051802231633</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1333,10 +1333,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>48.713138558813064</v>
+        <v>48.713112947774249</v>
       </c>
       <c r="B42" s="1">
-        <v>2.2199021169389455</v>
+        <v>2.2199027940178846</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1351,10 +1351,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <v>48.713138625138789</v>
+        <v>48.713112949881776</v>
       </c>
       <c r="B43" s="1">
-        <v>2.2199020940858971</v>
+        <v>2.2199055815052695</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1369,10 +1369,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>48.713138537495126</v>
+        <v>48.713117841755398</v>
       </c>
       <c r="B44" s="1">
-        <v>2.2199020497118749</v>
+        <v>2.2199052554924279</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1387,10 +1387,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>48.713138609354033</v>
+        <v>48.71312378104912</v>
       </c>
       <c r="B45" s="1">
-        <v>2.2199020786458834</v>
+        <v>2.2199038874263728</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <v>48.713138646028433</v>
+        <v>48.713126494199813</v>
       </c>
       <c r="B46" s="1">
-        <v>2.2199021005280009</v>
+        <v>2.219907036720683</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1423,10 +1423,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>48.713138658708857</v>
+        <v>48.713127920041821</v>
       </c>
       <c r="B47" s="1">
-        <v>2.219902040877618</v>
+        <v>2.2199017012109117</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1441,10 +1441,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>48.713138612365753</v>
+        <v>48.71312717753873</v>
       </c>
       <c r="B48" s="1">
-        <v>2.2199020433272478</v>
+        <v>2.2198944678515593</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1459,10 +1459,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>48.71313862617518</v>
+        <v>48.713135418685049</v>
       </c>
       <c r="B49" s="1">
-        <v>2.2199019901123567</v>
+        <v>2.2198862054971169</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>48.713138678983157</v>
+        <v>48.713134592454601</v>
       </c>
       <c r="B50" s="1">
-        <v>2.2199020480215705</v>
+        <v>2.2198898084067</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1495,10 +1495,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <v>48.713138675136967</v>
+        <v>48.713134223671346</v>
       </c>
       <c r="B51" s="1">
-        <v>2.2199020563754308</v>
+        <v>2.2198888082751238</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1513,10 +1513,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>48.713138698396264</v>
+        <v>48.713133550947774</v>
       </c>
       <c r="B52" s="1">
-        <v>2.2199020131696114</v>
+        <v>2.21988415903814</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>48.713138740612038</v>
+        <v>48.713137972370376</v>
       </c>
       <c r="B53" s="1">
-        <v>2.2199020185581722</v>
+        <v>2.219884789895231</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1549,10 +1549,10 @@
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <v>48.71313874780315</v>
+        <v>48.713136970319873</v>
       </c>
       <c r="B54" s="1">
-        <v>2.219901965518758</v>
+        <v>2.2198838541978874</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1567,10 +1567,10 @@
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <v>48.713138745996808</v>
+        <v>48.713134003374762</v>
       </c>
       <c r="B55" s="1">
-        <v>2.2199020056671266</v>
+        <v>2.2198890443048014</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <v>48.713138781400197</v>
+        <v>48.713128334152131</v>
       </c>
       <c r="B56" s="1">
-        <v>2.2199019873656201</v>
+        <v>2.219890495942892</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1603,10 +1603,10 @@
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <v>48.713138807241798</v>
+        <v>48.713135733798318</v>
       </c>
       <c r="B57" s="1">
-        <v>2.2199019604082646</v>
+        <v>2.2198939283982178</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1621,10 +1621,10 @@
     </row>
     <row r="58">
       <c r="A58" s="1">
-        <v>48.713138789464907</v>
+        <v>48.713131805324004</v>
       </c>
       <c r="B58" s="1">
-        <v>2.2199019708958536</v>
+        <v>2.2198918373265233</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>48.713138818563024</v>
+        <v>48.713137145024767</v>
       </c>
       <c r="B59" s="1">
-        <v>2.2199019701459628</v>
+        <v>2.2198951521400598</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <v>48.713138834721825</v>
+        <v>48.713139857063339</v>
       </c>
       <c r="B60" s="1">
-        <v>2.2199019321516817</v>
+        <v>2.2198930728083344</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1675,10 +1675,10 @@
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>48.713138859526104</v>
+        <v>48.713137752171825</v>
       </c>
       <c r="B61" s="1">
-        <v>2.2199019756488498</v>
+        <v>2.2198946390815606</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1693,10 +1693,10 @@
     </row>
     <row r="62">
       <c r="A62" s="1">
-        <v>48.71313886331567</v>
+        <v>48.713136091367709</v>
       </c>
       <c r="B62" s="1">
-        <v>2.2199019453225808</v>
+        <v>2.2199024924820003</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1711,10 +1711,10 @@
     </row>
     <row r="63">
       <c r="A63" s="1">
-        <v>48.713138834066243</v>
+        <v>48.713134096564296</v>
       </c>
       <c r="B63" s="1">
-        <v>2.2199018972467268</v>
+        <v>2.2198959582179478</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1729,10 +1729,10 @@
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>48.713138879917956</v>
+        <v>48.71313379885293</v>
       </c>
       <c r="B64" s="1">
-        <v>2.2199019158108806</v>
+        <v>2.2198882332044967</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1747,10 +1747,10 @@
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>48.713138900686808</v>
+        <v>48.713132789610178</v>
       </c>
       <c r="B65" s="1">
-        <v>2.2199019218675127</v>
+        <v>2.219889983648748</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>48.713138902007167</v>
+        <v>48.713130159694572</v>
       </c>
       <c r="B66" s="1">
-        <v>2.2199018276452054</v>
+        <v>2.2198883831651277</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>48.713138947533096</v>
+        <v>48.713129984539449</v>
       </c>
       <c r="B67" s="1">
-        <v>2.2199018371959238</v>
+        <v>2.2198850975634894</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1801,10 +1801,10 @@
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>48.713138931219916</v>
+        <v>48.713123830172933</v>
       </c>
       <c r="B68" s="1">
-        <v>2.2199018391035699</v>
+        <v>2.2198904874583198</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1819,10 +1819,10 @@
     </row>
     <row r="69">
       <c r="A69" s="1">
-        <v>48.713138944732528</v>
+        <v>48.71313002965806</v>
       </c>
       <c r="B69" s="1">
-        <v>2.2199018455604702</v>
+        <v>2.2198840059058846</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1837,10 +1837,10 @@
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>48.713138898336432</v>
+        <v>48.713131333870891</v>
       </c>
       <c r="B70" s="1">
-        <v>2.2199018536384809</v>
+        <v>2.2198818916043415</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1855,10 +1855,10 @@
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>48.713138954657929</v>
+        <v>48.713129443100151</v>
       </c>
       <c r="B71" s="1">
-        <v>2.2199018418390071</v>
+        <v>2.2198823882075058</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1873,10 +1873,10 @@
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>48.713138977967787</v>
+        <v>48.713134784361877</v>
       </c>
       <c r="B72" s="1">
-        <v>2.2199017615755019</v>
+        <v>2.2198869912429808</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1891,10 +1891,10 @@
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>48.713138952682264</v>
+        <v>48.713142278050341</v>
       </c>
       <c r="B73" s="1">
-        <v>2.2199018280314164</v>
+        <v>2.2198788790780659</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>48.713139091559562</v>
+        <v>48.713135800045443</v>
       </c>
       <c r="B74" s="1">
-        <v>2.2199017425446077</v>
+        <v>2.2198880868065425</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1927,10 +1927,10 @@
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>48.713139029542617</v>
+        <v>48.713135147653283</v>
       </c>
       <c r="B75" s="1">
-        <v>2.2199017817603175</v>
+        <v>2.219888518364022</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1945,10 +1945,10 @@
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>48.713139007123239</v>
+        <v>48.713143369478935</v>
       </c>
       <c r="B76" s="1">
-        <v>2.2199017958861269</v>
+        <v>2.219889801498987</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1963,10 +1963,10 @@
     </row>
     <row r="77">
       <c r="A77" s="1">
-        <v>48.713139039105862</v>
+        <v>48.713139537640139</v>
       </c>
       <c r="B77" s="1">
-        <v>2.2199017337323768</v>
+        <v>2.2198918044816729</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1981,10 +1981,10 @@
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>48.713139064387384</v>
+        <v>48.713136963629708</v>
       </c>
       <c r="B78" s="1">
-        <v>2.2199017650430544</v>
+        <v>2.2198912833786943</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>48.713139069558096</v>
+        <v>48.713136259390431</v>
       </c>
       <c r="B79" s="1">
-        <v>2.2199017357074435</v>
+        <v>2.219891386272661</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2017,10 +2017,10 @@
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>48.713139060462247</v>
+        <v>48.713133697494918</v>
       </c>
       <c r="B80" s="1">
-        <v>2.219901719402452</v>
+        <v>2.2198842316805427</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="81">
       <c r="A81" s="1">
-        <v>48.713139110566374</v>
+        <v>48.713131224178582</v>
       </c>
       <c r="B81" s="1">
-        <v>2.2199017348775865</v>
+        <v>2.2198865848901415</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2053,10 +2053,10 @@
     </row>
     <row r="82">
       <c r="A82" s="1">
-        <v>48.713139107377415</v>
+        <v>48.713132646343311</v>
       </c>
       <c r="B82" s="1">
-        <v>2.2199016867362777</v>
+        <v>2.2198897307196903</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1">
-        <v>48.71313910721647</v>
+        <v>48.713136219231856</v>
       </c>
       <c r="B83" s="1">
-        <v>2.2199017174860294</v>
+        <v>2.2198949924179496</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="84">
       <c r="A84" s="1">
-        <v>48.713139156152359</v>
+        <v>48.71314690140769</v>
       </c>
       <c r="B84" s="1">
-        <v>2.2199016998108148</v>
+        <v>2.2198880584354805</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2107,10 +2107,10 @@
     </row>
     <row r="85">
       <c r="A85" s="1">
-        <v>48.713139169110178</v>
+        <v>48.713144773974754</v>
       </c>
       <c r="B85" s="1">
-        <v>2.219901661373334</v>
+        <v>2.2198810473149466</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2125,10 +2125,10 @@
     </row>
     <row r="86">
       <c r="A86" s="1">
-        <v>48.713139163920161</v>
+        <v>48.713142048097957</v>
       </c>
       <c r="B86" s="1">
-        <v>2.2199016442793105</v>
+        <v>2.2198815099189289</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2143,10 +2143,10 @@
     </row>
     <row r="87">
       <c r="A87" s="1">
-        <v>48.713139165162673</v>
+        <v>48.713143599288223</v>
       </c>
       <c r="B87" s="1">
-        <v>2.2199016933924072</v>
+        <v>2.2198901987098951</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="88">
       <c r="A88" s="1">
-        <v>48.713139235893927</v>
+        <v>48.713144379215798</v>
       </c>
       <c r="B88" s="1">
-        <v>2.2199016457305327</v>
+        <v>2.2198935995941462</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1">
-        <v>48.713139227447257</v>
+        <v>48.71313811463348</v>
       </c>
       <c r="B89" s="1">
-        <v>2.2199016576557744</v>
+        <v>2.2198933376924841</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="90">
       <c r="A90" s="1">
-        <v>48.713139215761665</v>
+        <v>48.713137753916364</v>
       </c>
       <c r="B90" s="1">
-        <v>2.2199016283596902</v>
+        <v>2.2198941231424829</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2215,10 +2215,10 @@
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>48.713139242996711</v>
+        <v>48.713135067284952</v>
       </c>
       <c r="B91" s="1">
-        <v>2.2199016214143121</v>
+        <v>2.219897445508269</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2233,10 +2233,10 @@
     </row>
     <row r="92">
       <c r="A92" s="1">
-        <v>48.713139264646252</v>
+        <v>48.713136620079524</v>
       </c>
       <c r="B92" s="1">
-        <v>2.2199015942694129</v>
+        <v>2.2198954444097367</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2251,10 +2251,10 @@
     </row>
     <row r="93">
       <c r="A93" s="1">
-        <v>48.713139301999803</v>
+        <v>48.71313640102403</v>
       </c>
       <c r="B93" s="1">
-        <v>2.2199015953703856</v>
+        <v>2.2198970278221277</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2269,10 +2269,10 @@
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>48.713139337591052</v>
+        <v>48.71314148904672</v>
       </c>
       <c r="B94" s="1">
-        <v>2.2199016035525196</v>
+        <v>2.2199015841126983</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>48.713139277375596</v>
+        <v>48.713137710159593</v>
       </c>
       <c r="B95" s="1">
-        <v>2.2199015793538703</v>
+        <v>2.219891956718326</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2305,10 +2305,10 @@
     </row>
     <row r="96">
       <c r="A96" s="1">
-        <v>48.71313932618024</v>
+        <v>48.713140173757743</v>
       </c>
       <c r="B96" s="1">
-        <v>2.2199015845421584</v>
+        <v>2.2198941359294029</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2323,10 +2323,10 @@
     </row>
     <row r="97">
       <c r="A97" s="1">
-        <v>48.713139338606545</v>
+        <v>48.713137077612267</v>
       </c>
       <c r="B97" s="1">
-        <v>2.2199015219203431</v>
+        <v>2.2198938504044734</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2341,10 +2341,10 @@
     </row>
     <row r="98">
       <c r="A98" s="1">
-        <v>48.713139354435803</v>
+        <v>48.713128485549021</v>
       </c>
       <c r="B98" s="1">
-        <v>2.2199015612061515</v>
+        <v>2.2199015152981607</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2359,10 +2359,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1">
-        <v>48.713139340241327</v>
+        <v>48.713126834578013</v>
       </c>
       <c r="B99" s="1">
-        <v>2.2199015426874253</v>
+        <v>2.2198937252448521</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2377,10 +2377,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>48.713139378382735</v>
+        <v>48.713127513510756</v>
       </c>
       <c r="B100" s="1">
-        <v>2.2199015275204856</v>
+        <v>2.2198889076025776</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="101">
       <c r="A101" s="1">
-        <v>48.713139416242171</v>
+        <v>48.713123839856955</v>
       </c>
       <c r="B101" s="1">
-        <v>2.2199015125361439</v>
+        <v>2.21988915332649</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1">
-        <v>48.713139422528954</v>
+        <v>48.713121151672389</v>
       </c>
       <c r="B102" s="1">
-        <v>2.2199015227898098</v>
+        <v>2.2198907792739768</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2431,10 +2431,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>48.713139415704951</v>
+        <v>48.71312224712559</v>
       </c>
       <c r="B103" s="1">
-        <v>2.219901505448338</v>
+        <v>2.2198885495149527</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2449,10 +2449,10 @@
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>48.713139440599996</v>
+        <v>48.713123314097359</v>
       </c>
       <c r="B104" s="1">
-        <v>2.219901547947138</v>
+        <v>2.2198898764791046</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2467,10 +2467,10 @@
     </row>
     <row r="105">
       <c r="A105" s="1">
-        <v>48.713139464976535</v>
+        <v>48.713125872560326</v>
       </c>
       <c r="B105" s="1">
-        <v>2.2199014729842568</v>
+        <v>2.2198889211304218</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2485,10 +2485,10 @@
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>48.713139445659657</v>
+        <v>48.713126349856118</v>
       </c>
       <c r="B106" s="1">
-        <v>2.2199014528206034</v>
+        <v>2.2198852256388784</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2503,10 +2503,10 @@
     </row>
     <row r="107">
       <c r="A107" s="1">
-        <v>48.713139446367784</v>
+        <v>48.713124710276361</v>
       </c>
       <c r="B107" s="1">
-        <v>2.2199014440215739</v>
+        <v>2.2198837653876056</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2521,10 +2521,10 @@
     </row>
     <row r="108">
       <c r="A108" s="1">
-        <v>48.713139528198354</v>
+        <v>48.713129121224554</v>
       </c>
       <c r="B108" s="1">
-        <v>2.2199014032432327</v>
+        <v>2.2198829079265843</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="109">
       <c r="A109" s="1">
-        <v>48.713139488293976</v>
+        <v>48.713130929368219</v>
       </c>
       <c r="B109" s="1">
-        <v>2.2199014022389156</v>
+        <v>2.2198821409547</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2557,10 +2557,10 @@
     </row>
     <row r="110">
       <c r="A110" s="1">
-        <v>48.713139476170163</v>
+        <v>48.713132719967753</v>
       </c>
       <c r="B110" s="1">
-        <v>2.2199014242191697</v>
+        <v>2.2198871014236277</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2575,10 +2575,10 @@
     </row>
     <row r="111">
       <c r="A111" s="1">
-        <v>48.713139482116709</v>
+        <v>48.713131251600338</v>
       </c>
       <c r="B111" s="1">
-        <v>2.2199013396145233</v>
+        <v>2.2198826064572605</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="112">
       <c r="A112" s="1">
-        <v>48.713139518252163</v>
+        <v>48.713133818235619</v>
       </c>
       <c r="B112" s="1">
-        <v>2.2199014053006834</v>
+        <v>2.219882349973171</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2611,10 +2611,10 @@
     </row>
     <row r="113">
       <c r="A113" s="1">
-        <v>48.713139500100169</v>
+        <v>48.713133396716707</v>
       </c>
       <c r="B113" s="1">
-        <v>2.2199013658832669</v>
+        <v>2.2198797543891686</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2629,10 +2629,10 @@
     </row>
     <row r="114">
       <c r="A114" s="1">
-        <v>48.713139558602442</v>
+        <v>48.71313668940433</v>
       </c>
       <c r="B114" s="1">
-        <v>2.2199013670254946</v>
+        <v>2.2198771591196174</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2647,10 +2647,10 @@
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>48.713139568743088</v>
+        <v>48.713137586233472</v>
       </c>
       <c r="B115" s="1">
-        <v>2.2199013715503342</v>
+        <v>2.2198859876952137</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="116">
       <c r="A116" s="1">
-        <v>48.713139607325715</v>
+        <v>48.713141785514175</v>
       </c>
       <c r="B116" s="1">
-        <v>2.2199013413192614</v>
+        <v>2.2198857724833823</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2683,10 +2683,10 @@
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>48.71313960598107</v>
+        <v>48.713139158563109</v>
       </c>
       <c r="B117" s="1">
-        <v>2.2199013413948956</v>
+        <v>2.2198832453489983</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2701,10 +2701,10 @@
     </row>
     <row r="118">
       <c r="A118" s="1">
-        <v>48.713139615260779</v>
+        <v>48.713140632806144</v>
       </c>
       <c r="B118" s="1">
-        <v>2.2199013016965639</v>
+        <v>2.2198817294851536</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2719,10 +2719,10 @@
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>48.713139642217584</v>
+        <v>48.713138755608973</v>
       </c>
       <c r="B119" s="1">
-        <v>2.2199012909868121</v>
+        <v>2.2198830583619173</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2737,10 +2737,10 @@
     </row>
     <row r="120">
       <c r="A120" s="1">
-        <v>48.713139658732239</v>
+        <v>48.713139234011848</v>
       </c>
       <c r="B120" s="1">
-        <v>2.2199012983703832</v>
+        <v>2.2198839052484325</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2755,10 +2755,10 @@
     </row>
     <row r="121">
       <c r="A121" s="1">
-        <v>48.713139663895703</v>
+        <v>48.713143665645653</v>
       </c>
       <c r="B121" s="1">
-        <v>2.2199013024446379</v>
+        <v>2.2198843133364941</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2773,10 +2773,10 @@
     </row>
     <row r="122">
       <c r="A122" s="1">
-        <v>48.713139671645514</v>
+        <v>48.713136677838087</v>
       </c>
       <c r="B122" s="1">
-        <v>2.219901246013992</v>
+        <v>2.2198794089760274</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>48.713139660584041</v>
+        <v>48.713137671429394</v>
       </c>
       <c r="B123" s="1">
-        <v>2.2199012477142319</v>
+        <v>2.2198776835585781</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2809,10 +2809,10 @@
     </row>
     <row r="124">
       <c r="A124" s="1">
-        <v>48.713139728315511</v>
+        <v>48.713139520669046</v>
       </c>
       <c r="B124" s="1">
-        <v>2.2199012518337851</v>
+        <v>2.2198761393059643</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2827,10 +2827,10 @@
     </row>
     <row r="125">
       <c r="A125" s="1">
-        <v>48.713139765561408</v>
+        <v>48.713142193747494</v>
       </c>
       <c r="B125" s="1">
-        <v>2.2199012078399831</v>
+        <v>2.219877436871688</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2845,10 +2845,10 @@
     </row>
     <row r="126">
       <c r="A126" s="1">
-        <v>48.713139747250338</v>
+        <v>48.713141336885293</v>
       </c>
       <c r="B126" s="1">
-        <v>2.219901180198415</v>
+        <v>2.219878583402787</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2863,10 +2863,10 @@
     </row>
     <row r="127">
       <c r="A127" s="1">
-        <v>48.713139719707058</v>
+        <v>48.713136542204609</v>
       </c>
       <c r="B127" s="1">
-        <v>2.2199011758298068</v>
+        <v>2.2198791470129509</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2881,10 +2881,10 @@
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>48.713139741692885</v>
+        <v>48.713139528322706</v>
       </c>
       <c r="B128" s="1">
-        <v>2.2199011939623432</v>
+        <v>2.2198779973133158</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2899,10 +2899,10 @@
     </row>
     <row r="129">
       <c r="A129" s="1">
-        <v>48.713139758464287</v>
+        <v>48.713140165582786</v>
       </c>
       <c r="B129" s="1">
-        <v>2.2199011878823409</v>
+        <v>2.2198820080308481</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2917,10 +2917,10 @@
     </row>
     <row r="130">
       <c r="A130" s="1">
-        <v>48.713139758905506</v>
+        <v>48.713139859015612</v>
       </c>
       <c r="B130" s="1">
-        <v>2.2199011592741082</v>
+        <v>2.2198825872054715</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2935,10 +2935,10 @@
     </row>
     <row r="131">
       <c r="A131" s="1">
-        <v>48.713139795627704</v>
+        <v>48.713146401201911</v>
       </c>
       <c r="B131" s="1">
-        <v>2.2199011503298975</v>
+        <v>2.2198837267651732</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2953,10 +2953,10 @@
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>48.713139795774545</v>
+        <v>48.713146615198681</v>
       </c>
       <c r="B132" s="1">
-        <v>2.2199011531275734</v>
+        <v>2.2198845361403827</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2971,10 +2971,10 @@
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>48.713139845400896</v>
+        <v>48.713147401212609</v>
       </c>
       <c r="B133" s="1">
-        <v>2.219901126265067</v>
+        <v>2.2198877178037257</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="134">
       <c r="A134" s="1">
-        <v>48.713139859709578</v>
+        <v>48.713155663486567</v>
       </c>
       <c r="B134" s="1">
-        <v>2.2199011312600736</v>
+        <v>2.2198872906053375</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3007,10 +3007,10 @@
     </row>
     <row r="135">
       <c r="A135" s="1">
-        <v>48.713139886532595</v>
+        <v>48.713157428009708</v>
       </c>
       <c r="B135" s="1">
-        <v>2.2199010889312429</v>
+        <v>2.2198836366130466</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3025,10 +3025,10 @@
     </row>
     <row r="136">
       <c r="A136" s="1">
-        <v>48.713139850195908</v>
+        <v>48.713157752153066</v>
       </c>
       <c r="B136" s="1">
-        <v>2.2199011115816458</v>
+        <v>2.2198813459440414</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3043,10 +3043,10 @@
     </row>
     <row r="137">
       <c r="A137" s="1">
-        <v>48.713139882798529</v>
+        <v>48.713160154762583</v>
       </c>
       <c r="B137" s="1">
-        <v>2.219901130592687</v>
+        <v>2.2198751306128552</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3061,10 +3061,10 @@
     </row>
     <row r="138">
       <c r="A138" s="1">
-        <v>48.713139913845012</v>
+        <v>48.713162266153503</v>
       </c>
       <c r="B138" s="1">
-        <v>2.2199011217903601</v>
+        <v>2.2198740312422536</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3079,10 +3079,10 @@
     </row>
     <row r="139">
       <c r="A139" s="1">
-        <v>48.713139900270747</v>
+        <v>48.71315880754107</v>
       </c>
       <c r="B139" s="1">
-        <v>2.2199010825624672</v>
+        <v>2.219879027395347</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3097,10 +3097,10 @@
     </row>
     <row r="140">
       <c r="A140" s="1">
-        <v>48.713139902768759</v>
+        <v>48.713159243919037</v>
       </c>
       <c r="B140" s="1">
-        <v>2.2199010985691952</v>
+        <v>2.2198751940300343</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3115,10 +3115,10 @@
     </row>
     <row r="141">
       <c r="A141" s="1">
-        <v>48.713139968911314</v>
+        <v>48.713161646283339</v>
       </c>
       <c r="B141" s="1">
-        <v>2.2199010479308021</v>
+        <v>2.2198762189470354</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3133,10 +3133,10 @@
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>48.713139945804322</v>
+        <v>48.713151737209863</v>
       </c>
       <c r="B142" s="1">
-        <v>2.2199010917454314</v>
+        <v>2.2198752390970666</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3151,10 +3151,10 @@
     </row>
     <row r="143">
       <c r="A143" s="1">
-        <v>48.713139975000772</v>
+        <v>48.713155833948406</v>
       </c>
       <c r="B143" s="1">
-        <v>2.2199010989573771</v>
+        <v>2.2198691116962048</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3169,10 +3169,10 @@
     </row>
     <row r="144">
       <c r="A144" s="1">
-        <v>48.713139971595339</v>
+        <v>48.713159029502769</v>
       </c>
       <c r="B144" s="1">
-        <v>2.2199011012398571</v>
+        <v>2.2198749496112233</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3187,10 +3187,10 @@
     </row>
     <row r="145">
       <c r="A145" s="1">
-        <v>48.71313999649098</v>
+        <v>48.713155663316947</v>
       </c>
       <c r="B145" s="1">
-        <v>2.2199010164761019</v>
+        <v>2.2198744178717984</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3205,10 +3205,10 @@
     </row>
     <row r="146">
       <c r="A146" s="1">
-        <v>48.713139980205398</v>
+        <v>48.713158054929202</v>
       </c>
       <c r="B146" s="1">
-        <v>2.2199010803196875</v>
+        <v>2.2198786139707853</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3223,10 +3223,10 @@
     </row>
     <row r="147">
       <c r="A147" s="1">
-        <v>48.71313999648391</v>
+        <v>48.713159630117779</v>
       </c>
       <c r="B147" s="1">
-        <v>2.2199010112588327</v>
+        <v>2.2198777173972086</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3241,10 +3241,10 @@
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>48.713140023089743</v>
+        <v>48.713153764358488</v>
       </c>
       <c r="B148" s="1">
-        <v>2.219901034400261</v>
+        <v>2.2198804242170698</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3259,10 +3259,10 @@
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>48.713140039796222</v>
+        <v>48.713157973392697</v>
       </c>
       <c r="B149" s="1">
-        <v>2.2199009961608835</v>
+        <v>2.2198802768519306</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3277,10 +3277,10 @@
     </row>
     <row r="150">
       <c r="A150" s="1">
-        <v>48.713140063192682</v>
+        <v>48.71315672212981</v>
       </c>
       <c r="B150" s="1">
-        <v>2.2199009793677367</v>
+        <v>2.2198819061436015</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3295,10 +3295,10 @@
     </row>
     <row r="151">
       <c r="A151" s="1">
-        <v>48.713140068639376</v>
+        <v>48.713153219405967</v>
       </c>
       <c r="B151" s="1">
-        <v>2.2199009756723602</v>
+        <v>2.2198818460620058</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3313,10 +3313,10 @@
     </row>
     <row r="152">
       <c r="A152" s="1">
-        <v>48.713140104499288</v>
+        <v>48.713147445565298</v>
       </c>
       <c r="B152" s="1">
-        <v>2.2199009789142377</v>
+        <v>2.2198780146141499</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3331,10 +3331,10 @@
     </row>
     <row r="153">
       <c r="A153" s="1">
-        <v>48.713140130375649</v>
+        <v>48.713145631541572</v>
       </c>
       <c r="B153" s="1">
-        <v>2.2199009688186035</v>
+        <v>2.2198842630177404</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3349,10 +3349,10 @@
     </row>
     <row r="154">
       <c r="A154" s="1">
-        <v>48.713140129963215</v>
+        <v>48.713146761466938</v>
       </c>
       <c r="B154" s="1">
-        <v>2.2199009432965484</v>
+        <v>2.2198843065641602</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3367,10 +3367,10 @@
     </row>
     <row r="155">
       <c r="A155" s="1">
-        <v>48.713140137640032</v>
+        <v>48.713146216048344</v>
       </c>
       <c r="B155" s="1">
-        <v>2.2199009781997567</v>
+        <v>2.2198874664942831</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="156">
       <c r="A156" s="1">
-        <v>48.713140135006419</v>
+        <v>48.713144551998461</v>
       </c>
       <c r="B156" s="1">
-        <v>2.2199008863836882</v>
+        <v>2.2198804617246242</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3403,10 +3403,10 @@
     </row>
     <row r="157">
       <c r="A157" s="1">
-        <v>48.713140160035742</v>
+        <v>48.713141382045698</v>
       </c>
       <c r="B157" s="1">
-        <v>2.2199009518468586</v>
+        <v>2.2198798173793897</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3421,10 +3421,10 @@
     </row>
     <row r="158">
       <c r="A158" s="1">
-        <v>48.71314017476972</v>
+        <v>48.713141695636232</v>
       </c>
       <c r="B158" s="1">
-        <v>2.2199009173182129</v>
+        <v>2.2198893672747575</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="159">
       <c r="A159" s="1">
-        <v>48.713140196244467</v>
+        <v>48.713139290131906</v>
       </c>
       <c r="B159" s="1">
-        <v>2.21990090908298</v>
+        <v>2.2198854254986888</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3457,10 +3457,10 @@
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>48.71314021153902</v>
+        <v>48.713139465686709</v>
       </c>
       <c r="B160" s="1">
-        <v>2.2199009261652303</v>
+        <v>2.2198809586667672</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3475,10 +3475,10 @@
     </row>
     <row r="161">
       <c r="A161" s="1">
-        <v>48.713140216779777</v>
+        <v>48.713148132561265</v>
       </c>
       <c r="B161" s="1">
-        <v>2.2199008744805813</v>
+        <v>2.2198815357081609</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3493,10 +3493,10 @@
     </row>
     <row r="162">
       <c r="A162" s="1">
-        <v>48.713140235749449</v>
+        <v>48.713144237036261</v>
       </c>
       <c r="B162" s="1">
-        <v>2.219900896233463</v>
+        <v>2.2198892081542256</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3511,10 +3511,10 @@
     </row>
     <row r="163">
       <c r="A163" s="1">
-        <v>48.713140223146304</v>
+        <v>48.713144685673043</v>
       </c>
       <c r="B163" s="1">
-        <v>2.2199009100727989</v>
+        <v>2.2198876756442041</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3529,10 +3529,10 @@
     </row>
     <row r="164">
       <c r="A164" s="1">
-        <v>48.713140286108938</v>
+        <v>48.713140184128719</v>
       </c>
       <c r="B164" s="1">
-        <v>2.2199008462598973</v>
+        <v>2.2198868535931631</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3547,10 +3547,10 @@
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>48.713140291589632</v>
+        <v>48.71314121660577</v>
       </c>
       <c r="B165" s="1">
-        <v>2.219900831769436</v>
+        <v>2.2198811990856937</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3565,10 +3565,10 @@
     </row>
     <row r="166">
       <c r="A166" s="1">
-        <v>48.713140319412645</v>
+        <v>48.713141386738641</v>
       </c>
       <c r="B166" s="1">
-        <v>2.21990080341926</v>
+        <v>2.2198785664349256</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3583,10 +3583,10 @@
     </row>
     <row r="167">
       <c r="A167" s="1">
-        <v>48.713140315947591</v>
+        <v>48.713144019998211</v>
       </c>
       <c r="B167" s="1">
-        <v>2.2199008245272043</v>
+        <v>2.2198794045374761</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3601,10 +3601,10 @@
     </row>
     <row r="168">
       <c r="A168" s="1">
-        <v>48.71314030713387</v>
+        <v>48.71313987813371</v>
       </c>
       <c r="B168" s="1">
-        <v>2.219900841970611</v>
+        <v>2.2198833252549686</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3619,10 +3619,10 @@
     </row>
     <row r="169">
       <c r="A169" s="1">
-        <v>48.713140328292674</v>
+        <v>48.713140932929782</v>
       </c>
       <c r="B169" s="1">
-        <v>2.2199008030405207</v>
+        <v>2.219879087818621</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3637,10 +3637,10 @@
     </row>
     <row r="170">
       <c r="A170" s="1">
-        <v>48.713140324496003</v>
+        <v>48.71313584794526</v>
       </c>
       <c r="B170" s="1">
-        <v>2.2199008364173412</v>
+        <v>2.2198845011858372</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3655,10 +3655,10 @@
     </row>
     <row r="171">
       <c r="A171" s="1">
-        <v>48.71314036709731</v>
+        <v>48.713137095789691</v>
       </c>
       <c r="B171" s="1">
-        <v>2.2199008161544231</v>
+        <v>2.2198800774800906</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3673,10 +3673,10 @@
     </row>
     <row r="172">
       <c r="A172" s="1">
-        <v>48.713140389297116</v>
+        <v>48.71313403245582</v>
       </c>
       <c r="B172" s="1">
-        <v>2.2199007680427778</v>
+        <v>2.2198860454895146</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3691,10 +3691,10 @@
     </row>
     <row r="173">
       <c r="A173" s="1">
-        <v>48.71314037382767</v>
+        <v>48.713132859914026</v>
       </c>
       <c r="B173" s="1">
-        <v>2.219900808139982</v>
+        <v>2.2198824044321817</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3709,10 +3709,10 @@
     </row>
     <row r="174">
       <c r="A174" s="1">
-        <v>48.713140399558839</v>
+        <v>48.713131976547885</v>
       </c>
       <c r="B174" s="1">
-        <v>2.2199007748552959</v>
+        <v>2.2198766941106025</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3727,10 +3727,10 @@
     </row>
     <row r="175">
       <c r="A175" s="1">
-        <v>48.713140412627197</v>
+        <v>48.713129226313995</v>
       </c>
       <c r="B175" s="1">
-        <v>2.2199007264823045</v>
+        <v>2.2198826008713182</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="176">
       <c r="A176" s="1">
-        <v>48.71314047373221</v>
+        <v>48.713123734252015</v>
       </c>
       <c r="B176" s="1">
-        <v>2.2199007365776398</v>
+        <v>2.2198820243539412</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3763,10 +3763,10 @@
     </row>
     <row r="177">
       <c r="A177" s="1">
-        <v>48.713140465270861</v>
+        <v>48.713123844279764</v>
       </c>
       <c r="B177" s="1">
-        <v>2.2199006986640764</v>
+        <v>2.2198793702996436</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3781,10 +3781,10 @@
     </row>
     <row r="178">
       <c r="A178" s="1">
-        <v>48.713140471854821</v>
+        <v>48.713120670968578</v>
       </c>
       <c r="B178" s="1">
-        <v>2.2199007076234496</v>
+        <v>2.2198704258832929</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3799,10 +3799,10 @@
     </row>
     <row r="179">
       <c r="A179" s="1">
-        <v>48.713140472343028</v>
+        <v>48.713116200309059</v>
       </c>
       <c r="B179" s="1">
-        <v>2.2199007278340859</v>
+        <v>2.2198745016417543</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3817,10 +3817,10 @@
     </row>
     <row r="180">
       <c r="A180" s="1">
-        <v>48.713140484301626</v>
+        <v>48.7131109906707</v>
       </c>
       <c r="B180" s="1">
-        <v>2.2199006645261492</v>
+        <v>2.2198722047273591</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3835,10 +3835,10 @@
     </row>
     <row r="181">
       <c r="A181" s="1">
-        <v>48.713140489854965</v>
+        <v>48.71310823414543</v>
       </c>
       <c r="B181" s="1">
-        <v>2.2199006452529817</v>
+        <v>2.2198704657174937</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3853,10 +3853,10 @@
     </row>
     <row r="182">
       <c r="A182" s="1">
-        <v>48.713140507964617</v>
+        <v>48.713115553837234</v>
       </c>
       <c r="B182" s="1">
-        <v>2.2199006635128185</v>
+        <v>2.2198744862623885</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3871,10 +3871,10 @@
     </row>
     <row r="183">
       <c r="A183" s="1">
-        <v>48.713140495383392</v>
+        <v>48.713112392302953</v>
       </c>
       <c r="B183" s="1">
-        <v>2.2199006837321891</v>
+        <v>2.2198728796511356</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3889,10 +3889,10 @@
     </row>
     <row r="184">
       <c r="A184" s="1">
-        <v>48.713140487480231</v>
+        <v>48.713107078443123</v>
       </c>
       <c r="B184" s="1">
-        <v>2.219900635127031</v>
+        <v>2.2198800190327903</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3907,10 +3907,10 @@
     </row>
     <row r="185">
       <c r="A185" s="1">
-        <v>48.713140538955315</v>
+        <v>48.713105691557672</v>
       </c>
       <c r="B185" s="1">
-        <v>2.2199005939371377</v>
+        <v>2.2198836455176258</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3925,10 +3925,10 @@
     </row>
     <row r="186">
       <c r="A186" s="1">
-        <v>48.713140577118438</v>
+        <v>48.713110206252139</v>
       </c>
       <c r="B186" s="1">
-        <v>2.219900598888128</v>
+        <v>2.2198808246915629</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3943,10 +3943,10 @@
     </row>
     <row r="187">
       <c r="A187" s="1">
-        <v>48.713140595651673</v>
+        <v>48.713106503463088</v>
       </c>
       <c r="B187" s="1">
-        <v>2.2199005795530682</v>
+        <v>2.2198874315845618</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3961,10 +3961,10 @@
     </row>
     <row r="188">
       <c r="A188" s="1">
-        <v>48.713140537123856</v>
+        <v>48.71310444684422</v>
       </c>
       <c r="B188" s="1">
-        <v>2.2199006088820568</v>
+        <v>2.2198848367534154</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3979,10 +3979,10 @@
     </row>
     <row r="189">
       <c r="A189" s="1">
-        <v>48.713140605008213</v>
+        <v>48.713112002790965</v>
       </c>
       <c r="B189" s="1">
-        <v>2.2199005588158607</v>
+        <v>2.2198821852475423</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3997,10 +3997,10 @@
     </row>
     <row r="190">
       <c r="A190" s="1">
-        <v>48.713140626293331</v>
+        <v>48.713110436499001</v>
       </c>
       <c r="B190" s="1">
-        <v>2.219900550622889</v>
+        <v>2.2198814175311168</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4015,10 +4015,10 @@
     </row>
     <row r="191">
       <c r="A191" s="1">
-        <v>48.713140623871567</v>
+        <v>48.713110729423995</v>
       </c>
       <c r="B191" s="1">
-        <v>2.2199005317942571</v>
+        <v>2.2198803378185921</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4033,10 +4033,10 @@
     </row>
     <row r="192">
       <c r="A192" s="1">
-        <v>48.713140659962924</v>
+        <v>48.713105235989737</v>
       </c>
       <c r="B192" s="1">
-        <v>2.2199005747191167</v>
+        <v>2.2198790116866176</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="193">
       <c r="A193" s="1">
-        <v>48.713140640824761</v>
+        <v>48.713110900130381</v>
       </c>
       <c r="B193" s="1">
-        <v>2.2199005039011626</v>
+        <v>2.2198881516016735</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4069,10 +4069,10 @@
     </row>
     <row r="194">
       <c r="A194" s="1">
-        <v>48.713140639965808</v>
+        <v>48.713115220821571</v>
       </c>
       <c r="B194" s="1">
-        <v>2.2199005089100869</v>
+        <v>2.2198827001917358</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4087,10 +4087,10 @@
     </row>
     <row r="195">
       <c r="A195" s="1">
-        <v>48.71314068404866</v>
+        <v>48.713116603659309</v>
       </c>
       <c r="B195" s="1">
-        <v>2.2199005057359043</v>
+        <v>2.2198907235973118</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4105,10 +4105,10 @@
     </row>
     <row r="196">
       <c r="A196" s="1">
-        <v>48.713140682774934</v>
+        <v>48.713121295486367</v>
       </c>
       <c r="B196" s="1">
-        <v>2.2199004813345469</v>
+        <v>2.2198937079114471</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4123,10 +4123,10 @@
     </row>
     <row r="197">
       <c r="A197" s="1">
-        <v>48.713140721852206</v>
+        <v>48.713117610722954</v>
       </c>
       <c r="B197" s="1">
-        <v>2.2199004382441014</v>
+        <v>2.2198951945120649</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4141,10 +4141,10 @@
     </row>
     <row r="198">
       <c r="A198" s="1">
-        <v>48.713140780441051</v>
+        <v>48.71312642423316</v>
       </c>
       <c r="B198" s="1">
-        <v>2.2199004277539625</v>
+        <v>2.2199015972533389</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4159,10 +4159,10 @@
     </row>
     <row r="199">
       <c r="A199" s="1">
-        <v>48.713140753283156</v>
+        <v>48.713128373916035</v>
       </c>
       <c r="B199" s="1">
-        <v>2.2199004341788218</v>
+        <v>2.219892656727295</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4177,10 +4177,10 @@
     </row>
     <row r="200">
       <c r="A200" s="1">
-        <v>48.713140783954323</v>
+        <v>48.713128618627138</v>
       </c>
       <c r="B200" s="1">
-        <v>2.2199004299513443</v>
+        <v>2.2198914817561768</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4195,10 +4195,10 @@
     </row>
     <row r="201">
       <c r="A201" s="1">
-        <v>48.713140826144404</v>
+        <v>48.713136760494862</v>
       </c>
       <c r="B201" s="1">
-        <v>2.2199004277160928</v>
+        <v>2.2198883873148914</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4213,10 +4213,10 @@
     </row>
     <row r="202" ht="14.25">
       <c r="A202" s="1">
-        <v>48.713140819858722</v>
+        <v>48.713136487385853</v>
       </c>
       <c r="B202" s="1">
-        <v>2.2199004306250245</v>
+        <v>2.21989485373761</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4231,10 +4231,10 @@
     </row>
     <row r="203" ht="14.25">
       <c r="A203" s="1">
-        <v>48.713140827829349</v>
+        <v>48.713136219578018</v>
       </c>
       <c r="B203" s="1">
-        <v>2.2199004420448367</v>
+        <v>2.2198965548670242</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4249,10 +4249,10 @@
     </row>
     <row r="204" ht="14.25">
       <c r="A204" s="1">
-        <v>48.713140882338763</v>
+        <v>48.713138873728965</v>
       </c>
       <c r="B204" s="1">
-        <v>2.2199004175507735</v>
+        <v>2.2198904290713917</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4267,10 +4267,10 @@
     </row>
     <row r="205" ht="14.25">
       <c r="A205" s="1">
-        <v>48.713140875111051</v>
+        <v>48.713141358078502</v>
       </c>
       <c r="B205" s="1">
-        <v>2.2199003892690339</v>
+        <v>2.2198921075483535</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4285,10 +4285,10 @@
     </row>
     <row r="206" ht="14.25">
       <c r="A206" s="1">
-        <v>48.713140846545812</v>
+        <v>48.713138273667312</v>
       </c>
       <c r="B206" s="1">
-        <v>2.2199003990532722</v>
+        <v>2.2198930733241835</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4303,10 +4303,10 @@
     </row>
     <row r="207" ht="14.25">
       <c r="A207" s="1">
-        <v>48.713140877947673</v>
+        <v>48.713134767146329</v>
       </c>
       <c r="B207" s="1">
-        <v>2.2199003527555141</v>
+        <v>2.2198973812623612</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4321,10 +4321,10 @@
     </row>
     <row r="208" ht="14.25">
       <c r="A208" s="1">
-        <v>48.71314092348495</v>
+        <v>48.713134281773769</v>
       </c>
       <c r="B208" s="1">
-        <v>2.2199003532989829</v>
+        <v>2.2199007011842058</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4339,10 +4339,10 @@
     </row>
     <row r="209" ht="14.25">
       <c r="A209" s="1">
-        <v>48.713140926793365</v>
+        <v>48.713129347652739</v>
       </c>
       <c r="B209" s="1">
-        <v>2.219900441644441</v>
+        <v>2.2198979920302784</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4357,10 +4357,10 @@
     </row>
     <row r="210" ht="14.25">
       <c r="A210" s="1">
-        <v>48.713140935575673</v>
+        <v>48.713130469377184</v>
       </c>
       <c r="B210" s="1">
-        <v>2.2199003549094942</v>
+        <v>2.2198947247760139</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4375,10 +4375,10 @@
     </row>
     <row r="211" ht="14.25">
       <c r="A211" s="1">
-        <v>48.713140969032779</v>
+        <v>48.713130790220234</v>
       </c>
       <c r="B211" s="1">
-        <v>2.2199003066201701</v>
+        <v>2.2199024921303785</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4393,10 +4393,10 @@
     </row>
     <row r="212" ht="14.25">
       <c r="A212" s="1">
-        <v>48.713140961602882</v>
+        <v>48.713134212579909</v>
       </c>
       <c r="B212" s="1">
-        <v>2.2199003380358553</v>
+        <v>2.2199027040719352</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4411,10 +4411,10 @@
     </row>
     <row r="213" ht="14.25">
       <c r="A213" s="1">
-        <v>48.71314095448362</v>
+        <v>48.713131923451812</v>
       </c>
       <c r="B213" s="1">
-        <v>2.2199002820524298</v>
+        <v>2.2199101781860273</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4429,10 +4429,10 @@
     </row>
     <row r="214" ht="14.25">
       <c r="A214" s="1">
-        <v>48.713140948574967</v>
+        <v>48.71312886221174</v>
       </c>
       <c r="B214" s="1">
-        <v>2.2199002739547167</v>
+        <v>2.2199069148421922</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4447,10 +4447,10 @@
     </row>
     <row r="215" ht="14.25">
       <c r="A215" s="1">
-        <v>48.713140993763517</v>
+        <v>48.713132908360976</v>
       </c>
       <c r="B215" s="1">
-        <v>2.2199002249151092</v>
+        <v>2.2199057772033299</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4465,10 +4465,10 @@
     </row>
     <row r="216" ht="14.25">
       <c r="A216" s="1">
-        <v>48.713140998942691</v>
+        <v>48.713135478040279</v>
       </c>
       <c r="B216" s="1">
-        <v>2.2199002566236574</v>
+        <v>2.2199133061858909</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4483,10 +4483,10 @@
     </row>
     <row r="217" ht="14.25">
       <c r="A217" s="1">
-        <v>48.713141020670662</v>
+        <v>48.713128406993199</v>
       </c>
       <c r="B217" s="1">
-        <v>2.2199002703051081</v>
+        <v>2.2199149965261884</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4501,10 +4501,10 @@
     </row>
     <row r="218" ht="14.25">
       <c r="A218" s="1">
-        <v>48.713141078664982</v>
+        <v>48.713133437281471</v>
       </c>
       <c r="B218" s="1">
-        <v>2.2199002100156728</v>
+        <v>2.2199096629173196</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4519,10 +4519,10 @@
     </row>
     <row r="219" ht="14.25">
       <c r="A219" s="1">
-        <v>48.713141061381499</v>
+        <v>48.713131811589392</v>
       </c>
       <c r="B219" s="1">
-        <v>2.2199002417461102</v>
+        <v>2.2199138566871643</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4537,10 +4537,10 @@
     </row>
     <row r="220" ht="14.25">
       <c r="A220" s="1">
-        <v>48.713141071910528</v>
+        <v>48.713127256040266</v>
       </c>
       <c r="B220" s="1">
-        <v>2.2199002528508647</v>
+        <v>2.2199133813844463</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4555,10 +4555,10 @@
     </row>
     <row r="221" ht="14.25">
       <c r="A221" s="1">
-        <v>48.713141091315919</v>
+        <v>48.713130146568403</v>
       </c>
       <c r="B221" s="1">
-        <v>2.2199002164604327</v>
+        <v>2.2199148373176847</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4573,10 +4573,10 @@
     </row>
     <row r="222" ht="14.25">
       <c r="A222" s="1">
-        <v>48.713141093794917</v>
+        <v>48.713126572460808</v>
       </c>
       <c r="B222" s="1">
-        <v>2.2199002170240147</v>
+        <v>2.2199177017724265</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4591,10 +4591,10 @@
     </row>
     <row r="223" ht="14.25">
       <c r="A223" s="1">
-        <v>48.713141101927945</v>
+        <v>48.71312883608902</v>
       </c>
       <c r="B223" s="1">
-        <v>2.2199002324135741</v>
+        <v>2.2199140038649827</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4609,10 +4609,10 @@
     </row>
     <row r="224" ht="14.25">
       <c r="A224" s="1">
-        <v>48.713141139640236</v>
+        <v>48.713125785494114</v>
       </c>
       <c r="B224" s="1">
-        <v>2.2199001748896863</v>
+        <v>2.2199180257925604</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4627,10 +4627,10 @@
     </row>
     <row r="225" ht="14.25">
       <c r="A225" s="1">
-        <v>48.713141157562283</v>
+        <v>48.713126868653319</v>
       </c>
       <c r="B225" s="1">
-        <v>2.2199001599823727</v>
+        <v>2.2199213497334744</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4645,10 +4645,10 @@
     </row>
     <row r="226" ht="14.25">
       <c r="A226" s="1">
-        <v>48.713141152046482</v>
+        <v>48.713125570385415</v>
       </c>
       <c r="B226" s="1">
-        <v>2.2199002049866805</v>
+        <v>2.2199153391432787</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4663,10 +4663,10 @@
     </row>
     <row r="227" ht="14.25">
       <c r="A227" s="1">
-        <v>48.713141202695589</v>
+        <v>48.713127646813184</v>
       </c>
       <c r="B227" s="1">
-        <v>2.2199001361196609</v>
+        <v>2.2199109354717006</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4681,10 +4681,10 @@
     </row>
     <row r="228" ht="14.25">
       <c r="A228" s="1">
-        <v>48.713141184910178</v>
+        <v>48.71312608378819</v>
       </c>
       <c r="B228" s="1">
-        <v>2.2199001155860376</v>
+        <v>2.2199186130219761</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4699,10 +4699,10 @@
     </row>
     <row r="229" ht="14.25">
       <c r="A229" s="1">
-        <v>48.713141205754134</v>
+        <v>48.713128050223006</v>
       </c>
       <c r="B229" s="1">
-        <v>2.2199001417526514</v>
+        <v>2.2199131171865862</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4717,10 +4717,10 @@
     </row>
     <row r="230" ht="14.25">
       <c r="A230" s="1">
-        <v>48.713141226787705</v>
+        <v>48.713133697195246</v>
       </c>
       <c r="B230" s="1">
-        <v>2.2199000793458605</v>
+        <v>2.2199127831937444</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4735,10 +4735,10 @@
     </row>
     <row r="231" ht="14.25">
       <c r="A231" s="1">
-        <v>48.713141236294945</v>
+        <v>48.71313363428964</v>
       </c>
       <c r="B231" s="1">
-        <v>2.219900129213491</v>
+        <v>2.2199110976041001</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4753,10 +4753,10 @@
     </row>
     <row r="232" ht="14.25">
       <c r="A232" s="1">
-        <v>48.713141249626439</v>
+        <v>48.713137973909866</v>
       </c>
       <c r="B232" s="1">
-        <v>2.219900086791859</v>
+        <v>2.2199066396919633</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4771,10 +4771,10 @@
     </row>
     <row r="233" ht="14.25">
       <c r="A233" s="1">
-        <v>48.713141292183714</v>
+        <v>48.713136540017217</v>
       </c>
       <c r="B233" s="1">
-        <v>2.2199000770018587</v>
+        <v>2.2199078360480304</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4789,10 +4789,10 @@
     </row>
     <row r="234" ht="14.25">
       <c r="A234" s="1">
-        <v>48.713141269129885</v>
+        <v>48.713136546596083</v>
       </c>
       <c r="B234" s="1">
-        <v>2.21990004763791</v>
+        <v>2.2198962498698354</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4807,10 +4807,10 @@
     </row>
     <row r="235" ht="14.25">
       <c r="A235" s="1">
-        <v>48.713141301700631</v>
+        <v>48.713133441126026</v>
       </c>
       <c r="B235" s="1">
-        <v>2.2199000843805696</v>
+        <v>2.2198978695386087</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4825,10 +4825,10 @@
     </row>
     <row r="236" ht="14.25">
       <c r="A236" s="1">
-        <v>48.713141323811953</v>
+        <v>48.713137065279128</v>
       </c>
       <c r="B236" s="1">
-        <v>2.2199000648363687</v>
+        <v>2.2198928279353121</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4843,10 +4843,10 @@
     </row>
     <row r="237" ht="14.25">
       <c r="A237" s="1">
-        <v>48.713141355997735</v>
+        <v>48.713133409944589</v>
       </c>
       <c r="B237" s="1">
-        <v>2.2199000730367118</v>
+        <v>2.2198924420198756</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4861,10 +4861,10 @@
     </row>
     <row r="238" ht="14.25">
       <c r="A238" s="1">
-        <v>48.713141368828772</v>
+        <v>48.713131668164586</v>
       </c>
       <c r="B238" s="1">
-        <v>2.2199000348876421</v>
+        <v>2.219892887804455</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4879,10 +4879,10 @@
     </row>
     <row r="239" ht="14.25">
       <c r="A239" s="1">
-        <v>48.713141349140642</v>
+        <v>48.713129817520397</v>
       </c>
       <c r="B239" s="1">
-        <v>2.2199000692461195</v>
+        <v>2.2199004533371891</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4897,10 +4897,10 @@
     </row>
     <row r="240" ht="14.25">
       <c r="A240" s="1">
-        <v>48.713141366896245</v>
+        <v>48.713132946291353</v>
       </c>
       <c r="B240" s="1">
-        <v>2.2199000517957761</v>
+        <v>2.2198909957150694</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4915,10 +4915,10 @@
     </row>
     <row r="241" ht="14.25">
       <c r="A241" s="1">
-        <v>48.713141354718388</v>
+        <v>48.71313189396453</v>
       </c>
       <c r="B241" s="1">
-        <v>2.219900034151526</v>
+        <v>2.2198865515780959</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4933,10 +4933,10 @@
     </row>
     <row r="242" ht="14.25">
       <c r="A242" s="1">
-        <v>48.713141375341813</v>
+        <v>48.713135736237611</v>
       </c>
       <c r="B242" s="1">
-        <v>2.2199000482727462</v>
+        <v>2.2198829744300652</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4951,10 +4951,10 @@
     </row>
     <row r="243" ht="14.25">
       <c r="A243" s="1">
-        <v>48.713141417426044</v>
+        <v>48.713129872365286</v>
       </c>
       <c r="B243" s="1">
-        <v>2.2199000572433709</v>
+        <v>2.2198860638305224</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4969,10 +4969,10 @@
     </row>
     <row r="244" ht="14.25">
       <c r="A244" s="1">
-        <v>48.713141370775439</v>
+        <v>48.713133403872433</v>
       </c>
       <c r="B244" s="1">
-        <v>2.2198999975580325</v>
+        <v>2.2198831699759518</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4987,10 +4987,10 @@
     </row>
     <row r="245" ht="14.25">
       <c r="A245" s="1">
-        <v>48.71314140112792</v>
+        <v>48.713131866280015</v>
       </c>
       <c r="B245" s="1">
-        <v>2.2199000005472258</v>
+        <v>2.2198822351135794</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5005,10 +5005,10 @@
     </row>
     <row r="246" ht="14.25">
       <c r="A246" s="1">
-        <v>48.713141440598903</v>
+        <v>48.713129141004806</v>
       </c>
       <c r="B246" s="1">
-        <v>2.2198999644912605</v>
+        <v>2.2198861027987897</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5023,10 +5023,10 @@
     </row>
     <row r="247" ht="14.25">
       <c r="A247" s="1">
-        <v>48.713141471632419</v>
+        <v>48.713132255547073</v>
       </c>
       <c r="B247" s="1">
-        <v>2.2198999426119914</v>
+        <v>2.2198828427352693</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5041,10 +5041,10 @@
     </row>
     <row r="248" ht="14.25">
       <c r="A248" s="1">
-        <v>48.713141472002704</v>
+        <v>48.713133696488754</v>
       </c>
       <c r="B248" s="1">
-        <v>2.2198999050791883</v>
+        <v>2.219878798908379</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5059,10 +5059,10 @@
     </row>
     <row r="249" ht="14.25">
       <c r="A249" s="1">
-        <v>48.713141502728696</v>
+        <v>48.713133319464546</v>
       </c>
       <c r="B249" s="1">
-        <v>2.2198999228553506</v>
+        <v>2.2198879224741863</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5077,10 +5077,10 @@
     </row>
     <row r="250" ht="14.25">
       <c r="A250" s="1">
-        <v>48.713141463903462</v>
+        <v>48.713127536992978</v>
       </c>
       <c r="B250" s="1">
-        <v>2.2198999294156452</v>
+        <v>2.2198773104860754</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5095,10 +5095,10 @@
     </row>
     <row r="251" ht="14.25">
       <c r="A251" s="1">
-        <v>48.713141520540304</v>
+        <v>48.713127406511468</v>
       </c>
       <c r="B251" s="1">
-        <v>2.2198998626418898</v>
+        <v>2.2198844103971567</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5113,10 +5113,10 @@
     </row>
     <row r="252" ht="14.25">
       <c r="A252" s="1">
-        <v>48.713141492182274</v>
+        <v>48.713127237523857</v>
       </c>
       <c r="B252" s="1">
-        <v>2.2198998947225923</v>
+        <v>2.2198854190549775</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5131,10 +5131,10 @@
     </row>
     <row r="253" ht="14.25">
       <c r="A253" s="1">
-        <v>48.713141549956575</v>
+        <v>48.713122557483238</v>
       </c>
       <c r="B253" s="1">
-        <v>2.2198998804178838</v>
+        <v>2.2198840135577642</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5149,10 +5149,10 @@
     </row>
     <row r="254" ht="14.25">
       <c r="A254" s="1">
-        <v>48.713141557210612</v>
+        <v>48.713119258815894</v>
       </c>
       <c r="B254" s="1">
-        <v>2.2198998360070794</v>
+        <v>2.2198894239063613</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5167,10 +5167,10 @@
     </row>
     <row r="255" ht="14.25">
       <c r="A255" s="1">
-        <v>48.713141586281417</v>
+        <v>48.713122146032561</v>
       </c>
       <c r="B255" s="1">
-        <v>2.2198998084797386</v>
+        <v>2.2198790977471377</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5185,10 +5185,10 @@
     </row>
     <row r="256" ht="14.25">
       <c r="A256" s="1">
-        <v>48.71314156765709</v>
+        <v>48.713117874675618</v>
       </c>
       <c r="B256" s="1">
-        <v>2.2198998231746878</v>
+        <v>2.2198859879601489</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5203,10 +5203,10 @@
     </row>
     <row r="257" ht="14.25">
       <c r="A257" s="1">
-        <v>48.713141623021613</v>
+        <v>48.7131140630785</v>
       </c>
       <c r="B257" s="1">
-        <v>2.2198998241923822</v>
+        <v>2.2198923765684206</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5221,10 +5221,10 @@
     </row>
     <row r="258" ht="14.25">
       <c r="A258" s="1">
-        <v>48.713141625580519</v>
+        <v>48.713116127247822</v>
       </c>
       <c r="B258" s="1">
-        <v>2.2198997632998658</v>
+        <v>2.2198990740475293</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5239,10 +5239,10 @@
     </row>
     <row r="259" ht="14.25">
       <c r="A259" s="1">
-        <v>48.71314165051102</v>
+        <v>48.713116105661058</v>
       </c>
       <c r="B259" s="1">
-        <v>2.2198997654774391</v>
+        <v>2.2199032521773709</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5257,10 +5257,10 @@
     </row>
     <row r="260" ht="14.25">
       <c r="A260" s="1">
-        <v>48.713141682652846</v>
+        <v>48.713109054439265</v>
       </c>
       <c r="B260" s="1">
-        <v>2.2198997539205054</v>
+        <v>2.2199044137889747</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5275,10 +5275,10 @@
     </row>
     <row r="261" ht="14.25">
       <c r="A261" s="1">
-        <v>48.713141626621415</v>
+        <v>48.71311550382363</v>
       </c>
       <c r="B261" s="1">
-        <v>2.2198997755204735</v>
+        <v>2.2199046800308437</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5293,10 +5293,10 @@
     </row>
     <row r="262" ht="14.25">
       <c r="A262" s="1">
-        <v>48.713141662669521</v>
+        <v>48.713116829450229</v>
       </c>
       <c r="B262" s="1">
-        <v>2.2198997471837569</v>
+        <v>2.2199011789830201</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5311,10 +5311,10 @@
     </row>
     <row r="263" ht="14.25">
       <c r="A263" s="1">
-        <v>48.713141655999394</v>
+        <v>48.713113034028538</v>
       </c>
       <c r="B263" s="1">
-        <v>2.2198997287904598</v>
+        <v>2.219906253877693</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5329,10 +5329,10 @@
     </row>
     <row r="264" ht="14.25">
       <c r="A264" s="1">
-        <v>48.713141676478187</v>
+        <v>48.713110214019764</v>
       </c>
       <c r="B264" s="1">
-        <v>2.2198997041796056</v>
+        <v>2.2199081371874319</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5347,10 +5347,10 @@
     </row>
     <row r="265" ht="14.25">
       <c r="A265" s="1">
-        <v>48.713141716420445</v>
+        <v>48.713116687771276</v>
       </c>
       <c r="B265" s="1">
-        <v>2.2198997287828202</v>
+        <v>2.2199045260085626</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5365,10 +5365,10 @@
     </row>
     <row r="266" ht="14.25">
       <c r="A266" s="1">
-        <v>48.713141733868824</v>
+        <v>48.713114785143787</v>
       </c>
       <c r="B266" s="1">
-        <v>2.2198996821916679</v>
+        <v>2.219900841515646</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5383,10 +5383,10 @@
     </row>
     <row r="267" ht="14.25">
       <c r="A267" s="1">
-        <v>48.713141733378421</v>
+        <v>48.713126114015374</v>
       </c>
       <c r="B267" s="1">
-        <v>2.2198996881872781</v>
+        <v>2.2198994050941394</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5401,10 +5401,10 @@
     </row>
     <row r="268" ht="14.25">
       <c r="A268" s="1">
-        <v>48.713141797174373</v>
+        <v>48.713122330048542</v>
       </c>
       <c r="B268" s="1">
-        <v>2.2198996385161101</v>
+        <v>2.2198955300872703</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5419,10 +5419,10 @@
     </row>
     <row r="269" ht="14.25">
       <c r="A269" s="1">
-        <v>48.713141806282756</v>
+        <v>48.713121790655059</v>
       </c>
       <c r="B269" s="1">
-        <v>2.2198996976252743</v>
+        <v>2.219897672943604</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5437,10 +5437,10 @@
     </row>
     <row r="270" ht="14.25">
       <c r="A270" s="1">
-        <v>48.71314182434292</v>
+        <v>48.713121051259748</v>
       </c>
       <c r="B270" s="1">
-        <v>2.2198996306334169</v>
+        <v>2.2199071691343311</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5455,10 +5455,10 @@
     </row>
     <row r="271" ht="14.25">
       <c r="A271" s="1">
-        <v>48.713141805867949</v>
+        <v>48.713120169895355</v>
       </c>
       <c r="B271" s="1">
-        <v>2.2198996372428881</v>
+        <v>2.2199160805382143</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5473,10 +5473,10 @@
     </row>
     <row r="272" ht="14.25">
       <c r="A272" s="1">
-        <v>48.71314185983492</v>
+        <v>48.713117779870338</v>
       </c>
       <c r="B272" s="1">
-        <v>2.219899596793375</v>
+        <v>2.2199175553951278</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5491,10 +5491,10 @@
     </row>
     <row r="273" ht="14.25">
       <c r="A273" s="1">
-        <v>48.71314187443182</v>
+        <v>48.713120395282736</v>
       </c>
       <c r="B273" s="1">
-        <v>2.2198996613315161</v>
+        <v>2.2199161266256318</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5509,10 +5509,10 @@
     </row>
     <row r="274" ht="14.25">
       <c r="A274" s="1">
-        <v>48.713141842426623</v>
+        <v>48.713119835727362</v>
       </c>
       <c r="B274" s="1">
-        <v>2.2198995806825566</v>
+        <v>2.2199139361019875</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5527,10 +5527,10 @@
     </row>
     <row r="275" ht="14.25">
       <c r="A275" s="1">
-        <v>48.713141896271388</v>
+        <v>48.71312044208301</v>
       </c>
       <c r="B275" s="1">
-        <v>2.2198995648735806</v>
+        <v>2.2199081410465382</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5545,10 +5545,10 @@
     </row>
     <row r="276" ht="14.25">
       <c r="A276" s="1">
-        <v>48.71314192008456</v>
+        <v>48.713119133182602</v>
       </c>
       <c r="B276" s="1">
-        <v>2.2198995764670535</v>
+        <v>2.2199135194301269</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5563,10 +5563,10 @@
     </row>
     <row r="277" ht="14.25">
       <c r="A277" s="1">
-        <v>48.713141907201582</v>
+        <v>48.713112427697567</v>
       </c>
       <c r="B277" s="1">
-        <v>2.219899584051348</v>
+        <v>2.2199128323887947</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5581,10 +5581,10 @@
     </row>
     <row r="278" ht="14.25">
       <c r="A278" s="1">
-        <v>48.713141940247993</v>
+        <v>48.713112936563071</v>
       </c>
       <c r="B278" s="1">
-        <v>2.2198995136166011</v>
+        <v>2.2199082252688216</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5599,10 +5599,10 @@
     </row>
     <row r="279" ht="14.25">
       <c r="A279" s="1">
-        <v>48.713141905469804</v>
+        <v>48.713115770123608</v>
       </c>
       <c r="B279" s="1">
-        <v>2.2198995190091861</v>
+        <v>2.2199098564026203</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5617,10 +5617,10 @@
     </row>
     <row r="280" ht="14.25">
       <c r="A280" s="1">
-        <v>48.713141952157613</v>
+        <v>48.713123588999856</v>
       </c>
       <c r="B280" s="1">
-        <v>2.2198994913116681</v>
+        <v>2.219905153753285</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5635,10 +5635,10 @@
     </row>
     <row r="281" ht="14.25">
       <c r="A281" s="1">
-        <v>48.713141990794227</v>
+        <v>48.713121560583659</v>
       </c>
       <c r="B281" s="1">
-        <v>2.2198995318261963</v>
+        <v>2.219901622923643</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5653,10 +5653,10 @@
     </row>
     <row r="282" ht="14.25">
       <c r="A282" s="1">
-        <v>48.713142001541783</v>
+        <v>48.713126112575559</v>
       </c>
       <c r="B282" s="1">
-        <v>2.2198994740882574</v>
+        <v>2.2199049635852148</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5671,10 +5671,10 @@
     </row>
     <row r="283" ht="14.25">
       <c r="A283" s="1">
-        <v>48.713141984149111</v>
+        <v>48.713127123496996</v>
       </c>
       <c r="B283" s="1">
-        <v>2.2198994758925883</v>
+        <v>2.2198999861762689</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5689,10 +5689,10 @@
     </row>
     <row r="284" ht="14.25">
       <c r="A284" s="1">
-        <v>48.713142050144945</v>
+        <v>48.713123147592931</v>
       </c>
       <c r="B284" s="1">
-        <v>2.2198995097904035</v>
+        <v>2.2198925128280074</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5707,10 +5707,10 @@
     </row>
     <row r="285" ht="14.25">
       <c r="A285" s="1">
-        <v>48.71314208274169</v>
+        <v>48.713116666889178</v>
       </c>
       <c r="B285" s="1">
-        <v>2.2198994300031738</v>
+        <v>2.2198925964278531</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5725,10 +5725,10 @@
     </row>
     <row r="286" ht="14.25">
       <c r="A286" s="1">
-        <v>48.713142091095861</v>
+        <v>48.713116442144397</v>
       </c>
       <c r="B286" s="1">
-        <v>2.2198994421631655</v>
+        <v>2.2198915198519837</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5743,10 +5743,10 @@
     </row>
     <row r="287" ht="14.25">
       <c r="A287" s="1">
-        <v>48.713142076771973</v>
+        <v>48.713114767379089</v>
       </c>
       <c r="B287" s="1">
-        <v>2.2198994732827857</v>
+        <v>2.2198892854524677</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5761,10 +5761,10 @@
     </row>
     <row r="288" ht="14.25">
       <c r="A288" s="1">
-        <v>48.713142111575706</v>
+        <v>48.713111798147402</v>
       </c>
       <c r="B288" s="1">
-        <v>2.2198994469794546</v>
+        <v>2.2198960214927426</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5779,10 +5779,10 @@
     </row>
     <row r="289" ht="14.25">
       <c r="A289" s="1">
-        <v>48.713142090633561</v>
+        <v>48.713111462343441</v>
       </c>
       <c r="B289" s="1">
-        <v>2.2198993911858311</v>
+        <v>2.2198943112097465</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5797,10 +5797,10 @@
     </row>
     <row r="290" ht="14.25">
       <c r="A290" s="1">
-        <v>48.713142159613803</v>
+        <v>48.713109106632785</v>
       </c>
       <c r="B290" s="1">
-        <v>2.2198993826074607</v>
+        <v>2.2198928884929696</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5815,10 +5815,10 @@
     </row>
     <row r="291" ht="14.25">
       <c r="A291" s="1">
-        <v>48.713142183089865</v>
+        <v>48.71311548956831</v>
       </c>
       <c r="B291" s="1">
-        <v>2.2198993791826487</v>
+        <v>2.2198879333004324</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5833,10 +5833,10 @@
     </row>
     <row r="292" ht="14.25">
       <c r="A292" s="1">
-        <v>48.713142196618627</v>
+        <v>48.713111007467717</v>
       </c>
       <c r="B292" s="1">
-        <v>2.2198993349956222</v>
+        <v>2.2198873813073385</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5851,10 +5851,10 @@
     </row>
     <row r="293" ht="14.25">
       <c r="A293" s="1">
-        <v>48.713142204507299</v>
+        <v>48.713110174094631</v>
       </c>
       <c r="B293" s="1">
-        <v>2.2198993060102379</v>
+        <v>2.2198811581203577</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5869,10 +5869,10 @@
     </row>
     <row r="294" ht="14.25">
       <c r="A294" s="1">
-        <v>48.713142190073505</v>
+        <v>48.713109523925063</v>
       </c>
       <c r="B294" s="1">
-        <v>2.2198993408906142</v>
+        <v>2.2198786094730507</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5887,10 +5887,10 @@
     </row>
     <row r="295" ht="14.25">
       <c r="A295" s="1">
-        <v>48.713142208125426</v>
+        <v>48.713111794945377</v>
       </c>
       <c r="B295" s="1">
-        <v>2.2198993239444582</v>
+        <v>2.2198741302364526</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5905,10 +5905,10 @@
     </row>
     <row r="296" ht="14.25">
       <c r="A296" s="1">
-        <v>48.713142250950796</v>
+        <v>48.713109290880304</v>
       </c>
       <c r="B296" s="1">
-        <v>2.2198992834508586</v>
+        <v>2.2198780035673518</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5923,10 +5923,10 @@
     </row>
     <row r="297" ht="14.25">
       <c r="A297" s="1">
-        <v>48.713142239575618</v>
+        <v>48.713112144335987</v>
       </c>
       <c r="B297" s="1">
-        <v>2.2198992796040486</v>
+        <v>2.2198755326859696</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5941,10 +5941,10 @@
     </row>
     <row r="298" ht="14.25">
       <c r="A298" s="1">
-        <v>48.71314228124978</v>
+        <v>48.713108897573804</v>
       </c>
       <c r="B298" s="1">
-        <v>2.2198992521649439</v>
+        <v>2.2198754013507553</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5959,10 +5959,10 @@
     </row>
     <row r="299" ht="14.25">
       <c r="A299" s="1">
-        <v>48.713142279437278</v>
+        <v>48.713109071262231</v>
       </c>
       <c r="B299" s="1">
-        <v>2.2198992468634491</v>
+        <v>2.2198761365347091</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5977,10 +5977,10 @@
     </row>
     <row r="300" ht="14.25">
       <c r="A300" s="1">
-        <v>48.713142297520285</v>
+        <v>48.713112189133355</v>
       </c>
       <c r="B300" s="1">
-        <v>2.2198992144242147</v>
+        <v>2.2198793943887778</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5995,10 +5995,10 @@
     </row>
     <row r="301" ht="14.25">
       <c r="A301" s="1">
-        <v>48.713142330561453</v>
+        <v>48.71311510128929</v>
       </c>
       <c r="B301" s="1">
-        <v>2.2198992117024416</v>
+        <v>2.2198735918453827</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -6013,10 +6013,10 @@
     </row>
     <row r="302" ht="14.25">
       <c r="A302" s="1">
-        <v>48.713142310306068</v>
+        <v>48.713119447623797</v>
       </c>
       <c r="B302" s="1">
-        <v>2.2198992311270511</v>
+        <v>2.21986150513216</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -6031,10 +6031,10 @@
     </row>
     <row r="303" ht="14.25">
       <c r="A303" s="1">
-        <v>48.713142326705544</v>
+        <v>48.71311849210219</v>
       </c>
       <c r="B303" s="1">
-        <v>2.2198991929583487</v>
+        <v>2.2198636380039938</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -6049,10 +6049,10 @@
     </row>
     <row r="304" ht="14.25">
       <c r="A304" s="1">
-        <v>48.713142337053313</v>
+        <v>48.713119275508248</v>
       </c>
       <c r="B304" s="1">
-        <v>2.2198991780437534</v>
+        <v>2.2198708845787873</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -6067,10 +6067,10 @@
     </row>
     <row r="305" ht="14.25">
       <c r="A305" s="1">
-        <v>48.713142391080417</v>
+        <v>48.713119378466068</v>
       </c>
       <c r="B305" s="1">
-        <v>2.2198991556481582</v>
+        <v>2.2198714729972404</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -6085,10 +6085,10 @@
     </row>
     <row r="306" ht="14.25">
       <c r="A306" s="1">
-        <v>48.713142386089423</v>
+        <v>48.713122149146706</v>
       </c>
       <c r="B306" s="1">
-        <v>2.2198991632312888</v>
+        <v>2.2198801055814013</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -6103,10 +6103,10 @@
     </row>
     <row r="307" ht="14.25">
       <c r="A307" s="1">
-        <v>48.713142380034633</v>
+        <v>48.713125488885481</v>
       </c>
       <c r="B307" s="1">
-        <v>2.2198991467785052</v>
+        <v>2.2198717830989771</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -6121,10 +6121,10 @@
     </row>
     <row r="308" ht="14.25">
       <c r="A308" s="1">
-        <v>48.713142425493473</v>
+        <v>48.713120022772465</v>
       </c>
       <c r="B308" s="1">
-        <v>2.2198990973751402</v>
+        <v>2.2198770863716422</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -6139,10 +6139,10 @@
     </row>
     <row r="309" ht="14.25">
       <c r="A309" s="1">
-        <v>48.713142414094122</v>
+        <v>48.713121145629223</v>
       </c>
       <c r="B309" s="1">
-        <v>2.2198991420717289</v>
+        <v>2.219880539890525</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -6157,10 +6157,10 @@
     </row>
     <row r="310" ht="14.25">
       <c r="A310" s="1">
-        <v>48.713142442685815</v>
+        <v>48.713125526205609</v>
       </c>
       <c r="B310" s="1">
-        <v>2.2198990644321528</v>
+        <v>2.2198823415789661</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -6175,10 +6175,10 @@
     </row>
     <row r="311" ht="14.25">
       <c r="A311" s="1">
-        <v>48.71314246736172</v>
+        <v>48.71313288585587</v>
       </c>
       <c r="B311" s="1">
-        <v>2.2198990603843596</v>
+        <v>2.2198878761563998</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -6193,10 +6193,10 @@
     </row>
     <row r="312" ht="14.25">
       <c r="A312" s="1">
-        <v>48.713142492884757</v>
+        <v>48.713137634238173</v>
       </c>
       <c r="B312" s="1">
-        <v>2.2198991134053334</v>
+        <v>2.2198859250145544</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -6211,10 +6211,10 @@
     </row>
     <row r="313" ht="14.25">
       <c r="A313" s="1">
-        <v>48.713142511988828</v>
+        <v>48.713132052984896</v>
       </c>
       <c r="B313" s="1">
-        <v>2.2198990790310305</v>
+        <v>2.2198826085620404</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -6229,10 +6229,10 @@
     </row>
     <row r="314" ht="14.25">
       <c r="A314" s="1">
-        <v>48.713142538278404</v>
+        <v>48.713144460071874</v>
       </c>
       <c r="B314" s="1">
-        <v>2.2198990311798381</v>
+        <v>2.2198848977272663</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -6247,10 +6247,10 @@
     </row>
     <row r="315" ht="14.25">
       <c r="A315" s="1">
-        <v>48.71314256067393</v>
+        <v>48.713148403357522</v>
       </c>
       <c r="B315" s="1">
-        <v>2.2198990345304761</v>
+        <v>2.2198866699423996</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -6265,10 +6265,10 @@
     </row>
     <row r="316" ht="14.25">
       <c r="A316" s="1">
-        <v>48.713142529347088</v>
+        <v>48.713147371545887</v>
       </c>
       <c r="B316" s="1">
-        <v>2.2198990317191276</v>
+        <v>2.2198859433061786</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -6283,10 +6283,10 @@
     </row>
     <row r="317" ht="14.25">
       <c r="A317" s="1">
-        <v>48.713142584217842</v>
+        <v>48.713138554402839</v>
       </c>
       <c r="B317" s="1">
-        <v>2.2198990180986491</v>
+        <v>2.2198825986805426</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -6301,10 +6301,10 @@
     </row>
     <row r="318" ht="14.25">
       <c r="A318" s="1">
-        <v>48.713142561523817</v>
+        <v>48.71313753129219</v>
       </c>
       <c r="B318" s="1">
-        <v>2.2198989791585393</v>
+        <v>2.2198806204282611</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -6319,10 +6319,10 @@
     </row>
     <row r="319" ht="14.25">
       <c r="A319" s="1">
-        <v>48.713142550235531</v>
+        <v>48.713138886204447</v>
       </c>
       <c r="B319" s="1">
-        <v>2.2198989204103672</v>
+        <v>2.2198814926809112</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -6337,10 +6337,10 @@
     </row>
     <row r="320" ht="14.25">
       <c r="A320" s="1">
-        <v>48.713142617610629</v>
+        <v>48.71313588490996</v>
       </c>
       <c r="B320" s="1">
-        <v>2.219898969885592</v>
+        <v>2.2198825103348208</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -6355,10 +6355,10 @@
     </row>
     <row r="321" ht="14.25">
       <c r="A321" s="1">
-        <v>48.713142605300327</v>
+        <v>48.713135512863282</v>
       </c>
       <c r="B321" s="1">
-        <v>2.2198989659691333</v>
+        <v>2.2198792838077797</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6373,10 +6373,10 @@
     </row>
     <row r="322" ht="14.25">
       <c r="A322" s="1">
-        <v>48.713142631075009</v>
+        <v>48.713136949711618</v>
       </c>
       <c r="B322" s="1">
-        <v>2.2198989397921989</v>
+        <v>2.2198812972343993</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -6391,10 +6391,10 @@
     </row>
     <row r="323" ht="14.25">
       <c r="A323" s="1">
-        <v>48.713142647699485</v>
+        <v>48.713132639249054</v>
       </c>
       <c r="B323" s="1">
-        <v>2.2198988833171689</v>
+        <v>2.2198813528720911</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6409,10 +6409,10 @@
     </row>
     <row r="324" ht="14.25">
       <c r="A324" s="1">
-        <v>48.713142672675183</v>
+        <v>48.713135026334498</v>
       </c>
       <c r="B324" s="1">
-        <v>2.2198988881784323</v>
+        <v>2.219890778605595</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6427,10 +6427,10 @@
     </row>
     <row r="325" ht="14.25">
       <c r="A325" s="1">
-        <v>48.71314267891394</v>
+        <v>48.713131739555472</v>
       </c>
       <c r="B325" s="1">
-        <v>2.2198988823183443</v>
+        <v>2.219888500239473</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6445,10 +6445,10 @@
     </row>
     <row r="326" ht="14.25">
       <c r="A326" s="1">
-        <v>48.713142702811197</v>
+        <v>48.713133436902737</v>
       </c>
       <c r="B326" s="1">
-        <v>2.219898881939697</v>
+        <v>2.2198912840574909</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6463,10 +6463,10 @@
     </row>
     <row r="327" ht="14.25">
       <c r="A327" s="1">
-        <v>48.713142717206743</v>
+        <v>48.713135878359822</v>
       </c>
       <c r="B327" s="1">
-        <v>2.2198989008016277</v>
+        <v>2.2198907425386665</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6481,10 +6481,10 @@
     </row>
     <row r="328" ht="14.25">
       <c r="A328" s="1">
-        <v>48.713142757453774</v>
+        <v>48.713137188860237</v>
       </c>
       <c r="B328" s="1">
-        <v>2.2198988049679058</v>
+        <v>2.2198870118901501</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6499,10 +6499,10 @@
     </row>
     <row r="329" ht="14.25">
       <c r="A329" s="1">
-        <v>48.713142766336716</v>
+        <v>48.713131925645079</v>
       </c>
       <c r="B329" s="1">
-        <v>2.219898840134396</v>
+        <v>2.2198914093463511</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6517,10 +6517,10 @@
     </row>
     <row r="330" ht="14.25">
       <c r="A330" s="1">
-        <v>48.713142747193999</v>
+        <v>48.713132782104637</v>
       </c>
       <c r="B330" s="1">
-        <v>2.219898854080701</v>
+        <v>2.2198963972816887</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6535,10 +6535,10 @@
     </row>
     <row r="331" ht="14.25">
       <c r="A331" s="1">
-        <v>48.713142777920588</v>
+        <v>48.713129905337482</v>
       </c>
       <c r="B331" s="1">
-        <v>2.2198987895628379</v>
+        <v>2.2198947039424222</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6553,10 +6553,10 @@
     </row>
     <row r="332" ht="14.25">
       <c r="A332" s="1">
-        <v>48.713142810102546</v>
+        <v>48.713130394666763</v>
       </c>
       <c r="B332" s="1">
-        <v>2.2198987907715866</v>
+        <v>2.2198881769968954</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6571,10 +6571,10 @@
     </row>
     <row r="333" ht="14.25">
       <c r="A333" s="1">
-        <v>48.713142769480406</v>
+        <v>48.713130806483889</v>
       </c>
       <c r="B333" s="1">
-        <v>2.2198988058209692</v>
+        <v>2.2198972847565539</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6589,10 +6589,10 @@
     </row>
     <row r="334" ht="14.25">
       <c r="A334" s="1">
-        <v>48.713142825055641</v>
+        <v>48.713120470888605</v>
       </c>
       <c r="B334" s="1">
-        <v>2.2198987416705234</v>
+        <v>2.2198975687590683</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6607,10 +6607,10 @@
     </row>
     <row r="335" ht="14.25">
       <c r="A335" s="1">
-        <v>48.713142878614072</v>
+        <v>48.713125422081141</v>
       </c>
       <c r="B335" s="1">
-        <v>2.2198987567258497</v>
+        <v>2.2198985315736879</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6625,10 +6625,10 @@
     </row>
     <row r="336" ht="14.25">
       <c r="A336" s="1">
-        <v>48.713142822561736</v>
+        <v>48.71312490526546</v>
       </c>
       <c r="B336" s="1">
-        <v>2.2198987419740268</v>
+        <v>2.2199007585500761</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6643,10 +6643,10 @@
     </row>
     <row r="337" ht="14.25">
       <c r="A337" s="1">
-        <v>48.713142851429005</v>
+        <v>48.713126711012478</v>
       </c>
       <c r="B337" s="1">
-        <v>2.2198987694088883</v>
+        <v>2.2199067699994015</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6661,10 +6661,10 @@
     </row>
     <row r="338" ht="14.25">
       <c r="A338" s="1">
-        <v>48.713142888678696</v>
+        <v>48.713124088622806</v>
       </c>
       <c r="B338" s="1">
-        <v>2.2198987193042599</v>
+        <v>2.2198979790256259</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6679,10 +6679,10 @@
     </row>
     <row r="339" ht="14.25">
       <c r="A339" s="1">
-        <v>48.713142887044917</v>
+        <v>48.713126081804376</v>
       </c>
       <c r="B339" s="1">
-        <v>2.2198987243780404</v>
+        <v>2.2199108171434072</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6697,10 +6697,10 @@
     </row>
     <row r="340" ht="14.25">
       <c r="A340" s="1">
-        <v>48.713142926423366</v>
+        <v>48.713128489295151</v>
       </c>
       <c r="B340" s="1">
-        <v>2.2198986839353196</v>
+        <v>2.2199158144468325</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6715,10 +6715,10 @@
     </row>
     <row r="341" ht="14.25">
       <c r="A341" s="1">
-        <v>48.713142962263504</v>
+        <v>48.7131260673508</v>
       </c>
       <c r="B341" s="1">
-        <v>2.2198986844899777</v>
+        <v>2.2199131188764807</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6733,10 +6733,10 @@
     </row>
     <row r="342" ht="14.25">
       <c r="A342" s="1">
-        <v>48.713142968268677</v>
+        <v>48.713126996562657</v>
       </c>
       <c r="B342" s="1">
-        <v>2.2198986382045938</v>
+        <v>2.2199063848368379</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6751,10 +6751,10 @@
     </row>
     <row r="343" ht="14.25">
       <c r="A343" s="1">
-        <v>48.713142950178842</v>
+        <v>48.713118626985775</v>
       </c>
       <c r="B343" s="1">
-        <v>2.2198986446750868</v>
+        <v>2.2199050882599769</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6769,10 +6769,10 @@
     </row>
     <row r="344" ht="14.25">
       <c r="A344" s="1">
-        <v>48.713142983457544</v>
+        <v>48.713121443003125</v>
       </c>
       <c r="B344" s="1">
-        <v>2.2198986637146723</v>
+        <v>2.2199029105548989</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6787,10 +6787,10 @@
     </row>
     <row r="345" ht="14.25">
       <c r="A345" s="1">
-        <v>48.71314298227702</v>
+        <v>48.713123335891382</v>
       </c>
       <c r="B345" s="1">
-        <v>2.2198986111252692</v>
+        <v>2.2199054203238013</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6805,10 +6805,10 @@
     </row>
     <row r="346" ht="14.25">
       <c r="A346" s="1">
-        <v>48.713143000199736</v>
+        <v>48.713117716056814</v>
       </c>
       <c r="B346" s="1">
-        <v>2.2198986234321132</v>
+        <v>2.219901988781956</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6823,10 +6823,10 @@
     </row>
     <row r="347" ht="14.25">
       <c r="A347" s="1">
-        <v>48.713142991180611</v>
+        <v>48.713115068195755</v>
       </c>
       <c r="B347" s="1">
-        <v>2.2198985694793758</v>
+        <v>2.2198991661782439</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6841,10 +6841,10 @@
     </row>
     <row r="348" ht="14.25">
       <c r="A348" s="1">
-        <v>48.713143008410192</v>
+        <v>48.713113956652215</v>
       </c>
       <c r="B348" s="1">
-        <v>2.2198985766071742</v>
+        <v>2.219905010408326</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6859,10 +6859,10 @@
     </row>
     <row r="349" ht="14.25">
       <c r="A349" s="1">
-        <v>48.713143066888868</v>
+        <v>48.713119973625531</v>
       </c>
       <c r="B349" s="1">
-        <v>2.2198985754819547</v>
+        <v>2.2199048153997198</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6877,10 +6877,10 @@
     </row>
     <row r="350" ht="14.25">
       <c r="A350" s="1">
-        <v>48.713143055725801</v>
+        <v>48.713120640182005</v>
       </c>
       <c r="B350" s="1">
-        <v>2.219898550176294</v>
+        <v>2.2199036048318774</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6895,10 +6895,10 @@
     </row>
     <row r="351" ht="14.25">
       <c r="A351" s="1">
-        <v>48.713143090605065</v>
+        <v>48.713119629504355</v>
       </c>
       <c r="B351" s="1">
-        <v>2.2198985652572385</v>
+        <v>2.2199120479242898</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6913,10 +6913,10 @@
     </row>
     <row r="352" ht="14.25">
       <c r="A352" s="1">
-        <v>48.713143093779763</v>
+        <v>48.713115827928263</v>
       </c>
       <c r="B352" s="1">
-        <v>2.219898524479647</v>
+        <v>2.2199119494873534</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6931,10 +6931,10 @@
     </row>
     <row r="353" ht="14.25">
       <c r="A353" s="1">
-        <v>48.713143115796321</v>
+        <v>48.713117244523339</v>
       </c>
       <c r="B353" s="1">
-        <v>2.2198985350602629</v>
+        <v>2.2199045870619374</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6949,10 +6949,10 @@
     </row>
     <row r="354" ht="14.25">
       <c r="A354" s="1">
-        <v>48.713143164721572</v>
+        <v>48.713113975917551</v>
       </c>
       <c r="B354" s="1">
-        <v>2.2198985014261057</v>
+        <v>2.2199021122730782</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6967,10 +6967,10 @@
     </row>
     <row r="355" ht="14.25">
       <c r="A355" s="1">
-        <v>48.713143170666022</v>
+        <v>48.713114991244353</v>
       </c>
       <c r="B355" s="1">
-        <v>2.2198985401082405</v>
+        <v>2.2198987983732628</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6985,10 +6985,10 @@
     </row>
     <row r="356" ht="14.25">
       <c r="A356" s="1">
-        <v>48.713143137093709</v>
+        <v>48.713116521112127</v>
       </c>
       <c r="B356" s="1">
-        <v>2.2198985552292716</v>
+        <v>2.2199013318917982</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -7003,10 +7003,10 @@
     </row>
     <row r="357" ht="14.25">
       <c r="A357" s="1">
-        <v>48.71314315839286</v>
+        <v>48.713113319434378</v>
       </c>
       <c r="B357" s="1">
-        <v>2.2198985371117566</v>
+        <v>2.2199036592604968</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -7021,10 +7021,10 @@
     </row>
     <row r="358" ht="14.25">
       <c r="A358" s="1">
-        <v>48.713143187109011</v>
+        <v>48.713119823947707</v>
       </c>
       <c r="B358" s="1">
-        <v>2.2198984867435119</v>
+        <v>2.2199046045378616</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -7039,10 +7039,10 @@
     </row>
     <row r="359" ht="14.25">
       <c r="A359" s="1">
-        <v>48.713143184254172</v>
+        <v>48.713115729414177</v>
       </c>
       <c r="B359" s="1">
-        <v>2.2198984258050038</v>
+        <v>2.21990863357646</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -7057,10 +7057,10 @@
     </row>
     <row r="360" ht="14.25">
       <c r="A360" s="1">
-        <v>48.713143189260485</v>
+        <v>48.71311346341394</v>
       </c>
       <c r="B360" s="1">
-        <v>2.2198984594744751</v>
+        <v>2.2199049551798833</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -7075,10 +7075,10 @@
     </row>
     <row r="361" ht="14.25">
       <c r="A361" s="1">
-        <v>48.713143214137013</v>
+        <v>48.713119158326933</v>
       </c>
       <c r="B361" s="1">
-        <v>2.2198984074299437</v>
+        <v>2.2199005818122521</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -7093,10 +7093,10 @@
     </row>
     <row r="362" ht="14.25">
       <c r="A362" s="1">
-        <v>48.713143218748606</v>
+        <v>48.713116899539479</v>
       </c>
       <c r="B362" s="1">
-        <v>2.2198983743792486</v>
+        <v>2.2199024981432558</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -7111,10 +7111,10 @@
     </row>
     <row r="363" ht="14.25">
       <c r="A363" s="1">
-        <v>48.713143220021962</v>
+        <v>48.713121342860589</v>
       </c>
       <c r="B363" s="1">
-        <v>2.2198983871334956</v>
+        <v>2.2199011415013739</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -7129,10 +7129,10 @@
     </row>
     <row r="364" ht="14.25">
       <c r="A364" s="1">
-        <v>48.713143321205393</v>
+        <v>48.713118477937577</v>
       </c>
       <c r="B364" s="1">
-        <v>2.2198983970686443</v>
+        <v>2.2198997125091373</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -7147,10 +7147,10 @@
     </row>
     <row r="365" ht="14.25">
       <c r="A365" s="1">
-        <v>48.713143256880379</v>
+        <v>48.713116399291316</v>
       </c>
       <c r="B365" s="1">
-        <v>2.2198983934094203</v>
+        <v>2.2199057835362517</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -7165,10 +7165,10 @@
     </row>
     <row r="366" ht="14.25">
       <c r="A366" s="1">
-        <v>48.713143298404241</v>
+        <v>48.713117506461437</v>
       </c>
       <c r="B366" s="1">
-        <v>2.2198983801505006</v>
+        <v>2.2199015352550071</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -7183,10 +7183,10 @@
     </row>
     <row r="367" ht="14.25">
       <c r="A367" s="1">
-        <v>48.713143250961508</v>
+        <v>48.713121312756499</v>
       </c>
       <c r="B367" s="1">
-        <v>2.2198983728190647</v>
+        <v>2.2199116695343042</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -7201,10 +7201,10 @@
     </row>
     <row r="368" ht="14.25">
       <c r="A368" s="1">
-        <v>48.713143351261699</v>
+        <v>48.713125533107046</v>
       </c>
       <c r="B368" s="1">
-        <v>2.2198983765023703</v>
+        <v>2.2199072157591178</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -7219,10 +7219,10 @@
     </row>
     <row r="369" ht="14.25">
       <c r="A369" s="1">
-        <v>48.713143383579592</v>
+        <v>48.713119837022482</v>
       </c>
       <c r="B369" s="1">
-        <v>2.2198983732305386</v>
+        <v>2.2199113203432974</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -7237,10 +7237,10 @@
     </row>
     <row r="370" ht="14.25">
       <c r="A370" s="1">
-        <v>48.713143365445596</v>
+        <v>48.713122292264231</v>
       </c>
       <c r="B370" s="1">
-        <v>2.2198983441032119</v>
+        <v>2.2199147250751969</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -7255,10 +7255,10 @@
     </row>
     <row r="371" ht="14.25">
       <c r="A371" s="1">
-        <v>48.713143393591551</v>
+        <v>48.713123647766317</v>
       </c>
       <c r="B371" s="1">
-        <v>2.2198983129821448</v>
+        <v>2.2199150699064347</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -7273,10 +7273,10 @@
     </row>
     <row r="372" ht="14.25">
       <c r="A372" s="1">
-        <v>48.71314339658926</v>
+        <v>48.713122287738898</v>
       </c>
       <c r="B372" s="1">
-        <v>2.2198982898533508</v>
+        <v>2.2199218263509932</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -7291,10 +7291,10 @@
     </row>
     <row r="373" ht="14.25">
       <c r="A373" s="1">
-        <v>48.713143375687359</v>
+        <v>48.713122793292683</v>
       </c>
       <c r="B373" s="1">
-        <v>2.2198982882484857</v>
+        <v>2.2199174028745676</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -7309,10 +7309,10 @@
     </row>
     <row r="374" ht="14.25">
       <c r="A374" s="1">
-        <v>48.713143434408394</v>
+        <v>48.713119775594826</v>
       </c>
       <c r="B374" s="1">
-        <v>2.2198982623929</v>
+        <v>2.2199207567293588</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -7327,10 +7327,10 @@
     </row>
     <row r="375" ht="14.25">
       <c r="A375" s="1">
-        <v>48.713143457186554</v>
+        <v>48.713121058242137</v>
       </c>
       <c r="B375" s="1">
-        <v>2.2198982200293726</v>
+        <v>2.2199153873733675</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -7345,10 +7345,10 @@
     </row>
     <row r="376" ht="14.25">
       <c r="A376" s="1">
-        <v>48.713143468729029</v>
+        <v>48.713128099357064</v>
       </c>
       <c r="B376" s="1">
-        <v>2.2198982116371675</v>
+        <v>2.2199155330933809</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -7363,10 +7363,10 @@
     </row>
     <row r="377" ht="14.25">
       <c r="A377" s="1">
-        <v>48.71314349915275</v>
+        <v>48.713125228024637</v>
       </c>
       <c r="B377" s="1">
-        <v>2.2198982248791927</v>
+        <v>2.2199133458396623</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -7381,10 +7381,10 @@
     </row>
     <row r="378" ht="14.25">
       <c r="A378" s="1">
-        <v>48.713143521137106</v>
+        <v>48.71313047197237</v>
       </c>
       <c r="B378" s="1">
-        <v>2.2198981872162249</v>
+        <v>2.2199089523227444</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -7399,10 +7399,10 @@
     </row>
     <row r="379" ht="14.25">
       <c r="A379" s="1">
-        <v>48.713143548827375</v>
+        <v>48.713131711039743</v>
       </c>
       <c r="B379" s="1">
-        <v>2.2198981454654332</v>
+        <v>2.2199107047004367</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -7417,10 +7417,10 @@
     </row>
     <row r="380" ht="14.25">
       <c r="A380" s="1">
-        <v>48.713143557574526</v>
+        <v>48.713127956189766</v>
       </c>
       <c r="B380" s="1">
-        <v>2.2198981939677167</v>
+        <v>2.2199102819821399</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -7435,10 +7435,10 @@
     </row>
     <row r="381" ht="14.25">
       <c r="A381" s="1">
-        <v>48.713143560869376</v>
+        <v>48.713123920199806</v>
       </c>
       <c r="B381" s="1">
-        <v>2.2198981598394609</v>
+        <v>2.2199103728613272</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -7453,10 +7453,10 @@
     </row>
     <row r="382" ht="14.25">
       <c r="A382" s="1">
-        <v>48.713143617032102</v>
+        <v>48.713124646387101</v>
       </c>
       <c r="B382" s="1">
-        <v>2.2198981027500175</v>
+        <v>2.2199047914671595</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -7471,10 +7471,10 @@
     </row>
     <row r="383" ht="14.25">
       <c r="A383" s="1">
-        <v>48.71314360588039</v>
+        <v>48.713124428231581</v>
       </c>
       <c r="B383" s="1">
-        <v>2.2198980744112218</v>
+        <v>2.2199010094940523</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -7489,10 +7489,10 @@
     </row>
     <row r="384" ht="14.25">
       <c r="A384" s="1">
-        <v>48.713143622684314</v>
+        <v>48.713126551589198</v>
       </c>
       <c r="B384" s="1">
-        <v>2.2198981110917817</v>
+        <v>2.2199000901837898</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -7507,10 +7507,10 @@
     </row>
     <row r="385" ht="14.25">
       <c r="A385" s="1">
-        <v>48.713143649280028</v>
+        <v>48.713126537882317</v>
       </c>
       <c r="B385" s="1">
-        <v>2.2198980796764567</v>
+        <v>2.2199018387784331</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -7525,10 +7525,10 @@
     </row>
     <row r="386" ht="14.25">
       <c r="A386" s="1">
-        <v>48.713143629242175</v>
+        <v>48.713124830560204</v>
       </c>
       <c r="B386" s="1">
-        <v>2.2198980570597286</v>
+        <v>2.2198997603536266</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
